--- a/pools-example-large.xlsx
+++ b/pools-example-large.xlsx
@@ -227,27 +227,27 @@
     <t>Z. ADAMS</t>
   </si>
   <si>
+    <t>Aaron Thompson</t>
+  </si>
+  <si>
+    <t>A. THOMPSON</t>
+  </si>
+  <si>
     <t>Benjamin Evans</t>
   </si>
   <si>
     <t>B. EVANS</t>
   </si>
   <si>
+    <t>Pool G</t>
+  </si>
+  <si>
     <t>Caleb Wilson</t>
   </si>
   <si>
     <t>C. WILSON</t>
   </si>
   <si>
-    <t>Pool G</t>
-  </si>
-  <si>
-    <t>Aaron Thompson</t>
-  </si>
-  <si>
-    <t>A. THOMPSON</t>
-  </si>
-  <si>
     <t>Dylan Moore</t>
   </si>
   <si>
@@ -803,181 +803,181 @@
     <t>Pool A.1</t>
   </si>
   <si>
+    <t>Pool C.1</t>
+  </si>
+  <si>
+    <t>Pool B.2</t>
+  </si>
+  <si>
+    <t>Pool E.1</t>
+  </si>
+  <si>
+    <t>Pool D.2</t>
+  </si>
+  <si>
+    <t>Pool G.1</t>
+  </si>
+  <si>
+    <t>Pool F.2</t>
+  </si>
+  <si>
+    <t>Pool I.1</t>
+  </si>
+  <si>
+    <t>Pool H.2</t>
+  </si>
+  <si>
+    <t>Pool K.1</t>
+  </si>
+  <si>
+    <t>Pool J.2</t>
+  </si>
+  <si>
+    <t>Pool M.1</t>
+  </si>
+  <si>
+    <t>Pool L.2</t>
+  </si>
+  <si>
+    <t>Pool O.1</t>
+  </si>
+  <si>
+    <t>Pool N.2</t>
+  </si>
+  <si>
+    <t>Pool Q.1</t>
+  </si>
+  <si>
+    <t>Pool P.2</t>
+  </si>
+  <si>
+    <t>Pool R.2</t>
+  </si>
+  <si>
+    <t>Pool S.1</t>
+  </si>
+  <si>
+    <t>Pool T.2</t>
+  </si>
+  <si>
+    <t>Pool U.1</t>
+  </si>
+  <si>
+    <t>Pool V.2</t>
+  </si>
+  <si>
+    <t>Pool W.1</t>
+  </si>
+  <si>
+    <t>Pool X.2</t>
+  </si>
+  <si>
+    <t>Pool Y.1</t>
+  </si>
+  <si>
+    <t>Pool Z.2</t>
+  </si>
+  <si>
+    <t>Pool AA.1</t>
+  </si>
+  <si>
+    <t>Pool BB.2</t>
+  </si>
+  <si>
+    <t>Pool CC.1</t>
+  </si>
+  <si>
     <t>Pool DD.2</t>
   </si>
   <si>
+    <t>Pool B.1</t>
+  </si>
+  <si>
     <t>Pool A.2</t>
   </si>
   <si>
+    <t>Pool C.2</t>
+  </si>
+  <si>
+    <t>Pool D.1</t>
+  </si>
+  <si>
+    <t>Pool E.2</t>
+  </si>
+  <si>
+    <t>Pool F.1</t>
+  </si>
+  <si>
+    <t>Pool G.2</t>
+  </si>
+  <si>
+    <t>Pool H.1</t>
+  </si>
+  <si>
+    <t>Pool I.2</t>
+  </si>
+  <si>
+    <t>Pool J.1</t>
+  </si>
+  <si>
+    <t>Pool K.2</t>
+  </si>
+  <si>
+    <t>Pool L.1</t>
+  </si>
+  <si>
+    <t>Pool M.2</t>
+  </si>
+  <si>
+    <t>Pool N.1</t>
+  </si>
+  <si>
+    <t>Pool O.2</t>
+  </si>
+  <si>
+    <t>Pool P.1</t>
+  </si>
+  <si>
+    <t>Pool R.1</t>
+  </si>
+  <si>
+    <t>Pool Q.2</t>
+  </si>
+  <si>
+    <t>Pool T.1</t>
+  </si>
+  <si>
+    <t>Pool S.2</t>
+  </si>
+  <si>
+    <t>Pool V.1</t>
+  </si>
+  <si>
+    <t>Pool U.2</t>
+  </si>
+  <si>
+    <t>Pool X.1</t>
+  </si>
+  <si>
+    <t>Pool W.2</t>
+  </si>
+  <si>
+    <t>Pool Z.1</t>
+  </si>
+  <si>
+    <t>Pool Y.2</t>
+  </si>
+  <si>
+    <t>Pool BB.1</t>
+  </si>
+  <si>
+    <t>Pool AA.2</t>
+  </si>
+  <si>
     <t>Pool DD.1</t>
   </si>
   <si>
-    <t>Pool B.1</t>
-  </si>
-  <si>
     <t>Pool CC.2</t>
-  </si>
-  <si>
-    <t>Pool B.2</t>
-  </si>
-  <si>
-    <t>Pool CC.1</t>
-  </si>
-  <si>
-    <t>Pool C.1</t>
-  </si>
-  <si>
-    <t>Pool BB.2</t>
-  </si>
-  <si>
-    <t>Pool C.2</t>
-  </si>
-  <si>
-    <t>Pool BB.1</t>
-  </si>
-  <si>
-    <t>Pool D.1</t>
-  </si>
-  <si>
-    <t>Pool AA.2</t>
-  </si>
-  <si>
-    <t>Pool D.2</t>
-  </si>
-  <si>
-    <t>Pool AA.1</t>
-  </si>
-  <si>
-    <t>Pool E.1</t>
-  </si>
-  <si>
-    <t>Pool Z.2</t>
-  </si>
-  <si>
-    <t>Pool Z.1</t>
-  </si>
-  <si>
-    <t>Pool E.2</t>
-  </si>
-  <si>
-    <t>Pool F.1</t>
-  </si>
-  <si>
-    <t>Pool Y.2</t>
-  </si>
-  <si>
-    <t>Pool Y.1</t>
-  </si>
-  <si>
-    <t>Pool F.2</t>
-  </si>
-  <si>
-    <t>Pool G.1</t>
-  </si>
-  <si>
-    <t>Pool X.2</t>
-  </si>
-  <si>
-    <t>Pool X.1</t>
-  </si>
-  <si>
-    <t>Pool G.2</t>
-  </si>
-  <si>
-    <t>Pool H.1</t>
-  </si>
-  <si>
-    <t>Pool W.2</t>
-  </si>
-  <si>
-    <t>Pool W.1</t>
-  </si>
-  <si>
-    <t>Pool I.1</t>
-  </si>
-  <si>
-    <t>Pool H.2</t>
-  </si>
-  <si>
-    <t>Pool V.2</t>
-  </si>
-  <si>
-    <t>Pool I.2</t>
-  </si>
-  <si>
-    <t>Pool V.1</t>
-  </si>
-  <si>
-    <t>Pool J.1</t>
-  </si>
-  <si>
-    <t>Pool U.2</t>
-  </si>
-  <si>
-    <t>Pool J.2</t>
-  </si>
-  <si>
-    <t>Pool U.1</t>
-  </si>
-  <si>
-    <t>Pool K.1</t>
-  </si>
-  <si>
-    <t>Pool T.2</t>
-  </si>
-  <si>
-    <t>Pool K.2</t>
-  </si>
-  <si>
-    <t>Pool T.1</t>
-  </si>
-  <si>
-    <t>Pool L.1</t>
-  </si>
-  <si>
-    <t>Pool S.2</t>
-  </si>
-  <si>
-    <t>Pool S.1</t>
-  </si>
-  <si>
-    <t>Pool L.2</t>
-  </si>
-  <si>
-    <t>Pool M.1</t>
-  </si>
-  <si>
-    <t>Pool R.2</t>
-  </si>
-  <si>
-    <t>Pool R.1</t>
-  </si>
-  <si>
-    <t>Pool M.2</t>
-  </si>
-  <si>
-    <t>Pool N.1</t>
-  </si>
-  <si>
-    <t>Pool Q.2</t>
-  </si>
-  <si>
-    <t>Pool Q.1</t>
-  </si>
-  <si>
-    <t>Pool N.2</t>
-  </si>
-  <si>
-    <t>Pool O.1</t>
-  </si>
-  <si>
-    <t>Pool P.2</t>
-  </si>
-  <si>
-    <t>Pool P.1</t>
-  </si>
-  <si>
-    <t>Pool O.2</t>
   </si>
   <si>
     <t>Red</t>
@@ -2529,7 +2529,7 @@
         <v>60</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D19" t="s">
         <v>61</v>
@@ -2543,7 +2543,7 @@
         <v>62</v>
       </c>
       <c r="C20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D20" t="s">
         <v>63</v>
@@ -2557,7 +2557,7 @@
         <v>65</v>
       </c>
       <c r="C21" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D21" t="s">
         <v>66</v>
@@ -4492,107 +4492,101 @@
       <c r="A2" s="25" t="str">
         <f>data!A5</f>
       </c>
-      <c r="E2" s="24" t="s">
-        <v>251</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="26" t="str">
         <f>data!B2</f>
       </c>
-      <c r="F3" s="22"/>
-      <c r="G3" s="20"/>
+      <c r="E3" s="24" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="27" t="str">
         <f>data!B3</f>
       </c>
-      <c r="G4" s="21">
-        <v>29</v>
-      </c>
+      <c r="F4" s="22"/>
+      <c r="G4" s="20"/>
     </row>
     <row r="5">
       <c r="A5" s="27" t="str">
         <f>data!B4</f>
       </c>
-      <c r="C5" s="24" t="s">
-        <v>252</v>
-      </c>
-      <c r="G5" s="20"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="20"/>
+      <c r="G5" s="21">
+        <v>29</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="28" t="str">
         <f>data!B5</f>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="21">
-        <v>1</v>
-      </c>
-      <c r="F6" s="23"/>
+      <c r="C6" s="24" t="s">
+        <v>252</v>
+      </c>
       <c r="G6" s="20"/>
+      <c r="H6" s="22"/>
       <c r="I6" s="20"/>
     </row>
     <row r="7">
       <c r="A7" s="22"/>
-      <c r="C7" s="24" t="s">
-        <v>253</v>
-      </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="20"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="21">
+        <v>1</v>
+      </c>
+      <c r="F7" s="23"/>
+      <c r="G7" s="20"/>
       <c r="I7" s="20"/>
     </row>
     <row r="8">
       <c r="A8" s="25" t="str">
         <f>data!A8</f>
       </c>
-      <c r="I8" s="21">
-        <v>45</v>
-      </c>
+      <c r="C8" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="D8" s="23"/>
+      <c r="E8" s="20"/>
+      <c r="I8" s="20"/>
     </row>
     <row r="9">
       <c r="A9" s="26" t="str">
         <f>data!B6</f>
       </c>
-      <c r="C9" s="24" t="s">
-        <v>254</v>
-      </c>
-      <c r="I9" s="20"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="20"/>
+      <c r="I9" s="21">
+        <v>45</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="27" t="str">
         <f>data!B7</f>
       </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="21">
-        <v>2</v>
+      <c r="C10" s="24" t="s">
+        <v>254</v>
       </c>
       <c r="I10" s="20"/>
+      <c r="J10" s="22"/>
       <c r="K10" s="20"/>
     </row>
     <row r="11">
       <c r="A11" s="28" t="str">
         <f>data!B8</f>
       </c>
-      <c r="C11" s="24" t="s">
-        <v>255</v>
-      </c>
-      <c r="D11" s="23"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="20"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="21">
+        <v>2</v>
+      </c>
       <c r="I11" s="20"/>
       <c r="K11" s="20"/>
     </row>
     <row r="12">
       <c r="A12" s="22"/>
-      <c r="G12" s="21">
-        <v>30</v>
-      </c>
-      <c r="H12" s="23"/>
+      <c r="C12" s="24" t="s">
+        <v>255</v>
+      </c>
+      <c r="D12" s="23"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="20"/>
       <c r="I12" s="20"/>
       <c r="K12" s="20"/>
     </row>
@@ -4600,21 +4594,20 @@
       <c r="A13" s="25" t="str">
         <f>data!A11</f>
       </c>
-      <c r="C13" s="24" t="s">
-        <v>256</v>
-      </c>
-      <c r="G13" s="20"/>
+      <c r="G13" s="21">
+        <v>30</v>
+      </c>
+      <c r="H13" s="23"/>
+      <c r="I13" s="20"/>
       <c r="K13" s="20"/>
     </row>
     <row r="14">
       <c r="A14" s="26" t="str">
         <f>data!B9</f>
       </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="21">
-        <v>3</v>
-      </c>
-      <c r="F14" s="23"/>
+      <c r="C14" s="24" t="s">
+        <v>256</v>
+      </c>
       <c r="G14" s="20"/>
       <c r="K14" s="20"/>
     </row>
@@ -4622,35 +4615,37 @@
       <c r="A15" s="27" t="str">
         <f>data!B10</f>
       </c>
-      <c r="C15" s="24" t="s">
-        <v>257</v>
-      </c>
-      <c r="D15" s="23"/>
-      <c r="E15" s="20"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="21">
+        <v>3</v>
+      </c>
+      <c r="F15" s="23"/>
+      <c r="G15" s="20"/>
       <c r="K15" s="20"/>
     </row>
     <row r="16">
       <c r="A16" s="28" t="str">
         <f>data!B11</f>
       </c>
-      <c r="K16" s="21">
-        <v>53</v>
-      </c>
+      <c r="C16" s="24" t="s">
+        <v>257</v>
+      </c>
+      <c r="D16" s="23"/>
+      <c r="E16" s="20"/>
+      <c r="K16" s="20"/>
     </row>
     <row r="17">
       <c r="A17" s="22"/>
-      <c r="C17" s="24" t="s">
-        <v>258</v>
-      </c>
-      <c r="K17" s="20"/>
+      <c r="K17" s="21">
+        <v>53</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="25" t="str">
         <f>data!A14</f>
       </c>
-      <c r="D18" s="22"/>
-      <c r="E18" s="21">
-        <v>4</v>
+      <c r="C18" s="24" t="s">
+        <v>258</v>
       </c>
       <c r="K18" s="20"/>
     </row>
@@ -4658,44 +4653,41 @@
       <c r="A19" s="26" t="str">
         <f>data!B12</f>
       </c>
-      <c r="C19" s="24" t="s">
-        <v>259</v>
-      </c>
-      <c r="D19" s="23"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="20"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="21">
+        <v>4</v>
+      </c>
       <c r="K19" s="20"/>
     </row>
     <row r="20">
       <c r="A20" s="27" t="str">
         <f>data!B13</f>
       </c>
-      <c r="G20" s="21">
-        <v>31</v>
-      </c>
+      <c r="C20" s="24" t="s">
+        <v>259</v>
+      </c>
+      <c r="D20" s="23"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="20"/>
       <c r="K20" s="20"/>
     </row>
     <row r="21">
       <c r="A21" s="28" t="str">
         <f>data!B14</f>
       </c>
-      <c r="C21" s="24" t="s">
-        <v>260</v>
-      </c>
-      <c r="G21" s="20"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="20"/>
+      <c r="G21" s="21">
+        <v>31</v>
+      </c>
       <c r="K21" s="20"/>
     </row>
     <row r="22">
       <c r="A22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="21">
-        <v>5</v>
-      </c>
-      <c r="F22" s="23"/>
+      <c r="C22" s="24" t="s">
+        <v>260</v>
+      </c>
       <c r="G22" s="20"/>
+      <c r="H22" s="22"/>
       <c r="I22" s="20"/>
       <c r="K22" s="20"/>
     </row>
@@ -4703,11 +4695,12 @@
       <c r="A23" s="25" t="str">
         <f>data!A17</f>
       </c>
-      <c r="C23" s="24" t="s">
-        <v>261</v>
-      </c>
-      <c r="D23" s="23"/>
-      <c r="E23" s="20"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="21">
+        <v>5</v>
+      </c>
+      <c r="F23" s="23"/>
+      <c r="G23" s="20"/>
       <c r="I23" s="20"/>
       <c r="K23" s="20"/>
     </row>
@@ -4715,84 +4708,91 @@
       <c r="A24" s="26" t="str">
         <f>data!B15</f>
       </c>
-      <c r="I24" s="21">
-        <v>46</v>
-      </c>
-      <c r="J24" s="23"/>
+      <c r="C24" s="24" t="s">
+        <v>261</v>
+      </c>
+      <c r="D24" s="23"/>
+      <c r="E24" s="20"/>
+      <c r="I24" s="20"/>
       <c r="K24" s="20"/>
     </row>
     <row r="25">
       <c r="A25" s="27" t="str">
         <f>data!B16</f>
       </c>
-      <c r="C25" s="24" t="s">
-        <v>262</v>
-      </c>
-      <c r="I25" s="20"/>
+      <c r="I25" s="21">
+        <v>46</v>
+      </c>
+      <c r="J25" s="23"/>
+      <c r="K25" s="20"/>
     </row>
     <row r="26">
       <c r="A26" s="28" t="str">
         <f>data!B17</f>
       </c>
-      <c r="D26" s="22"/>
-      <c r="E26" s="21">
-        <v>6</v>
+      <c r="C26" s="24" t="s">
+        <v>262</v>
       </c>
       <c r="I26" s="20"/>
     </row>
     <row r="27">
       <c r="A27" s="22"/>
-      <c r="C27" s="24" t="s">
-        <v>263</v>
-      </c>
-      <c r="D27" s="23"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="20"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="21">
+        <v>6</v>
+      </c>
       <c r="I27" s="20"/>
     </row>
     <row r="28">
       <c r="A28" s="25" t="str">
         <f>data!A20</f>
       </c>
-      <c r="G28" s="21">
-        <v>32</v>
-      </c>
-      <c r="H28" s="23"/>
+      <c r="C28" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="D28" s="23"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="20"/>
       <c r="I28" s="20"/>
     </row>
     <row r="29">
       <c r="A29" s="26" t="str">
         <f>data!B18</f>
       </c>
-      <c r="C29" s="24" t="s">
-        <v>264</v>
-      </c>
-      <c r="G29" s="20"/>
+      <c r="G29" s="21">
+        <v>32</v>
+      </c>
+      <c r="H29" s="23"/>
+      <c r="I29" s="20"/>
     </row>
     <row r="30">
       <c r="A30" s="27" t="str">
         <f>data!B19</f>
       </c>
-      <c r="D30" s="22"/>
-      <c r="E30" s="21">
-        <v>7</v>
-      </c>
-      <c r="F30" s="23"/>
+      <c r="C30" s="24" t="s">
+        <v>264</v>
+      </c>
       <c r="G30" s="20"/>
     </row>
     <row r="31">
       <c r="A31" s="28" t="str">
         <f>data!B20</f>
       </c>
-      <c r="C31" s="24" t="s">
-        <v>265</v>
-      </c>
-      <c r="D31" s="23"/>
-      <c r="E31" s="20"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="21">
+        <v>7</v>
+      </c>
+      <c r="F31" s="23"/>
+      <c r="G31" s="20"/>
     </row>
     <row r="32">
       <c r="A32" s="22"/>
+      <c r="C32" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="D32" s="23"/>
+      <c r="E32" s="20"/>
     </row>
     <row r="33">
       <c r="A33" s="25" t="str">
@@ -4867,96 +4867,87 @@
       <c r="A2" s="25" t="str">
         <f>data!A29</f>
       </c>
-      <c r="E2" s="24" t="s">
-        <v>266</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="26" t="str">
         <f>data!B27</f>
       </c>
-      <c r="F3" s="22"/>
-      <c r="G3" s="20"/>
+      <c r="E3" s="24" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="27" t="str">
         <f>data!B28</f>
       </c>
-      <c r="G4" s="21">
-        <v>33</v>
-      </c>
+      <c r="F4" s="22"/>
+      <c r="G4" s="20"/>
     </row>
     <row r="5">
       <c r="A5" s="28" t="str">
         <f>data!B29</f>
       </c>
-      <c r="C5" s="24" t="s">
-        <v>267</v>
-      </c>
-      <c r="G5" s="20"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="20"/>
+      <c r="G5" s="21">
+        <v>33</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="21">
-        <v>8</v>
-      </c>
-      <c r="F6" s="23"/>
+      <c r="C6" s="24" t="s">
+        <v>267</v>
+      </c>
       <c r="G6" s="20"/>
+      <c r="H6" s="22"/>
       <c r="I6" s="20"/>
     </row>
     <row r="7">
       <c r="A7" s="25" t="str">
         <f>data!A32</f>
       </c>
-      <c r="C7" s="24" t="s">
-        <v>268</v>
-      </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="20"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="21">
+        <v>8</v>
+      </c>
+      <c r="F7" s="23"/>
+      <c r="G7" s="20"/>
       <c r="I7" s="20"/>
     </row>
     <row r="8">
       <c r="A8" s="26" t="str">
         <f>data!B30</f>
       </c>
-      <c r="I8" s="21">
-        <v>47</v>
-      </c>
+      <c r="C8" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="D8" s="23"/>
+      <c r="E8" s="20"/>
+      <c r="I8" s="20"/>
     </row>
     <row r="9">
       <c r="A9" s="27" t="str">
         <f>data!B31</f>
       </c>
-      <c r="C9" s="24" t="s">
-        <v>269</v>
-      </c>
-      <c r="I9" s="20"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="20"/>
+      <c r="I9" s="21">
+        <v>47</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="28" t="str">
         <f>data!B32</f>
       </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="21">
-        <v>9</v>
+      <c r="C10" s="24" t="s">
+        <v>269</v>
       </c>
       <c r="I10" s="20"/>
+      <c r="J10" s="22"/>
       <c r="K10" s="20"/>
     </row>
     <row r="11">
       <c r="A11" s="22"/>
-      <c r="C11" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="D11" s="23"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="20"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="21">
+        <v>9</v>
+      </c>
       <c r="I11" s="20"/>
       <c r="K11" s="20"/>
     </row>
@@ -4964,10 +4955,13 @@
       <c r="A12" s="25" t="str">
         <f>data!A35</f>
       </c>
-      <c r="G12" s="21">
-        <v>34</v>
-      </c>
-      <c r="H12" s="23"/>
+      <c r="C12" s="24" t="s">
+        <v>270</v>
+      </c>
+      <c r="D12" s="23"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="20"/>
       <c r="I12" s="20"/>
       <c r="K12" s="20"/>
     </row>
@@ -4975,21 +4969,20 @@
       <c r="A13" s="26" t="str">
         <f>data!B33</f>
       </c>
-      <c r="C13" s="24" t="s">
-        <v>271</v>
-      </c>
-      <c r="G13" s="20"/>
+      <c r="G13" s="21">
+        <v>34</v>
+      </c>
+      <c r="H13" s="23"/>
+      <c r="I13" s="20"/>
       <c r="K13" s="20"/>
     </row>
     <row r="14">
       <c r="A14" s="27" t="str">
         <f>data!B34</f>
       </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="21">
-        <v>10</v>
-      </c>
-      <c r="F14" s="23"/>
+      <c r="C14" s="24" t="s">
+        <v>271</v>
+      </c>
       <c r="G14" s="20"/>
       <c r="K14" s="20"/>
     </row>
@@ -4997,35 +4990,37 @@
       <c r="A15" s="28" t="str">
         <f>data!B35</f>
       </c>
-      <c r="C15" s="24" t="s">
-        <v>272</v>
-      </c>
-      <c r="D15" s="23"/>
-      <c r="E15" s="20"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="21">
+        <v>10</v>
+      </c>
+      <c r="F15" s="23"/>
+      <c r="G15" s="20"/>
       <c r="K15" s="20"/>
     </row>
     <row r="16">
       <c r="A16" s="22"/>
-      <c r="K16" s="21">
-        <v>54</v>
-      </c>
+      <c r="C16" s="24" t="s">
+        <v>272</v>
+      </c>
+      <c r="D16" s="23"/>
+      <c r="E16" s="20"/>
+      <c r="K16" s="20"/>
     </row>
     <row r="17">
       <c r="A17" s="25" t="str">
         <f>data!A38</f>
       </c>
-      <c r="C17" s="24" t="s">
-        <v>273</v>
-      </c>
-      <c r="K17" s="20"/>
+      <c r="K17" s="21">
+        <v>54</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="26" t="str">
         <f>data!B36</f>
       </c>
-      <c r="D18" s="22"/>
-      <c r="E18" s="21">
-        <v>11</v>
+      <c r="C18" s="24" t="s">
+        <v>273</v>
       </c>
       <c r="K18" s="20"/>
     </row>
@@ -5033,44 +5028,41 @@
       <c r="A19" s="27" t="str">
         <f>data!B37</f>
       </c>
-      <c r="C19" s="24" t="s">
-        <v>274</v>
-      </c>
-      <c r="D19" s="23"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="20"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="21">
+        <v>11</v>
+      </c>
       <c r="K19" s="20"/>
     </row>
     <row r="20">
       <c r="A20" s="28" t="str">
         <f>data!B38</f>
       </c>
-      <c r="G20" s="21">
-        <v>35</v>
-      </c>
+      <c r="C20" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="D20" s="23"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="20"/>
       <c r="K20" s="20"/>
     </row>
     <row r="21">
       <c r="A21" s="22"/>
-      <c r="C21" s="24" t="s">
-        <v>275</v>
-      </c>
-      <c r="G21" s="20"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="20"/>
+      <c r="G21" s="21">
+        <v>35</v>
+      </c>
       <c r="K21" s="20"/>
     </row>
     <row r="22">
       <c r="A22" s="25" t="str">
         <f>data!A41</f>
       </c>
-      <c r="D22" s="22"/>
-      <c r="E22" s="21">
-        <v>12</v>
-      </c>
-      <c r="F22" s="23"/>
+      <c r="C22" s="24" t="s">
+        <v>275</v>
+      </c>
       <c r="G22" s="20"/>
+      <c r="H22" s="22"/>
       <c r="I22" s="20"/>
       <c r="K22" s="20"/>
     </row>
@@ -5078,11 +5070,12 @@
       <c r="A23" s="26" t="str">
         <f>data!B39</f>
       </c>
-      <c r="C23" s="24" t="s">
-        <v>276</v>
-      </c>
-      <c r="D23" s="23"/>
-      <c r="E23" s="20"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="21">
+        <v>12</v>
+      </c>
+      <c r="F23" s="23"/>
+      <c r="G23" s="20"/>
       <c r="I23" s="20"/>
       <c r="K23" s="20"/>
     </row>
@@ -5090,26 +5083,28 @@
       <c r="A24" s="27" t="str">
         <f>data!B40</f>
       </c>
-      <c r="I24" s="21">
-        <v>48</v>
-      </c>
-      <c r="J24" s="23"/>
+      <c r="C24" s="24" t="s">
+        <v>276</v>
+      </c>
+      <c r="D24" s="23"/>
+      <c r="E24" s="20"/>
+      <c r="I24" s="20"/>
       <c r="K24" s="20"/>
     </row>
     <row r="25">
       <c r="A25" s="28" t="str">
         <f>data!B41</f>
       </c>
-      <c r="C25" s="24" t="s">
-        <v>277</v>
-      </c>
-      <c r="I25" s="20"/>
+      <c r="I25" s="21">
+        <v>48</v>
+      </c>
+      <c r="J25" s="23"/>
+      <c r="K25" s="20"/>
     </row>
     <row r="26">
       <c r="A26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="21">
-        <v>13</v>
+      <c r="C26" s="24" t="s">
+        <v>277</v>
       </c>
       <c r="I26" s="20"/>
     </row>
@@ -5117,57 +5112,62 @@
       <c r="A27" s="25" t="str">
         <f>data!A44</f>
       </c>
-      <c r="C27" s="24" t="s">
-        <v>278</v>
-      </c>
-      <c r="D27" s="23"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="20"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="21">
+        <v>13</v>
+      </c>
       <c r="I27" s="20"/>
     </row>
     <row r="28">
       <c r="A28" s="26" t="str">
         <f>data!B42</f>
       </c>
-      <c r="G28" s="21">
-        <v>36</v>
-      </c>
-      <c r="H28" s="23"/>
+      <c r="C28" s="24" t="s">
+        <v>278</v>
+      </c>
+      <c r="D28" s="23"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="20"/>
       <c r="I28" s="20"/>
     </row>
     <row r="29">
       <c r="A29" s="27" t="str">
         <f>data!B43</f>
       </c>
-      <c r="C29" s="24" t="s">
-        <v>279</v>
-      </c>
-      <c r="G29" s="20"/>
+      <c r="G29" s="21">
+        <v>36</v>
+      </c>
+      <c r="H29" s="23"/>
+      <c r="I29" s="20"/>
     </row>
     <row r="30">
       <c r="A30" s="28" t="str">
         <f>data!B44</f>
       </c>
-      <c r="D30" s="22"/>
-      <c r="E30" s="21">
-        <v>14</v>
-      </c>
-      <c r="F30" s="23"/>
+      <c r="C30" s="24" t="s">
+        <v>279</v>
+      </c>
       <c r="G30" s="20"/>
     </row>
     <row r="31">
       <c r="A31" s="22"/>
-      <c r="C31" s="24" t="s">
-        <v>280</v>
-      </c>
-      <c r="D31" s="23"/>
-      <c r="E31" s="20"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="21">
+        <v>14</v>
+      </c>
+      <c r="F31" s="23"/>
+      <c r="G31" s="20"/>
     </row>
     <row r="32">
       <c r="A32" s="25" t="str">
         <f>data!A47</f>
       </c>
+      <c r="C32" s="24" t="s">
+        <v>280</v>
+      </c>
+      <c r="D32" s="23"/>
+      <c r="E32" s="20"/>
     </row>
     <row r="33">
       <c r="A33" s="26" t="str">
@@ -5237,96 +5237,87 @@
       <c r="A2" s="25" t="str">
         <f>data!A53</f>
       </c>
-      <c r="E2" s="24" t="s">
-        <v>281</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="26" t="str">
         <f>data!B51</f>
       </c>
-      <c r="F3" s="22"/>
-      <c r="G3" s="20"/>
+      <c r="E3" s="24" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="27" t="str">
         <f>data!B52</f>
       </c>
-      <c r="G4" s="21">
-        <v>37</v>
-      </c>
+      <c r="F4" s="22"/>
+      <c r="G4" s="20"/>
     </row>
     <row r="5">
       <c r="A5" s="28" t="str">
         <f>data!B53</f>
       </c>
-      <c r="C5" s="24" t="s">
-        <v>282</v>
-      </c>
-      <c r="G5" s="20"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="20"/>
+      <c r="G5" s="21">
+        <v>37</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="21">
-        <v>15</v>
-      </c>
-      <c r="F6" s="23"/>
+      <c r="C6" s="24" t="s">
+        <v>282</v>
+      </c>
       <c r="G6" s="20"/>
+      <c r="H6" s="22"/>
       <c r="I6" s="20"/>
     </row>
     <row r="7">
       <c r="A7" s="25" t="str">
         <f>data!A56</f>
       </c>
-      <c r="C7" s="24" t="s">
-        <v>283</v>
-      </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="20"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="21">
+        <v>15</v>
+      </c>
+      <c r="F7" s="23"/>
+      <c r="G7" s="20"/>
       <c r="I7" s="20"/>
     </row>
     <row r="8">
       <c r="A8" s="26" t="str">
         <f>data!B54</f>
       </c>
-      <c r="I8" s="21">
-        <v>49</v>
-      </c>
+      <c r="C8" s="24" t="s">
+        <v>283</v>
+      </c>
+      <c r="D8" s="23"/>
+      <c r="E8" s="20"/>
+      <c r="I8" s="20"/>
     </row>
     <row r="9">
       <c r="A9" s="27" t="str">
         <f>data!B55</f>
       </c>
-      <c r="C9" s="24" t="s">
-        <v>284</v>
-      </c>
-      <c r="I9" s="20"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="20"/>
+      <c r="I9" s="21">
+        <v>49</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="28" t="str">
         <f>data!B56</f>
       </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="21">
-        <v>16</v>
+      <c r="C10" s="24" t="s">
+        <v>284</v>
       </c>
       <c r="I10" s="20"/>
+      <c r="J10" s="22"/>
       <c r="K10" s="20"/>
     </row>
     <row r="11">
       <c r="A11" s="22"/>
-      <c r="C11" s="24" t="s">
-        <v>285</v>
-      </c>
-      <c r="D11" s="23"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="20"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="21">
+        <v>16</v>
+      </c>
       <c r="I11" s="20"/>
       <c r="K11" s="20"/>
     </row>
@@ -5334,10 +5325,13 @@
       <c r="A12" s="25" t="str">
         <f>data!A59</f>
       </c>
-      <c r="G12" s="21">
-        <v>38</v>
-      </c>
-      <c r="H12" s="23"/>
+      <c r="C12" s="24" t="s">
+        <v>285</v>
+      </c>
+      <c r="D12" s="23"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="20"/>
       <c r="I12" s="20"/>
       <c r="K12" s="20"/>
     </row>
@@ -5345,21 +5339,20 @@
       <c r="A13" s="26" t="str">
         <f>data!B57</f>
       </c>
-      <c r="C13" s="24" t="s">
-        <v>286</v>
-      </c>
-      <c r="G13" s="20"/>
+      <c r="G13" s="21">
+        <v>38</v>
+      </c>
+      <c r="H13" s="23"/>
+      <c r="I13" s="20"/>
       <c r="K13" s="20"/>
     </row>
     <row r="14">
       <c r="A14" s="27" t="str">
         <f>data!B58</f>
       </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="21">
-        <v>17</v>
-      </c>
-      <c r="F14" s="23"/>
+      <c r="C14" s="24" t="s">
+        <v>286</v>
+      </c>
       <c r="G14" s="20"/>
       <c r="K14" s="20"/>
     </row>
@@ -5367,35 +5360,37 @@
       <c r="A15" s="28" t="str">
         <f>data!B59</f>
       </c>
-      <c r="C15" s="24" t="s">
-        <v>287</v>
-      </c>
-      <c r="D15" s="23"/>
-      <c r="E15" s="20"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="21">
+        <v>17</v>
+      </c>
+      <c r="F15" s="23"/>
+      <c r="G15" s="20"/>
       <c r="K15" s="20"/>
     </row>
     <row r="16">
       <c r="A16" s="22"/>
-      <c r="K16" s="21">
-        <v>55</v>
-      </c>
+      <c r="C16" s="24" t="s">
+        <v>287</v>
+      </c>
+      <c r="D16" s="23"/>
+      <c r="E16" s="20"/>
+      <c r="K16" s="20"/>
     </row>
     <row r="17">
       <c r="A17" s="25" t="str">
         <f>data!A62</f>
       </c>
-      <c r="C17" s="24" t="s">
-        <v>288</v>
-      </c>
-      <c r="K17" s="20"/>
+      <c r="K17" s="21">
+        <v>55</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="26" t="str">
         <f>data!B60</f>
       </c>
-      <c r="D18" s="22"/>
-      <c r="E18" s="21">
-        <v>18</v>
+      <c r="C18" s="24" t="s">
+        <v>288</v>
       </c>
       <c r="K18" s="20"/>
     </row>
@@ -5403,44 +5398,41 @@
       <c r="A19" s="27" t="str">
         <f>data!B61</f>
       </c>
-      <c r="C19" s="24" t="s">
-        <v>289</v>
-      </c>
-      <c r="D19" s="23"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="20"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="21">
+        <v>18</v>
+      </c>
       <c r="K19" s="20"/>
     </row>
     <row r="20">
       <c r="A20" s="28" t="str">
         <f>data!B62</f>
       </c>
-      <c r="G20" s="21">
-        <v>39</v>
-      </c>
+      <c r="C20" s="24" t="s">
+        <v>289</v>
+      </c>
+      <c r="D20" s="23"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="20"/>
       <c r="K20" s="20"/>
     </row>
     <row r="21">
       <c r="A21" s="22"/>
-      <c r="C21" s="24" t="s">
-        <v>290</v>
-      </c>
-      <c r="G21" s="20"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="20"/>
+      <c r="G21" s="21">
+        <v>39</v>
+      </c>
       <c r="K21" s="20"/>
     </row>
     <row r="22">
       <c r="A22" s="25" t="str">
         <f>data!A65</f>
       </c>
-      <c r="D22" s="22"/>
-      <c r="E22" s="21">
-        <v>19</v>
-      </c>
-      <c r="F22" s="23"/>
+      <c r="C22" s="24" t="s">
+        <v>290</v>
+      </c>
       <c r="G22" s="20"/>
+      <c r="H22" s="22"/>
       <c r="I22" s="20"/>
       <c r="K22" s="20"/>
     </row>
@@ -5448,11 +5440,12 @@
       <c r="A23" s="26" t="str">
         <f>data!B63</f>
       </c>
-      <c r="C23" s="24" t="s">
-        <v>291</v>
-      </c>
-      <c r="D23" s="23"/>
-      <c r="E23" s="20"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="21">
+        <v>19</v>
+      </c>
+      <c r="F23" s="23"/>
+      <c r="G23" s="20"/>
       <c r="I23" s="20"/>
       <c r="K23" s="20"/>
     </row>
@@ -5460,26 +5453,28 @@
       <c r="A24" s="27" t="str">
         <f>data!B64</f>
       </c>
-      <c r="I24" s="21">
-        <v>50</v>
-      </c>
-      <c r="J24" s="23"/>
+      <c r="C24" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="D24" s="23"/>
+      <c r="E24" s="20"/>
+      <c r="I24" s="20"/>
       <c r="K24" s="20"/>
     </row>
     <row r="25">
       <c r="A25" s="28" t="str">
         <f>data!B65</f>
       </c>
-      <c r="C25" s="24" t="s">
-        <v>292</v>
-      </c>
-      <c r="I25" s="20"/>
+      <c r="I25" s="21">
+        <v>50</v>
+      </c>
+      <c r="J25" s="23"/>
+      <c r="K25" s="20"/>
     </row>
     <row r="26">
       <c r="A26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="21">
-        <v>20</v>
+      <c r="C26" s="24" t="s">
+        <v>292</v>
       </c>
       <c r="I26" s="20"/>
     </row>
@@ -5487,57 +5482,62 @@
       <c r="A27" s="25" t="str">
         <f>data!A68</f>
       </c>
-      <c r="C27" s="24" t="s">
-        <v>293</v>
-      </c>
-      <c r="D27" s="23"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="20"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="21">
+        <v>20</v>
+      </c>
       <c r="I27" s="20"/>
     </row>
     <row r="28">
       <c r="A28" s="26" t="str">
         <f>data!B66</f>
       </c>
-      <c r="G28" s="21">
-        <v>40</v>
-      </c>
-      <c r="H28" s="23"/>
+      <c r="C28" s="24" t="s">
+        <v>293</v>
+      </c>
+      <c r="D28" s="23"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="20"/>
       <c r="I28" s="20"/>
     </row>
     <row r="29">
       <c r="A29" s="27" t="str">
         <f>data!B67</f>
       </c>
-      <c r="C29" s="24" t="s">
-        <v>294</v>
-      </c>
-      <c r="G29" s="20"/>
+      <c r="G29" s="21">
+        <v>40</v>
+      </c>
+      <c r="H29" s="23"/>
+      <c r="I29" s="20"/>
     </row>
     <row r="30">
       <c r="A30" s="28" t="str">
         <f>data!B68</f>
       </c>
-      <c r="D30" s="22"/>
-      <c r="E30" s="21">
-        <v>21</v>
-      </c>
-      <c r="F30" s="23"/>
+      <c r="C30" s="24" t="s">
+        <v>294</v>
+      </c>
       <c r="G30" s="20"/>
     </row>
     <row r="31">
       <c r="A31" s="22"/>
-      <c r="C31" s="24" t="s">
-        <v>295</v>
-      </c>
-      <c r="D31" s="23"/>
-      <c r="E31" s="20"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="21">
+        <v>21</v>
+      </c>
+      <c r="F31" s="23"/>
+      <c r="G31" s="20"/>
     </row>
     <row r="32">
       <c r="A32" s="25" t="str">
         <f>data!A71</f>
       </c>
+      <c r="C32" s="24" t="s">
+        <v>295</v>
+      </c>
+      <c r="D32" s="23"/>
+      <c r="E32" s="20"/>
     </row>
     <row r="33">
       <c r="A33" s="26" t="str">
@@ -5607,96 +5607,87 @@
       <c r="A2" s="25" t="str">
         <f>data!A77</f>
       </c>
-      <c r="E2" s="24" t="s">
-        <v>297</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="26" t="str">
         <f>data!B75</f>
       </c>
-      <c r="F3" s="22"/>
-      <c r="G3" s="20"/>
+      <c r="E3" s="24" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="27" t="str">
         <f>data!B76</f>
       </c>
-      <c r="G4" s="21">
-        <v>41</v>
-      </c>
+      <c r="F4" s="22"/>
+      <c r="G4" s="20"/>
     </row>
     <row r="5">
       <c r="A5" s="28" t="str">
         <f>data!B77</f>
       </c>
-      <c r="C5" s="24" t="s">
-        <v>296</v>
-      </c>
-      <c r="G5" s="20"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="20"/>
+      <c r="G5" s="21">
+        <v>41</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="21">
-        <v>22</v>
-      </c>
-      <c r="F6" s="23"/>
+      <c r="C6" s="24" t="s">
+        <v>297</v>
+      </c>
       <c r="G6" s="20"/>
+      <c r="H6" s="22"/>
       <c r="I6" s="20"/>
     </row>
     <row r="7">
       <c r="A7" s="25" t="str">
         <f>data!A80</f>
       </c>
-      <c r="C7" s="24" t="s">
-        <v>298</v>
-      </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="20"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="21">
+        <v>22</v>
+      </c>
+      <c r="F7" s="23"/>
+      <c r="G7" s="20"/>
       <c r="I7" s="20"/>
     </row>
     <row r="8">
       <c r="A8" s="26" t="str">
         <f>data!B78</f>
       </c>
-      <c r="I8" s="21">
-        <v>51</v>
-      </c>
+      <c r="C8" s="24" t="s">
+        <v>298</v>
+      </c>
+      <c r="D8" s="23"/>
+      <c r="E8" s="20"/>
+      <c r="I8" s="20"/>
     </row>
     <row r="9">
       <c r="A9" s="27" t="str">
         <f>data!B79</f>
       </c>
-      <c r="C9" s="24" t="s">
-        <v>299</v>
-      </c>
-      <c r="I9" s="20"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="20"/>
+      <c r="I9" s="21">
+        <v>51</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="28" t="str">
         <f>data!B80</f>
       </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="21">
-        <v>23</v>
+      <c r="C10" s="24" t="s">
+        <v>299</v>
       </c>
       <c r="I10" s="20"/>
+      <c r="J10" s="22"/>
       <c r="K10" s="20"/>
     </row>
     <row r="11">
       <c r="A11" s="22"/>
-      <c r="C11" s="24" t="s">
-        <v>300</v>
-      </c>
-      <c r="D11" s="23"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="20"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="21">
+        <v>23</v>
+      </c>
       <c r="I11" s="20"/>
       <c r="K11" s="20"/>
     </row>
@@ -5704,10 +5695,13 @@
       <c r="A12" s="25" t="str">
         <f>data!A83</f>
       </c>
-      <c r="G12" s="21">
-        <v>42</v>
-      </c>
-      <c r="H12" s="23"/>
+      <c r="C12" s="24" t="s">
+        <v>300</v>
+      </c>
+      <c r="D12" s="23"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="20"/>
       <c r="I12" s="20"/>
       <c r="K12" s="20"/>
     </row>
@@ -5715,21 +5709,20 @@
       <c r="A13" s="26" t="str">
         <f>data!B81</f>
       </c>
-      <c r="C13" s="24" t="s">
-        <v>301</v>
-      </c>
-      <c r="G13" s="20"/>
+      <c r="G13" s="21">
+        <v>42</v>
+      </c>
+      <c r="H13" s="23"/>
+      <c r="I13" s="20"/>
       <c r="K13" s="20"/>
     </row>
     <row r="14">
       <c r="A14" s="27" t="str">
         <f>data!B82</f>
       </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="21">
-        <v>24</v>
-      </c>
-      <c r="F14" s="23"/>
+      <c r="C14" s="24" t="s">
+        <v>301</v>
+      </c>
       <c r="G14" s="20"/>
       <c r="K14" s="20"/>
     </row>
@@ -5737,35 +5730,37 @@
       <c r="A15" s="28" t="str">
         <f>data!B83</f>
       </c>
-      <c r="C15" s="24" t="s">
-        <v>302</v>
-      </c>
-      <c r="D15" s="23"/>
-      <c r="E15" s="20"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="21">
+        <v>24</v>
+      </c>
+      <c r="F15" s="23"/>
+      <c r="G15" s="20"/>
       <c r="K15" s="20"/>
     </row>
     <row r="16">
       <c r="A16" s="22"/>
-      <c r="K16" s="21">
-        <v>56</v>
-      </c>
+      <c r="C16" s="24" t="s">
+        <v>302</v>
+      </c>
+      <c r="D16" s="23"/>
+      <c r="E16" s="20"/>
+      <c r="K16" s="20"/>
     </row>
     <row r="17">
       <c r="A17" s="25" t="str">
         <f>data!A86</f>
       </c>
-      <c r="C17" s="24" t="s">
-        <v>303</v>
-      </c>
-      <c r="K17" s="20"/>
+      <c r="K17" s="21">
+        <v>56</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="26" t="str">
         <f>data!B84</f>
       </c>
-      <c r="D18" s="22"/>
-      <c r="E18" s="21">
-        <v>25</v>
+      <c r="C18" s="24" t="s">
+        <v>303</v>
       </c>
       <c r="K18" s="20"/>
     </row>
@@ -5773,44 +5768,41 @@
       <c r="A19" s="27" t="str">
         <f>data!B85</f>
       </c>
-      <c r="C19" s="24" t="s">
-        <v>304</v>
-      </c>
-      <c r="D19" s="23"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="20"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="21">
+        <v>25</v>
+      </c>
       <c r="K19" s="20"/>
     </row>
     <row r="20">
       <c r="A20" s="28" t="str">
         <f>data!B86</f>
       </c>
-      <c r="G20" s="21">
-        <v>43</v>
-      </c>
+      <c r="C20" s="24" t="s">
+        <v>304</v>
+      </c>
+      <c r="D20" s="23"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="20"/>
       <c r="K20" s="20"/>
     </row>
     <row r="21">
       <c r="A21" s="22"/>
-      <c r="C21" s="24" t="s">
-        <v>305</v>
-      </c>
-      <c r="G21" s="20"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="20"/>
+      <c r="G21" s="21">
+        <v>43</v>
+      </c>
       <c r="K21" s="20"/>
     </row>
     <row r="22">
       <c r="A22" s="25" t="str">
         <f>data!A89</f>
       </c>
-      <c r="D22" s="22"/>
-      <c r="E22" s="21">
-        <v>26</v>
-      </c>
-      <c r="F22" s="23"/>
+      <c r="C22" s="24" t="s">
+        <v>305</v>
+      </c>
       <c r="G22" s="20"/>
+      <c r="H22" s="22"/>
       <c r="I22" s="20"/>
       <c r="K22" s="20"/>
     </row>
@@ -5818,11 +5810,12 @@
       <c r="A23" s="26" t="str">
         <f>data!B87</f>
       </c>
-      <c r="C23" s="24" t="s">
-        <v>306</v>
-      </c>
-      <c r="D23" s="23"/>
-      <c r="E23" s="20"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="21">
+        <v>26</v>
+      </c>
+      <c r="F23" s="23"/>
+      <c r="G23" s="20"/>
       <c r="I23" s="20"/>
       <c r="K23" s="20"/>
     </row>
@@ -5830,26 +5823,28 @@
       <c r="A24" s="27" t="str">
         <f>data!B88</f>
       </c>
-      <c r="I24" s="21">
-        <v>52</v>
-      </c>
-      <c r="J24" s="23"/>
+      <c r="C24" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="D24" s="23"/>
+      <c r="E24" s="20"/>
+      <c r="I24" s="20"/>
       <c r="K24" s="20"/>
     </row>
     <row r="25">
       <c r="A25" s="28" t="str">
         <f>data!B89</f>
       </c>
-      <c r="C25" s="24" t="s">
-        <v>307</v>
-      </c>
-      <c r="I25" s="20"/>
+      <c r="I25" s="21">
+        <v>52</v>
+      </c>
+      <c r="J25" s="23"/>
+      <c r="K25" s="20"/>
     </row>
     <row r="26">
       <c r="A26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="21">
-        <v>27</v>
+      <c r="C26" s="24" t="s">
+        <v>307</v>
       </c>
       <c r="I26" s="20"/>
     </row>
@@ -5857,52 +5852,59 @@
       <c r="A27" s="25" t="str">
         <f>data!A92</f>
       </c>
-      <c r="C27" s="24" t="s">
-        <v>308</v>
-      </c>
-      <c r="D27" s="23"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="20"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="21">
+        <v>27</v>
+      </c>
       <c r="I27" s="20"/>
     </row>
     <row r="28">
       <c r="A28" s="26" t="str">
         <f>data!B90</f>
       </c>
-      <c r="G28" s="21">
-        <v>44</v>
-      </c>
-      <c r="H28" s="23"/>
+      <c r="C28" s="24" t="s">
+        <v>308</v>
+      </c>
+      <c r="D28" s="23"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="20"/>
       <c r="I28" s="20"/>
     </row>
     <row r="29">
       <c r="A29" s="27" t="str">
         <f>data!B91</f>
       </c>
-      <c r="C29" s="24" t="s">
-        <v>309</v>
-      </c>
-      <c r="G29" s="20"/>
+      <c r="G29" s="21">
+        <v>44</v>
+      </c>
+      <c r="H29" s="23"/>
+      <c r="I29" s="20"/>
     </row>
     <row r="30">
       <c r="A30" s="28" t="str">
         <f>data!B92</f>
       </c>
-      <c r="D30" s="22"/>
-      <c r="E30" s="21">
-        <v>28</v>
-      </c>
-      <c r="F30" s="23"/>
+      <c r="C30" s="24" t="s">
+        <v>309</v>
+      </c>
       <c r="G30" s="20"/>
     </row>
     <row r="31">
       <c r="A31" s="22"/>
-      <c r="C31" s="24" t="s">
+      <c r="D31" s="22"/>
+      <c r="E31" s="21">
+        <v>28</v>
+      </c>
+      <c r="F31" s="23"/>
+      <c r="G31" s="20"/>
+    </row>
+    <row r="32">
+      <c r="C32" s="24" t="s">
         <v>310</v>
       </c>
-      <c r="D31" s="23"/>
-      <c r="E31" s="20"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="20"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="true" verticalCentered="true"/>
@@ -5960,7 +5962,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="12">
         <v>2.0833333333333333E-3</v>
@@ -18316,7 +18318,7 @@
     </row>
     <row r="5">
       <c r="A5" s="30" t="str">
-        <f>CONCATENATE("Pool DD.2 ",'Pool Matches'!O659)</f>
+        <f>CONCATENATE("Pool C.1 ",'Pool Matches'!G99)</f>
       </c>
       <c r="B5" s="30"/>
       <c r="C5" s="30"/>
@@ -18324,10 +18326,10 @@
       <c r="E5" s="30"/>
       <c r="F5" s="30"/>
       <c r="G5" s="30" t="str">
-        <f>CONCATENATE("Pool A.2 ",'Pool Matches'!G56)</f>
+        <f>CONCATENATE("Pool B.2 ",'Pool Matches'!O43)</f>
       </c>
       <c r="I5" s="30" t="str">
-        <f>CONCATENATE("Pool DD.1 ",'Pool Matches'!O658)</f>
+        <f>CONCATENATE("Pool E.1 ",'Pool Matches'!G142)</f>
       </c>
       <c r="J5" s="30"/>
       <c r="K5" s="30"/>
@@ -18335,7 +18337,7 @@
       <c r="M5" s="30"/>
       <c r="N5" s="30"/>
       <c r="O5" s="30" t="str">
-        <f>CONCATENATE("Pool B.1 ",'Pool Matches'!O42)</f>
+        <f>CONCATENATE("Pool D.2 ",'Pool Matches'!O100)</f>
       </c>
     </row>
     <row r="6">
@@ -18460,7 +18462,7 @@
     </row>
     <row r="12">
       <c r="A12" s="30" t="str">
-        <f>CONCATENATE("Pool DD.2 ",'Pool Matches'!O659)</f>
+        <f>CONCATENATE("Pool C.1 ",'Pool Matches'!G99)</f>
       </c>
       <c r="B12" s="30" t="s">
         <v>314</v>
@@ -18476,10 +18478,10 @@
         <v>314</v>
       </c>
       <c r="G12" s="30" t="str">
-        <f>CONCATENATE("Pool A.2 ",'Pool Matches'!G56)</f>
+        <f>CONCATENATE("Pool B.2 ",'Pool Matches'!O43)</f>
       </c>
       <c r="I12" s="30" t="str">
-        <f>CONCATENATE("Pool DD.1 ",'Pool Matches'!O658)</f>
+        <f>CONCATENATE("Pool E.1 ",'Pool Matches'!G142)</f>
       </c>
       <c r="J12" s="30" t="s">
         <v>314</v>
@@ -18495,7 +18497,7 @@
         <v>314</v>
       </c>
       <c r="O12" s="30" t="str">
-        <f>CONCATENATE("Pool B.1 ",'Pool Matches'!O42)</f>
+        <f>CONCATENATE("Pool D.2 ",'Pool Matches'!O100)</f>
       </c>
     </row>
     <row r="13">
@@ -18584,7 +18586,7 @@
     </row>
     <row r="21">
       <c r="A21" s="30" t="str">
-        <f>CONCATENATE("Pool CC.2 ",'Pool Matches'!G659)</f>
+        <f>CONCATENATE("Pool G.1 ",'Pool Matches'!G185)</f>
       </c>
       <c r="B21" s="30"/>
       <c r="C21" s="30"/>
@@ -18592,10 +18594,10 @@
       <c r="E21" s="30"/>
       <c r="F21" s="30"/>
       <c r="G21" s="30" t="str">
-        <f>CONCATENATE("Pool B.2 ",'Pool Matches'!O43)</f>
+        <f>CONCATENATE("Pool F.2 ",'Pool Matches'!O143)</f>
       </c>
       <c r="I21" s="30" t="str">
-        <f>CONCATENATE("Pool CC.1 ",'Pool Matches'!G658)</f>
+        <f>CONCATENATE("Pool I.1 ",'Pool Matches'!G228)</f>
       </c>
       <c r="J21" s="30"/>
       <c r="K21" s="30"/>
@@ -18603,7 +18605,7 @@
       <c r="M21" s="30"/>
       <c r="N21" s="30"/>
       <c r="O21" s="30" t="str">
-        <f>CONCATENATE("Pool C.1 ",'Pool Matches'!G99)</f>
+        <f>CONCATENATE("Pool H.2 ",'Pool Matches'!O186)</f>
       </c>
     </row>
     <row r="22">
@@ -18728,7 +18730,7 @@
     </row>
     <row r="28">
       <c r="A28" s="30" t="str">
-        <f>CONCATENATE("Pool CC.2 ",'Pool Matches'!G659)</f>
+        <f>CONCATENATE("Pool G.1 ",'Pool Matches'!G185)</f>
       </c>
       <c r="B28" s="30" t="s">
         <v>314</v>
@@ -18744,10 +18746,10 @@
         <v>314</v>
       </c>
       <c r="G28" s="30" t="str">
-        <f>CONCATENATE("Pool B.2 ",'Pool Matches'!O43)</f>
+        <f>CONCATENATE("Pool F.2 ",'Pool Matches'!O143)</f>
       </c>
       <c r="I28" s="30" t="str">
-        <f>CONCATENATE("Pool CC.1 ",'Pool Matches'!G658)</f>
+        <f>CONCATENATE("Pool I.1 ",'Pool Matches'!G228)</f>
       </c>
       <c r="J28" s="30" t="s">
         <v>314</v>
@@ -18763,7 +18765,7 @@
         <v>314</v>
       </c>
       <c r="O28" s="30" t="str">
-        <f>CONCATENATE("Pool C.1 ",'Pool Matches'!G99)</f>
+        <f>CONCATENATE("Pool H.2 ",'Pool Matches'!O186)</f>
       </c>
     </row>
     <row r="29">
@@ -18852,7 +18854,7 @@
     </row>
     <row r="37">
       <c r="A37" s="30" t="str">
-        <f>CONCATENATE("Pool BB.2 ",'Pool Matches'!O616)</f>
+        <f>CONCATENATE("Pool K.1 ",'Pool Matches'!G271)</f>
       </c>
       <c r="B37" s="30"/>
       <c r="C37" s="30"/>
@@ -18860,10 +18862,10 @@
       <c r="E37" s="30"/>
       <c r="F37" s="30"/>
       <c r="G37" s="30" t="str">
-        <f>CONCATENATE("Pool C.2 ",'Pool Matches'!G100)</f>
+        <f>CONCATENATE("Pool J.2 ",'Pool Matches'!O229)</f>
       </c>
       <c r="I37" s="30" t="str">
-        <f>CONCATENATE("Pool BB.1 ",'Pool Matches'!O615)</f>
+        <f>CONCATENATE("Pool M.1 ",'Pool Matches'!G314)</f>
       </c>
       <c r="J37" s="30"/>
       <c r="K37" s="30"/>
@@ -18871,7 +18873,7 @@
       <c r="M37" s="30"/>
       <c r="N37" s="30"/>
       <c r="O37" s="30" t="str">
-        <f>CONCATENATE("Pool D.1 ",'Pool Matches'!O99)</f>
+        <f>CONCATENATE("Pool L.2 ",'Pool Matches'!O272)</f>
       </c>
     </row>
     <row r="38">
@@ -18996,7 +18998,7 @@
     </row>
     <row r="44">
       <c r="A44" s="30" t="str">
-        <f>CONCATENATE("Pool BB.2 ",'Pool Matches'!O616)</f>
+        <f>CONCATENATE("Pool K.1 ",'Pool Matches'!G271)</f>
       </c>
       <c r="B44" s="30" t="s">
         <v>314</v>
@@ -19012,10 +19014,10 @@
         <v>314</v>
       </c>
       <c r="G44" s="30" t="str">
-        <f>CONCATENATE("Pool C.2 ",'Pool Matches'!G100)</f>
+        <f>CONCATENATE("Pool J.2 ",'Pool Matches'!O229)</f>
       </c>
       <c r="I44" s="30" t="str">
-        <f>CONCATENATE("Pool BB.1 ",'Pool Matches'!O615)</f>
+        <f>CONCATENATE("Pool M.1 ",'Pool Matches'!G314)</f>
       </c>
       <c r="J44" s="30" t="s">
         <v>314</v>
@@ -19031,7 +19033,7 @@
         <v>314</v>
       </c>
       <c r="O44" s="30" t="str">
-        <f>CONCATENATE("Pool D.1 ",'Pool Matches'!O99)</f>
+        <f>CONCATENATE("Pool L.2 ",'Pool Matches'!O272)</f>
       </c>
     </row>
     <row r="45">
@@ -19120,7 +19122,7 @@
     </row>
     <row r="53">
       <c r="A53" s="30" t="str">
-        <f>CONCATENATE("Pool AA.2 ",'Pool Matches'!G616)</f>
+        <f>CONCATENATE("Pool O.1 ",'Pool Matches'!G357)</f>
       </c>
       <c r="B53" s="30"/>
       <c r="C53" s="30"/>
@@ -19128,10 +19130,10 @@
       <c r="E53" s="30"/>
       <c r="F53" s="30"/>
       <c r="G53" s="30" t="str">
-        <f>CONCATENATE("Pool D.2 ",'Pool Matches'!O100)</f>
+        <f>CONCATENATE("Pool N.2 ",'Pool Matches'!O315)</f>
       </c>
       <c r="I53" s="30" t="str">
-        <f>CONCATENATE("Pool E.1 ",'Pool Matches'!G142)</f>
+        <f>CONCATENATE("Pool P.2 ",'Pool Matches'!O358)</f>
       </c>
       <c r="J53" s="30"/>
       <c r="K53" s="30"/>
@@ -19139,7 +19141,7 @@
       <c r="M53" s="30"/>
       <c r="N53" s="30"/>
       <c r="O53" s="30" t="str">
-        <f>CONCATENATE("Pool Z.2 ",'Pool Matches'!O573)</f>
+        <f>CONCATENATE("Pool R.2 ",'Pool Matches'!O401)</f>
       </c>
     </row>
     <row r="54">
@@ -19264,7 +19266,7 @@
     </row>
     <row r="60">
       <c r="A60" s="30" t="str">
-        <f>CONCATENATE("Pool AA.2 ",'Pool Matches'!G616)</f>
+        <f>CONCATENATE("Pool O.1 ",'Pool Matches'!G357)</f>
       </c>
       <c r="B60" s="30" t="s">
         <v>314</v>
@@ -19280,10 +19282,10 @@
         <v>314</v>
       </c>
       <c r="G60" s="30" t="str">
-        <f>CONCATENATE("Pool D.2 ",'Pool Matches'!O100)</f>
+        <f>CONCATENATE("Pool N.2 ",'Pool Matches'!O315)</f>
       </c>
       <c r="I60" s="30" t="str">
-        <f>CONCATENATE("Pool E.1 ",'Pool Matches'!G142)</f>
+        <f>CONCATENATE("Pool P.2 ",'Pool Matches'!O358)</f>
       </c>
       <c r="J60" s="30" t="s">
         <v>314</v>
@@ -19299,7 +19301,7 @@
         <v>314</v>
       </c>
       <c r="O60" s="30" t="str">
-        <f>CONCATENATE("Pool Z.2 ",'Pool Matches'!O573)</f>
+        <f>CONCATENATE("Pool R.2 ",'Pool Matches'!O401)</f>
       </c>
     </row>
     <row r="61">
@@ -19388,7 +19390,7 @@
     </row>
     <row r="69">
       <c r="A69" s="30" t="str">
-        <f>CONCATENATE("Pool Z.1 ",'Pool Matches'!O572)</f>
+        <f>CONCATENATE("Pool S.1 ",'Pool Matches'!G443)</f>
       </c>
       <c r="B69" s="30"/>
       <c r="C69" s="30"/>
@@ -19396,10 +19398,10 @@
       <c r="E69" s="30"/>
       <c r="F69" s="30"/>
       <c r="G69" s="30" t="str">
-        <f>CONCATENATE("Pool E.2 ",'Pool Matches'!G143)</f>
+        <f>CONCATENATE("Pool T.2 ",'Pool Matches'!O444)</f>
       </c>
       <c r="I69" s="30" t="str">
-        <f>CONCATENATE("Pool F.1 ",'Pool Matches'!O142)</f>
+        <f>CONCATENATE("Pool U.1 ",'Pool Matches'!G486)</f>
       </c>
       <c r="J69" s="30"/>
       <c r="K69" s="30"/>
@@ -19407,7 +19409,7 @@
       <c r="M69" s="30"/>
       <c r="N69" s="30"/>
       <c r="O69" s="30" t="str">
-        <f>CONCATENATE("Pool Y.2 ",'Pool Matches'!G573)</f>
+        <f>CONCATENATE("Pool V.2 ",'Pool Matches'!O487)</f>
       </c>
     </row>
     <row r="70">
@@ -19532,7 +19534,7 @@
     </row>
     <row r="76">
       <c r="A76" s="30" t="str">
-        <f>CONCATENATE("Pool Z.1 ",'Pool Matches'!O572)</f>
+        <f>CONCATENATE("Pool S.1 ",'Pool Matches'!G443)</f>
       </c>
       <c r="B76" s="30" t="s">
         <v>314</v>
@@ -19548,10 +19550,10 @@
         <v>314</v>
       </c>
       <c r="G76" s="30" t="str">
-        <f>CONCATENATE("Pool E.2 ",'Pool Matches'!G143)</f>
+        <f>CONCATENATE("Pool T.2 ",'Pool Matches'!O444)</f>
       </c>
       <c r="I76" s="30" t="str">
-        <f>CONCATENATE("Pool F.1 ",'Pool Matches'!O142)</f>
+        <f>CONCATENATE("Pool U.1 ",'Pool Matches'!G486)</f>
       </c>
       <c r="J76" s="30" t="s">
         <v>314</v>
@@ -19567,7 +19569,7 @@
         <v>314</v>
       </c>
       <c r="O76" s="30" t="str">
-        <f>CONCATENATE("Pool Y.2 ",'Pool Matches'!G573)</f>
+        <f>CONCATENATE("Pool V.2 ",'Pool Matches'!O487)</f>
       </c>
     </row>
     <row r="77">
@@ -19656,7 +19658,7 @@
     </row>
     <row r="85">
       <c r="A85" s="30" t="str">
-        <f>CONCATENATE("Pool Y.1 ",'Pool Matches'!G572)</f>
+        <f>CONCATENATE("Pool W.1 ",'Pool Matches'!G529)</f>
       </c>
       <c r="B85" s="30"/>
       <c r="C85" s="30"/>
@@ -19664,10 +19666,10 @@
       <c r="E85" s="30"/>
       <c r="F85" s="30"/>
       <c r="G85" s="30" t="str">
-        <f>CONCATENATE("Pool F.2 ",'Pool Matches'!O143)</f>
+        <f>CONCATENATE("Pool X.2 ",'Pool Matches'!O530)</f>
       </c>
       <c r="I85" s="30" t="str">
-        <f>CONCATENATE("Pool G.1 ",'Pool Matches'!G185)</f>
+        <f>CONCATENATE("Pool Y.1 ",'Pool Matches'!G572)</f>
       </c>
       <c r="J85" s="30"/>
       <c r="K85" s="30"/>
@@ -19675,7 +19677,7 @@
       <c r="M85" s="30"/>
       <c r="N85" s="30"/>
       <c r="O85" s="30" t="str">
-        <f>CONCATENATE("Pool X.2 ",'Pool Matches'!O530)</f>
+        <f>CONCATENATE("Pool Z.2 ",'Pool Matches'!O573)</f>
       </c>
     </row>
     <row r="86">
@@ -19800,7 +19802,7 @@
     </row>
     <row r="92">
       <c r="A92" s="30" t="str">
-        <f>CONCATENATE("Pool Y.1 ",'Pool Matches'!G572)</f>
+        <f>CONCATENATE("Pool W.1 ",'Pool Matches'!G529)</f>
       </c>
       <c r="B92" s="30" t="s">
         <v>314</v>
@@ -19816,10 +19818,10 @@
         <v>314</v>
       </c>
       <c r="G92" s="30" t="str">
-        <f>CONCATENATE("Pool F.2 ",'Pool Matches'!O143)</f>
+        <f>CONCATENATE("Pool X.2 ",'Pool Matches'!O530)</f>
       </c>
       <c r="I92" s="30" t="str">
-        <f>CONCATENATE("Pool G.1 ",'Pool Matches'!G185)</f>
+        <f>CONCATENATE("Pool Y.1 ",'Pool Matches'!G572)</f>
       </c>
       <c r="J92" s="30" t="s">
         <v>314</v>
@@ -19835,7 +19837,7 @@
         <v>314</v>
       </c>
       <c r="O92" s="30" t="str">
-        <f>CONCATENATE("Pool X.2 ",'Pool Matches'!O530)</f>
+        <f>CONCATENATE("Pool Z.2 ",'Pool Matches'!O573)</f>
       </c>
     </row>
     <row r="93">
@@ -19924,7 +19926,7 @@
     </row>
     <row r="101">
       <c r="A101" s="30" t="str">
-        <f>CONCATENATE("Pool X.1 ",'Pool Matches'!O529)</f>
+        <f>CONCATENATE("Pool AA.1 ",'Pool Matches'!G615)</f>
       </c>
       <c r="B101" s="30"/>
       <c r="C101" s="30"/>
@@ -19932,10 +19934,10 @@
       <c r="E101" s="30"/>
       <c r="F101" s="30"/>
       <c r="G101" s="30" t="str">
-        <f>CONCATENATE("Pool G.2 ",'Pool Matches'!G186)</f>
+        <f>CONCATENATE("Pool BB.2 ",'Pool Matches'!O616)</f>
       </c>
       <c r="I101" s="30" t="str">
-        <f>CONCATENATE("Pool H.1 ",'Pool Matches'!O185)</f>
+        <f>CONCATENATE("Pool CC.1 ",'Pool Matches'!G658)</f>
       </c>
       <c r="J101" s="30"/>
       <c r="K101" s="30"/>
@@ -19943,7 +19945,7 @@
       <c r="M101" s="30"/>
       <c r="N101" s="30"/>
       <c r="O101" s="30" t="str">
-        <f>CONCATENATE("Pool W.2 ",'Pool Matches'!G530)</f>
+        <f>CONCATENATE("Pool DD.2 ",'Pool Matches'!O659)</f>
       </c>
     </row>
     <row r="102">
@@ -20068,7 +20070,7 @@
     </row>
     <row r="108">
       <c r="A108" s="30" t="str">
-        <f>CONCATENATE("Pool X.1 ",'Pool Matches'!O529)</f>
+        <f>CONCATENATE("Pool AA.1 ",'Pool Matches'!G615)</f>
       </c>
       <c r="B108" s="30" t="s">
         <v>314</v>
@@ -20084,10 +20086,10 @@
         <v>314</v>
       </c>
       <c r="G108" s="30" t="str">
-        <f>CONCATENATE("Pool G.2 ",'Pool Matches'!G186)</f>
+        <f>CONCATENATE("Pool BB.2 ",'Pool Matches'!O616)</f>
       </c>
       <c r="I108" s="30" t="str">
-        <f>CONCATENATE("Pool H.1 ",'Pool Matches'!O185)</f>
+        <f>CONCATENATE("Pool CC.1 ",'Pool Matches'!G658)</f>
       </c>
       <c r="J108" s="30" t="s">
         <v>314</v>
@@ -20103,7 +20105,7 @@
         <v>314</v>
       </c>
       <c r="O108" s="30" t="str">
-        <f>CONCATENATE("Pool W.2 ",'Pool Matches'!G530)</f>
+        <f>CONCATENATE("Pool DD.2 ",'Pool Matches'!O659)</f>
       </c>
     </row>
     <row r="109">
@@ -20192,7 +20194,7 @@
     </row>
     <row r="117">
       <c r="A117" s="30" t="str">
-        <f>CONCATENATE("Pool I.1 ",'Pool Matches'!G228)</f>
+        <f>CONCATENATE("Pool A.2 ",'Pool Matches'!G56)</f>
       </c>
       <c r="B117" s="30"/>
       <c r="C117" s="30"/>
@@ -20200,10 +20202,10 @@
       <c r="E117" s="30"/>
       <c r="F117" s="30"/>
       <c r="G117" s="30" t="str">
-        <f>CONCATENATE("Pool H.2 ",'Pool Matches'!O186)</f>
+        <f>CONCATENATE("Pool C.2 ",'Pool Matches'!G100)</f>
       </c>
       <c r="I117" s="30" t="str">
-        <f>CONCATENATE("Pool V.2 ",'Pool Matches'!O487)</f>
+        <f>CONCATENATE("Pool D.1 ",'Pool Matches'!O99)</f>
       </c>
       <c r="J117" s="30"/>
       <c r="K117" s="30"/>
@@ -20211,7 +20213,7 @@
       <c r="M117" s="30"/>
       <c r="N117" s="30"/>
       <c r="O117" s="30" t="str">
-        <f>CONCATENATE("Pool I.2 ",'Pool Matches'!G229)</f>
+        <f>CONCATENATE("Pool E.2 ",'Pool Matches'!G143)</f>
       </c>
     </row>
     <row r="118">
@@ -20336,7 +20338,7 @@
     </row>
     <row r="124">
       <c r="A124" s="30" t="str">
-        <f>CONCATENATE("Pool I.1 ",'Pool Matches'!G228)</f>
+        <f>CONCATENATE("Pool A.2 ",'Pool Matches'!G56)</f>
       </c>
       <c r="B124" s="30" t="s">
         <v>314</v>
@@ -20352,10 +20354,10 @@
         <v>314</v>
       </c>
       <c r="G124" s="30" t="str">
-        <f>CONCATENATE("Pool H.2 ",'Pool Matches'!O186)</f>
+        <f>CONCATENATE("Pool C.2 ",'Pool Matches'!G100)</f>
       </c>
       <c r="I124" s="30" t="str">
-        <f>CONCATENATE("Pool V.2 ",'Pool Matches'!O487)</f>
+        <f>CONCATENATE("Pool D.1 ",'Pool Matches'!O99)</f>
       </c>
       <c r="J124" s="30" t="s">
         <v>314</v>
@@ -20371,7 +20373,7 @@
         <v>314</v>
       </c>
       <c r="O124" s="30" t="str">
-        <f>CONCATENATE("Pool I.2 ",'Pool Matches'!G229)</f>
+        <f>CONCATENATE("Pool E.2 ",'Pool Matches'!G143)</f>
       </c>
     </row>
     <row r="125">
@@ -20460,7 +20462,7 @@
     </row>
     <row r="133">
       <c r="A133" s="30" t="str">
-        <f>CONCATENATE("Pool V.1 ",'Pool Matches'!O486)</f>
+        <f>CONCATENATE("Pool F.1 ",'Pool Matches'!O142)</f>
       </c>
       <c r="B133" s="30"/>
       <c r="C133" s="30"/>
@@ -20468,10 +20470,10 @@
       <c r="E133" s="30"/>
       <c r="F133" s="30"/>
       <c r="G133" s="30" t="str">
-        <f>CONCATENATE("Pool J.1 ",'Pool Matches'!O228)</f>
+        <f>CONCATENATE("Pool G.2 ",'Pool Matches'!G186)</f>
       </c>
       <c r="I133" s="30" t="str">
-        <f>CONCATENATE("Pool U.2 ",'Pool Matches'!G487)</f>
+        <f>CONCATENATE("Pool H.1 ",'Pool Matches'!O185)</f>
       </c>
       <c r="J133" s="30"/>
       <c r="K133" s="30"/>
@@ -20479,7 +20481,7 @@
       <c r="M133" s="30"/>
       <c r="N133" s="30"/>
       <c r="O133" s="30" t="str">
-        <f>CONCATENATE("Pool J.2 ",'Pool Matches'!O229)</f>
+        <f>CONCATENATE("Pool I.2 ",'Pool Matches'!G229)</f>
       </c>
     </row>
     <row r="134">
@@ -20604,7 +20606,7 @@
     </row>
     <row r="140">
       <c r="A140" s="30" t="str">
-        <f>CONCATENATE("Pool V.1 ",'Pool Matches'!O486)</f>
+        <f>CONCATENATE("Pool F.1 ",'Pool Matches'!O142)</f>
       </c>
       <c r="B140" s="30" t="s">
         <v>314</v>
@@ -20620,10 +20622,10 @@
         <v>314</v>
       </c>
       <c r="G140" s="30" t="str">
-        <f>CONCATENATE("Pool J.1 ",'Pool Matches'!O228)</f>
+        <f>CONCATENATE("Pool G.2 ",'Pool Matches'!G186)</f>
       </c>
       <c r="I140" s="30" t="str">
-        <f>CONCATENATE("Pool U.2 ",'Pool Matches'!G487)</f>
+        <f>CONCATENATE("Pool H.1 ",'Pool Matches'!O185)</f>
       </c>
       <c r="J140" s="30" t="s">
         <v>314</v>
@@ -20639,7 +20641,7 @@
         <v>314</v>
       </c>
       <c r="O140" s="30" t="str">
-        <f>CONCATENATE("Pool J.2 ",'Pool Matches'!O229)</f>
+        <f>CONCATENATE("Pool I.2 ",'Pool Matches'!G229)</f>
       </c>
     </row>
     <row r="141">
@@ -20728,7 +20730,7 @@
     </row>
     <row r="149">
       <c r="A149" s="30" t="str">
-        <f>CONCATENATE("Pool U.1 ",'Pool Matches'!G486)</f>
+        <f>CONCATENATE("Pool J.1 ",'Pool Matches'!O228)</f>
       </c>
       <c r="B149" s="30"/>
       <c r="C149" s="30"/>
@@ -20736,10 +20738,10 @@
       <c r="E149" s="30"/>
       <c r="F149" s="30"/>
       <c r="G149" s="30" t="str">
-        <f>CONCATENATE("Pool K.1 ",'Pool Matches'!G271)</f>
+        <f>CONCATENATE("Pool K.2 ",'Pool Matches'!G272)</f>
       </c>
       <c r="I149" s="30" t="str">
-        <f>CONCATENATE("Pool T.2 ",'Pool Matches'!O444)</f>
+        <f>CONCATENATE("Pool L.1 ",'Pool Matches'!O271)</f>
       </c>
       <c r="J149" s="30"/>
       <c r="K149" s="30"/>
@@ -20747,7 +20749,7 @@
       <c r="M149" s="30"/>
       <c r="N149" s="30"/>
       <c r="O149" s="30" t="str">
-        <f>CONCATENATE("Pool K.2 ",'Pool Matches'!G272)</f>
+        <f>CONCATENATE("Pool M.2 ",'Pool Matches'!G315)</f>
       </c>
     </row>
     <row r="150">
@@ -20872,7 +20874,7 @@
     </row>
     <row r="156">
       <c r="A156" s="30" t="str">
-        <f>CONCATENATE("Pool U.1 ",'Pool Matches'!G486)</f>
+        <f>CONCATENATE("Pool J.1 ",'Pool Matches'!O228)</f>
       </c>
       <c r="B156" s="30" t="s">
         <v>314</v>
@@ -20888,10 +20890,10 @@
         <v>314</v>
       </c>
       <c r="G156" s="30" t="str">
-        <f>CONCATENATE("Pool K.1 ",'Pool Matches'!G271)</f>
+        <f>CONCATENATE("Pool K.2 ",'Pool Matches'!G272)</f>
       </c>
       <c r="I156" s="30" t="str">
-        <f>CONCATENATE("Pool T.2 ",'Pool Matches'!O444)</f>
+        <f>CONCATENATE("Pool L.1 ",'Pool Matches'!O271)</f>
       </c>
       <c r="J156" s="30" t="s">
         <v>314</v>
@@ -20907,7 +20909,7 @@
         <v>314</v>
       </c>
       <c r="O156" s="30" t="str">
-        <f>CONCATENATE("Pool K.2 ",'Pool Matches'!G272)</f>
+        <f>CONCATENATE("Pool M.2 ",'Pool Matches'!G315)</f>
       </c>
     </row>
     <row r="157">
@@ -20996,7 +20998,7 @@
     </row>
     <row r="165">
       <c r="A165" s="30" t="str">
-        <f>CONCATENATE("Pool T.1 ",'Pool Matches'!O443)</f>
+        <f>CONCATENATE("Pool N.1 ",'Pool Matches'!O314)</f>
       </c>
       <c r="B165" s="30"/>
       <c r="C165" s="30"/>
@@ -21004,10 +21006,10 @@
       <c r="E165" s="30"/>
       <c r="F165" s="30"/>
       <c r="G165" s="30" t="str">
-        <f>CONCATENATE("Pool L.1 ",'Pool Matches'!O271)</f>
+        <f>CONCATENATE("Pool O.2 ",'Pool Matches'!G358)</f>
       </c>
       <c r="I165" s="30" t="str">
-        <f>CONCATENATE("Pool S.2 ",'Pool Matches'!G444)</f>
+        <f>CONCATENATE("Pool R.1 ",'Pool Matches'!O400)</f>
       </c>
       <c r="J165" s="30"/>
       <c r="K165" s="30"/>
@@ -21015,7 +21017,7 @@
       <c r="M165" s="30"/>
       <c r="N165" s="30"/>
       <c r="O165" s="30" t="str">
-        <f>CONCATENATE("Pool L.2 ",'Pool Matches'!O272)</f>
+        <f>CONCATENATE("Pool Q.2 ",'Pool Matches'!G401)</f>
       </c>
     </row>
     <row r="166">
@@ -21140,7 +21142,7 @@
     </row>
     <row r="172">
       <c r="A172" s="30" t="str">
-        <f>CONCATENATE("Pool T.1 ",'Pool Matches'!O443)</f>
+        <f>CONCATENATE("Pool N.1 ",'Pool Matches'!O314)</f>
       </c>
       <c r="B172" s="30" t="s">
         <v>314</v>
@@ -21156,10 +21158,10 @@
         <v>314</v>
       </c>
       <c r="G172" s="30" t="str">
-        <f>CONCATENATE("Pool L.1 ",'Pool Matches'!O271)</f>
+        <f>CONCATENATE("Pool O.2 ",'Pool Matches'!G358)</f>
       </c>
       <c r="I172" s="30" t="str">
-        <f>CONCATENATE("Pool S.2 ",'Pool Matches'!G444)</f>
+        <f>CONCATENATE("Pool R.1 ",'Pool Matches'!O400)</f>
       </c>
       <c r="J172" s="30" t="s">
         <v>314</v>
@@ -21175,7 +21177,7 @@
         <v>314</v>
       </c>
       <c r="O172" s="30" t="str">
-        <f>CONCATENATE("Pool L.2 ",'Pool Matches'!O272)</f>
+        <f>CONCATENATE("Pool Q.2 ",'Pool Matches'!G401)</f>
       </c>
     </row>
     <row r="173">
@@ -21264,7 +21266,7 @@
     </row>
     <row r="181">
       <c r="A181" s="30" t="str">
-        <f>CONCATENATE("Pool M.1 ",'Pool Matches'!G314)</f>
+        <f>CONCATENATE("Pool T.1 ",'Pool Matches'!O443)</f>
       </c>
       <c r="B181" s="30"/>
       <c r="C181" s="30"/>
@@ -21272,10 +21274,10 @@
       <c r="E181" s="30"/>
       <c r="F181" s="30"/>
       <c r="G181" s="30" t="str">
-        <f>CONCATENATE("Pool R.2 ",'Pool Matches'!O401)</f>
+        <f>CONCATENATE("Pool S.2 ",'Pool Matches'!G444)</f>
       </c>
       <c r="I181" s="30" t="str">
-        <f>CONCATENATE("Pool R.1 ",'Pool Matches'!O400)</f>
+        <f>CONCATENATE("Pool V.1 ",'Pool Matches'!O486)</f>
       </c>
       <c r="J181" s="30"/>
       <c r="K181" s="30"/>
@@ -21283,7 +21285,7 @@
       <c r="M181" s="30"/>
       <c r="N181" s="30"/>
       <c r="O181" s="30" t="str">
-        <f>CONCATENATE("Pool M.2 ",'Pool Matches'!G315)</f>
+        <f>CONCATENATE("Pool U.2 ",'Pool Matches'!G487)</f>
       </c>
     </row>
     <row r="182">
@@ -21408,7 +21410,7 @@
     </row>
     <row r="188">
       <c r="A188" s="30" t="str">
-        <f>CONCATENATE("Pool M.1 ",'Pool Matches'!G314)</f>
+        <f>CONCATENATE("Pool T.1 ",'Pool Matches'!O443)</f>
       </c>
       <c r="B188" s="30" t="s">
         <v>314</v>
@@ -21424,10 +21426,10 @@
         <v>314</v>
       </c>
       <c r="G188" s="30" t="str">
-        <f>CONCATENATE("Pool R.2 ",'Pool Matches'!O401)</f>
+        <f>CONCATENATE("Pool S.2 ",'Pool Matches'!G444)</f>
       </c>
       <c r="I188" s="30" t="str">
-        <f>CONCATENATE("Pool R.1 ",'Pool Matches'!O400)</f>
+        <f>CONCATENATE("Pool V.1 ",'Pool Matches'!O486)</f>
       </c>
       <c r="J188" s="30" t="s">
         <v>314</v>
@@ -21443,7 +21445,7 @@
         <v>314</v>
       </c>
       <c r="O188" s="30" t="str">
-        <f>CONCATENATE("Pool M.2 ",'Pool Matches'!G315)</f>
+        <f>CONCATENATE("Pool U.2 ",'Pool Matches'!G487)</f>
       </c>
     </row>
     <row r="189">
@@ -21532,7 +21534,7 @@
     </row>
     <row r="197">
       <c r="A197" s="30" t="str">
-        <f>CONCATENATE("Pool N.1 ",'Pool Matches'!O314)</f>
+        <f>CONCATENATE("Pool X.1 ",'Pool Matches'!O529)</f>
       </c>
       <c r="B197" s="30"/>
       <c r="C197" s="30"/>
@@ -21540,10 +21542,10 @@
       <c r="E197" s="30"/>
       <c r="F197" s="30"/>
       <c r="G197" s="30" t="str">
-        <f>CONCATENATE("Pool Q.2 ",'Pool Matches'!G401)</f>
+        <f>CONCATENATE("Pool W.2 ",'Pool Matches'!G530)</f>
       </c>
       <c r="I197" s="30" t="str">
-        <f>CONCATENATE("Pool Q.1 ",'Pool Matches'!G400)</f>
+        <f>CONCATENATE("Pool Z.1 ",'Pool Matches'!O572)</f>
       </c>
       <c r="J197" s="30"/>
       <c r="K197" s="30"/>
@@ -21551,7 +21553,7 @@
       <c r="M197" s="30"/>
       <c r="N197" s="30"/>
       <c r="O197" s="30" t="str">
-        <f>CONCATENATE("Pool N.2 ",'Pool Matches'!O315)</f>
+        <f>CONCATENATE("Pool Y.2 ",'Pool Matches'!G573)</f>
       </c>
     </row>
     <row r="198">
@@ -21676,7 +21678,7 @@
     </row>
     <row r="204">
       <c r="A204" s="30" t="str">
-        <f>CONCATENATE("Pool N.1 ",'Pool Matches'!O314)</f>
+        <f>CONCATENATE("Pool X.1 ",'Pool Matches'!O529)</f>
       </c>
       <c r="B204" s="30" t="s">
         <v>314</v>
@@ -21692,10 +21694,10 @@
         <v>314</v>
       </c>
       <c r="G204" s="30" t="str">
-        <f>CONCATENATE("Pool Q.2 ",'Pool Matches'!G401)</f>
+        <f>CONCATENATE("Pool W.2 ",'Pool Matches'!G530)</f>
       </c>
       <c r="I204" s="30" t="str">
-        <f>CONCATENATE("Pool Q.1 ",'Pool Matches'!G400)</f>
+        <f>CONCATENATE("Pool Z.1 ",'Pool Matches'!O572)</f>
       </c>
       <c r="J204" s="30" t="s">
         <v>314</v>
@@ -21711,7 +21713,7 @@
         <v>314</v>
       </c>
       <c r="O204" s="30" t="str">
-        <f>CONCATENATE("Pool N.2 ",'Pool Matches'!O315)</f>
+        <f>CONCATENATE("Pool Y.2 ",'Pool Matches'!G573)</f>
       </c>
     </row>
     <row r="205">
@@ -21800,7 +21802,7 @@
     </row>
     <row r="213">
       <c r="A213" s="30" t="str">
-        <f>CONCATENATE("Pool O.1 ",'Pool Matches'!G357)</f>
+        <f>CONCATENATE("Pool BB.1 ",'Pool Matches'!O615)</f>
       </c>
       <c r="B213" s="30"/>
       <c r="C213" s="30"/>
@@ -21808,10 +21810,10 @@
       <c r="E213" s="30"/>
       <c r="F213" s="30"/>
       <c r="G213" s="30" t="str">
-        <f>CONCATENATE("Pool P.2 ",'Pool Matches'!O358)</f>
+        <f>CONCATENATE("Pool AA.2 ",'Pool Matches'!G616)</f>
       </c>
       <c r="I213" s="30" t="str">
-        <f>CONCATENATE("Pool P.1 ",'Pool Matches'!O357)</f>
+        <f>CONCATENATE("Pool DD.1 ",'Pool Matches'!O658)</f>
       </c>
       <c r="J213" s="30"/>
       <c r="K213" s="30"/>
@@ -21819,7 +21821,7 @@
       <c r="M213" s="30"/>
       <c r="N213" s="30"/>
       <c r="O213" s="30" t="str">
-        <f>CONCATENATE("Pool O.2 ",'Pool Matches'!G358)</f>
+        <f>CONCATENATE("Pool CC.2 ",'Pool Matches'!G659)</f>
       </c>
     </row>
     <row r="214">
@@ -21944,7 +21946,7 @@
     </row>
     <row r="220">
       <c r="A220" s="30" t="str">
-        <f>CONCATENATE("Pool O.1 ",'Pool Matches'!G357)</f>
+        <f>CONCATENATE("Pool BB.1 ",'Pool Matches'!O615)</f>
       </c>
       <c r="B220" s="30" t="s">
         <v>314</v>
@@ -21960,10 +21962,10 @@
         <v>314</v>
       </c>
       <c r="G220" s="30" t="str">
-        <f>CONCATENATE("Pool P.2 ",'Pool Matches'!O358)</f>
+        <f>CONCATENATE("Pool AA.2 ",'Pool Matches'!G616)</f>
       </c>
       <c r="I220" s="30" t="str">
-        <f>CONCATENATE("Pool P.1 ",'Pool Matches'!O357)</f>
+        <f>CONCATENATE("Pool DD.1 ",'Pool Matches'!O658)</f>
       </c>
       <c r="J220" s="30" t="s">
         <v>314</v>
@@ -21979,7 +21981,7 @@
         <v>314</v>
       </c>
       <c r="O220" s="30" t="str">
-        <f>CONCATENATE("Pool O.2 ",'Pool Matches'!G358)</f>
+        <f>CONCATENATE("Pool CC.2 ",'Pool Matches'!G659)</f>
       </c>
     </row>
     <row r="221">
@@ -22623,7 +22625,7 @@
     </row>
     <row r="268">
       <c r="A268" s="30" t="str">
-        <f>CONCATENATE("Pool AA.1 ",'Pool Matches'!G615)</f>
+        <f>CONCATENATE("Pool Q.1 ",'Pool Matches'!G400)</f>
       </c>
       <c r="B268" s="30"/>
       <c r="C268" s="30"/>
@@ -22767,7 +22769,7 @@
     </row>
     <row r="275">
       <c r="A275" s="30" t="str">
-        <f>CONCATENATE("Pool AA.1 ",'Pool Matches'!G615)</f>
+        <f>CONCATENATE("Pool Q.1 ",'Pool Matches'!G400)</f>
       </c>
       <c r="B275" s="30" t="s">
         <v>314</v>
@@ -23159,7 +23161,7 @@
     </row>
     <row r="300">
       <c r="A300" s="30" t="str">
-        <f>CONCATENATE("Pool W.1 ",'Pool Matches'!G529)</f>
+        <f>CONCATENATE("Pool B.1 ",'Pool Matches'!O42)</f>
       </c>
       <c r="B300" s="30"/>
       <c r="C300" s="30"/>
@@ -23303,7 +23305,7 @@
     </row>
     <row r="307">
       <c r="A307" s="30" t="str">
-        <f>CONCATENATE("Pool W.1 ",'Pool Matches'!G529)</f>
+        <f>CONCATENATE("Pool B.1 ",'Pool Matches'!O42)</f>
       </c>
       <c r="B307" s="30" t="s">
         <v>314</v>
@@ -23695,7 +23697,7 @@
     </row>
     <row r="332">
       <c r="A332" s="30" t="str">
-        <f>CONCATENATE("Pool S.1 ",'Pool Matches'!G443)</f>
+        <f>CONCATENATE("Pool P.1 ",'Pool Matches'!O357)</f>
       </c>
       <c r="B332" s="30"/>
       <c r="C332" s="30"/>
@@ -23839,7 +23841,7 @@
     </row>
     <row r="339">
       <c r="A339" s="30" t="str">
-        <f>CONCATENATE("Pool S.1 ",'Pool Matches'!G443)</f>
+        <f>CONCATENATE("Pool P.1 ",'Pool Matches'!O357)</f>
       </c>
       <c r="B339" s="30" t="s">
         <v>314</v>

--- a/pools-example-large.xlsx
+++ b/pools-example-large.xlsx
@@ -125,7 +125,7 @@
     <t>Ygritte</t>
   </si>
   <si>
-    <t>Y. YGRITTE</t>
+    <t>YGRITTE</t>
   </si>
   <si>
     <t>Pool B</t>
@@ -734,7 +734,7 @@
     <t>Othello</t>
   </si>
   <si>
-    <t>O. OTHELLO</t>
+    <t>OTHELLO</t>
   </si>
   <si>
     <t>Pool BB</t>
@@ -776,7 +776,7 @@
     <t>Ulysses</t>
   </si>
   <si>
-    <t>U. ULYSSES</t>
+    <t>ULYSSES</t>
   </si>
   <si>
     <t>Pool DD</t>
@@ -785,7 +785,7 @@
     <t>Voldemort</t>
   </si>
   <si>
-    <t>V. VOLDEMORT</t>
+    <t>VOLDEMORT</t>
   </si>
   <si>
     <t>Willy Wonka</t>

--- a/pools-example-large.xlsx
+++ b/pools-example-large.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="387">
   <si>
     <t>Elimination Round 1</t>
   </si>
@@ -227,25 +227,25 @@
     <t>Z. ADAMS</t>
   </si>
   <si>
+    <t>Benjamin Evans</t>
+  </si>
+  <si>
+    <t>B. EVANS</t>
+  </si>
+  <si>
+    <t>Caleb Wilson</t>
+  </si>
+  <si>
+    <t>C. WILSON</t>
+  </si>
+  <si>
+    <t>Pool G</t>
+  </si>
+  <si>
     <t>Aaron Thompson</t>
   </si>
   <si>
     <t>A. THOMPSON</t>
-  </si>
-  <si>
-    <t>Benjamin Evans</t>
-  </si>
-  <si>
-    <t>B. EVANS</t>
-  </si>
-  <si>
-    <t>Pool G</t>
-  </si>
-  <si>
-    <t>Caleb Wilson</t>
-  </si>
-  <si>
-    <t>C. WILSON</t>
   </si>
   <si>
     <t>Dylan Moore</t>
@@ -2059,60 +2059,60 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<theme xmlns="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
-  <themeElements>
-    <clrScheme name="Sheets">
-      <dk1>
-        <srgbClr val="000000"/>
-      </dk1>
-      <lt1>
-        <srgbClr val="FFFFFF"/>
-      </lt1>
-      <dk2>
-        <srgbClr val="000000"/>
-      </dk2>
-      <lt2>
-        <srgbClr val="FFFFFF"/>
-      </lt2>
-      <accent1>
-        <srgbClr val="4F81BD"/>
-      </accent1>
-      <accent2>
-        <srgbClr val="C0504D"/>
-      </accent2>
-      <accent3>
-        <srgbClr val="9BBB59"/>
-      </accent3>
-      <accent4>
-        <srgbClr val="8064A2"/>
-      </accent4>
-      <accent5>
-        <srgbClr val="4BACC6"/>
-      </accent5>
-      <accent6>
-        <srgbClr val="F79646"/>
-      </accent6>
-      <hlink>
-        <srgbClr val="0000FF"/>
-      </hlink>
-      <folHlink>
-        <srgbClr val="0000FF"/>
-      </folHlink>
-    </clrScheme>
-    <fontScheme name="Sheets">
-      <majorFont>
-        <latin typeface="Arial"/>
-        <ea typeface="Arial"/>
-        <cs typeface="Arial"/>
-      </majorFont>
-      <minorFont>
-        <latin typeface="Arial"/>
-        <ea typeface="Arial"/>
-        <cs typeface="Arial"/>
-      </minorFont>
-    </fontScheme>
-    <fmtScheme name="Office">
-      <fillStyleLst>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+  <a:themeElements>
+    <a:clrScheme name="Sheets">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="FFFFFF"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="0000FF"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Sheets">
+      <a:majorFont>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -2168,8 +2168,8 @@
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-      </fillStyleLst>
-      <lnStyleLst>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
         <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -2191,8 +2191,8 @@
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-      </lnStyleLst>
-      <effectStyleLst>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst/>
         </a:effectStyle>
@@ -2208,8 +2208,8 @@
             </a:outerShdw>
           </a:effectLst>
         </a:effectStyle>
-      </effectStyleLst>
-      <bgFillStyleLst>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -2246,12 +2246,12 @@
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-      </bgFillStyleLst>
-    </fmtScheme>
-  </themeElements>
-  <objectDefaults/>
-  <extraClrSchemeLst/>
-</theme>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2529,7 +2529,7 @@
         <v>60</v>
       </c>
       <c r="C19" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D19" t="s">
         <v>61</v>
@@ -2543,7 +2543,7 @@
         <v>62</v>
       </c>
       <c r="C20" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D20" t="s">
         <v>63</v>
@@ -2557,7 +2557,7 @@
         <v>65</v>
       </c>
       <c r="C21" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D21" t="s">
         <v>66</v>
@@ -4488,14 +4488,15 @@
     <col customWidth="true" max="2" min="2" width="10"/>
   </cols>
   <sheetData>
+    <row r="1"/>
     <row r="2">
       <c r="A2" s="25" t="str">
-        <f>data!A5</f>
+        <f>data!$A$5</f>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="26" t="str">
-        <f>data!B2</f>
+        <f>data!$B$2</f>
       </c>
       <c r="E3" s="24" t="s">
         <v>251</v>
@@ -4503,14 +4504,14 @@
     </row>
     <row r="4">
       <c r="A4" s="27" t="str">
-        <f>data!B3</f>
+        <f>data!$B$3</f>
       </c>
       <c r="F4" s="22"/>
       <c r="G4" s="20"/>
     </row>
     <row r="5">
       <c r="A5" s="27" t="str">
-        <f>data!B4</f>
+        <f>data!$B$4</f>
       </c>
       <c r="G5" s="21">
         <v>29</v>
@@ -4518,7 +4519,7 @@
     </row>
     <row r="6">
       <c r="A6" s="28" t="str">
-        <f>data!B5</f>
+        <f>data!$B$5</f>
       </c>
       <c r="C6" s="24" t="s">
         <v>252</v>
@@ -4539,7 +4540,7 @@
     </row>
     <row r="8">
       <c r="A8" s="25" t="str">
-        <f>data!A8</f>
+        <f>data!$A$8</f>
       </c>
       <c r="C8" s="24" t="s">
         <v>253</v>
@@ -4550,7 +4551,7 @@
     </row>
     <row r="9">
       <c r="A9" s="26" t="str">
-        <f>data!B6</f>
+        <f>data!$B$6</f>
       </c>
       <c r="I9" s="21">
         <v>45</v>
@@ -4558,7 +4559,7 @@
     </row>
     <row r="10">
       <c r="A10" s="27" t="str">
-        <f>data!B7</f>
+        <f>data!$B$7</f>
       </c>
       <c r="C10" s="24" t="s">
         <v>254</v>
@@ -4569,7 +4570,7 @@
     </row>
     <row r="11">
       <c r="A11" s="28" t="str">
-        <f>data!B8</f>
+        <f>data!$B$8</f>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="21">
@@ -4592,7 +4593,7 @@
     </row>
     <row r="13">
       <c r="A13" s="25" t="str">
-        <f>data!A11</f>
+        <f>data!$A$11</f>
       </c>
       <c r="G13" s="21">
         <v>30</v>
@@ -4603,7 +4604,7 @@
     </row>
     <row r="14">
       <c r="A14" s="26" t="str">
-        <f>data!B9</f>
+        <f>data!$B$9</f>
       </c>
       <c r="C14" s="24" t="s">
         <v>256</v>
@@ -4613,7 +4614,7 @@
     </row>
     <row r="15">
       <c r="A15" s="27" t="str">
-        <f>data!B10</f>
+        <f>data!$B$10</f>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="21">
@@ -4625,7 +4626,7 @@
     </row>
     <row r="16">
       <c r="A16" s="28" t="str">
-        <f>data!B11</f>
+        <f>data!$B$11</f>
       </c>
       <c r="C16" s="24" t="s">
         <v>257</v>
@@ -4642,7 +4643,7 @@
     </row>
     <row r="18">
       <c r="A18" s="25" t="str">
-        <f>data!A14</f>
+        <f>data!$A$14</f>
       </c>
       <c r="C18" s="24" t="s">
         <v>258</v>
@@ -4651,7 +4652,7 @@
     </row>
     <row r="19">
       <c r="A19" s="26" t="str">
-        <f>data!B12</f>
+        <f>data!$B$12</f>
       </c>
       <c r="D19" s="22"/>
       <c r="E19" s="21">
@@ -4661,7 +4662,7 @@
     </row>
     <row r="20">
       <c r="A20" s="27" t="str">
-        <f>data!B13</f>
+        <f>data!$B$13</f>
       </c>
       <c r="C20" s="24" t="s">
         <v>259</v>
@@ -4674,7 +4675,7 @@
     </row>
     <row r="21">
       <c r="A21" s="28" t="str">
-        <f>data!B14</f>
+        <f>data!$B$14</f>
       </c>
       <c r="G21" s="21">
         <v>31</v>
@@ -4693,7 +4694,7 @@
     </row>
     <row r="23">
       <c r="A23" s="25" t="str">
-        <f>data!A17</f>
+        <f>data!$A$17</f>
       </c>
       <c r="D23" s="22"/>
       <c r="E23" s="21">
@@ -4706,7 +4707,7 @@
     </row>
     <row r="24">
       <c r="A24" s="26" t="str">
-        <f>data!B15</f>
+        <f>data!$B$15</f>
       </c>
       <c r="C24" s="24" t="s">
         <v>261</v>
@@ -4718,7 +4719,7 @@
     </row>
     <row r="25">
       <c r="A25" s="27" t="str">
-        <f>data!B16</f>
+        <f>data!$B$16</f>
       </c>
       <c r="I25" s="21">
         <v>46</v>
@@ -4728,7 +4729,7 @@
     </row>
     <row r="26">
       <c r="A26" s="28" t="str">
-        <f>data!B17</f>
+        <f>data!$B$17</f>
       </c>
       <c r="C26" s="24" t="s">
         <v>262</v>
@@ -4745,7 +4746,7 @@
     </row>
     <row r="28">
       <c r="A28" s="25" t="str">
-        <f>data!A20</f>
+        <f>data!$A$20</f>
       </c>
       <c r="C28" s="24" t="s">
         <v>263</v>
@@ -4758,7 +4759,7 @@
     </row>
     <row r="29">
       <c r="A29" s="26" t="str">
-        <f>data!B18</f>
+        <f>data!$B$18</f>
       </c>
       <c r="G29" s="21">
         <v>32</v>
@@ -4768,7 +4769,7 @@
     </row>
     <row r="30">
       <c r="A30" s="27" t="str">
-        <f>data!B19</f>
+        <f>data!$B$19</f>
       </c>
       <c r="C30" s="24" t="s">
         <v>264</v>
@@ -4777,7 +4778,7 @@
     </row>
     <row r="31">
       <c r="A31" s="28" t="str">
-        <f>data!B20</f>
+        <f>data!$B$20</f>
       </c>
       <c r="D31" s="22"/>
       <c r="E31" s="21">
@@ -4796,22 +4797,22 @@
     </row>
     <row r="33">
       <c r="A33" s="25" t="str">
-        <f>data!A23</f>
+        <f>data!$A$23</f>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="26" t="str">
-        <f>data!B21</f>
+        <f>data!$B$21</f>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="27" t="str">
-        <f>data!B22</f>
+        <f>data!$B$22</f>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="28" t="str">
-        <f>data!B23</f>
+        <f>data!$B$23</f>
       </c>
     </row>
     <row r="37">
@@ -4819,22 +4820,22 @@
     </row>
     <row r="38">
       <c r="A38" s="25" t="str">
-        <f>data!A26</f>
+        <f>data!$A$26</f>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="26" t="str">
-        <f>data!B24</f>
+        <f>data!$B$24</f>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="27" t="str">
-        <f>data!B25</f>
+        <f>data!$B$25</f>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="28" t="str">
-        <f>data!B26</f>
+        <f>data!$B$26</f>
       </c>
     </row>
     <row r="42">
@@ -4863,14 +4864,15 @@
     <col customWidth="true" max="2" min="2" width="10"/>
   </cols>
   <sheetData>
+    <row r="1"/>
     <row r="2">
       <c r="A2" s="25" t="str">
-        <f>data!A29</f>
+        <f>data!$A$29</f>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="26" t="str">
-        <f>data!B27</f>
+        <f>data!$B$27</f>
       </c>
       <c r="E3" s="24" t="s">
         <v>266</v>
@@ -4878,14 +4880,14 @@
     </row>
     <row r="4">
       <c r="A4" s="27" t="str">
-        <f>data!B28</f>
+        <f>data!$B$28</f>
       </c>
       <c r="F4" s="22"/>
       <c r="G4" s="20"/>
     </row>
     <row r="5">
       <c r="A5" s="28" t="str">
-        <f>data!B29</f>
+        <f>data!$B$29</f>
       </c>
       <c r="G5" s="21">
         <v>33</v>
@@ -4902,7 +4904,7 @@
     </row>
     <row r="7">
       <c r="A7" s="25" t="str">
-        <f>data!A32</f>
+        <f>data!$A$32</f>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="21">
@@ -4914,7 +4916,7 @@
     </row>
     <row r="8">
       <c r="A8" s="26" t="str">
-        <f>data!B30</f>
+        <f>data!$B$30</f>
       </c>
       <c r="C8" s="24" t="s">
         <v>268</v>
@@ -4925,7 +4927,7 @@
     </row>
     <row r="9">
       <c r="A9" s="27" t="str">
-        <f>data!B31</f>
+        <f>data!$B$31</f>
       </c>
       <c r="I9" s="21">
         <v>47</v>
@@ -4933,7 +4935,7 @@
     </row>
     <row r="10">
       <c r="A10" s="28" t="str">
-        <f>data!B32</f>
+        <f>data!$B$32</f>
       </c>
       <c r="C10" s="24" t="s">
         <v>269</v>
@@ -4953,7 +4955,7 @@
     </row>
     <row r="12">
       <c r="A12" s="25" t="str">
-        <f>data!A35</f>
+        <f>data!$A$35</f>
       </c>
       <c r="C12" s="24" t="s">
         <v>270</v>
@@ -4967,7 +4969,7 @@
     </row>
     <row r="13">
       <c r="A13" s="26" t="str">
-        <f>data!B33</f>
+        <f>data!$B$33</f>
       </c>
       <c r="G13" s="21">
         <v>34</v>
@@ -4978,7 +4980,7 @@
     </row>
     <row r="14">
       <c r="A14" s="27" t="str">
-        <f>data!B34</f>
+        <f>data!$B$34</f>
       </c>
       <c r="C14" s="24" t="s">
         <v>271</v>
@@ -4988,7 +4990,7 @@
     </row>
     <row r="15">
       <c r="A15" s="28" t="str">
-        <f>data!B35</f>
+        <f>data!$B$35</f>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="21">
@@ -5009,7 +5011,7 @@
     </row>
     <row r="17">
       <c r="A17" s="25" t="str">
-        <f>data!A38</f>
+        <f>data!$A$38</f>
       </c>
       <c r="K17" s="21">
         <v>54</v>
@@ -5017,7 +5019,7 @@
     </row>
     <row r="18">
       <c r="A18" s="26" t="str">
-        <f>data!B36</f>
+        <f>data!$B$36</f>
       </c>
       <c r="C18" s="24" t="s">
         <v>273</v>
@@ -5026,7 +5028,7 @@
     </row>
     <row r="19">
       <c r="A19" s="27" t="str">
-        <f>data!B37</f>
+        <f>data!$B$37</f>
       </c>
       <c r="D19" s="22"/>
       <c r="E19" s="21">
@@ -5036,7 +5038,7 @@
     </row>
     <row r="20">
       <c r="A20" s="28" t="str">
-        <f>data!B38</f>
+        <f>data!$B$38</f>
       </c>
       <c r="C20" s="24" t="s">
         <v>274</v>
@@ -5056,7 +5058,7 @@
     </row>
     <row r="22">
       <c r="A22" s="25" t="str">
-        <f>data!A41</f>
+        <f>data!$A$41</f>
       </c>
       <c r="C22" s="24" t="s">
         <v>275</v>
@@ -5068,7 +5070,7 @@
     </row>
     <row r="23">
       <c r="A23" s="26" t="str">
-        <f>data!B39</f>
+        <f>data!$B$39</f>
       </c>
       <c r="D23" s="22"/>
       <c r="E23" s="21">
@@ -5081,7 +5083,7 @@
     </row>
     <row r="24">
       <c r="A24" s="27" t="str">
-        <f>data!B40</f>
+        <f>data!$B$40</f>
       </c>
       <c r="C24" s="24" t="s">
         <v>276</v>
@@ -5093,7 +5095,7 @@
     </row>
     <row r="25">
       <c r="A25" s="28" t="str">
-        <f>data!B41</f>
+        <f>data!$B$41</f>
       </c>
       <c r="I25" s="21">
         <v>48</v>
@@ -5110,7 +5112,7 @@
     </row>
     <row r="27">
       <c r="A27" s="25" t="str">
-        <f>data!A44</f>
+        <f>data!$A$44</f>
       </c>
       <c r="D27" s="22"/>
       <c r="E27" s="21">
@@ -5120,7 +5122,7 @@
     </row>
     <row r="28">
       <c r="A28" s="26" t="str">
-        <f>data!B42</f>
+        <f>data!$B$42</f>
       </c>
       <c r="C28" s="24" t="s">
         <v>278</v>
@@ -5133,7 +5135,7 @@
     </row>
     <row r="29">
       <c r="A29" s="27" t="str">
-        <f>data!B43</f>
+        <f>data!$B$43</f>
       </c>
       <c r="G29" s="21">
         <v>36</v>
@@ -5143,7 +5145,7 @@
     </row>
     <row r="30">
       <c r="A30" s="28" t="str">
-        <f>data!B44</f>
+        <f>data!$B$44</f>
       </c>
       <c r="C30" s="24" t="s">
         <v>279</v>
@@ -5161,7 +5163,7 @@
     </row>
     <row r="32">
       <c r="A32" s="25" t="str">
-        <f>data!A47</f>
+        <f>data!$A$47</f>
       </c>
       <c r="C32" s="24" t="s">
         <v>280</v>
@@ -5171,17 +5173,17 @@
     </row>
     <row r="33">
       <c r="A33" s="26" t="str">
-        <f>data!B45</f>
+        <f>data!$B$45</f>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="27" t="str">
-        <f>data!B46</f>
+        <f>data!$B$46</f>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="28" t="str">
-        <f>data!B47</f>
+        <f>data!$B$47</f>
       </c>
     </row>
     <row r="36">
@@ -5189,22 +5191,22 @@
     </row>
     <row r="37">
       <c r="A37" s="25" t="str">
-        <f>data!A50</f>
+        <f>data!$A$50</f>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="26" t="str">
-        <f>data!B48</f>
+        <f>data!$B$48</f>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="27" t="str">
-        <f>data!B49</f>
+        <f>data!$B$49</f>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="28" t="str">
-        <f>data!B50</f>
+        <f>data!$B$50</f>
       </c>
     </row>
     <row r="41">
@@ -5233,14 +5235,15 @@
     <col customWidth="true" max="2" min="2" width="10"/>
   </cols>
   <sheetData>
+    <row r="1"/>
     <row r="2">
       <c r="A2" s="25" t="str">
-        <f>data!A53</f>
+        <f>data!$A$53</f>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="26" t="str">
-        <f>data!B51</f>
+        <f>data!$B$51</f>
       </c>
       <c r="E3" s="24" t="s">
         <v>281</v>
@@ -5248,14 +5251,14 @@
     </row>
     <row r="4">
       <c r="A4" s="27" t="str">
-        <f>data!B52</f>
+        <f>data!$B$52</f>
       </c>
       <c r="F4" s="22"/>
       <c r="G4" s="20"/>
     </row>
     <row r="5">
       <c r="A5" s="28" t="str">
-        <f>data!B53</f>
+        <f>data!$B$53</f>
       </c>
       <c r="G5" s="21">
         <v>37</v>
@@ -5272,7 +5275,7 @@
     </row>
     <row r="7">
       <c r="A7" s="25" t="str">
-        <f>data!A56</f>
+        <f>data!$A$56</f>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="21">
@@ -5284,7 +5287,7 @@
     </row>
     <row r="8">
       <c r="A8" s="26" t="str">
-        <f>data!B54</f>
+        <f>data!$B$54</f>
       </c>
       <c r="C8" s="24" t="s">
         <v>283</v>
@@ -5295,7 +5298,7 @@
     </row>
     <row r="9">
       <c r="A9" s="27" t="str">
-        <f>data!B55</f>
+        <f>data!$B$55</f>
       </c>
       <c r="I9" s="21">
         <v>49</v>
@@ -5303,7 +5306,7 @@
     </row>
     <row r="10">
       <c r="A10" s="28" t="str">
-        <f>data!B56</f>
+        <f>data!$B$56</f>
       </c>
       <c r="C10" s="24" t="s">
         <v>284</v>
@@ -5323,7 +5326,7 @@
     </row>
     <row r="12">
       <c r="A12" s="25" t="str">
-        <f>data!A59</f>
+        <f>data!$A$59</f>
       </c>
       <c r="C12" s="24" t="s">
         <v>285</v>
@@ -5337,7 +5340,7 @@
     </row>
     <row r="13">
       <c r="A13" s="26" t="str">
-        <f>data!B57</f>
+        <f>data!$B$57</f>
       </c>
       <c r="G13" s="21">
         <v>38</v>
@@ -5348,7 +5351,7 @@
     </row>
     <row r="14">
       <c r="A14" s="27" t="str">
-        <f>data!B58</f>
+        <f>data!$B$58</f>
       </c>
       <c r="C14" s="24" t="s">
         <v>286</v>
@@ -5358,7 +5361,7 @@
     </row>
     <row r="15">
       <c r="A15" s="28" t="str">
-        <f>data!B59</f>
+        <f>data!$B$59</f>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="21">
@@ -5379,7 +5382,7 @@
     </row>
     <row r="17">
       <c r="A17" s="25" t="str">
-        <f>data!A62</f>
+        <f>data!$A$62</f>
       </c>
       <c r="K17" s="21">
         <v>55</v>
@@ -5387,7 +5390,7 @@
     </row>
     <row r="18">
       <c r="A18" s="26" t="str">
-        <f>data!B60</f>
+        <f>data!$B$60</f>
       </c>
       <c r="C18" s="24" t="s">
         <v>288</v>
@@ -5396,7 +5399,7 @@
     </row>
     <row r="19">
       <c r="A19" s="27" t="str">
-        <f>data!B61</f>
+        <f>data!$B$61</f>
       </c>
       <c r="D19" s="22"/>
       <c r="E19" s="21">
@@ -5406,7 +5409,7 @@
     </row>
     <row r="20">
       <c r="A20" s="28" t="str">
-        <f>data!B62</f>
+        <f>data!$B$62</f>
       </c>
       <c r="C20" s="24" t="s">
         <v>289</v>
@@ -5426,7 +5429,7 @@
     </row>
     <row r="22">
       <c r="A22" s="25" t="str">
-        <f>data!A65</f>
+        <f>data!$A$65</f>
       </c>
       <c r="C22" s="24" t="s">
         <v>290</v>
@@ -5438,7 +5441,7 @@
     </row>
     <row r="23">
       <c r="A23" s="26" t="str">
-        <f>data!B63</f>
+        <f>data!$B$63</f>
       </c>
       <c r="D23" s="22"/>
       <c r="E23" s="21">
@@ -5451,7 +5454,7 @@
     </row>
     <row r="24">
       <c r="A24" s="27" t="str">
-        <f>data!B64</f>
+        <f>data!$B$64</f>
       </c>
       <c r="C24" s="24" t="s">
         <v>291</v>
@@ -5463,7 +5466,7 @@
     </row>
     <row r="25">
       <c r="A25" s="28" t="str">
-        <f>data!B65</f>
+        <f>data!$B$65</f>
       </c>
       <c r="I25" s="21">
         <v>50</v>
@@ -5480,7 +5483,7 @@
     </row>
     <row r="27">
       <c r="A27" s="25" t="str">
-        <f>data!A68</f>
+        <f>data!$A$68</f>
       </c>
       <c r="D27" s="22"/>
       <c r="E27" s="21">
@@ -5490,7 +5493,7 @@
     </row>
     <row r="28">
       <c r="A28" s="26" t="str">
-        <f>data!B66</f>
+        <f>data!$B$66</f>
       </c>
       <c r="C28" s="24" t="s">
         <v>293</v>
@@ -5503,7 +5506,7 @@
     </row>
     <row r="29">
       <c r="A29" s="27" t="str">
-        <f>data!B67</f>
+        <f>data!$B$67</f>
       </c>
       <c r="G29" s="21">
         <v>40</v>
@@ -5513,7 +5516,7 @@
     </row>
     <row r="30">
       <c r="A30" s="28" t="str">
-        <f>data!B68</f>
+        <f>data!$B$68</f>
       </c>
       <c r="C30" s="24" t="s">
         <v>294</v>
@@ -5531,7 +5534,7 @@
     </row>
     <row r="32">
       <c r="A32" s="25" t="str">
-        <f>data!A71</f>
+        <f>data!$A$71</f>
       </c>
       <c r="C32" s="24" t="s">
         <v>295</v>
@@ -5541,17 +5544,17 @@
     </row>
     <row r="33">
       <c r="A33" s="26" t="str">
-        <f>data!B69</f>
+        <f>data!$B$69</f>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="27" t="str">
-        <f>data!B70</f>
+        <f>data!$B$70</f>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="28" t="str">
-        <f>data!B71</f>
+        <f>data!$B$71</f>
       </c>
     </row>
     <row r="36">
@@ -5559,22 +5562,22 @@
     </row>
     <row r="37">
       <c r="A37" s="25" t="str">
-        <f>data!A74</f>
+        <f>data!$A$74</f>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="26" t="str">
-        <f>data!B72</f>
+        <f>data!$B$72</f>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="27" t="str">
-        <f>data!B73</f>
+        <f>data!$B$73</f>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="28" t="str">
-        <f>data!B74</f>
+        <f>data!$B$74</f>
       </c>
     </row>
     <row r="41">
@@ -5603,14 +5606,15 @@
     <col customWidth="true" max="2" min="2" width="10"/>
   </cols>
   <sheetData>
+    <row r="1"/>
     <row r="2">
       <c r="A2" s="25" t="str">
-        <f>data!A77</f>
+        <f>data!$A$77</f>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="26" t="str">
-        <f>data!B75</f>
+        <f>data!$B$75</f>
       </c>
       <c r="E3" s="24" t="s">
         <v>296</v>
@@ -5618,14 +5622,14 @@
     </row>
     <row r="4">
       <c r="A4" s="27" t="str">
-        <f>data!B76</f>
+        <f>data!$B$76</f>
       </c>
       <c r="F4" s="22"/>
       <c r="G4" s="20"/>
     </row>
     <row r="5">
       <c r="A5" s="28" t="str">
-        <f>data!B77</f>
+        <f>data!$B$77</f>
       </c>
       <c r="G5" s="21">
         <v>41</v>
@@ -5642,7 +5646,7 @@
     </row>
     <row r="7">
       <c r="A7" s="25" t="str">
-        <f>data!A80</f>
+        <f>data!$A$80</f>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="21">
@@ -5654,7 +5658,7 @@
     </row>
     <row r="8">
       <c r="A8" s="26" t="str">
-        <f>data!B78</f>
+        <f>data!$B$78</f>
       </c>
       <c r="C8" s="24" t="s">
         <v>298</v>
@@ -5665,7 +5669,7 @@
     </row>
     <row r="9">
       <c r="A9" s="27" t="str">
-        <f>data!B79</f>
+        <f>data!$B$79</f>
       </c>
       <c r="I9" s="21">
         <v>51</v>
@@ -5673,7 +5677,7 @@
     </row>
     <row r="10">
       <c r="A10" s="28" t="str">
-        <f>data!B80</f>
+        <f>data!$B$80</f>
       </c>
       <c r="C10" s="24" t="s">
         <v>299</v>
@@ -5693,7 +5697,7 @@
     </row>
     <row r="12">
       <c r="A12" s="25" t="str">
-        <f>data!A83</f>
+        <f>data!$A$83</f>
       </c>
       <c r="C12" s="24" t="s">
         <v>300</v>
@@ -5707,7 +5711,7 @@
     </row>
     <row r="13">
       <c r="A13" s="26" t="str">
-        <f>data!B81</f>
+        <f>data!$B$81</f>
       </c>
       <c r="G13" s="21">
         <v>42</v>
@@ -5718,7 +5722,7 @@
     </row>
     <row r="14">
       <c r="A14" s="27" t="str">
-        <f>data!B82</f>
+        <f>data!$B$82</f>
       </c>
       <c r="C14" s="24" t="s">
         <v>301</v>
@@ -5728,7 +5732,7 @@
     </row>
     <row r="15">
       <c r="A15" s="28" t="str">
-        <f>data!B83</f>
+        <f>data!$B$83</f>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="21">
@@ -5749,7 +5753,7 @@
     </row>
     <row r="17">
       <c r="A17" s="25" t="str">
-        <f>data!A86</f>
+        <f>data!$A$86</f>
       </c>
       <c r="K17" s="21">
         <v>56</v>
@@ -5757,7 +5761,7 @@
     </row>
     <row r="18">
       <c r="A18" s="26" t="str">
-        <f>data!B84</f>
+        <f>data!$B$84</f>
       </c>
       <c r="C18" s="24" t="s">
         <v>303</v>
@@ -5766,7 +5770,7 @@
     </row>
     <row r="19">
       <c r="A19" s="27" t="str">
-        <f>data!B85</f>
+        <f>data!$B$85</f>
       </c>
       <c r="D19" s="22"/>
       <c r="E19" s="21">
@@ -5776,7 +5780,7 @@
     </row>
     <row r="20">
       <c r="A20" s="28" t="str">
-        <f>data!B86</f>
+        <f>data!$B$86</f>
       </c>
       <c r="C20" s="24" t="s">
         <v>304</v>
@@ -5796,7 +5800,7 @@
     </row>
     <row r="22">
       <c r="A22" s="25" t="str">
-        <f>data!A89</f>
+        <f>data!$A$89</f>
       </c>
       <c r="C22" s="24" t="s">
         <v>305</v>
@@ -5808,7 +5812,7 @@
     </row>
     <row r="23">
       <c r="A23" s="26" t="str">
-        <f>data!B87</f>
+        <f>data!$B$87</f>
       </c>
       <c r="D23" s="22"/>
       <c r="E23" s="21">
@@ -5821,7 +5825,7 @@
     </row>
     <row r="24">
       <c r="A24" s="27" t="str">
-        <f>data!B88</f>
+        <f>data!$B$88</f>
       </c>
       <c r="C24" s="24" t="s">
         <v>306</v>
@@ -5833,7 +5837,7 @@
     </row>
     <row r="25">
       <c r="A25" s="28" t="str">
-        <f>data!B89</f>
+        <f>data!$B$89</f>
       </c>
       <c r="I25" s="21">
         <v>52</v>
@@ -5850,7 +5854,7 @@
     </row>
     <row r="27">
       <c r="A27" s="25" t="str">
-        <f>data!A92</f>
+        <f>data!$A$92</f>
       </c>
       <c r="D27" s="22"/>
       <c r="E27" s="21">
@@ -5860,7 +5864,7 @@
     </row>
     <row r="28">
       <c r="A28" s="26" t="str">
-        <f>data!B90</f>
+        <f>data!$B$90</f>
       </c>
       <c r="C28" s="24" t="s">
         <v>308</v>
@@ -5873,7 +5877,7 @@
     </row>
     <row r="29">
       <c r="A29" s="27" t="str">
-        <f>data!B91</f>
+        <f>data!$B$91</f>
       </c>
       <c r="G29" s="21">
         <v>44</v>
@@ -5883,7 +5887,7 @@
     </row>
     <row r="30">
       <c r="A30" s="28" t="str">
-        <f>data!B92</f>
+        <f>data!$B$92</f>
       </c>
       <c r="C30" s="24" t="s">
         <v>309</v>
@@ -6150,6 +6154,7 @@
     <col customWidth="true" max="26" min="11" width="8.83203125"/>
   </cols>
   <sheetData>
+    <row r="1"/>
     <row r="2" spans="1:8" ht="20">
       <c r="A2" s="2"/>
       <c r="B2" s="15" t="s">
@@ -6181,478 +6186,478 @@
     </row>
     <row r="5" spans="1:8" ht="17" customHeight="true" thickBot="true">
       <c r="B5" s="6" t="str">
-        <f>data!A5</f>
+        <f>data!$A$5</f>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="6" t="str">
-        <f>data!A35</f>
+        <f>data!$A$35</f>
       </c>
       <c r="F5" s="6" t="str">
-        <f>data!A65</f>
+        <f>data!$A$65</f>
       </c>
     </row>
     <row r="6" spans="1:8" ht="17" customHeight="true" thickBot="true">
       <c r="B6" s="5" t="str">
-        <f>data!B2</f>
+        <f>data!$B$2</f>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="5" t="str">
-        <f>data!B33</f>
+        <f>data!$B$33</f>
       </c>
       <c r="F6" s="5" t="str">
-        <f>data!B63</f>
+        <f>data!$B$63</f>
       </c>
     </row>
     <row r="7" spans="1:8" ht="17" customHeight="true" thickBot="true">
       <c r="B7" s="5" t="str">
-        <f>data!B3</f>
+        <f>data!$B$3</f>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="5" t="str">
-        <f>data!B34</f>
+        <f>data!$B$34</f>
       </c>
       <c r="F7" s="5" t="str">
-        <f>data!B64</f>
+        <f>data!$B$64</f>
       </c>
     </row>
     <row r="8" spans="1:8" ht="17" customHeight="true" thickBot="true">
       <c r="B8" s="5" t="str">
-        <f>data!B4</f>
+        <f>data!$B$4</f>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="5" t="str">
-        <f>data!B35</f>
+        <f>data!$B$35</f>
       </c>
       <c r="F8" s="5" t="str">
-        <f>data!B65</f>
+        <f>data!$B$65</f>
       </c>
     </row>
     <row r="9" ht="17" customHeight="true">
       <c r="B9" s="5" t="str">
-        <f>data!B5</f>
+        <f>data!$B$5</f>
       </c>
     </row>
     <row r="10" ht="17" customHeight="true"/>
     <row r="11" ht="17" customHeight="true">
       <c r="D11" s="6" t="str">
-        <f>data!A38</f>
+        <f>data!$A$38</f>
       </c>
       <c r="F11" s="6" t="str">
-        <f>data!A68</f>
+        <f>data!$A$68</f>
       </c>
     </row>
     <row r="12" ht="17" customHeight="true">
       <c r="B12" s="6" t="str">
-        <f>data!A8</f>
+        <f>data!$A$8</f>
       </c>
       <c r="D12" s="5" t="str">
-        <f>data!B36</f>
+        <f>data!$B$36</f>
       </c>
       <c r="F12" s="5" t="str">
-        <f>data!B66</f>
+        <f>data!$B$66</f>
       </c>
     </row>
     <row r="13" ht="17" customHeight="true">
       <c r="B13" s="5" t="str">
-        <f>data!B6</f>
+        <f>data!$B$6</f>
       </c>
       <c r="D13" s="5" t="str">
-        <f>data!B37</f>
+        <f>data!$B$37</f>
       </c>
       <c r="F13" s="5" t="str">
-        <f>data!B67</f>
+        <f>data!$B$67</f>
       </c>
     </row>
     <row r="14" ht="17" customHeight="true">
       <c r="B14" s="5" t="str">
-        <f>data!B7</f>
+        <f>data!$B$7</f>
       </c>
       <c r="D14" s="5" t="str">
-        <f>data!B38</f>
+        <f>data!$B$38</f>
       </c>
       <c r="F14" s="5" t="str">
-        <f>data!B68</f>
+        <f>data!$B$68</f>
       </c>
     </row>
     <row r="15" ht="17" customHeight="true">
       <c r="B15" s="5" t="str">
-        <f>data!B8</f>
+        <f>data!$B$8</f>
       </c>
     </row>
     <row r="16" ht="17" customHeight="true"/>
     <row r="17" ht="17" customHeight="true">
       <c r="D17" s="6" t="str">
-        <f>data!A41</f>
+        <f>data!$A$41</f>
       </c>
       <c r="F17" s="6" t="str">
-        <f>data!A71</f>
+        <f>data!$A$71</f>
       </c>
     </row>
     <row r="18" ht="17" customHeight="true">
       <c r="B18" s="6" t="str">
-        <f>data!A11</f>
+        <f>data!$A$11</f>
       </c>
       <c r="D18" s="5" t="str">
-        <f>data!B39</f>
+        <f>data!$B$39</f>
       </c>
       <c r="F18" s="5" t="str">
-        <f>data!B69</f>
+        <f>data!$B$69</f>
       </c>
     </row>
     <row r="19" ht="17" customHeight="true">
       <c r="B19" s="5" t="str">
-        <f>data!B9</f>
+        <f>data!$B$9</f>
       </c>
       <c r="D19" s="5" t="str">
-        <f>data!B40</f>
+        <f>data!$B$40</f>
       </c>
       <c r="F19" s="5" t="str">
-        <f>data!B70</f>
+        <f>data!$B$70</f>
       </c>
     </row>
     <row r="20" ht="17" customHeight="true">
       <c r="B20" s="5" t="str">
-        <f>data!B10</f>
+        <f>data!$B$10</f>
       </c>
       <c r="D20" s="5" t="str">
-        <f>data!B41</f>
+        <f>data!$B$41</f>
       </c>
       <c r="F20" s="5" t="str">
-        <f>data!B71</f>
+        <f>data!$B$71</f>
       </c>
     </row>
     <row r="21" ht="17" customHeight="true">
       <c r="B21" s="5" t="str">
-        <f>data!B11</f>
+        <f>data!$B$11</f>
       </c>
     </row>
     <row r="22" ht="17" customHeight="true"/>
     <row r="23" ht="17" customHeight="true">
       <c r="D23" s="6" t="str">
-        <f>data!A44</f>
+        <f>data!$A$44</f>
       </c>
       <c r="F23" s="6" t="str">
-        <f>data!A74</f>
+        <f>data!$A$74</f>
       </c>
     </row>
     <row r="24" ht="17" customHeight="true">
       <c r="B24" s="6" t="str">
-        <f>data!A14</f>
+        <f>data!$A$14</f>
       </c>
       <c r="D24" s="5" t="str">
-        <f>data!B42</f>
+        <f>data!$B$42</f>
       </c>
       <c r="F24" s="5" t="str">
-        <f>data!B72</f>
+        <f>data!$B$72</f>
       </c>
     </row>
     <row r="25" ht="17" customHeight="true">
       <c r="B25" s="5" t="str">
-        <f>data!B12</f>
+        <f>data!$B$12</f>
       </c>
       <c r="D25" s="5" t="str">
-        <f>data!B43</f>
+        <f>data!$B$43</f>
       </c>
       <c r="F25" s="5" t="str">
-        <f>data!B73</f>
+        <f>data!$B$73</f>
       </c>
     </row>
     <row r="26" ht="17" customHeight="true">
       <c r="B26" s="5" t="str">
-        <f>data!B13</f>
+        <f>data!$B$13</f>
       </c>
       <c r="D26" s="5" t="str">
-        <f>data!B44</f>
+        <f>data!$B$44</f>
       </c>
       <c r="F26" s="5" t="str">
-        <f>data!B74</f>
+        <f>data!$B$74</f>
       </c>
     </row>
     <row r="27" ht="17" customHeight="true">
       <c r="B27" s="5" t="str">
-        <f>data!B14</f>
+        <f>data!$B$14</f>
       </c>
     </row>
     <row r="28" ht="17" customHeight="true"/>
     <row r="29" ht="17" customHeight="true">
       <c r="D29" s="6" t="str">
-        <f>data!A47</f>
+        <f>data!$A$47</f>
       </c>
       <c r="F29" s="6" t="str">
-        <f>data!A77</f>
+        <f>data!$A$77</f>
       </c>
     </row>
     <row r="30" ht="17" customHeight="true">
       <c r="B30" s="6" t="str">
-        <f>data!A17</f>
+        <f>data!$A$17</f>
       </c>
       <c r="D30" s="5" t="str">
-        <f>data!B45</f>
+        <f>data!$B$45</f>
       </c>
       <c r="F30" s="5" t="str">
-        <f>data!B75</f>
+        <f>data!$B$75</f>
       </c>
     </row>
     <row r="31" ht="17" customHeight="true">
       <c r="B31" s="5" t="str">
-        <f>data!B15</f>
+        <f>data!$B$15</f>
       </c>
       <c r="D31" s="5" t="str">
-        <f>data!B46</f>
+        <f>data!$B$46</f>
       </c>
       <c r="F31" s="5" t="str">
-        <f>data!B76</f>
+        <f>data!$B$76</f>
       </c>
     </row>
     <row r="32" ht="17" customHeight="true">
       <c r="B32" s="5" t="str">
-        <f>data!B16</f>
+        <f>data!$B$16</f>
       </c>
       <c r="D32" s="5" t="str">
-        <f>data!B47</f>
+        <f>data!$B$47</f>
       </c>
       <c r="F32" s="5" t="str">
-        <f>data!B77</f>
+        <f>data!$B$77</f>
       </c>
     </row>
     <row r="33" ht="17" customHeight="true">
       <c r="B33" s="5" t="str">
-        <f>data!B17</f>
+        <f>data!$B$17</f>
       </c>
     </row>
     <row r="34" ht="17" customHeight="true"/>
     <row r="35" ht="17" customHeight="true">
       <c r="D35" s="6" t="str">
-        <f>data!A50</f>
+        <f>data!$A$50</f>
       </c>
       <c r="F35" s="6" t="str">
-        <f>data!A80</f>
+        <f>data!$A$80</f>
       </c>
     </row>
     <row r="36" ht="17" customHeight="true">
       <c r="B36" s="6" t="str">
-        <f>data!A20</f>
+        <f>data!$A$20</f>
       </c>
       <c r="D36" s="5" t="str">
-        <f>data!B48</f>
+        <f>data!$B$48</f>
       </c>
       <c r="F36" s="5" t="str">
-        <f>data!B78</f>
+        <f>data!$B$78</f>
       </c>
     </row>
     <row r="37" ht="17" customHeight="true">
       <c r="B37" s="5" t="str">
-        <f>data!B18</f>
+        <f>data!$B$18</f>
       </c>
       <c r="D37" s="5" t="str">
-        <f>data!B49</f>
+        <f>data!$B$49</f>
       </c>
       <c r="F37" s="5" t="str">
-        <f>data!B79</f>
+        <f>data!$B$79</f>
       </c>
     </row>
     <row r="38" ht="17" customHeight="true">
       <c r="B38" s="5" t="str">
-        <f>data!B19</f>
+        <f>data!$B$19</f>
       </c>
       <c r="D38" s="5" t="str">
-        <f>data!B50</f>
+        <f>data!$B$50</f>
       </c>
       <c r="F38" s="5" t="str">
-        <f>data!B80</f>
+        <f>data!$B$80</f>
       </c>
     </row>
     <row r="39" ht="17" customHeight="true">
       <c r="B39" s="5" t="str">
-        <f>data!B20</f>
+        <f>data!$B$20</f>
       </c>
     </row>
     <row r="40" ht="17" customHeight="true"/>
     <row r="41" ht="17" customHeight="true">
       <c r="D41" s="6" t="str">
-        <f>data!A53</f>
+        <f>data!$A$53</f>
       </c>
       <c r="F41" s="6" t="str">
-        <f>data!A83</f>
+        <f>data!$A$83</f>
       </c>
     </row>
     <row r="42" ht="17" customHeight="true">
       <c r="B42" s="6" t="str">
-        <f>data!A23</f>
+        <f>data!$A$23</f>
       </c>
       <c r="D42" s="5" t="str">
-        <f>data!B51</f>
+        <f>data!$B$51</f>
       </c>
       <c r="F42" s="5" t="str">
-        <f>data!B81</f>
+        <f>data!$B$81</f>
       </c>
     </row>
     <row r="43" ht="17" customHeight="true">
       <c r="B43" s="5" t="str">
-        <f>data!B21</f>
+        <f>data!$B$21</f>
       </c>
       <c r="D43" s="5" t="str">
-        <f>data!B52</f>
+        <f>data!$B$52</f>
       </c>
       <c r="F43" s="5" t="str">
-        <f>data!B82</f>
+        <f>data!$B$82</f>
       </c>
     </row>
     <row r="44" ht="17" customHeight="true">
       <c r="B44" s="5" t="str">
-        <f>data!B22</f>
+        <f>data!$B$22</f>
       </c>
       <c r="D44" s="5" t="str">
-        <f>data!B53</f>
+        <f>data!$B$53</f>
       </c>
       <c r="F44" s="5" t="str">
-        <f>data!B83</f>
+        <f>data!$B$83</f>
       </c>
     </row>
     <row r="45" ht="17" customHeight="true">
       <c r="B45" s="5" t="str">
-        <f>data!B23</f>
+        <f>data!$B$23</f>
       </c>
     </row>
     <row r="46" ht="17" customHeight="true"/>
     <row r="47" ht="17" customHeight="true">
       <c r="D47" s="6" t="str">
-        <f>data!A56</f>
+        <f>data!$A$56</f>
       </c>
       <c r="F47" s="6" t="str">
-        <f>data!A86</f>
+        <f>data!$A$86</f>
       </c>
     </row>
     <row r="48" ht="17" customHeight="true">
       <c r="B48" s="6" t="str">
-        <f>data!A26</f>
+        <f>data!$A$26</f>
       </c>
       <c r="D48" s="5" t="str">
-        <f>data!B54</f>
+        <f>data!$B$54</f>
       </c>
       <c r="F48" s="5" t="str">
-        <f>data!B84</f>
+        <f>data!$B$84</f>
       </c>
     </row>
     <row r="49" ht="17" customHeight="true">
       <c r="B49" s="5" t="str">
-        <f>data!B24</f>
+        <f>data!$B$24</f>
       </c>
       <c r="D49" s="5" t="str">
-        <f>data!B55</f>
+        <f>data!$B$55</f>
       </c>
       <c r="F49" s="5" t="str">
-        <f>data!B85</f>
+        <f>data!$B$85</f>
       </c>
     </row>
     <row r="50" ht="17" customHeight="true">
       <c r="B50" s="5" t="str">
-        <f>data!B25</f>
+        <f>data!$B$25</f>
       </c>
       <c r="D50" s="5" t="str">
-        <f>data!B56</f>
+        <f>data!$B$56</f>
       </c>
       <c r="F50" s="5" t="str">
-        <f>data!B86</f>
+        <f>data!$B$86</f>
       </c>
     </row>
     <row r="51" ht="17" customHeight="true">
       <c r="B51" s="5" t="str">
-        <f>data!B26</f>
+        <f>data!$B$26</f>
       </c>
     </row>
     <row r="52" ht="17" customHeight="true"/>
     <row r="53" ht="17" customHeight="true">
       <c r="D53" s="6" t="str">
-        <f>data!A59</f>
+        <f>data!$A$59</f>
       </c>
       <c r="F53" s="6" t="str">
-        <f>data!A89</f>
+        <f>data!$A$89</f>
       </c>
     </row>
     <row r="54" ht="17" customHeight="true">
       <c r="B54" s="6" t="str">
-        <f>data!A29</f>
+        <f>data!$A$29</f>
       </c>
       <c r="D54" s="5" t="str">
-        <f>data!B57</f>
+        <f>data!$B$57</f>
       </c>
       <c r="F54" s="5" t="str">
-        <f>data!B87</f>
+        <f>data!$B$87</f>
       </c>
     </row>
     <row r="55" ht="17" customHeight="true">
       <c r="B55" s="5" t="str">
-        <f>data!B27</f>
+        <f>data!$B$27</f>
       </c>
       <c r="D55" s="5" t="str">
-        <f>data!B58</f>
+        <f>data!$B$58</f>
       </c>
       <c r="F55" s="5" t="str">
-        <f>data!B88</f>
+        <f>data!$B$88</f>
       </c>
     </row>
     <row r="56" ht="17" customHeight="true">
       <c r="B56" s="5" t="str">
-        <f>data!B28</f>
+        <f>data!$B$28</f>
       </c>
       <c r="D56" s="5" t="str">
-        <f>data!B59</f>
+        <f>data!$B$59</f>
       </c>
       <c r="F56" s="5" t="str">
-        <f>data!B89</f>
+        <f>data!$B$89</f>
       </c>
     </row>
     <row r="57" ht="17" customHeight="true">
       <c r="B57" s="5" t="str">
-        <f>data!B29</f>
+        <f>data!$B$29</f>
       </c>
     </row>
     <row r="58" ht="17" customHeight="true"/>
     <row r="59" ht="17" customHeight="true">
       <c r="D59" s="6" t="str">
-        <f>data!A62</f>
+        <f>data!$A$62</f>
       </c>
       <c r="F59" s="6" t="str">
-        <f>data!A92</f>
+        <f>data!$A$92</f>
       </c>
     </row>
     <row r="60" ht="17" customHeight="true">
       <c r="B60" s="6" t="str">
-        <f>data!A32</f>
+        <f>data!$A$32</f>
       </c>
       <c r="D60" s="5" t="str">
-        <f>data!B60</f>
+        <f>data!$B$60</f>
       </c>
       <c r="F60" s="5" t="str">
-        <f>data!B90</f>
+        <f>data!$B$90</f>
       </c>
     </row>
     <row r="61" ht="17" customHeight="true">
       <c r="B61" s="5" t="str">
-        <f>data!B30</f>
+        <f>data!$B$30</f>
       </c>
       <c r="D61" s="5" t="str">
-        <f>data!B61</f>
+        <f>data!$B$61</f>
       </c>
       <c r="F61" s="5" t="str">
-        <f>data!B91</f>
+        <f>data!$B$91</f>
       </c>
     </row>
     <row r="62" ht="17" customHeight="true">
       <c r="B62" s="5" t="str">
-        <f>data!B31</f>
+        <f>data!$B$31</f>
       </c>
       <c r="D62" s="5" t="str">
-        <f>data!B62</f>
+        <f>data!$B$62</f>
       </c>
       <c r="F62" s="5" t="str">
-        <f>data!B92</f>
+        <f>data!$B$92</f>
       </c>
     </row>
     <row r="63" ht="17" customHeight="true">
       <c r="B63" s="5" t="str">
-        <f>data!B32</f>
+        <f>data!$B$32</f>
       </c>
     </row>
   </sheetData>
@@ -6689,9 +6694,12 @@
     <col max="16384" min="16" style="7" width="10.83203125"/>
   </cols>
   <sheetData>
+    <row r="1"/>
+    <row r="2"/>
+    <row r="3"/>
     <row r="4">
       <c r="A4" s="29" t="str">
-        <f>data!A5</f>
+        <f>data!$A$5</f>
       </c>
       <c r="B4" s="29"/>
       <c r="C4" s="29"/>
@@ -6700,7 +6708,7 @@
       <c r="F4" s="29"/>
       <c r="G4" s="29"/>
       <c r="I4" s="29" t="str">
-        <f>data!A8</f>
+        <f>data!$A$8</f>
       </c>
       <c r="J4" s="29"/>
       <c r="K4" s="29"/>
@@ -6739,7 +6747,7 @@
     </row>
     <row r="6">
       <c r="A6" s="30" t="str">
-        <f>data!B2</f>
+        <f>data!$B$2</f>
       </c>
       <c r="B6" s="30"/>
       <c r="C6" s="30"/>
@@ -6747,10 +6755,10 @@
       <c r="E6" s="30"/>
       <c r="F6" s="30"/>
       <c r="G6" s="30" t="str">
-        <f>data!B3</f>
+        <f>data!$B$3</f>
       </c>
       <c r="I6" s="30" t="str">
-        <f>data!B6</f>
+        <f>data!$B$6</f>
       </c>
       <c r="J6" s="30"/>
       <c r="K6" s="30"/>
@@ -6758,7 +6766,7 @@
       <c r="M6" s="30"/>
       <c r="N6" s="30"/>
       <c r="O6" s="30" t="str">
-        <f>data!B7</f>
+        <f>data!$B$7</f>
       </c>
     </row>
     <row r="7">
@@ -6881,9 +6889,10 @@
         <v>5</v>
       </c>
     </row>
+    <row r="12"/>
     <row r="13">
       <c r="A13" s="30" t="str">
-        <f>data!B2</f>
+        <f>data!$B$2</f>
       </c>
       <c r="B13" s="30" t="s">
         <v>314</v>
@@ -6899,10 +6908,10 @@
         <v>314</v>
       </c>
       <c r="G13" s="30" t="str">
-        <f>data!B3</f>
+        <f>data!$B$3</f>
       </c>
       <c r="I13" s="30" t="str">
-        <f>data!B6</f>
+        <f>data!$B$6</f>
       </c>
       <c r="J13" s="30" t="s">
         <v>314</v>
@@ -6918,7 +6927,7 @@
         <v>314</v>
       </c>
       <c r="O13" s="30" t="str">
-        <f>data!B7</f>
+        <f>data!$B$7</f>
       </c>
     </row>
     <row r="14">
@@ -6945,6 +6954,9 @@
         <v>316</v>
       </c>
     </row>
+    <row r="15"/>
+    <row r="16"/>
+    <row r="17"/>
     <row r="18">
       <c r="A18" s="31" t="s">
         <v>311</v>
@@ -6975,7 +6987,7 @@
     </row>
     <row r="19">
       <c r="A19" s="30" t="str">
-        <f>data!B4</f>
+        <f>data!$B$4</f>
       </c>
       <c r="B19" s="30"/>
       <c r="C19" s="30"/>
@@ -6983,10 +6995,10 @@
       <c r="E19" s="30"/>
       <c r="F19" s="30"/>
       <c r="G19" s="30" t="str">
-        <f>data!B3</f>
+        <f>data!$B$3</f>
       </c>
       <c r="I19" s="30" t="str">
-        <f>data!B8</f>
+        <f>data!$B$8</f>
       </c>
       <c r="J19" s="30"/>
       <c r="K19" s="30"/>
@@ -6994,7 +7006,7 @@
       <c r="M19" s="30"/>
       <c r="N19" s="30"/>
       <c r="O19" s="30" t="str">
-        <f>data!B7</f>
+        <f>data!$B$7</f>
       </c>
     </row>
     <row r="20">
@@ -7117,9 +7129,10 @@
         <v>5</v>
       </c>
     </row>
+    <row r="25"/>
     <row r="26">
       <c r="A26" s="30" t="str">
-        <f>data!B4</f>
+        <f>data!$B$4</f>
       </c>
       <c r="B26" s="30" t="s">
         <v>314</v>
@@ -7135,10 +7148,10 @@
         <v>314</v>
       </c>
       <c r="G26" s="30" t="str">
-        <f>data!B3</f>
+        <f>data!$B$3</f>
       </c>
       <c r="I26" s="30" t="str">
-        <f>data!B8</f>
+        <f>data!$B$8</f>
       </c>
       <c r="J26" s="30" t="s">
         <v>314</v>
@@ -7154,7 +7167,7 @@
         <v>314</v>
       </c>
       <c r="O26" s="30" t="str">
-        <f>data!B7</f>
+        <f>data!$B$7</f>
       </c>
     </row>
     <row r="27">
@@ -7181,6 +7194,9 @@
         <v>316</v>
       </c>
     </row>
+    <row r="28"/>
+    <row r="29"/>
+    <row r="30"/>
     <row r="31">
       <c r="A31" s="31" t="s">
         <v>311</v>
@@ -7211,7 +7227,7 @@
     </row>
     <row r="32">
       <c r="A32" s="30" t="str">
-        <f>data!B4</f>
+        <f>data!$B$4</f>
       </c>
       <c r="B32" s="30"/>
       <c r="C32" s="30"/>
@@ -7219,10 +7235,10 @@
       <c r="E32" s="30"/>
       <c r="F32" s="30"/>
       <c r="G32" s="30" t="str">
-        <f>data!B5</f>
+        <f>data!$B$5</f>
       </c>
       <c r="I32" s="30" t="str">
-        <f>data!B8</f>
+        <f>data!$B$8</f>
       </c>
       <c r="J32" s="30"/>
       <c r="K32" s="30"/>
@@ -7230,7 +7246,7 @@
       <c r="M32" s="30"/>
       <c r="N32" s="30"/>
       <c r="O32" s="30" t="str">
-        <f>data!B6</f>
+        <f>data!$B$6</f>
       </c>
     </row>
     <row r="33">
@@ -7353,9 +7369,10 @@
         <v>5</v>
       </c>
     </row>
+    <row r="38"/>
     <row r="39">
       <c r="A39" s="30" t="str">
-        <f>data!B4</f>
+        <f>data!$B$4</f>
       </c>
       <c r="B39" s="30" t="s">
         <v>314</v>
@@ -7371,10 +7388,10 @@
         <v>314</v>
       </c>
       <c r="G39" s="30" t="str">
-        <f>data!B5</f>
+        <f>data!$B$5</f>
       </c>
       <c r="I39" s="30" t="str">
-        <f>data!B8</f>
+        <f>data!$B$8</f>
       </c>
       <c r="J39" s="30" t="s">
         <v>314</v>
@@ -7390,7 +7407,7 @@
         <v>314</v>
       </c>
       <c r="O39" s="30" t="str">
-        <f>data!B6</f>
+        <f>data!$B$6</f>
       </c>
     </row>
     <row r="40">
@@ -7417,6 +7434,7 @@
         <v>316</v>
       </c>
     </row>
+    <row r="41"/>
     <row r="42">
       <c r="N42" s="7" t="s">
         <v>317</v>
@@ -7450,7 +7468,7 @@
     </row>
     <row r="45">
       <c r="A45" s="30" t="str">
-        <f>data!B2</f>
+        <f>data!$B$2</f>
       </c>
       <c r="B45" s="30"/>
       <c r="C45" s="30"/>
@@ -7458,7 +7476,7 @@
       <c r="E45" s="30"/>
       <c r="F45" s="30"/>
       <c r="G45" s="30" t="str">
-        <f>data!B5</f>
+        <f>data!$B$5</f>
       </c>
     </row>
     <row r="46">
@@ -7526,9 +7544,10 @@
         <v>5</v>
       </c>
     </row>
+    <row r="51"/>
     <row r="52">
       <c r="A52" s="30" t="str">
-        <f>data!B2</f>
+        <f>data!$B$2</f>
       </c>
       <c r="B52" s="30" t="s">
         <v>314</v>
@@ -7544,7 +7563,7 @@
         <v>314</v>
       </c>
       <c r="G52" s="30" t="str">
-        <f>data!B5</f>
+        <f>data!$B$5</f>
       </c>
     </row>
     <row r="53">
@@ -7560,6 +7579,7 @@
         <v>316</v>
       </c>
     </row>
+    <row r="54"/>
     <row r="55">
       <c r="F55" s="7" t="s">
         <v>317</v>
@@ -7584,9 +7604,11 @@
       </c>
       <c r="G58" s="23"/>
     </row>
+    <row r="59"/>
+    <row r="60"/>
     <row r="61">
       <c r="A61" s="29" t="str">
-        <f>data!A11</f>
+        <f>data!$A$11</f>
       </c>
       <c r="B61" s="29"/>
       <c r="C61" s="29"/>
@@ -7595,7 +7617,7 @@
       <c r="F61" s="29"/>
       <c r="G61" s="29"/>
       <c r="I61" s="29" t="str">
-        <f>data!A14</f>
+        <f>data!$A$14</f>
       </c>
       <c r="J61" s="29"/>
       <c r="K61" s="29"/>
@@ -7634,7 +7656,7 @@
     </row>
     <row r="63">
       <c r="A63" s="30" t="str">
-        <f>data!B9</f>
+        <f>data!$B$9</f>
       </c>
       <c r="B63" s="30"/>
       <c r="C63" s="30"/>
@@ -7642,10 +7664,10 @@
       <c r="E63" s="30"/>
       <c r="F63" s="30"/>
       <c r="G63" s="30" t="str">
-        <f>data!B10</f>
+        <f>data!$B$10</f>
       </c>
       <c r="I63" s="30" t="str">
-        <f>data!B12</f>
+        <f>data!$B$12</f>
       </c>
       <c r="J63" s="30"/>
       <c r="K63" s="30"/>
@@ -7653,7 +7675,7 @@
       <c r="M63" s="30"/>
       <c r="N63" s="30"/>
       <c r="O63" s="30" t="str">
-        <f>data!B13</f>
+        <f>data!$B$13</f>
       </c>
     </row>
     <row r="64">
@@ -7776,9 +7798,10 @@
         <v>5</v>
       </c>
     </row>
+    <row r="69"/>
     <row r="70">
       <c r="A70" s="30" t="str">
-        <f>data!B9</f>
+        <f>data!$B$9</f>
       </c>
       <c r="B70" s="30" t="s">
         <v>314</v>
@@ -7794,10 +7817,10 @@
         <v>314</v>
       </c>
       <c r="G70" s="30" t="str">
-        <f>data!B10</f>
+        <f>data!$B$10</f>
       </c>
       <c r="I70" s="30" t="str">
-        <f>data!B12</f>
+        <f>data!$B$12</f>
       </c>
       <c r="J70" s="30" t="s">
         <v>314</v>
@@ -7813,7 +7836,7 @@
         <v>314</v>
       </c>
       <c r="O70" s="30" t="str">
-        <f>data!B13</f>
+        <f>data!$B$13</f>
       </c>
     </row>
     <row r="71">
@@ -7840,6 +7863,9 @@
         <v>316</v>
       </c>
     </row>
+    <row r="72"/>
+    <row r="73"/>
+    <row r="74"/>
     <row r="75">
       <c r="A75" s="31" t="s">
         <v>311</v>
@@ -7870,7 +7896,7 @@
     </row>
     <row r="76">
       <c r="A76" s="30" t="str">
-        <f>data!B11</f>
+        <f>data!$B$11</f>
       </c>
       <c r="B76" s="30"/>
       <c r="C76" s="30"/>
@@ -7878,10 +7904,10 @@
       <c r="E76" s="30"/>
       <c r="F76" s="30"/>
       <c r="G76" s="30" t="str">
-        <f>data!B10</f>
+        <f>data!$B$10</f>
       </c>
       <c r="I76" s="30" t="str">
-        <f>data!B14</f>
+        <f>data!$B$14</f>
       </c>
       <c r="J76" s="30"/>
       <c r="K76" s="30"/>
@@ -7889,7 +7915,7 @@
       <c r="M76" s="30"/>
       <c r="N76" s="30"/>
       <c r="O76" s="30" t="str">
-        <f>data!B13</f>
+        <f>data!$B$13</f>
       </c>
     </row>
     <row r="77">
@@ -8012,9 +8038,10 @@
         <v>5</v>
       </c>
     </row>
+    <row r="82"/>
     <row r="83">
       <c r="A83" s="30" t="str">
-        <f>data!B11</f>
+        <f>data!$B$11</f>
       </c>
       <c r="B83" s="30" t="s">
         <v>314</v>
@@ -8030,10 +8057,10 @@
         <v>314</v>
       </c>
       <c r="G83" s="30" t="str">
-        <f>data!B10</f>
+        <f>data!$B$10</f>
       </c>
       <c r="I83" s="30" t="str">
-        <f>data!B14</f>
+        <f>data!$B$14</f>
       </c>
       <c r="J83" s="30" t="s">
         <v>314</v>
@@ -8049,7 +8076,7 @@
         <v>314</v>
       </c>
       <c r="O83" s="30" t="str">
-        <f>data!B13</f>
+        <f>data!$B$13</f>
       </c>
     </row>
     <row r="84">
@@ -8076,6 +8103,9 @@
         <v>316</v>
       </c>
     </row>
+    <row r="85"/>
+    <row r="86"/>
+    <row r="87"/>
     <row r="88">
       <c r="A88" s="31" t="s">
         <v>311</v>
@@ -8106,7 +8136,7 @@
     </row>
     <row r="89">
       <c r="A89" s="30" t="str">
-        <f>data!B11</f>
+        <f>data!$B$11</f>
       </c>
       <c r="B89" s="30"/>
       <c r="C89" s="30"/>
@@ -8114,10 +8144,10 @@
       <c r="E89" s="30"/>
       <c r="F89" s="30"/>
       <c r="G89" s="30" t="str">
-        <f>data!B9</f>
+        <f>data!$B$9</f>
       </c>
       <c r="I89" s="30" t="str">
-        <f>data!B14</f>
+        <f>data!$B$14</f>
       </c>
       <c r="J89" s="30"/>
       <c r="K89" s="30"/>
@@ -8125,7 +8155,7 @@
       <c r="M89" s="30"/>
       <c r="N89" s="30"/>
       <c r="O89" s="30" t="str">
-        <f>data!B12</f>
+        <f>data!$B$12</f>
       </c>
     </row>
     <row r="90">
@@ -8248,9 +8278,10 @@
         <v>5</v>
       </c>
     </row>
+    <row r="95"/>
     <row r="96">
       <c r="A96" s="30" t="str">
-        <f>data!B11</f>
+        <f>data!$B$11</f>
       </c>
       <c r="B96" s="30" t="s">
         <v>314</v>
@@ -8266,10 +8297,10 @@
         <v>314</v>
       </c>
       <c r="G96" s="30" t="str">
-        <f>data!B9</f>
+        <f>data!$B$9</f>
       </c>
       <c r="I96" s="30" t="str">
-        <f>data!B14</f>
+        <f>data!$B$14</f>
       </c>
       <c r="J96" s="30" t="s">
         <v>314</v>
@@ -8285,7 +8316,7 @@
         <v>314</v>
       </c>
       <c r="O96" s="30" t="str">
-        <f>data!B12</f>
+        <f>data!$B$12</f>
       </c>
     </row>
     <row r="97">
@@ -8312,6 +8343,7 @@
         <v>316</v>
       </c>
     </row>
+    <row r="98"/>
     <row r="99">
       <c r="F99" s="7" t="s">
         <v>317</v>
@@ -8342,9 +8374,11 @@
       </c>
       <c r="O101" s="23"/>
     </row>
+    <row r="102"/>
+    <row r="103"/>
     <row r="104">
       <c r="A104" s="29" t="str">
-        <f>data!A17</f>
+        <f>data!$A$17</f>
       </c>
       <c r="B104" s="29"/>
       <c r="C104" s="29"/>
@@ -8353,7 +8387,7 @@
       <c r="F104" s="29"/>
       <c r="G104" s="29"/>
       <c r="I104" s="29" t="str">
-        <f>data!A20</f>
+        <f>data!$A$20</f>
       </c>
       <c r="J104" s="29"/>
       <c r="K104" s="29"/>
@@ -8392,7 +8426,7 @@
     </row>
     <row r="106">
       <c r="A106" s="30" t="str">
-        <f>data!B15</f>
+        <f>data!$B$15</f>
       </c>
       <c r="B106" s="30"/>
       <c r="C106" s="30"/>
@@ -8400,10 +8434,10 @@
       <c r="E106" s="30"/>
       <c r="F106" s="30"/>
       <c r="G106" s="30" t="str">
-        <f>data!B16</f>
+        <f>data!$B$16</f>
       </c>
       <c r="I106" s="30" t="str">
-        <f>data!B18</f>
+        <f>data!$B$18</f>
       </c>
       <c r="J106" s="30"/>
       <c r="K106" s="30"/>
@@ -8411,7 +8445,7 @@
       <c r="M106" s="30"/>
       <c r="N106" s="30"/>
       <c r="O106" s="30" t="str">
-        <f>data!B19</f>
+        <f>data!$B$19</f>
       </c>
     </row>
     <row r="107">
@@ -8534,9 +8568,10 @@
         <v>5</v>
       </c>
     </row>
+    <row r="112"/>
     <row r="113">
       <c r="A113" s="30" t="str">
-        <f>data!B15</f>
+        <f>data!$B$15</f>
       </c>
       <c r="B113" s="30" t="s">
         <v>314</v>
@@ -8552,10 +8587,10 @@
         <v>314</v>
       </c>
       <c r="G113" s="30" t="str">
-        <f>data!B16</f>
+        <f>data!$B$16</f>
       </c>
       <c r="I113" s="30" t="str">
-        <f>data!B18</f>
+        <f>data!$B$18</f>
       </c>
       <c r="J113" s="30" t="s">
         <v>314</v>
@@ -8571,7 +8606,7 @@
         <v>314</v>
       </c>
       <c r="O113" s="30" t="str">
-        <f>data!B19</f>
+        <f>data!$B$19</f>
       </c>
     </row>
     <row r="114">
@@ -8598,6 +8633,9 @@
         <v>316</v>
       </c>
     </row>
+    <row r="115"/>
+    <row r="116"/>
+    <row r="117"/>
     <row r="118">
       <c r="A118" s="31" t="s">
         <v>311</v>
@@ -8628,7 +8666,7 @@
     </row>
     <row r="119">
       <c r="A119" s="30" t="str">
-        <f>data!B17</f>
+        <f>data!$B$17</f>
       </c>
       <c r="B119" s="30"/>
       <c r="C119" s="30"/>
@@ -8636,10 +8674,10 @@
       <c r="E119" s="30"/>
       <c r="F119" s="30"/>
       <c r="G119" s="30" t="str">
-        <f>data!B16</f>
+        <f>data!$B$16</f>
       </c>
       <c r="I119" s="30" t="str">
-        <f>data!B20</f>
+        <f>data!$B$20</f>
       </c>
       <c r="J119" s="30"/>
       <c r="K119" s="30"/>
@@ -8647,7 +8685,7 @@
       <c r="M119" s="30"/>
       <c r="N119" s="30"/>
       <c r="O119" s="30" t="str">
-        <f>data!B19</f>
+        <f>data!$B$19</f>
       </c>
     </row>
     <row r="120">
@@ -8770,9 +8808,10 @@
         <v>5</v>
       </c>
     </row>
+    <row r="125"/>
     <row r="126">
       <c r="A126" s="30" t="str">
-        <f>data!B17</f>
+        <f>data!$B$17</f>
       </c>
       <c r="B126" s="30" t="s">
         <v>314</v>
@@ -8788,10 +8827,10 @@
         <v>314</v>
       </c>
       <c r="G126" s="30" t="str">
-        <f>data!B16</f>
+        <f>data!$B$16</f>
       </c>
       <c r="I126" s="30" t="str">
-        <f>data!B20</f>
+        <f>data!$B$20</f>
       </c>
       <c r="J126" s="30" t="s">
         <v>314</v>
@@ -8807,7 +8846,7 @@
         <v>314</v>
       </c>
       <c r="O126" s="30" t="str">
-        <f>data!B19</f>
+        <f>data!$B$19</f>
       </c>
     </row>
     <row r="127">
@@ -8834,6 +8873,9 @@
         <v>316</v>
       </c>
     </row>
+    <row r="128"/>
+    <row r="129"/>
+    <row r="130"/>
     <row r="131">
       <c r="A131" s="31" t="s">
         <v>311</v>
@@ -8864,7 +8906,7 @@
     </row>
     <row r="132">
       <c r="A132" s="30" t="str">
-        <f>data!B17</f>
+        <f>data!$B$17</f>
       </c>
       <c r="B132" s="30"/>
       <c r="C132" s="30"/>
@@ -8872,10 +8914,10 @@
       <c r="E132" s="30"/>
       <c r="F132" s="30"/>
       <c r="G132" s="30" t="str">
-        <f>data!B15</f>
+        <f>data!$B$15</f>
       </c>
       <c r="I132" s="30" t="str">
-        <f>data!B20</f>
+        <f>data!$B$20</f>
       </c>
       <c r="J132" s="30"/>
       <c r="K132" s="30"/>
@@ -8883,7 +8925,7 @@
       <c r="M132" s="30"/>
       <c r="N132" s="30"/>
       <c r="O132" s="30" t="str">
-        <f>data!B18</f>
+        <f>data!$B$18</f>
       </c>
     </row>
     <row r="133">
@@ -9006,9 +9048,10 @@
         <v>5</v>
       </c>
     </row>
+    <row r="138"/>
     <row r="139">
       <c r="A139" s="30" t="str">
-        <f>data!B17</f>
+        <f>data!$B$17</f>
       </c>
       <c r="B139" s="30" t="s">
         <v>314</v>
@@ -9024,10 +9067,10 @@
         <v>314</v>
       </c>
       <c r="G139" s="30" t="str">
-        <f>data!B15</f>
+        <f>data!$B$15</f>
       </c>
       <c r="I139" s="30" t="str">
-        <f>data!B20</f>
+        <f>data!$B$20</f>
       </c>
       <c r="J139" s="30" t="s">
         <v>314</v>
@@ -9043,7 +9086,7 @@
         <v>314</v>
       </c>
       <c r="O139" s="30" t="str">
-        <f>data!B18</f>
+        <f>data!$B$18</f>
       </c>
     </row>
     <row r="140">
@@ -9070,6 +9113,7 @@
         <v>316</v>
       </c>
     </row>
+    <row r="141"/>
     <row r="142">
       <c r="F142" s="7" t="s">
         <v>317</v>
@@ -9100,9 +9144,11 @@
       </c>
       <c r="O144" s="23"/>
     </row>
+    <row r="145"/>
+    <row r="146"/>
     <row r="147">
       <c r="A147" s="29" t="str">
-        <f>data!A23</f>
+        <f>data!$A$23</f>
       </c>
       <c r="B147" s="29"/>
       <c r="C147" s="29"/>
@@ -9111,7 +9157,7 @@
       <c r="F147" s="29"/>
       <c r="G147" s="29"/>
       <c r="I147" s="29" t="str">
-        <f>data!A26</f>
+        <f>data!$A$26</f>
       </c>
       <c r="J147" s="29"/>
       <c r="K147" s="29"/>
@@ -9150,7 +9196,7 @@
     </row>
     <row r="149">
       <c r="A149" s="30" t="str">
-        <f>data!B21</f>
+        <f>data!$B$21</f>
       </c>
       <c r="B149" s="30"/>
       <c r="C149" s="30"/>
@@ -9158,10 +9204,10 @@
       <c r="E149" s="30"/>
       <c r="F149" s="30"/>
       <c r="G149" s="30" t="str">
-        <f>data!B22</f>
+        <f>data!$B$22</f>
       </c>
       <c r="I149" s="30" t="str">
-        <f>data!B24</f>
+        <f>data!$B$24</f>
       </c>
       <c r="J149" s="30"/>
       <c r="K149" s="30"/>
@@ -9169,7 +9215,7 @@
       <c r="M149" s="30"/>
       <c r="N149" s="30"/>
       <c r="O149" s="30" t="str">
-        <f>data!B25</f>
+        <f>data!$B$25</f>
       </c>
     </row>
     <row r="150">
@@ -9292,9 +9338,10 @@
         <v>5</v>
       </c>
     </row>
+    <row r="155"/>
     <row r="156">
       <c r="A156" s="30" t="str">
-        <f>data!B21</f>
+        <f>data!$B$21</f>
       </c>
       <c r="B156" s="30" t="s">
         <v>314</v>
@@ -9310,10 +9357,10 @@
         <v>314</v>
       </c>
       <c r="G156" s="30" t="str">
-        <f>data!B22</f>
+        <f>data!$B$22</f>
       </c>
       <c r="I156" s="30" t="str">
-        <f>data!B24</f>
+        <f>data!$B$24</f>
       </c>
       <c r="J156" s="30" t="s">
         <v>314</v>
@@ -9329,7 +9376,7 @@
         <v>314</v>
       </c>
       <c r="O156" s="30" t="str">
-        <f>data!B25</f>
+        <f>data!$B$25</f>
       </c>
     </row>
     <row r="157">
@@ -9356,6 +9403,9 @@
         <v>316</v>
       </c>
     </row>
+    <row r="158"/>
+    <row r="159"/>
+    <row r="160"/>
     <row r="161">
       <c r="A161" s="31" t="s">
         <v>311</v>
@@ -9386,7 +9436,7 @@
     </row>
     <row r="162">
       <c r="A162" s="30" t="str">
-        <f>data!B23</f>
+        <f>data!$B$23</f>
       </c>
       <c r="B162" s="30"/>
       <c r="C162" s="30"/>
@@ -9394,10 +9444,10 @@
       <c r="E162" s="30"/>
       <c r="F162" s="30"/>
       <c r="G162" s="30" t="str">
-        <f>data!B22</f>
+        <f>data!$B$22</f>
       </c>
       <c r="I162" s="30" t="str">
-        <f>data!B26</f>
+        <f>data!$B$26</f>
       </c>
       <c r="J162" s="30"/>
       <c r="K162" s="30"/>
@@ -9405,7 +9455,7 @@
       <c r="M162" s="30"/>
       <c r="N162" s="30"/>
       <c r="O162" s="30" t="str">
-        <f>data!B25</f>
+        <f>data!$B$25</f>
       </c>
     </row>
     <row r="163">
@@ -9528,9 +9578,10 @@
         <v>5</v>
       </c>
     </row>
+    <row r="168"/>
     <row r="169">
       <c r="A169" s="30" t="str">
-        <f>data!B23</f>
+        <f>data!$B$23</f>
       </c>
       <c r="B169" s="30" t="s">
         <v>314</v>
@@ -9546,10 +9597,10 @@
         <v>314</v>
       </c>
       <c r="G169" s="30" t="str">
-        <f>data!B22</f>
+        <f>data!$B$22</f>
       </c>
       <c r="I169" s="30" t="str">
-        <f>data!B26</f>
+        <f>data!$B$26</f>
       </c>
       <c r="J169" s="30" t="s">
         <v>314</v>
@@ -9565,7 +9616,7 @@
         <v>314</v>
       </c>
       <c r="O169" s="30" t="str">
-        <f>data!B25</f>
+        <f>data!$B$25</f>
       </c>
     </row>
     <row r="170">
@@ -9592,6 +9643,9 @@
         <v>316</v>
       </c>
     </row>
+    <row r="171"/>
+    <row r="172"/>
+    <row r="173"/>
     <row r="174">
       <c r="A174" s="31" t="s">
         <v>311</v>
@@ -9622,7 +9676,7 @@
     </row>
     <row r="175">
       <c r="A175" s="30" t="str">
-        <f>data!B23</f>
+        <f>data!$B$23</f>
       </c>
       <c r="B175" s="30"/>
       <c r="C175" s="30"/>
@@ -9630,10 +9684,10 @@
       <c r="E175" s="30"/>
       <c r="F175" s="30"/>
       <c r="G175" s="30" t="str">
-        <f>data!B21</f>
+        <f>data!$B$21</f>
       </c>
       <c r="I175" s="30" t="str">
-        <f>data!B26</f>
+        <f>data!$B$26</f>
       </c>
       <c r="J175" s="30"/>
       <c r="K175" s="30"/>
@@ -9641,7 +9695,7 @@
       <c r="M175" s="30"/>
       <c r="N175" s="30"/>
       <c r="O175" s="30" t="str">
-        <f>data!B24</f>
+        <f>data!$B$24</f>
       </c>
     </row>
     <row r="176">
@@ -9764,9 +9818,10 @@
         <v>5</v>
       </c>
     </row>
+    <row r="181"/>
     <row r="182">
       <c r="A182" s="30" t="str">
-        <f>data!B23</f>
+        <f>data!$B$23</f>
       </c>
       <c r="B182" s="30" t="s">
         <v>314</v>
@@ -9782,10 +9837,10 @@
         <v>314</v>
       </c>
       <c r="G182" s="30" t="str">
-        <f>data!B21</f>
+        <f>data!$B$21</f>
       </c>
       <c r="I182" s="30" t="str">
-        <f>data!B26</f>
+        <f>data!$B$26</f>
       </c>
       <c r="J182" s="30" t="s">
         <v>314</v>
@@ -9801,7 +9856,7 @@
         <v>314</v>
       </c>
       <c r="O182" s="30" t="str">
-        <f>data!B24</f>
+        <f>data!$B$24</f>
       </c>
     </row>
     <row r="183">
@@ -9828,6 +9883,7 @@
         <v>316</v>
       </c>
     </row>
+    <row r="184"/>
     <row r="185">
       <c r="F185" s="7" t="s">
         <v>317</v>
@@ -9858,9 +9914,11 @@
       </c>
       <c r="O187" s="23"/>
     </row>
+    <row r="188"/>
+    <row r="189"/>
     <row r="190">
       <c r="A190" s="29" t="str">
-        <f>data!A29</f>
+        <f>data!$A$29</f>
       </c>
       <c r="B190" s="29"/>
       <c r="C190" s="29"/>
@@ -9869,7 +9927,7 @@
       <c r="F190" s="29"/>
       <c r="G190" s="29"/>
       <c r="I190" s="29" t="str">
-        <f>data!A32</f>
+        <f>data!$A$32</f>
       </c>
       <c r="J190" s="29"/>
       <c r="K190" s="29"/>
@@ -9908,7 +9966,7 @@
     </row>
     <row r="192">
       <c r="A192" s="30" t="str">
-        <f>data!B27</f>
+        <f>data!$B$27</f>
       </c>
       <c r="B192" s="30"/>
       <c r="C192" s="30"/>
@@ -9916,10 +9974,10 @@
       <c r="E192" s="30"/>
       <c r="F192" s="30"/>
       <c r="G192" s="30" t="str">
-        <f>data!B28</f>
+        <f>data!$B$28</f>
       </c>
       <c r="I192" s="30" t="str">
-        <f>data!B30</f>
+        <f>data!$B$30</f>
       </c>
       <c r="J192" s="30"/>
       <c r="K192" s="30"/>
@@ -9927,7 +9985,7 @@
       <c r="M192" s="30"/>
       <c r="N192" s="30"/>
       <c r="O192" s="30" t="str">
-        <f>data!B31</f>
+        <f>data!$B$31</f>
       </c>
     </row>
     <row r="193">
@@ -10050,9 +10108,10 @@
         <v>5</v>
       </c>
     </row>
+    <row r="198"/>
     <row r="199">
       <c r="A199" s="30" t="str">
-        <f>data!B27</f>
+        <f>data!$B$27</f>
       </c>
       <c r="B199" s="30" t="s">
         <v>314</v>
@@ -10068,10 +10127,10 @@
         <v>314</v>
       </c>
       <c r="G199" s="30" t="str">
-        <f>data!B28</f>
+        <f>data!$B$28</f>
       </c>
       <c r="I199" s="30" t="str">
-        <f>data!B30</f>
+        <f>data!$B$30</f>
       </c>
       <c r="J199" s="30" t="s">
         <v>314</v>
@@ -10087,7 +10146,7 @@
         <v>314</v>
       </c>
       <c r="O199" s="30" t="str">
-        <f>data!B31</f>
+        <f>data!$B$31</f>
       </c>
     </row>
     <row r="200">
@@ -10114,6 +10173,9 @@
         <v>316</v>
       </c>
     </row>
+    <row r="201"/>
+    <row r="202"/>
+    <row r="203"/>
     <row r="204">
       <c r="A204" s="31" t="s">
         <v>311</v>
@@ -10144,7 +10206,7 @@
     </row>
     <row r="205">
       <c r="A205" s="30" t="str">
-        <f>data!B29</f>
+        <f>data!$B$29</f>
       </c>
       <c r="B205" s="30"/>
       <c r="C205" s="30"/>
@@ -10152,10 +10214,10 @@
       <c r="E205" s="30"/>
       <c r="F205" s="30"/>
       <c r="G205" s="30" t="str">
-        <f>data!B28</f>
+        <f>data!$B$28</f>
       </c>
       <c r="I205" s="30" t="str">
-        <f>data!B32</f>
+        <f>data!$B$32</f>
       </c>
       <c r="J205" s="30"/>
       <c r="K205" s="30"/>
@@ -10163,7 +10225,7 @@
       <c r="M205" s="30"/>
       <c r="N205" s="30"/>
       <c r="O205" s="30" t="str">
-        <f>data!B31</f>
+        <f>data!$B$31</f>
       </c>
     </row>
     <row r="206">
@@ -10286,9 +10348,10 @@
         <v>5</v>
       </c>
     </row>
+    <row r="211"/>
     <row r="212">
       <c r="A212" s="30" t="str">
-        <f>data!B29</f>
+        <f>data!$B$29</f>
       </c>
       <c r="B212" s="30" t="s">
         <v>314</v>
@@ -10304,10 +10367,10 @@
         <v>314</v>
       </c>
       <c r="G212" s="30" t="str">
-        <f>data!B28</f>
+        <f>data!$B$28</f>
       </c>
       <c r="I212" s="30" t="str">
-        <f>data!B32</f>
+        <f>data!$B$32</f>
       </c>
       <c r="J212" s="30" t="s">
         <v>314</v>
@@ -10323,7 +10386,7 @@
         <v>314</v>
       </c>
       <c r="O212" s="30" t="str">
-        <f>data!B31</f>
+        <f>data!$B$31</f>
       </c>
     </row>
     <row r="213">
@@ -10350,6 +10413,9 @@
         <v>316</v>
       </c>
     </row>
+    <row r="214"/>
+    <row r="215"/>
+    <row r="216"/>
     <row r="217">
       <c r="A217" s="31" t="s">
         <v>311</v>
@@ -10380,7 +10446,7 @@
     </row>
     <row r="218">
       <c r="A218" s="30" t="str">
-        <f>data!B29</f>
+        <f>data!$B$29</f>
       </c>
       <c r="B218" s="30"/>
       <c r="C218" s="30"/>
@@ -10388,10 +10454,10 @@
       <c r="E218" s="30"/>
       <c r="F218" s="30"/>
       <c r="G218" s="30" t="str">
-        <f>data!B27</f>
+        <f>data!$B$27</f>
       </c>
       <c r="I218" s="30" t="str">
-        <f>data!B32</f>
+        <f>data!$B$32</f>
       </c>
       <c r="J218" s="30"/>
       <c r="K218" s="30"/>
@@ -10399,7 +10465,7 @@
       <c r="M218" s="30"/>
       <c r="N218" s="30"/>
       <c r="O218" s="30" t="str">
-        <f>data!B30</f>
+        <f>data!$B$30</f>
       </c>
     </row>
     <row r="219">
@@ -10522,9 +10588,10 @@
         <v>5</v>
       </c>
     </row>
+    <row r="224"/>
     <row r="225">
       <c r="A225" s="30" t="str">
-        <f>data!B29</f>
+        <f>data!$B$29</f>
       </c>
       <c r="B225" s="30" t="s">
         <v>314</v>
@@ -10540,10 +10607,10 @@
         <v>314</v>
       </c>
       <c r="G225" s="30" t="str">
-        <f>data!B27</f>
+        <f>data!$B$27</f>
       </c>
       <c r="I225" s="30" t="str">
-        <f>data!B32</f>
+        <f>data!$B$32</f>
       </c>
       <c r="J225" s="30" t="s">
         <v>314</v>
@@ -10559,7 +10626,7 @@
         <v>314</v>
       </c>
       <c r="O225" s="30" t="str">
-        <f>data!B30</f>
+        <f>data!$B$30</f>
       </c>
     </row>
     <row r="226">
@@ -10586,6 +10653,7 @@
         <v>316</v>
       </c>
     </row>
+    <row r="227"/>
     <row r="228">
       <c r="F228" s="7" t="s">
         <v>317</v>
@@ -10616,9 +10684,11 @@
       </c>
       <c r="O230" s="23"/>
     </row>
+    <row r="231"/>
+    <row r="232"/>
     <row r="233">
       <c r="A233" s="29" t="str">
-        <f>data!A35</f>
+        <f>data!$A$35</f>
       </c>
       <c r="B233" s="29"/>
       <c r="C233" s="29"/>
@@ -10627,7 +10697,7 @@
       <c r="F233" s="29"/>
       <c r="G233" s="29"/>
       <c r="I233" s="29" t="str">
-        <f>data!A38</f>
+        <f>data!$A$38</f>
       </c>
       <c r="J233" s="29"/>
       <c r="K233" s="29"/>
@@ -10666,7 +10736,7 @@
     </row>
     <row r="235">
       <c r="A235" s="30" t="str">
-        <f>data!B33</f>
+        <f>data!$B$33</f>
       </c>
       <c r="B235" s="30"/>
       <c r="C235" s="30"/>
@@ -10674,10 +10744,10 @@
       <c r="E235" s="30"/>
       <c r="F235" s="30"/>
       <c r="G235" s="30" t="str">
-        <f>data!B34</f>
+        <f>data!$B$34</f>
       </c>
       <c r="I235" s="30" t="str">
-        <f>data!B36</f>
+        <f>data!$B$36</f>
       </c>
       <c r="J235" s="30"/>
       <c r="K235" s="30"/>
@@ -10685,7 +10755,7 @@
       <c r="M235" s="30"/>
       <c r="N235" s="30"/>
       <c r="O235" s="30" t="str">
-        <f>data!B37</f>
+        <f>data!$B$37</f>
       </c>
     </row>
     <row r="236">
@@ -10808,9 +10878,10 @@
         <v>5</v>
       </c>
     </row>
+    <row r="241"/>
     <row r="242">
       <c r="A242" s="30" t="str">
-        <f>data!B33</f>
+        <f>data!$B$33</f>
       </c>
       <c r="B242" s="30" t="s">
         <v>314</v>
@@ -10826,10 +10897,10 @@
         <v>314</v>
       </c>
       <c r="G242" s="30" t="str">
-        <f>data!B34</f>
+        <f>data!$B$34</f>
       </c>
       <c r="I242" s="30" t="str">
-        <f>data!B36</f>
+        <f>data!$B$36</f>
       </c>
       <c r="J242" s="30" t="s">
         <v>314</v>
@@ -10845,7 +10916,7 @@
         <v>314</v>
       </c>
       <c r="O242" s="30" t="str">
-        <f>data!B37</f>
+        <f>data!$B$37</f>
       </c>
     </row>
     <row r="243">
@@ -10872,6 +10943,9 @@
         <v>316</v>
       </c>
     </row>
+    <row r="244"/>
+    <row r="245"/>
+    <row r="246"/>
     <row r="247">
       <c r="A247" s="31" t="s">
         <v>311</v>
@@ -10902,7 +10976,7 @@
     </row>
     <row r="248">
       <c r="A248" s="30" t="str">
-        <f>data!B35</f>
+        <f>data!$B$35</f>
       </c>
       <c r="B248" s="30"/>
       <c r="C248" s="30"/>
@@ -10910,10 +10984,10 @@
       <c r="E248" s="30"/>
       <c r="F248" s="30"/>
       <c r="G248" s="30" t="str">
-        <f>data!B34</f>
+        <f>data!$B$34</f>
       </c>
       <c r="I248" s="30" t="str">
-        <f>data!B38</f>
+        <f>data!$B$38</f>
       </c>
       <c r="J248" s="30"/>
       <c r="K248" s="30"/>
@@ -10921,7 +10995,7 @@
       <c r="M248" s="30"/>
       <c r="N248" s="30"/>
       <c r="O248" s="30" t="str">
-        <f>data!B37</f>
+        <f>data!$B$37</f>
       </c>
     </row>
     <row r="249">
@@ -11044,9 +11118,10 @@
         <v>5</v>
       </c>
     </row>
+    <row r="254"/>
     <row r="255">
       <c r="A255" s="30" t="str">
-        <f>data!B35</f>
+        <f>data!$B$35</f>
       </c>
       <c r="B255" s="30" t="s">
         <v>314</v>
@@ -11062,10 +11137,10 @@
         <v>314</v>
       </c>
       <c r="G255" s="30" t="str">
-        <f>data!B34</f>
+        <f>data!$B$34</f>
       </c>
       <c r="I255" s="30" t="str">
-        <f>data!B38</f>
+        <f>data!$B$38</f>
       </c>
       <c r="J255" s="30" t="s">
         <v>314</v>
@@ -11081,7 +11156,7 @@
         <v>314</v>
       </c>
       <c r="O255" s="30" t="str">
-        <f>data!B37</f>
+        <f>data!$B$37</f>
       </c>
     </row>
     <row r="256">
@@ -11108,6 +11183,9 @@
         <v>316</v>
       </c>
     </row>
+    <row r="257"/>
+    <row r="258"/>
+    <row r="259"/>
     <row r="260">
       <c r="A260" s="31" t="s">
         <v>311</v>
@@ -11138,7 +11216,7 @@
     </row>
     <row r="261">
       <c r="A261" s="30" t="str">
-        <f>data!B35</f>
+        <f>data!$B$35</f>
       </c>
       <c r="B261" s="30"/>
       <c r="C261" s="30"/>
@@ -11146,10 +11224,10 @@
       <c r="E261" s="30"/>
       <c r="F261" s="30"/>
       <c r="G261" s="30" t="str">
-        <f>data!B33</f>
+        <f>data!$B$33</f>
       </c>
       <c r="I261" s="30" t="str">
-        <f>data!B38</f>
+        <f>data!$B$38</f>
       </c>
       <c r="J261" s="30"/>
       <c r="K261" s="30"/>
@@ -11157,7 +11235,7 @@
       <c r="M261" s="30"/>
       <c r="N261" s="30"/>
       <c r="O261" s="30" t="str">
-        <f>data!B36</f>
+        <f>data!$B$36</f>
       </c>
     </row>
     <row r="262">
@@ -11280,9 +11358,10 @@
         <v>5</v>
       </c>
     </row>
+    <row r="267"/>
     <row r="268">
       <c r="A268" s="30" t="str">
-        <f>data!B35</f>
+        <f>data!$B$35</f>
       </c>
       <c r="B268" s="30" t="s">
         <v>314</v>
@@ -11298,10 +11377,10 @@
         <v>314</v>
       </c>
       <c r="G268" s="30" t="str">
-        <f>data!B33</f>
+        <f>data!$B$33</f>
       </c>
       <c r="I268" s="30" t="str">
-        <f>data!B38</f>
+        <f>data!$B$38</f>
       </c>
       <c r="J268" s="30" t="s">
         <v>314</v>
@@ -11317,7 +11396,7 @@
         <v>314</v>
       </c>
       <c r="O268" s="30" t="str">
-        <f>data!B36</f>
+        <f>data!$B$36</f>
       </c>
     </row>
     <row r="269">
@@ -11344,6 +11423,7 @@
         <v>316</v>
       </c>
     </row>
+    <row r="270"/>
     <row r="271">
       <c r="F271" s="7" t="s">
         <v>317</v>
@@ -11374,9 +11454,11 @@
       </c>
       <c r="O273" s="23"/>
     </row>
+    <row r="274"/>
+    <row r="275"/>
     <row r="276">
       <c r="A276" s="29" t="str">
-        <f>data!A41</f>
+        <f>data!$A$41</f>
       </c>
       <c r="B276" s="29"/>
       <c r="C276" s="29"/>
@@ -11385,7 +11467,7 @@
       <c r="F276" s="29"/>
       <c r="G276" s="29"/>
       <c r="I276" s="29" t="str">
-        <f>data!A44</f>
+        <f>data!$A$44</f>
       </c>
       <c r="J276" s="29"/>
       <c r="K276" s="29"/>
@@ -11424,7 +11506,7 @@
     </row>
     <row r="278">
       <c r="A278" s="30" t="str">
-        <f>data!B39</f>
+        <f>data!$B$39</f>
       </c>
       <c r="B278" s="30"/>
       <c r="C278" s="30"/>
@@ -11432,10 +11514,10 @@
       <c r="E278" s="30"/>
       <c r="F278" s="30"/>
       <c r="G278" s="30" t="str">
-        <f>data!B40</f>
+        <f>data!$B$40</f>
       </c>
       <c r="I278" s="30" t="str">
-        <f>data!B42</f>
+        <f>data!$B$42</f>
       </c>
       <c r="J278" s="30"/>
       <c r="K278" s="30"/>
@@ -11443,7 +11525,7 @@
       <c r="M278" s="30"/>
       <c r="N278" s="30"/>
       <c r="O278" s="30" t="str">
-        <f>data!B43</f>
+        <f>data!$B$43</f>
       </c>
     </row>
     <row r="279">
@@ -11566,9 +11648,10 @@
         <v>5</v>
       </c>
     </row>
+    <row r="284"/>
     <row r="285">
       <c r="A285" s="30" t="str">
-        <f>data!B39</f>
+        <f>data!$B$39</f>
       </c>
       <c r="B285" s="30" t="s">
         <v>314</v>
@@ -11584,10 +11667,10 @@
         <v>314</v>
       </c>
       <c r="G285" s="30" t="str">
-        <f>data!B40</f>
+        <f>data!$B$40</f>
       </c>
       <c r="I285" s="30" t="str">
-        <f>data!B42</f>
+        <f>data!$B$42</f>
       </c>
       <c r="J285" s="30" t="s">
         <v>314</v>
@@ -11603,7 +11686,7 @@
         <v>314</v>
       </c>
       <c r="O285" s="30" t="str">
-        <f>data!B43</f>
+        <f>data!$B$43</f>
       </c>
     </row>
     <row r="286">
@@ -11630,6 +11713,9 @@
         <v>316</v>
       </c>
     </row>
+    <row r="287"/>
+    <row r="288"/>
+    <row r="289"/>
     <row r="290">
       <c r="A290" s="31" t="s">
         <v>311</v>
@@ -11660,7 +11746,7 @@
     </row>
     <row r="291">
       <c r="A291" s="30" t="str">
-        <f>data!B41</f>
+        <f>data!$B$41</f>
       </c>
       <c r="B291" s="30"/>
       <c r="C291" s="30"/>
@@ -11668,10 +11754,10 @@
       <c r="E291" s="30"/>
       <c r="F291" s="30"/>
       <c r="G291" s="30" t="str">
-        <f>data!B40</f>
+        <f>data!$B$40</f>
       </c>
       <c r="I291" s="30" t="str">
-        <f>data!B44</f>
+        <f>data!$B$44</f>
       </c>
       <c r="J291" s="30"/>
       <c r="K291" s="30"/>
@@ -11679,7 +11765,7 @@
       <c r="M291" s="30"/>
       <c r="N291" s="30"/>
       <c r="O291" s="30" t="str">
-        <f>data!B43</f>
+        <f>data!$B$43</f>
       </c>
     </row>
     <row r="292">
@@ -11802,9 +11888,10 @@
         <v>5</v>
       </c>
     </row>
+    <row r="297"/>
     <row r="298">
       <c r="A298" s="30" t="str">
-        <f>data!B41</f>
+        <f>data!$B$41</f>
       </c>
       <c r="B298" s="30" t="s">
         <v>314</v>
@@ -11820,10 +11907,10 @@
         <v>314</v>
       </c>
       <c r="G298" s="30" t="str">
-        <f>data!B40</f>
+        <f>data!$B$40</f>
       </c>
       <c r="I298" s="30" t="str">
-        <f>data!B44</f>
+        <f>data!$B$44</f>
       </c>
       <c r="J298" s="30" t="s">
         <v>314</v>
@@ -11839,7 +11926,7 @@
         <v>314</v>
       </c>
       <c r="O298" s="30" t="str">
-        <f>data!B43</f>
+        <f>data!$B$43</f>
       </c>
     </row>
     <row r="299">
@@ -11866,6 +11953,9 @@
         <v>316</v>
       </c>
     </row>
+    <row r="300"/>
+    <row r="301"/>
+    <row r="302"/>
     <row r="303">
       <c r="A303" s="31" t="s">
         <v>311</v>
@@ -11896,7 +11986,7 @@
     </row>
     <row r="304">
       <c r="A304" s="30" t="str">
-        <f>data!B41</f>
+        <f>data!$B$41</f>
       </c>
       <c r="B304" s="30"/>
       <c r="C304" s="30"/>
@@ -11904,10 +11994,10 @@
       <c r="E304" s="30"/>
       <c r="F304" s="30"/>
       <c r="G304" s="30" t="str">
-        <f>data!B39</f>
+        <f>data!$B$39</f>
       </c>
       <c r="I304" s="30" t="str">
-        <f>data!B44</f>
+        <f>data!$B$44</f>
       </c>
       <c r="J304" s="30"/>
       <c r="K304" s="30"/>
@@ -11915,7 +12005,7 @@
       <c r="M304" s="30"/>
       <c r="N304" s="30"/>
       <c r="O304" s="30" t="str">
-        <f>data!B42</f>
+        <f>data!$B$42</f>
       </c>
     </row>
     <row r="305">
@@ -12038,9 +12128,10 @@
         <v>5</v>
       </c>
     </row>
+    <row r="310"/>
     <row r="311">
       <c r="A311" s="30" t="str">
-        <f>data!B41</f>
+        <f>data!$B$41</f>
       </c>
       <c r="B311" s="30" t="s">
         <v>314</v>
@@ -12056,10 +12147,10 @@
         <v>314</v>
       </c>
       <c r="G311" s="30" t="str">
-        <f>data!B39</f>
+        <f>data!$B$39</f>
       </c>
       <c r="I311" s="30" t="str">
-        <f>data!B44</f>
+        <f>data!$B$44</f>
       </c>
       <c r="J311" s="30" t="s">
         <v>314</v>
@@ -12075,7 +12166,7 @@
         <v>314</v>
       </c>
       <c r="O311" s="30" t="str">
-        <f>data!B42</f>
+        <f>data!$B$42</f>
       </c>
     </row>
     <row r="312">
@@ -12102,6 +12193,7 @@
         <v>316</v>
       </c>
     </row>
+    <row r="313"/>
     <row r="314">
       <c r="F314" s="7" t="s">
         <v>317</v>
@@ -12132,9 +12224,11 @@
       </c>
       <c r="O316" s="23"/>
     </row>
+    <row r="317"/>
+    <row r="318"/>
     <row r="319">
       <c r="A319" s="29" t="str">
-        <f>data!A47</f>
+        <f>data!$A$47</f>
       </c>
       <c r="B319" s="29"/>
       <c r="C319" s="29"/>
@@ -12143,7 +12237,7 @@
       <c r="F319" s="29"/>
       <c r="G319" s="29"/>
       <c r="I319" s="29" t="str">
-        <f>data!A50</f>
+        <f>data!$A$50</f>
       </c>
       <c r="J319" s="29"/>
       <c r="K319" s="29"/>
@@ -12182,7 +12276,7 @@
     </row>
     <row r="321">
       <c r="A321" s="30" t="str">
-        <f>data!B45</f>
+        <f>data!$B$45</f>
       </c>
       <c r="B321" s="30"/>
       <c r="C321" s="30"/>
@@ -12190,10 +12284,10 @@
       <c r="E321" s="30"/>
       <c r="F321" s="30"/>
       <c r="G321" s="30" t="str">
-        <f>data!B46</f>
+        <f>data!$B$46</f>
       </c>
       <c r="I321" s="30" t="str">
-        <f>data!B48</f>
+        <f>data!$B$48</f>
       </c>
       <c r="J321" s="30"/>
       <c r="K321" s="30"/>
@@ -12201,7 +12295,7 @@
       <c r="M321" s="30"/>
       <c r="N321" s="30"/>
       <c r="O321" s="30" t="str">
-        <f>data!B49</f>
+        <f>data!$B$49</f>
       </c>
     </row>
     <row r="322">
@@ -12324,9 +12418,10 @@
         <v>5</v>
       </c>
     </row>
+    <row r="327"/>
     <row r="328">
       <c r="A328" s="30" t="str">
-        <f>data!B45</f>
+        <f>data!$B$45</f>
       </c>
       <c r="B328" s="30" t="s">
         <v>314</v>
@@ -12342,10 +12437,10 @@
         <v>314</v>
       </c>
       <c r="G328" s="30" t="str">
-        <f>data!B46</f>
+        <f>data!$B$46</f>
       </c>
       <c r="I328" s="30" t="str">
-        <f>data!B48</f>
+        <f>data!$B$48</f>
       </c>
       <c r="J328" s="30" t="s">
         <v>314</v>
@@ -12361,7 +12456,7 @@
         <v>314</v>
       </c>
       <c r="O328" s="30" t="str">
-        <f>data!B49</f>
+        <f>data!$B$49</f>
       </c>
     </row>
     <row r="329">
@@ -12388,6 +12483,9 @@
         <v>316</v>
       </c>
     </row>
+    <row r="330"/>
+    <row r="331"/>
+    <row r="332"/>
     <row r="333">
       <c r="A333" s="31" t="s">
         <v>311</v>
@@ -12418,7 +12516,7 @@
     </row>
     <row r="334">
       <c r="A334" s="30" t="str">
-        <f>data!B47</f>
+        <f>data!$B$47</f>
       </c>
       <c r="B334" s="30"/>
       <c r="C334" s="30"/>
@@ -12426,10 +12524,10 @@
       <c r="E334" s="30"/>
       <c r="F334" s="30"/>
       <c r="G334" s="30" t="str">
-        <f>data!B46</f>
+        <f>data!$B$46</f>
       </c>
       <c r="I334" s="30" t="str">
-        <f>data!B50</f>
+        <f>data!$B$50</f>
       </c>
       <c r="J334" s="30"/>
       <c r="K334" s="30"/>
@@ -12437,7 +12535,7 @@
       <c r="M334" s="30"/>
       <c r="N334" s="30"/>
       <c r="O334" s="30" t="str">
-        <f>data!B49</f>
+        <f>data!$B$49</f>
       </c>
     </row>
     <row r="335">
@@ -12560,9 +12658,10 @@
         <v>5</v>
       </c>
     </row>
+    <row r="340"/>
     <row r="341">
       <c r="A341" s="30" t="str">
-        <f>data!B47</f>
+        <f>data!$B$47</f>
       </c>
       <c r="B341" s="30" t="s">
         <v>314</v>
@@ -12578,10 +12677,10 @@
         <v>314</v>
       </c>
       <c r="G341" s="30" t="str">
-        <f>data!B46</f>
+        <f>data!$B$46</f>
       </c>
       <c r="I341" s="30" t="str">
-        <f>data!B50</f>
+        <f>data!$B$50</f>
       </c>
       <c r="J341" s="30" t="s">
         <v>314</v>
@@ -12597,7 +12696,7 @@
         <v>314</v>
       </c>
       <c r="O341" s="30" t="str">
-        <f>data!B49</f>
+        <f>data!$B$49</f>
       </c>
     </row>
     <row r="342">
@@ -12624,6 +12723,9 @@
         <v>316</v>
       </c>
     </row>
+    <row r="343"/>
+    <row r="344"/>
+    <row r="345"/>
     <row r="346">
       <c r="A346" s="31" t="s">
         <v>311</v>
@@ -12654,7 +12756,7 @@
     </row>
     <row r="347">
       <c r="A347" s="30" t="str">
-        <f>data!B47</f>
+        <f>data!$B$47</f>
       </c>
       <c r="B347" s="30"/>
       <c r="C347" s="30"/>
@@ -12662,10 +12764,10 @@
       <c r="E347" s="30"/>
       <c r="F347" s="30"/>
       <c r="G347" s="30" t="str">
-        <f>data!B45</f>
+        <f>data!$B$45</f>
       </c>
       <c r="I347" s="30" t="str">
-        <f>data!B50</f>
+        <f>data!$B$50</f>
       </c>
       <c r="J347" s="30"/>
       <c r="K347" s="30"/>
@@ -12673,7 +12775,7 @@
       <c r="M347" s="30"/>
       <c r="N347" s="30"/>
       <c r="O347" s="30" t="str">
-        <f>data!B48</f>
+        <f>data!$B$48</f>
       </c>
     </row>
     <row r="348">
@@ -12796,9 +12898,10 @@
         <v>5</v>
       </c>
     </row>
+    <row r="353"/>
     <row r="354">
       <c r="A354" s="30" t="str">
-        <f>data!B47</f>
+        <f>data!$B$47</f>
       </c>
       <c r="B354" s="30" t="s">
         <v>314</v>
@@ -12814,10 +12917,10 @@
         <v>314</v>
       </c>
       <c r="G354" s="30" t="str">
-        <f>data!B45</f>
+        <f>data!$B$45</f>
       </c>
       <c r="I354" s="30" t="str">
-        <f>data!B50</f>
+        <f>data!$B$50</f>
       </c>
       <c r="J354" s="30" t="s">
         <v>314</v>
@@ -12833,7 +12936,7 @@
         <v>314</v>
       </c>
       <c r="O354" s="30" t="str">
-        <f>data!B48</f>
+        <f>data!$B$48</f>
       </c>
     </row>
     <row r="355">
@@ -12860,6 +12963,7 @@
         <v>316</v>
       </c>
     </row>
+    <row r="356"/>
     <row r="357">
       <c r="F357" s="7" t="s">
         <v>317</v>
@@ -12890,9 +12994,11 @@
       </c>
       <c r="O359" s="23"/>
     </row>
+    <row r="360"/>
+    <row r="361"/>
     <row r="362">
       <c r="A362" s="29" t="str">
-        <f>data!A53</f>
+        <f>data!$A$53</f>
       </c>
       <c r="B362" s="29"/>
       <c r="C362" s="29"/>
@@ -12901,7 +13007,7 @@
       <c r="F362" s="29"/>
       <c r="G362" s="29"/>
       <c r="I362" s="29" t="str">
-        <f>data!A56</f>
+        <f>data!$A$56</f>
       </c>
       <c r="J362" s="29"/>
       <c r="K362" s="29"/>
@@ -12940,7 +13046,7 @@
     </row>
     <row r="364">
       <c r="A364" s="30" t="str">
-        <f>data!B51</f>
+        <f>data!$B$51</f>
       </c>
       <c r="B364" s="30"/>
       <c r="C364" s="30"/>
@@ -12948,10 +13054,10 @@
       <c r="E364" s="30"/>
       <c r="F364" s="30"/>
       <c r="G364" s="30" t="str">
-        <f>data!B52</f>
+        <f>data!$B$52</f>
       </c>
       <c r="I364" s="30" t="str">
-        <f>data!B54</f>
+        <f>data!$B$54</f>
       </c>
       <c r="J364" s="30"/>
       <c r="K364" s="30"/>
@@ -12959,7 +13065,7 @@
       <c r="M364" s="30"/>
       <c r="N364" s="30"/>
       <c r="O364" s="30" t="str">
-        <f>data!B55</f>
+        <f>data!$B$55</f>
       </c>
     </row>
     <row r="365">
@@ -13082,9 +13188,10 @@
         <v>5</v>
       </c>
     </row>
+    <row r="370"/>
     <row r="371">
       <c r="A371" s="30" t="str">
-        <f>data!B51</f>
+        <f>data!$B$51</f>
       </c>
       <c r="B371" s="30" t="s">
         <v>314</v>
@@ -13100,10 +13207,10 @@
         <v>314</v>
       </c>
       <c r="G371" s="30" t="str">
-        <f>data!B52</f>
+        <f>data!$B$52</f>
       </c>
       <c r="I371" s="30" t="str">
-        <f>data!B54</f>
+        <f>data!$B$54</f>
       </c>
       <c r="J371" s="30" t="s">
         <v>314</v>
@@ -13119,7 +13226,7 @@
         <v>314</v>
       </c>
       <c r="O371" s="30" t="str">
-        <f>data!B55</f>
+        <f>data!$B$55</f>
       </c>
     </row>
     <row r="372">
@@ -13146,6 +13253,9 @@
         <v>316</v>
       </c>
     </row>
+    <row r="373"/>
+    <row r="374"/>
+    <row r="375"/>
     <row r="376">
       <c r="A376" s="31" t="s">
         <v>311</v>
@@ -13176,7 +13286,7 @@
     </row>
     <row r="377">
       <c r="A377" s="30" t="str">
-        <f>data!B53</f>
+        <f>data!$B$53</f>
       </c>
       <c r="B377" s="30"/>
       <c r="C377" s="30"/>
@@ -13184,10 +13294,10 @@
       <c r="E377" s="30"/>
       <c r="F377" s="30"/>
       <c r="G377" s="30" t="str">
-        <f>data!B52</f>
+        <f>data!$B$52</f>
       </c>
       <c r="I377" s="30" t="str">
-        <f>data!B56</f>
+        <f>data!$B$56</f>
       </c>
       <c r="J377" s="30"/>
       <c r="K377" s="30"/>
@@ -13195,7 +13305,7 @@
       <c r="M377" s="30"/>
       <c r="N377" s="30"/>
       <c r="O377" s="30" t="str">
-        <f>data!B55</f>
+        <f>data!$B$55</f>
       </c>
     </row>
     <row r="378">
@@ -13318,9 +13428,10 @@
         <v>5</v>
       </c>
     </row>
+    <row r="383"/>
     <row r="384">
       <c r="A384" s="30" t="str">
-        <f>data!B53</f>
+        <f>data!$B$53</f>
       </c>
       <c r="B384" s="30" t="s">
         <v>314</v>
@@ -13336,10 +13447,10 @@
         <v>314</v>
       </c>
       <c r="G384" s="30" t="str">
-        <f>data!B52</f>
+        <f>data!$B$52</f>
       </c>
       <c r="I384" s="30" t="str">
-        <f>data!B56</f>
+        <f>data!$B$56</f>
       </c>
       <c r="J384" s="30" t="s">
         <v>314</v>
@@ -13355,7 +13466,7 @@
         <v>314</v>
       </c>
       <c r="O384" s="30" t="str">
-        <f>data!B55</f>
+        <f>data!$B$55</f>
       </c>
     </row>
     <row r="385">
@@ -13382,6 +13493,9 @@
         <v>316</v>
       </c>
     </row>
+    <row r="386"/>
+    <row r="387"/>
+    <row r="388"/>
     <row r="389">
       <c r="A389" s="31" t="s">
         <v>311</v>
@@ -13412,7 +13526,7 @@
     </row>
     <row r="390">
       <c r="A390" s="30" t="str">
-        <f>data!B53</f>
+        <f>data!$B$53</f>
       </c>
       <c r="B390" s="30"/>
       <c r="C390" s="30"/>
@@ -13420,10 +13534,10 @@
       <c r="E390" s="30"/>
       <c r="F390" s="30"/>
       <c r="G390" s="30" t="str">
-        <f>data!B51</f>
+        <f>data!$B$51</f>
       </c>
       <c r="I390" s="30" t="str">
-        <f>data!B56</f>
+        <f>data!$B$56</f>
       </c>
       <c r="J390" s="30"/>
       <c r="K390" s="30"/>
@@ -13431,7 +13545,7 @@
       <c r="M390" s="30"/>
       <c r="N390" s="30"/>
       <c r="O390" s="30" t="str">
-        <f>data!B54</f>
+        <f>data!$B$54</f>
       </c>
     </row>
     <row r="391">
@@ -13554,9 +13668,10 @@
         <v>5</v>
       </c>
     </row>
+    <row r="396"/>
     <row r="397">
       <c r="A397" s="30" t="str">
-        <f>data!B53</f>
+        <f>data!$B$53</f>
       </c>
       <c r="B397" s="30" t="s">
         <v>314</v>
@@ -13572,10 +13687,10 @@
         <v>314</v>
       </c>
       <c r="G397" s="30" t="str">
-        <f>data!B51</f>
+        <f>data!$B$51</f>
       </c>
       <c r="I397" s="30" t="str">
-        <f>data!B56</f>
+        <f>data!$B$56</f>
       </c>
       <c r="J397" s="30" t="s">
         <v>314</v>
@@ -13591,7 +13706,7 @@
         <v>314</v>
       </c>
       <c r="O397" s="30" t="str">
-        <f>data!B54</f>
+        <f>data!$B$54</f>
       </c>
     </row>
     <row r="398">
@@ -13618,6 +13733,7 @@
         <v>316</v>
       </c>
     </row>
+    <row r="399"/>
     <row r="400">
       <c r="F400" s="7" t="s">
         <v>317</v>
@@ -13648,9 +13764,11 @@
       </c>
       <c r="O402" s="23"/>
     </row>
+    <row r="403"/>
+    <row r="404"/>
     <row r="405">
       <c r="A405" s="29" t="str">
-        <f>data!A59</f>
+        <f>data!$A$59</f>
       </c>
       <c r="B405" s="29"/>
       <c r="C405" s="29"/>
@@ -13659,7 +13777,7 @@
       <c r="F405" s="29"/>
       <c r="G405" s="29"/>
       <c r="I405" s="29" t="str">
-        <f>data!A62</f>
+        <f>data!$A$62</f>
       </c>
       <c r="J405" s="29"/>
       <c r="K405" s="29"/>
@@ -13698,7 +13816,7 @@
     </row>
     <row r="407">
       <c r="A407" s="30" t="str">
-        <f>data!B57</f>
+        <f>data!$B$57</f>
       </c>
       <c r="B407" s="30"/>
       <c r="C407" s="30"/>
@@ -13706,10 +13824,10 @@
       <c r="E407" s="30"/>
       <c r="F407" s="30"/>
       <c r="G407" s="30" t="str">
-        <f>data!B58</f>
+        <f>data!$B$58</f>
       </c>
       <c r="I407" s="30" t="str">
-        <f>data!B60</f>
+        <f>data!$B$60</f>
       </c>
       <c r="J407" s="30"/>
       <c r="K407" s="30"/>
@@ -13717,7 +13835,7 @@
       <c r="M407" s="30"/>
       <c r="N407" s="30"/>
       <c r="O407" s="30" t="str">
-        <f>data!B61</f>
+        <f>data!$B$61</f>
       </c>
     </row>
     <row r="408">
@@ -13840,9 +13958,10 @@
         <v>5</v>
       </c>
     </row>
+    <row r="413"/>
     <row r="414">
       <c r="A414" s="30" t="str">
-        <f>data!B57</f>
+        <f>data!$B$57</f>
       </c>
       <c r="B414" s="30" t="s">
         <v>314</v>
@@ -13858,10 +13977,10 @@
         <v>314</v>
       </c>
       <c r="G414" s="30" t="str">
-        <f>data!B58</f>
+        <f>data!$B$58</f>
       </c>
       <c r="I414" s="30" t="str">
-        <f>data!B60</f>
+        <f>data!$B$60</f>
       </c>
       <c r="J414" s="30" t="s">
         <v>314</v>
@@ -13877,7 +13996,7 @@
         <v>314</v>
       </c>
       <c r="O414" s="30" t="str">
-        <f>data!B61</f>
+        <f>data!$B$61</f>
       </c>
     </row>
     <row r="415">
@@ -13904,6 +14023,9 @@
         <v>316</v>
       </c>
     </row>
+    <row r="416"/>
+    <row r="417"/>
+    <row r="418"/>
     <row r="419">
       <c r="A419" s="31" t="s">
         <v>311</v>
@@ -13934,7 +14056,7 @@
     </row>
     <row r="420">
       <c r="A420" s="30" t="str">
-        <f>data!B59</f>
+        <f>data!$B$59</f>
       </c>
       <c r="B420" s="30"/>
       <c r="C420" s="30"/>
@@ -13942,10 +14064,10 @@
       <c r="E420" s="30"/>
       <c r="F420" s="30"/>
       <c r="G420" s="30" t="str">
-        <f>data!B58</f>
+        <f>data!$B$58</f>
       </c>
       <c r="I420" s="30" t="str">
-        <f>data!B62</f>
+        <f>data!$B$62</f>
       </c>
       <c r="J420" s="30"/>
       <c r="K420" s="30"/>
@@ -13953,7 +14075,7 @@
       <c r="M420" s="30"/>
       <c r="N420" s="30"/>
       <c r="O420" s="30" t="str">
-        <f>data!B61</f>
+        <f>data!$B$61</f>
       </c>
     </row>
     <row r="421">
@@ -14076,9 +14198,10 @@
         <v>5</v>
       </c>
     </row>
+    <row r="426"/>
     <row r="427">
       <c r="A427" s="30" t="str">
-        <f>data!B59</f>
+        <f>data!$B$59</f>
       </c>
       <c r="B427" s="30" t="s">
         <v>314</v>
@@ -14094,10 +14217,10 @@
         <v>314</v>
       </c>
       <c r="G427" s="30" t="str">
-        <f>data!B58</f>
+        <f>data!$B$58</f>
       </c>
       <c r="I427" s="30" t="str">
-        <f>data!B62</f>
+        <f>data!$B$62</f>
       </c>
       <c r="J427" s="30" t="s">
         <v>314</v>
@@ -14113,7 +14236,7 @@
         <v>314</v>
       </c>
       <c r="O427" s="30" t="str">
-        <f>data!B61</f>
+        <f>data!$B$61</f>
       </c>
     </row>
     <row r="428">
@@ -14140,6 +14263,9 @@
         <v>316</v>
       </c>
     </row>
+    <row r="429"/>
+    <row r="430"/>
+    <row r="431"/>
     <row r="432">
       <c r="A432" s="31" t="s">
         <v>311</v>
@@ -14170,7 +14296,7 @@
     </row>
     <row r="433">
       <c r="A433" s="30" t="str">
-        <f>data!B59</f>
+        <f>data!$B$59</f>
       </c>
       <c r="B433" s="30"/>
       <c r="C433" s="30"/>
@@ -14178,10 +14304,10 @@
       <c r="E433" s="30"/>
       <c r="F433" s="30"/>
       <c r="G433" s="30" t="str">
-        <f>data!B57</f>
+        <f>data!$B$57</f>
       </c>
       <c r="I433" s="30" t="str">
-        <f>data!B62</f>
+        <f>data!$B$62</f>
       </c>
       <c r="J433" s="30"/>
       <c r="K433" s="30"/>
@@ -14189,7 +14315,7 @@
       <c r="M433" s="30"/>
       <c r="N433" s="30"/>
       <c r="O433" s="30" t="str">
-        <f>data!B60</f>
+        <f>data!$B$60</f>
       </c>
     </row>
     <row r="434">
@@ -14312,9 +14438,10 @@
         <v>5</v>
       </c>
     </row>
+    <row r="439"/>
     <row r="440">
       <c r="A440" s="30" t="str">
-        <f>data!B59</f>
+        <f>data!$B$59</f>
       </c>
       <c r="B440" s="30" t="s">
         <v>314</v>
@@ -14330,10 +14457,10 @@
         <v>314</v>
       </c>
       <c r="G440" s="30" t="str">
-        <f>data!B57</f>
+        <f>data!$B$57</f>
       </c>
       <c r="I440" s="30" t="str">
-        <f>data!B62</f>
+        <f>data!$B$62</f>
       </c>
       <c r="J440" s="30" t="s">
         <v>314</v>
@@ -14349,7 +14476,7 @@
         <v>314</v>
       </c>
       <c r="O440" s="30" t="str">
-        <f>data!B60</f>
+        <f>data!$B$60</f>
       </c>
     </row>
     <row r="441">
@@ -14376,6 +14503,7 @@
         <v>316</v>
       </c>
     </row>
+    <row r="442"/>
     <row r="443">
       <c r="F443" s="7" t="s">
         <v>317</v>
@@ -14406,9 +14534,11 @@
       </c>
       <c r="O445" s="23"/>
     </row>
+    <row r="446"/>
+    <row r="447"/>
     <row r="448">
       <c r="A448" s="29" t="str">
-        <f>data!A65</f>
+        <f>data!$A$65</f>
       </c>
       <c r="B448" s="29"/>
       <c r="C448" s="29"/>
@@ -14417,7 +14547,7 @@
       <c r="F448" s="29"/>
       <c r="G448" s="29"/>
       <c r="I448" s="29" t="str">
-        <f>data!A68</f>
+        <f>data!$A$68</f>
       </c>
       <c r="J448" s="29"/>
       <c r="K448" s="29"/>
@@ -14456,7 +14586,7 @@
     </row>
     <row r="450">
       <c r="A450" s="30" t="str">
-        <f>data!B63</f>
+        <f>data!$B$63</f>
       </c>
       <c r="B450" s="30"/>
       <c r="C450" s="30"/>
@@ -14464,10 +14594,10 @@
       <c r="E450" s="30"/>
       <c r="F450" s="30"/>
       <c r="G450" s="30" t="str">
-        <f>data!B64</f>
+        <f>data!$B$64</f>
       </c>
       <c r="I450" s="30" t="str">
-        <f>data!B66</f>
+        <f>data!$B$66</f>
       </c>
       <c r="J450" s="30"/>
       <c r="K450" s="30"/>
@@ -14475,7 +14605,7 @@
       <c r="M450" s="30"/>
       <c r="N450" s="30"/>
       <c r="O450" s="30" t="str">
-        <f>data!B67</f>
+        <f>data!$B$67</f>
       </c>
     </row>
     <row r="451">
@@ -14598,9 +14728,10 @@
         <v>5</v>
       </c>
     </row>
+    <row r="456"/>
     <row r="457">
       <c r="A457" s="30" t="str">
-        <f>data!B63</f>
+        <f>data!$B$63</f>
       </c>
       <c r="B457" s="30" t="s">
         <v>314</v>
@@ -14616,10 +14747,10 @@
         <v>314</v>
       </c>
       <c r="G457" s="30" t="str">
-        <f>data!B64</f>
+        <f>data!$B$64</f>
       </c>
       <c r="I457" s="30" t="str">
-        <f>data!B66</f>
+        <f>data!$B$66</f>
       </c>
       <c r="J457" s="30" t="s">
         <v>314</v>
@@ -14635,7 +14766,7 @@
         <v>314</v>
       </c>
       <c r="O457" s="30" t="str">
-        <f>data!B67</f>
+        <f>data!$B$67</f>
       </c>
     </row>
     <row r="458">
@@ -14662,6 +14793,9 @@
         <v>316</v>
       </c>
     </row>
+    <row r="459"/>
+    <row r="460"/>
+    <row r="461"/>
     <row r="462">
       <c r="A462" s="31" t="s">
         <v>311</v>
@@ -14692,7 +14826,7 @@
     </row>
     <row r="463">
       <c r="A463" s="30" t="str">
-        <f>data!B65</f>
+        <f>data!$B$65</f>
       </c>
       <c r="B463" s="30"/>
       <c r="C463" s="30"/>
@@ -14700,10 +14834,10 @@
       <c r="E463" s="30"/>
       <c r="F463" s="30"/>
       <c r="G463" s="30" t="str">
-        <f>data!B64</f>
+        <f>data!$B$64</f>
       </c>
       <c r="I463" s="30" t="str">
-        <f>data!B68</f>
+        <f>data!$B$68</f>
       </c>
       <c r="J463" s="30"/>
       <c r="K463" s="30"/>
@@ -14711,7 +14845,7 @@
       <c r="M463" s="30"/>
       <c r="N463" s="30"/>
       <c r="O463" s="30" t="str">
-        <f>data!B67</f>
+        <f>data!$B$67</f>
       </c>
     </row>
     <row r="464">
@@ -14834,9 +14968,10 @@
         <v>5</v>
       </c>
     </row>
+    <row r="469"/>
     <row r="470">
       <c r="A470" s="30" t="str">
-        <f>data!B65</f>
+        <f>data!$B$65</f>
       </c>
       <c r="B470" s="30" t="s">
         <v>314</v>
@@ -14852,10 +14987,10 @@
         <v>314</v>
       </c>
       <c r="G470" s="30" t="str">
-        <f>data!B64</f>
+        <f>data!$B$64</f>
       </c>
       <c r="I470" s="30" t="str">
-        <f>data!B68</f>
+        <f>data!$B$68</f>
       </c>
       <c r="J470" s="30" t="s">
         <v>314</v>
@@ -14871,7 +15006,7 @@
         <v>314</v>
       </c>
       <c r="O470" s="30" t="str">
-        <f>data!B67</f>
+        <f>data!$B$67</f>
       </c>
     </row>
     <row r="471">
@@ -14898,6 +15033,9 @@
         <v>316</v>
       </c>
     </row>
+    <row r="472"/>
+    <row r="473"/>
+    <row r="474"/>
     <row r="475">
       <c r="A475" s="31" t="s">
         <v>311</v>
@@ -14928,7 +15066,7 @@
     </row>
     <row r="476">
       <c r="A476" s="30" t="str">
-        <f>data!B65</f>
+        <f>data!$B$65</f>
       </c>
       <c r="B476" s="30"/>
       <c r="C476" s="30"/>
@@ -14936,10 +15074,10 @@
       <c r="E476" s="30"/>
       <c r="F476" s="30"/>
       <c r="G476" s="30" t="str">
-        <f>data!B63</f>
+        <f>data!$B$63</f>
       </c>
       <c r="I476" s="30" t="str">
-        <f>data!B68</f>
+        <f>data!$B$68</f>
       </c>
       <c r="J476" s="30"/>
       <c r="K476" s="30"/>
@@ -14947,7 +15085,7 @@
       <c r="M476" s="30"/>
       <c r="N476" s="30"/>
       <c r="O476" s="30" t="str">
-        <f>data!B66</f>
+        <f>data!$B$66</f>
       </c>
     </row>
     <row r="477">
@@ -15070,9 +15208,10 @@
         <v>5</v>
       </c>
     </row>
+    <row r="482"/>
     <row r="483">
       <c r="A483" s="30" t="str">
-        <f>data!B65</f>
+        <f>data!$B$65</f>
       </c>
       <c r="B483" s="30" t="s">
         <v>314</v>
@@ -15088,10 +15227,10 @@
         <v>314</v>
       </c>
       <c r="G483" s="30" t="str">
-        <f>data!B63</f>
+        <f>data!$B$63</f>
       </c>
       <c r="I483" s="30" t="str">
-        <f>data!B68</f>
+        <f>data!$B$68</f>
       </c>
       <c r="J483" s="30" t="s">
         <v>314</v>
@@ -15107,7 +15246,7 @@
         <v>314</v>
       </c>
       <c r="O483" s="30" t="str">
-        <f>data!B66</f>
+        <f>data!$B$66</f>
       </c>
     </row>
     <row r="484">
@@ -15134,6 +15273,7 @@
         <v>316</v>
       </c>
     </row>
+    <row r="485"/>
     <row r="486">
       <c r="F486" s="7" t="s">
         <v>317</v>
@@ -15164,9 +15304,11 @@
       </c>
       <c r="O488" s="23"/>
     </row>
+    <row r="489"/>
+    <row r="490"/>
     <row r="491">
       <c r="A491" s="29" t="str">
-        <f>data!A71</f>
+        <f>data!$A$71</f>
       </c>
       <c r="B491" s="29"/>
       <c r="C491" s="29"/>
@@ -15175,7 +15317,7 @@
       <c r="F491" s="29"/>
       <c r="G491" s="29"/>
       <c r="I491" s="29" t="str">
-        <f>data!A74</f>
+        <f>data!$A$74</f>
       </c>
       <c r="J491" s="29"/>
       <c r="K491" s="29"/>
@@ -15214,7 +15356,7 @@
     </row>
     <row r="493">
       <c r="A493" s="30" t="str">
-        <f>data!B69</f>
+        <f>data!$B$69</f>
       </c>
       <c r="B493" s="30"/>
       <c r="C493" s="30"/>
@@ -15222,10 +15364,10 @@
       <c r="E493" s="30"/>
       <c r="F493" s="30"/>
       <c r="G493" s="30" t="str">
-        <f>data!B70</f>
+        <f>data!$B$70</f>
       </c>
       <c r="I493" s="30" t="str">
-        <f>data!B72</f>
+        <f>data!$B$72</f>
       </c>
       <c r="J493" s="30"/>
       <c r="K493" s="30"/>
@@ -15233,7 +15375,7 @@
       <c r="M493" s="30"/>
       <c r="N493" s="30"/>
       <c r="O493" s="30" t="str">
-        <f>data!B73</f>
+        <f>data!$B$73</f>
       </c>
     </row>
     <row r="494">
@@ -15356,9 +15498,10 @@
         <v>5</v>
       </c>
     </row>
+    <row r="499"/>
     <row r="500">
       <c r="A500" s="30" t="str">
-        <f>data!B69</f>
+        <f>data!$B$69</f>
       </c>
       <c r="B500" s="30" t="s">
         <v>314</v>
@@ -15374,10 +15517,10 @@
         <v>314</v>
       </c>
       <c r="G500" s="30" t="str">
-        <f>data!B70</f>
+        <f>data!$B$70</f>
       </c>
       <c r="I500" s="30" t="str">
-        <f>data!B72</f>
+        <f>data!$B$72</f>
       </c>
       <c r="J500" s="30" t="s">
         <v>314</v>
@@ -15393,7 +15536,7 @@
         <v>314</v>
       </c>
       <c r="O500" s="30" t="str">
-        <f>data!B73</f>
+        <f>data!$B$73</f>
       </c>
     </row>
     <row r="501">
@@ -15420,6 +15563,9 @@
         <v>316</v>
       </c>
     </row>
+    <row r="502"/>
+    <row r="503"/>
+    <row r="504"/>
     <row r="505">
       <c r="A505" s="31" t="s">
         <v>311</v>
@@ -15450,7 +15596,7 @@
     </row>
     <row r="506">
       <c r="A506" s="30" t="str">
-        <f>data!B71</f>
+        <f>data!$B$71</f>
       </c>
       <c r="B506" s="30"/>
       <c r="C506" s="30"/>
@@ -15458,10 +15604,10 @@
       <c r="E506" s="30"/>
       <c r="F506" s="30"/>
       <c r="G506" s="30" t="str">
-        <f>data!B70</f>
+        <f>data!$B$70</f>
       </c>
       <c r="I506" s="30" t="str">
-        <f>data!B74</f>
+        <f>data!$B$74</f>
       </c>
       <c r="J506" s="30"/>
       <c r="K506" s="30"/>
@@ -15469,7 +15615,7 @@
       <c r="M506" s="30"/>
       <c r="N506" s="30"/>
       <c r="O506" s="30" t="str">
-        <f>data!B73</f>
+        <f>data!$B$73</f>
       </c>
     </row>
     <row r="507">
@@ -15592,9 +15738,10 @@
         <v>5</v>
       </c>
     </row>
+    <row r="512"/>
     <row r="513">
       <c r="A513" s="30" t="str">
-        <f>data!B71</f>
+        <f>data!$B$71</f>
       </c>
       <c r="B513" s="30" t="s">
         <v>314</v>
@@ -15610,10 +15757,10 @@
         <v>314</v>
       </c>
       <c r="G513" s="30" t="str">
-        <f>data!B70</f>
+        <f>data!$B$70</f>
       </c>
       <c r="I513" s="30" t="str">
-        <f>data!B74</f>
+        <f>data!$B$74</f>
       </c>
       <c r="J513" s="30" t="s">
         <v>314</v>
@@ -15629,7 +15776,7 @@
         <v>314</v>
       </c>
       <c r="O513" s="30" t="str">
-        <f>data!B73</f>
+        <f>data!$B$73</f>
       </c>
     </row>
     <row r="514">
@@ -15656,6 +15803,9 @@
         <v>316</v>
       </c>
     </row>
+    <row r="515"/>
+    <row r="516"/>
+    <row r="517"/>
     <row r="518">
       <c r="A518" s="31" t="s">
         <v>311</v>
@@ -15686,7 +15836,7 @@
     </row>
     <row r="519">
       <c r="A519" s="30" t="str">
-        <f>data!B71</f>
+        <f>data!$B$71</f>
       </c>
       <c r="B519" s="30"/>
       <c r="C519" s="30"/>
@@ -15694,10 +15844,10 @@
       <c r="E519" s="30"/>
       <c r="F519" s="30"/>
       <c r="G519" s="30" t="str">
-        <f>data!B69</f>
+        <f>data!$B$69</f>
       </c>
       <c r="I519" s="30" t="str">
-        <f>data!B74</f>
+        <f>data!$B$74</f>
       </c>
       <c r="J519" s="30"/>
       <c r="K519" s="30"/>
@@ -15705,7 +15855,7 @@
       <c r="M519" s="30"/>
       <c r="N519" s="30"/>
       <c r="O519" s="30" t="str">
-        <f>data!B72</f>
+        <f>data!$B$72</f>
       </c>
     </row>
     <row r="520">
@@ -15828,9 +15978,10 @@
         <v>5</v>
       </c>
     </row>
+    <row r="525"/>
     <row r="526">
       <c r="A526" s="30" t="str">
-        <f>data!B71</f>
+        <f>data!$B$71</f>
       </c>
       <c r="B526" s="30" t="s">
         <v>314</v>
@@ -15846,10 +15997,10 @@
         <v>314</v>
       </c>
       <c r="G526" s="30" t="str">
-        <f>data!B69</f>
+        <f>data!$B$69</f>
       </c>
       <c r="I526" s="30" t="str">
-        <f>data!B74</f>
+        <f>data!$B$74</f>
       </c>
       <c r="J526" s="30" t="s">
         <v>314</v>
@@ -15865,7 +16016,7 @@
         <v>314</v>
       </c>
       <c r="O526" s="30" t="str">
-        <f>data!B72</f>
+        <f>data!$B$72</f>
       </c>
     </row>
     <row r="527">
@@ -15892,6 +16043,7 @@
         <v>316</v>
       </c>
     </row>
+    <row r="528"/>
     <row r="529">
       <c r="F529" s="7" t="s">
         <v>317</v>
@@ -15922,9 +16074,11 @@
       </c>
       <c r="O531" s="23"/>
     </row>
+    <row r="532"/>
+    <row r="533"/>
     <row r="534">
       <c r="A534" s="29" t="str">
-        <f>data!A77</f>
+        <f>data!$A$77</f>
       </c>
       <c r="B534" s="29"/>
       <c r="C534" s="29"/>
@@ -15933,7 +16087,7 @@
       <c r="F534" s="29"/>
       <c r="G534" s="29"/>
       <c r="I534" s="29" t="str">
-        <f>data!A80</f>
+        <f>data!$A$80</f>
       </c>
       <c r="J534" s="29"/>
       <c r="K534" s="29"/>
@@ -15972,7 +16126,7 @@
     </row>
     <row r="536">
       <c r="A536" s="30" t="str">
-        <f>data!B75</f>
+        <f>data!$B$75</f>
       </c>
       <c r="B536" s="30"/>
       <c r="C536" s="30"/>
@@ -15980,10 +16134,10 @@
       <c r="E536" s="30"/>
       <c r="F536" s="30"/>
       <c r="G536" s="30" t="str">
-        <f>data!B76</f>
+        <f>data!$B$76</f>
       </c>
       <c r="I536" s="30" t="str">
-        <f>data!B78</f>
+        <f>data!$B$78</f>
       </c>
       <c r="J536" s="30"/>
       <c r="K536" s="30"/>
@@ -15991,7 +16145,7 @@
       <c r="M536" s="30"/>
       <c r="N536" s="30"/>
       <c r="O536" s="30" t="str">
-        <f>data!B79</f>
+        <f>data!$B$79</f>
       </c>
     </row>
     <row r="537">
@@ -16114,9 +16268,10 @@
         <v>5</v>
       </c>
     </row>
+    <row r="542"/>
     <row r="543">
       <c r="A543" s="30" t="str">
-        <f>data!B75</f>
+        <f>data!$B$75</f>
       </c>
       <c r="B543" s="30" t="s">
         <v>314</v>
@@ -16132,10 +16287,10 @@
         <v>314</v>
       </c>
       <c r="G543" s="30" t="str">
-        <f>data!B76</f>
+        <f>data!$B$76</f>
       </c>
       <c r="I543" s="30" t="str">
-        <f>data!B78</f>
+        <f>data!$B$78</f>
       </c>
       <c r="J543" s="30" t="s">
         <v>314</v>
@@ -16151,7 +16306,7 @@
         <v>314</v>
       </c>
       <c r="O543" s="30" t="str">
-        <f>data!B79</f>
+        <f>data!$B$79</f>
       </c>
     </row>
     <row r="544">
@@ -16178,6 +16333,9 @@
         <v>316</v>
       </c>
     </row>
+    <row r="545"/>
+    <row r="546"/>
+    <row r="547"/>
     <row r="548">
       <c r="A548" s="31" t="s">
         <v>311</v>
@@ -16208,7 +16366,7 @@
     </row>
     <row r="549">
       <c r="A549" s="30" t="str">
-        <f>data!B77</f>
+        <f>data!$B$77</f>
       </c>
       <c r="B549" s="30"/>
       <c r="C549" s="30"/>
@@ -16216,10 +16374,10 @@
       <c r="E549" s="30"/>
       <c r="F549" s="30"/>
       <c r="G549" s="30" t="str">
-        <f>data!B76</f>
+        <f>data!$B$76</f>
       </c>
       <c r="I549" s="30" t="str">
-        <f>data!B80</f>
+        <f>data!$B$80</f>
       </c>
       <c r="J549" s="30"/>
       <c r="K549" s="30"/>
@@ -16227,7 +16385,7 @@
       <c r="M549" s="30"/>
       <c r="N549" s="30"/>
       <c r="O549" s="30" t="str">
-        <f>data!B79</f>
+        <f>data!$B$79</f>
       </c>
     </row>
     <row r="550">
@@ -16350,9 +16508,10 @@
         <v>5</v>
       </c>
     </row>
+    <row r="555"/>
     <row r="556">
       <c r="A556" s="30" t="str">
-        <f>data!B77</f>
+        <f>data!$B$77</f>
       </c>
       <c r="B556" s="30" t="s">
         <v>314</v>
@@ -16368,10 +16527,10 @@
         <v>314</v>
       </c>
       <c r="G556" s="30" t="str">
-        <f>data!B76</f>
+        <f>data!$B$76</f>
       </c>
       <c r="I556" s="30" t="str">
-        <f>data!B80</f>
+        <f>data!$B$80</f>
       </c>
       <c r="J556" s="30" t="s">
         <v>314</v>
@@ -16387,7 +16546,7 @@
         <v>314</v>
       </c>
       <c r="O556" s="30" t="str">
-        <f>data!B79</f>
+        <f>data!$B$79</f>
       </c>
     </row>
     <row r="557">
@@ -16414,6 +16573,9 @@
         <v>316</v>
       </c>
     </row>
+    <row r="558"/>
+    <row r="559"/>
+    <row r="560"/>
     <row r="561">
       <c r="A561" s="31" t="s">
         <v>311</v>
@@ -16444,7 +16606,7 @@
     </row>
     <row r="562">
       <c r="A562" s="30" t="str">
-        <f>data!B77</f>
+        <f>data!$B$77</f>
       </c>
       <c r="B562" s="30"/>
       <c r="C562" s="30"/>
@@ -16452,10 +16614,10 @@
       <c r="E562" s="30"/>
       <c r="F562" s="30"/>
       <c r="G562" s="30" t="str">
-        <f>data!B75</f>
+        <f>data!$B$75</f>
       </c>
       <c r="I562" s="30" t="str">
-        <f>data!B80</f>
+        <f>data!$B$80</f>
       </c>
       <c r="J562" s="30"/>
       <c r="K562" s="30"/>
@@ -16463,7 +16625,7 @@
       <c r="M562" s="30"/>
       <c r="N562" s="30"/>
       <c r="O562" s="30" t="str">
-        <f>data!B78</f>
+        <f>data!$B$78</f>
       </c>
     </row>
     <row r="563">
@@ -16586,9 +16748,10 @@
         <v>5</v>
       </c>
     </row>
+    <row r="568"/>
     <row r="569">
       <c r="A569" s="30" t="str">
-        <f>data!B77</f>
+        <f>data!$B$77</f>
       </c>
       <c r="B569" s="30" t="s">
         <v>314</v>
@@ -16604,10 +16767,10 @@
         <v>314</v>
       </c>
       <c r="G569" s="30" t="str">
-        <f>data!B75</f>
+        <f>data!$B$75</f>
       </c>
       <c r="I569" s="30" t="str">
-        <f>data!B80</f>
+        <f>data!$B$80</f>
       </c>
       <c r="J569" s="30" t="s">
         <v>314</v>
@@ -16623,7 +16786,7 @@
         <v>314</v>
       </c>
       <c r="O569" s="30" t="str">
-        <f>data!B78</f>
+        <f>data!$B$78</f>
       </c>
     </row>
     <row r="570">
@@ -16650,6 +16813,7 @@
         <v>316</v>
       </c>
     </row>
+    <row r="571"/>
     <row r="572">
       <c r="F572" s="7" t="s">
         <v>317</v>
@@ -16680,9 +16844,11 @@
       </c>
       <c r="O574" s="23"/>
     </row>
+    <row r="575"/>
+    <row r="576"/>
     <row r="577">
       <c r="A577" s="29" t="str">
-        <f>data!A83</f>
+        <f>data!$A$83</f>
       </c>
       <c r="B577" s="29"/>
       <c r="C577" s="29"/>
@@ -16691,7 +16857,7 @@
       <c r="F577" s="29"/>
       <c r="G577" s="29"/>
       <c r="I577" s="29" t="str">
-        <f>data!A86</f>
+        <f>data!$A$86</f>
       </c>
       <c r="J577" s="29"/>
       <c r="K577" s="29"/>
@@ -16730,7 +16896,7 @@
     </row>
     <row r="579">
       <c r="A579" s="30" t="str">
-        <f>data!B81</f>
+        <f>data!$B$81</f>
       </c>
       <c r="B579" s="30"/>
       <c r="C579" s="30"/>
@@ -16738,10 +16904,10 @@
       <c r="E579" s="30"/>
       <c r="F579" s="30"/>
       <c r="G579" s="30" t="str">
-        <f>data!B82</f>
+        <f>data!$B$82</f>
       </c>
       <c r="I579" s="30" t="str">
-        <f>data!B84</f>
+        <f>data!$B$84</f>
       </c>
       <c r="J579" s="30"/>
       <c r="K579" s="30"/>
@@ -16749,7 +16915,7 @@
       <c r="M579" s="30"/>
       <c r="N579" s="30"/>
       <c r="O579" s="30" t="str">
-        <f>data!B85</f>
+        <f>data!$B$85</f>
       </c>
     </row>
     <row r="580">
@@ -16872,9 +17038,10 @@
         <v>5</v>
       </c>
     </row>
+    <row r="585"/>
     <row r="586">
       <c r="A586" s="30" t="str">
-        <f>data!B81</f>
+        <f>data!$B$81</f>
       </c>
       <c r="B586" s="30" t="s">
         <v>314</v>
@@ -16890,10 +17057,10 @@
         <v>314</v>
       </c>
       <c r="G586" s="30" t="str">
-        <f>data!B82</f>
+        <f>data!$B$82</f>
       </c>
       <c r="I586" s="30" t="str">
-        <f>data!B84</f>
+        <f>data!$B$84</f>
       </c>
       <c r="J586" s="30" t="s">
         <v>314</v>
@@ -16909,7 +17076,7 @@
         <v>314</v>
       </c>
       <c r="O586" s="30" t="str">
-        <f>data!B85</f>
+        <f>data!$B$85</f>
       </c>
     </row>
     <row r="587">
@@ -16936,6 +17103,9 @@
         <v>316</v>
       </c>
     </row>
+    <row r="588"/>
+    <row r="589"/>
+    <row r="590"/>
     <row r="591">
       <c r="A591" s="31" t="s">
         <v>311</v>
@@ -16966,7 +17136,7 @@
     </row>
     <row r="592">
       <c r="A592" s="30" t="str">
-        <f>data!B83</f>
+        <f>data!$B$83</f>
       </c>
       <c r="B592" s="30"/>
       <c r="C592" s="30"/>
@@ -16974,10 +17144,10 @@
       <c r="E592" s="30"/>
       <c r="F592" s="30"/>
       <c r="G592" s="30" t="str">
-        <f>data!B82</f>
+        <f>data!$B$82</f>
       </c>
       <c r="I592" s="30" t="str">
-        <f>data!B86</f>
+        <f>data!$B$86</f>
       </c>
       <c r="J592" s="30"/>
       <c r="K592" s="30"/>
@@ -16985,7 +17155,7 @@
       <c r="M592" s="30"/>
       <c r="N592" s="30"/>
       <c r="O592" s="30" t="str">
-        <f>data!B85</f>
+        <f>data!$B$85</f>
       </c>
     </row>
     <row r="593">
@@ -17108,9 +17278,10 @@
         <v>5</v>
       </c>
     </row>
+    <row r="598"/>
     <row r="599">
       <c r="A599" s="30" t="str">
-        <f>data!B83</f>
+        <f>data!$B$83</f>
       </c>
       <c r="B599" s="30" t="s">
         <v>314</v>
@@ -17126,10 +17297,10 @@
         <v>314</v>
       </c>
       <c r="G599" s="30" t="str">
-        <f>data!B82</f>
+        <f>data!$B$82</f>
       </c>
       <c r="I599" s="30" t="str">
-        <f>data!B86</f>
+        <f>data!$B$86</f>
       </c>
       <c r="J599" s="30" t="s">
         <v>314</v>
@@ -17145,7 +17316,7 @@
         <v>314</v>
       </c>
       <c r="O599" s="30" t="str">
-        <f>data!B85</f>
+        <f>data!$B$85</f>
       </c>
     </row>
     <row r="600">
@@ -17172,6 +17343,9 @@
         <v>316</v>
       </c>
     </row>
+    <row r="601"/>
+    <row r="602"/>
+    <row r="603"/>
     <row r="604">
       <c r="A604" s="31" t="s">
         <v>311</v>
@@ -17202,7 +17376,7 @@
     </row>
     <row r="605">
       <c r="A605" s="30" t="str">
-        <f>data!B83</f>
+        <f>data!$B$83</f>
       </c>
       <c r="B605" s="30"/>
       <c r="C605" s="30"/>
@@ -17210,10 +17384,10 @@
       <c r="E605" s="30"/>
       <c r="F605" s="30"/>
       <c r="G605" s="30" t="str">
-        <f>data!B81</f>
+        <f>data!$B$81</f>
       </c>
       <c r="I605" s="30" t="str">
-        <f>data!B86</f>
+        <f>data!$B$86</f>
       </c>
       <c r="J605" s="30"/>
       <c r="K605" s="30"/>
@@ -17221,7 +17395,7 @@
       <c r="M605" s="30"/>
       <c r="N605" s="30"/>
       <c r="O605" s="30" t="str">
-        <f>data!B84</f>
+        <f>data!$B$84</f>
       </c>
     </row>
     <row r="606">
@@ -17344,9 +17518,10 @@
         <v>5</v>
       </c>
     </row>
+    <row r="611"/>
     <row r="612">
       <c r="A612" s="30" t="str">
-        <f>data!B83</f>
+        <f>data!$B$83</f>
       </c>
       <c r="B612" s="30" t="s">
         <v>314</v>
@@ -17362,10 +17537,10 @@
         <v>314</v>
       </c>
       <c r="G612" s="30" t="str">
-        <f>data!B81</f>
+        <f>data!$B$81</f>
       </c>
       <c r="I612" s="30" t="str">
-        <f>data!B86</f>
+        <f>data!$B$86</f>
       </c>
       <c r="J612" s="30" t="s">
         <v>314</v>
@@ -17381,7 +17556,7 @@
         <v>314</v>
       </c>
       <c r="O612" s="30" t="str">
-        <f>data!B84</f>
+        <f>data!$B$84</f>
       </c>
     </row>
     <row r="613">
@@ -17408,6 +17583,7 @@
         <v>316</v>
       </c>
     </row>
+    <row r="614"/>
     <row r="615">
       <c r="F615" s="7" t="s">
         <v>317</v>
@@ -17438,9 +17614,11 @@
       </c>
       <c r="O617" s="23"/>
     </row>
+    <row r="618"/>
+    <row r="619"/>
     <row r="620">
       <c r="A620" s="29" t="str">
-        <f>data!A89</f>
+        <f>data!$A$89</f>
       </c>
       <c r="B620" s="29"/>
       <c r="C620" s="29"/>
@@ -17449,7 +17627,7 @@
       <c r="F620" s="29"/>
       <c r="G620" s="29"/>
       <c r="I620" s="29" t="str">
-        <f>data!A92</f>
+        <f>data!$A$92</f>
       </c>
       <c r="J620" s="29"/>
       <c r="K620" s="29"/>
@@ -17488,7 +17666,7 @@
     </row>
     <row r="622">
       <c r="A622" s="30" t="str">
-        <f>data!B87</f>
+        <f>data!$B$87</f>
       </c>
       <c r="B622" s="30"/>
       <c r="C622" s="30"/>
@@ -17496,10 +17674,10 @@
       <c r="E622" s="30"/>
       <c r="F622" s="30"/>
       <c r="G622" s="30" t="str">
-        <f>data!B88</f>
+        <f>data!$B$88</f>
       </c>
       <c r="I622" s="30" t="str">
-        <f>data!B90</f>
+        <f>data!$B$90</f>
       </c>
       <c r="J622" s="30"/>
       <c r="K622" s="30"/>
@@ -17507,7 +17685,7 @@
       <c r="M622" s="30"/>
       <c r="N622" s="30"/>
       <c r="O622" s="30" t="str">
-        <f>data!B91</f>
+        <f>data!$B$91</f>
       </c>
     </row>
     <row r="623">
@@ -17630,9 +17808,10 @@
         <v>5</v>
       </c>
     </row>
+    <row r="628"/>
     <row r="629">
       <c r="A629" s="30" t="str">
-        <f>data!B87</f>
+        <f>data!$B$87</f>
       </c>
       <c r="B629" s="30" t="s">
         <v>314</v>
@@ -17648,10 +17827,10 @@
         <v>314</v>
       </c>
       <c r="G629" s="30" t="str">
-        <f>data!B88</f>
+        <f>data!$B$88</f>
       </c>
       <c r="I629" s="30" t="str">
-        <f>data!B90</f>
+        <f>data!$B$90</f>
       </c>
       <c r="J629" s="30" t="s">
         <v>314</v>
@@ -17667,7 +17846,7 @@
         <v>314</v>
       </c>
       <c r="O629" s="30" t="str">
-        <f>data!B91</f>
+        <f>data!$B$91</f>
       </c>
     </row>
     <row r="630">
@@ -17694,6 +17873,9 @@
         <v>316</v>
       </c>
     </row>
+    <row r="631"/>
+    <row r="632"/>
+    <row r="633"/>
     <row r="634">
       <c r="A634" s="31" t="s">
         <v>311</v>
@@ -17724,7 +17906,7 @@
     </row>
     <row r="635">
       <c r="A635" s="30" t="str">
-        <f>data!B89</f>
+        <f>data!$B$89</f>
       </c>
       <c r="B635" s="30"/>
       <c r="C635" s="30"/>
@@ -17732,10 +17914,10 @@
       <c r="E635" s="30"/>
       <c r="F635" s="30"/>
       <c r="G635" s="30" t="str">
-        <f>data!B88</f>
+        <f>data!$B$88</f>
       </c>
       <c r="I635" s="30" t="str">
-        <f>data!B92</f>
+        <f>data!$B$92</f>
       </c>
       <c r="J635" s="30"/>
       <c r="K635" s="30"/>
@@ -17743,7 +17925,7 @@
       <c r="M635" s="30"/>
       <c r="N635" s="30"/>
       <c r="O635" s="30" t="str">
-        <f>data!B91</f>
+        <f>data!$B$91</f>
       </c>
     </row>
     <row r="636">
@@ -17866,9 +18048,10 @@
         <v>5</v>
       </c>
     </row>
+    <row r="641"/>
     <row r="642">
       <c r="A642" s="30" t="str">
-        <f>data!B89</f>
+        <f>data!$B$89</f>
       </c>
       <c r="B642" s="30" t="s">
         <v>314</v>
@@ -17884,10 +18067,10 @@
         <v>314</v>
       </c>
       <c r="G642" s="30" t="str">
-        <f>data!B88</f>
+        <f>data!$B$88</f>
       </c>
       <c r="I642" s="30" t="str">
-        <f>data!B92</f>
+        <f>data!$B$92</f>
       </c>
       <c r="J642" s="30" t="s">
         <v>314</v>
@@ -17903,7 +18086,7 @@
         <v>314</v>
       </c>
       <c r="O642" s="30" t="str">
-        <f>data!B91</f>
+        <f>data!$B$91</f>
       </c>
     </row>
     <row r="643">
@@ -17930,6 +18113,9 @@
         <v>316</v>
       </c>
     </row>
+    <row r="644"/>
+    <row r="645"/>
+    <row r="646"/>
     <row r="647">
       <c r="A647" s="31" t="s">
         <v>311</v>
@@ -17960,7 +18146,7 @@
     </row>
     <row r="648">
       <c r="A648" s="30" t="str">
-        <f>data!B89</f>
+        <f>data!$B$89</f>
       </c>
       <c r="B648" s="30"/>
       <c r="C648" s="30"/>
@@ -17968,10 +18154,10 @@
       <c r="E648" s="30"/>
       <c r="F648" s="30"/>
       <c r="G648" s="30" t="str">
-        <f>data!B87</f>
+        <f>data!$B$87</f>
       </c>
       <c r="I648" s="30" t="str">
-        <f>data!B92</f>
+        <f>data!$B$92</f>
       </c>
       <c r="J648" s="30"/>
       <c r="K648" s="30"/>
@@ -17979,7 +18165,7 @@
       <c r="M648" s="30"/>
       <c r="N648" s="30"/>
       <c r="O648" s="30" t="str">
-        <f>data!B90</f>
+        <f>data!$B$90</f>
       </c>
     </row>
     <row r="649">
@@ -18102,9 +18288,10 @@
         <v>5</v>
       </c>
     </row>
+    <row r="654"/>
     <row r="655">
       <c r="A655" s="30" t="str">
-        <f>data!B89</f>
+        <f>data!$B$89</f>
       </c>
       <c r="B655" s="30" t="s">
         <v>314</v>
@@ -18120,10 +18307,10 @@
         <v>314</v>
       </c>
       <c r="G655" s="30" t="str">
-        <f>data!B87</f>
+        <f>data!$B$87</f>
       </c>
       <c r="I655" s="30" t="str">
-        <f>data!B92</f>
+        <f>data!$B$92</f>
       </c>
       <c r="J655" s="30" t="s">
         <v>314</v>
@@ -18139,7 +18326,7 @@
         <v>314</v>
       </c>
       <c r="O655" s="30" t="str">
-        <f>data!B90</f>
+        <f>data!$B$90</f>
       </c>
     </row>
     <row r="656">
@@ -18166,6 +18353,7 @@
         <v>316</v>
       </c>
     </row>
+    <row r="657"/>
     <row r="658">
       <c r="F658" s="7" t="s">
         <v>317</v>
@@ -18276,6 +18464,7 @@
       <c r="N1" s="29"/>
       <c r="O1" s="29"/>
     </row>
+    <row r="2"/>
     <row r="3">
       <c r="A3" s="29" t="s">
         <v>321</v>
@@ -18460,6 +18649,7 @@
         <v>5</v>
       </c>
     </row>
+    <row r="11"/>
     <row r="12">
       <c r="A12" s="30" t="str">
         <f>CONCATENATE("Pool C.1 ",'Pool Matches'!G99)</f>
@@ -18524,6 +18714,7 @@
         <v>316</v>
       </c>
     </row>
+    <row r="14"/>
     <row r="15">
       <c r="F15" s="7" t="s">
         <v>322</v>
@@ -18544,6 +18735,8 @@
       </c>
       <c r="O16" s="23"/>
     </row>
+    <row r="17"/>
+    <row r="18"/>
     <row r="19">
       <c r="A19" s="29" t="s">
         <v>325</v>
@@ -18728,6 +18921,7 @@
         <v>5</v>
       </c>
     </row>
+    <row r="27"/>
     <row r="28">
       <c r="A28" s="30" t="str">
         <f>CONCATENATE("Pool G.1 ",'Pool Matches'!G185)</f>
@@ -18792,6 +18986,7 @@
         <v>316</v>
       </c>
     </row>
+    <row r="30"/>
     <row r="31">
       <c r="F31" s="7" t="s">
         <v>322</v>
@@ -18812,6 +19007,8 @@
       </c>
       <c r="O32" s="23"/>
     </row>
+    <row r="33"/>
+    <row r="34"/>
     <row r="35">
       <c r="A35" s="29" t="s">
         <v>327</v>
@@ -18996,6 +19193,7 @@
         <v>5</v>
       </c>
     </row>
+    <row r="43"/>
     <row r="44">
       <c r="A44" s="30" t="str">
         <f>CONCATENATE("Pool K.1 ",'Pool Matches'!G271)</f>
@@ -19060,6 +19258,7 @@
         <v>316</v>
       </c>
     </row>
+    <row r="46"/>
     <row r="47">
       <c r="F47" s="7" t="s">
         <v>322</v>
@@ -19080,6 +19279,8 @@
       </c>
       <c r="O48" s="23"/>
     </row>
+    <row r="49"/>
+    <row r="50"/>
     <row r="51">
       <c r="A51" s="29" t="s">
         <v>329</v>
@@ -19264,6 +19465,7 @@
         <v>5</v>
       </c>
     </row>
+    <row r="59"/>
     <row r="60">
       <c r="A60" s="30" t="str">
         <f>CONCATENATE("Pool O.1 ",'Pool Matches'!G357)</f>
@@ -19328,6 +19530,7 @@
         <v>316</v>
       </c>
     </row>
+    <row r="62"/>
     <row r="63">
       <c r="F63" s="7" t="s">
         <v>322</v>
@@ -19348,6 +19551,8 @@
       </c>
       <c r="O64" s="23"/>
     </row>
+    <row r="65"/>
+    <row r="66"/>
     <row r="67">
       <c r="A67" s="29" t="s">
         <v>331</v>
@@ -19532,6 +19737,7 @@
         <v>5</v>
       </c>
     </row>
+    <row r="75"/>
     <row r="76">
       <c r="A76" s="30" t="str">
         <f>CONCATENATE("Pool S.1 ",'Pool Matches'!G443)</f>
@@ -19596,6 +19802,7 @@
         <v>316</v>
       </c>
     </row>
+    <row r="78"/>
     <row r="79">
       <c r="F79" s="7" t="s">
         <v>322</v>
@@ -19616,6 +19823,8 @@
       </c>
       <c r="O80" s="23"/>
     </row>
+    <row r="81"/>
+    <row r="82"/>
     <row r="83">
       <c r="A83" s="29" t="s">
         <v>333</v>
@@ -19800,6 +20009,7 @@
         <v>5</v>
       </c>
     </row>
+    <row r="91"/>
     <row r="92">
       <c r="A92" s="30" t="str">
         <f>CONCATENATE("Pool W.1 ",'Pool Matches'!G529)</f>
@@ -19864,6 +20074,7 @@
         <v>316</v>
       </c>
     </row>
+    <row r="94"/>
     <row r="95">
       <c r="F95" s="7" t="s">
         <v>322</v>
@@ -19884,6 +20095,8 @@
       </c>
       <c r="O96" s="23"/>
     </row>
+    <row r="97"/>
+    <row r="98"/>
     <row r="99">
       <c r="A99" s="29" t="s">
         <v>335</v>
@@ -20068,6 +20281,7 @@
         <v>5</v>
       </c>
     </row>
+    <row r="107"/>
     <row r="108">
       <c r="A108" s="30" t="str">
         <f>CONCATENATE("Pool AA.1 ",'Pool Matches'!G615)</f>
@@ -20132,6 +20346,7 @@
         <v>316</v>
       </c>
     </row>
+    <row r="110"/>
     <row r="111">
       <c r="F111" s="7" t="s">
         <v>322</v>
@@ -20152,6 +20367,8 @@
       </c>
       <c r="O112" s="23"/>
     </row>
+    <row r="113"/>
+    <row r="114"/>
     <row r="115">
       <c r="A115" s="29" t="s">
         <v>337</v>
@@ -20336,6 +20553,7 @@
         <v>5</v>
       </c>
     </row>
+    <row r="123"/>
     <row r="124">
       <c r="A124" s="30" t="str">
         <f>CONCATENATE("Pool A.2 ",'Pool Matches'!G56)</f>
@@ -20400,6 +20618,7 @@
         <v>316</v>
       </c>
     </row>
+    <row r="126"/>
     <row r="127">
       <c r="F127" s="7" t="s">
         <v>322</v>
@@ -20420,6 +20639,8 @@
       </c>
       <c r="O128" s="23"/>
     </row>
+    <row r="129"/>
+    <row r="130"/>
     <row r="131">
       <c r="A131" s="29" t="s">
         <v>339</v>
@@ -20604,6 +20825,7 @@
         <v>5</v>
       </c>
     </row>
+    <row r="139"/>
     <row r="140">
       <c r="A140" s="30" t="str">
         <f>CONCATENATE("Pool F.1 ",'Pool Matches'!O142)</f>
@@ -20668,6 +20890,7 @@
         <v>316</v>
       </c>
     </row>
+    <row r="142"/>
     <row r="143">
       <c r="F143" s="7" t="s">
         <v>322</v>
@@ -20688,6 +20911,8 @@
       </c>
       <c r="O144" s="23"/>
     </row>
+    <row r="145"/>
+    <row r="146"/>
     <row r="147">
       <c r="A147" s="29" t="s">
         <v>341</v>
@@ -20872,6 +21097,7 @@
         <v>5</v>
       </c>
     </row>
+    <row r="155"/>
     <row r="156">
       <c r="A156" s="30" t="str">
         <f>CONCATENATE("Pool J.1 ",'Pool Matches'!O228)</f>
@@ -20936,6 +21162,7 @@
         <v>316</v>
       </c>
     </row>
+    <row r="158"/>
     <row r="159">
       <c r="F159" s="7" t="s">
         <v>322</v>
@@ -20956,6 +21183,8 @@
       </c>
       <c r="O160" s="23"/>
     </row>
+    <row r="161"/>
+    <row r="162"/>
     <row r="163">
       <c r="A163" s="29" t="s">
         <v>343</v>
@@ -21140,6 +21369,7 @@
         <v>5</v>
       </c>
     </row>
+    <row r="171"/>
     <row r="172">
       <c r="A172" s="30" t="str">
         <f>CONCATENATE("Pool N.1 ",'Pool Matches'!O314)</f>
@@ -21204,6 +21434,7 @@
         <v>316</v>
       </c>
     </row>
+    <row r="174"/>
     <row r="175">
       <c r="F175" s="7" t="s">
         <v>322</v>
@@ -21224,6 +21455,8 @@
       </c>
       <c r="O176" s="23"/>
     </row>
+    <row r="177"/>
+    <row r="178"/>
     <row r="179">
       <c r="A179" s="29" t="s">
         <v>345</v>
@@ -21408,6 +21641,7 @@
         <v>5</v>
       </c>
     </row>
+    <row r="187"/>
     <row r="188">
       <c r="A188" s="30" t="str">
         <f>CONCATENATE("Pool T.1 ",'Pool Matches'!O443)</f>
@@ -21472,6 +21706,7 @@
         <v>316</v>
       </c>
     </row>
+    <row r="190"/>
     <row r="191">
       <c r="F191" s="7" t="s">
         <v>322</v>
@@ -21492,6 +21727,8 @@
       </c>
       <c r="O192" s="23"/>
     </row>
+    <row r="193"/>
+    <row r="194"/>
     <row r="195">
       <c r="A195" s="29" t="s">
         <v>347</v>
@@ -21676,6 +21913,7 @@
         <v>5</v>
       </c>
     </row>
+    <row r="203"/>
     <row r="204">
       <c r="A204" s="30" t="str">
         <f>CONCATENATE("Pool X.1 ",'Pool Matches'!O529)</f>
@@ -21740,6 +21978,7 @@
         <v>316</v>
       </c>
     </row>
+    <row r="206"/>
     <row r="207">
       <c r="F207" s="7" t="s">
         <v>322</v>
@@ -21760,6 +21999,8 @@
       </c>
       <c r="O208" s="23"/>
     </row>
+    <row r="209"/>
+    <row r="210"/>
     <row r="211">
       <c r="A211" s="29" t="s">
         <v>349</v>
@@ -21944,6 +22185,7 @@
         <v>5</v>
       </c>
     </row>
+    <row r="219"/>
     <row r="220">
       <c r="A220" s="30" t="str">
         <f>CONCATENATE("Pool BB.1 ",'Pool Matches'!O615)</f>
@@ -22008,6 +22250,7 @@
         <v>316</v>
       </c>
     </row>
+    <row r="222"/>
     <row r="223">
       <c r="F223" s="7" t="s">
         <v>322</v>
@@ -22028,6 +22271,13 @@
       </c>
       <c r="O224" s="23"/>
     </row>
+    <row r="225"/>
+    <row r="226"/>
+    <row r="227"/>
+    <row r="228"/>
+    <row r="229"/>
+    <row r="230"/>
+    <row r="231"/>
     <row r="232">
       <c r="A232" s="29" t="s">
         <v>351</v>
@@ -22047,6 +22297,7 @@
       <c r="N232" s="29"/>
       <c r="O232" s="29"/>
     </row>
+    <row r="233"/>
     <row r="234">
       <c r="A234" s="29" t="s">
         <v>352</v>
@@ -22231,6 +22482,7 @@
         <v>5</v>
       </c>
     </row>
+    <row r="242"/>
     <row r="243">
       <c r="A243" s="30" t="str">
         <f>CONCATENATE("Pool A.1 ",'Pool Matches'!G55)</f>
@@ -22295,6 +22547,7 @@
         <v>316</v>
       </c>
     </row>
+    <row r="245"/>
     <row r="246">
       <c r="F246" s="7" t="s">
         <v>322</v>
@@ -22315,6 +22568,8 @@
       </c>
       <c r="O247" s="23"/>
     </row>
+    <row r="248"/>
+    <row r="249"/>
     <row r="250">
       <c r="A250" s="29" t="s">
         <v>354</v>
@@ -22499,6 +22754,7 @@
         <v>5</v>
       </c>
     </row>
+    <row r="258"/>
     <row r="259">
       <c r="A259" s="30" t="str">
         <f>CONCATENATE("M 4 ",'Elimination Matches'!O31)</f>
@@ -22563,6 +22819,7 @@
         <v>316</v>
       </c>
     </row>
+    <row r="261"/>
     <row r="262">
       <c r="F262" s="7" t="s">
         <v>322</v>
@@ -22583,6 +22840,8 @@
       </c>
       <c r="O263" s="23"/>
     </row>
+    <row r="264"/>
+    <row r="265"/>
     <row r="266">
       <c r="A266" s="29" t="s">
         <v>356</v>
@@ -22767,6 +23026,7 @@
         <v>5</v>
       </c>
     </row>
+    <row r="274"/>
     <row r="275">
       <c r="A275" s="30" t="str">
         <f>CONCATENATE("Pool Q.1 ",'Pool Matches'!G400)</f>
@@ -22831,6 +23091,7 @@
         <v>316</v>
       </c>
     </row>
+    <row r="277"/>
     <row r="278">
       <c r="F278" s="7" t="s">
         <v>322</v>
@@ -22851,6 +23112,8 @@
       </c>
       <c r="O279" s="23"/>
     </row>
+    <row r="280"/>
+    <row r="281"/>
     <row r="282">
       <c r="A282" s="29" t="s">
         <v>358</v>
@@ -23035,6 +23298,7 @@
         <v>5</v>
       </c>
     </row>
+    <row r="290"/>
     <row r="291">
       <c r="A291" s="30" t="str">
         <f>CONCATENATE("M 11 ",'Elimination Matches'!G95)</f>
@@ -23099,6 +23363,7 @@
         <v>316</v>
       </c>
     </row>
+    <row r="293"/>
     <row r="294">
       <c r="F294" s="7" t="s">
         <v>322</v>
@@ -23119,6 +23384,8 @@
       </c>
       <c r="O295" s="23"/>
     </row>
+    <row r="296"/>
+    <row r="297"/>
     <row r="298">
       <c r="A298" s="29" t="s">
         <v>360</v>
@@ -23303,6 +23570,7 @@
         <v>5</v>
       </c>
     </row>
+    <row r="306"/>
     <row r="307">
       <c r="A307" s="30" t="str">
         <f>CONCATENATE("Pool B.1 ",'Pool Matches'!O42)</f>
@@ -23367,6 +23635,7 @@
         <v>316</v>
       </c>
     </row>
+    <row r="309"/>
     <row r="310">
       <c r="F310" s="7" t="s">
         <v>322</v>
@@ -23387,6 +23656,8 @@
       </c>
       <c r="O311" s="23"/>
     </row>
+    <row r="312"/>
+    <row r="313"/>
     <row r="314">
       <c r="A314" s="29" t="s">
         <v>362</v>
@@ -23571,6 +23842,7 @@
         <v>5</v>
       </c>
     </row>
+    <row r="322"/>
     <row r="323">
       <c r="A323" s="30" t="str">
         <f>CONCATENATE("M 18 ",'Elimination Matches'!O143)</f>
@@ -23635,6 +23907,7 @@
         <v>316</v>
       </c>
     </row>
+    <row r="325"/>
     <row r="326">
       <c r="F326" s="7" t="s">
         <v>322</v>
@@ -23655,6 +23928,8 @@
       </c>
       <c r="O327" s="23"/>
     </row>
+    <row r="328"/>
+    <row r="329"/>
     <row r="330">
       <c r="A330" s="29" t="s">
         <v>364</v>
@@ -23839,6 +24114,7 @@
         <v>5</v>
       </c>
     </row>
+    <row r="338"/>
     <row r="339">
       <c r="A339" s="30" t="str">
         <f>CONCATENATE("Pool P.1 ",'Pool Matches'!O357)</f>
@@ -23903,6 +24179,7 @@
         <v>316</v>
       </c>
     </row>
+    <row r="341"/>
     <row r="342">
       <c r="F342" s="7" t="s">
         <v>322</v>
@@ -23923,6 +24200,8 @@
       </c>
       <c r="O343" s="23"/>
     </row>
+    <row r="344"/>
+    <row r="345"/>
     <row r="346">
       <c r="A346" s="29" t="s">
         <v>366</v>
@@ -24107,6 +24386,7 @@
         <v>5</v>
       </c>
     </row>
+    <row r="354"/>
     <row r="355">
       <c r="A355" s="30" t="str">
         <f>CONCATENATE("M 25 ",'Elimination Matches'!G207)</f>
@@ -24171,6 +24451,7 @@
         <v>316</v>
       </c>
     </row>
+    <row r="357"/>
     <row r="358">
       <c r="F358" s="7" t="s">
         <v>322</v>
@@ -24191,6 +24472,13 @@
       </c>
       <c r="O359" s="23"/>
     </row>
+    <row r="360"/>
+    <row r="361"/>
+    <row r="362"/>
+    <row r="363"/>
+    <row r="364"/>
+    <row r="365"/>
+    <row r="366"/>
     <row r="367">
       <c r="A367" s="29" t="s">
         <v>368</v>
@@ -24210,6 +24498,7 @@
       <c r="N367" s="29"/>
       <c r="O367" s="29"/>
     </row>
+    <row r="368"/>
     <row r="369">
       <c r="A369" s="29" t="s">
         <v>369</v>
@@ -24394,6 +24683,7 @@
         <v>5</v>
       </c>
     </row>
+    <row r="377"/>
     <row r="378">
       <c r="A378" s="30" t="str">
         <f>CONCATENATE("M 29 ",'Elimination Matches'!G246)</f>
@@ -24458,6 +24748,7 @@
         <v>316</v>
       </c>
     </row>
+    <row r="380"/>
     <row r="381">
       <c r="F381" s="7" t="s">
         <v>322</v>
@@ -24478,6 +24769,8 @@
       </c>
       <c r="O382" s="23"/>
     </row>
+    <row r="383"/>
+    <row r="384"/>
     <row r="385">
       <c r="A385" s="29" t="s">
         <v>371</v>
@@ -24662,6 +24955,7 @@
         <v>5</v>
       </c>
     </row>
+    <row r="393"/>
     <row r="394">
       <c r="A394" s="30" t="str">
         <f>CONCATENATE("M 33 ",'Elimination Matches'!G278)</f>
@@ -24726,6 +25020,7 @@
         <v>316</v>
       </c>
     </row>
+    <row r="396"/>
     <row r="397">
       <c r="F397" s="7" t="s">
         <v>322</v>
@@ -24746,6 +25041,8 @@
       </c>
       <c r="O398" s="23"/>
     </row>
+    <row r="399"/>
+    <row r="400"/>
     <row r="401">
       <c r="A401" s="29" t="s">
         <v>373</v>
@@ -24930,6 +25227,7 @@
         <v>5</v>
       </c>
     </row>
+    <row r="409"/>
     <row r="410">
       <c r="A410" s="30" t="str">
         <f>CONCATENATE("M 37 ",'Elimination Matches'!G310)</f>
@@ -24994,6 +25292,7 @@
         <v>316</v>
       </c>
     </row>
+    <row r="412"/>
     <row r="413">
       <c r="F413" s="7" t="s">
         <v>322</v>
@@ -25014,6 +25313,8 @@
       </c>
       <c r="O414" s="23"/>
     </row>
+    <row r="415"/>
+    <row r="416"/>
     <row r="417">
       <c r="A417" s="29" t="s">
         <v>375</v>
@@ -25198,6 +25499,7 @@
         <v>5</v>
       </c>
     </row>
+    <row r="425"/>
     <row r="426">
       <c r="A426" s="30" t="str">
         <f>CONCATENATE("M 41 ",'Elimination Matches'!G342)</f>
@@ -25262,6 +25564,7 @@
         <v>316</v>
       </c>
     </row>
+    <row r="428"/>
     <row r="429">
       <c r="F429" s="7" t="s">
         <v>322</v>
@@ -25282,6 +25585,13 @@
       </c>
       <c r="O430" s="23"/>
     </row>
+    <row r="431"/>
+    <row r="432"/>
+    <row r="433"/>
+    <row r="434"/>
+    <row r="435"/>
+    <row r="436"/>
+    <row r="437"/>
     <row r="438">
       <c r="A438" s="29" t="s">
         <v>377</v>
@@ -25301,6 +25611,7 @@
       <c r="N438" s="29"/>
       <c r="O438" s="29"/>
     </row>
+    <row r="439"/>
     <row r="440">
       <c r="A440" s="29" t="s">
         <v>378</v>
@@ -25485,6 +25796,7 @@
         <v>5</v>
       </c>
     </row>
+    <row r="448"/>
     <row r="449">
       <c r="A449" s="30" t="str">
         <f>CONCATENATE("M 45 ",'Elimination Matches'!G381)</f>
@@ -25549,6 +25861,7 @@
         <v>316</v>
       </c>
     </row>
+    <row r="451"/>
     <row r="452">
       <c r="F452" s="7" t="s">
         <v>322</v>
@@ -25569,6 +25882,8 @@
       </c>
       <c r="O453" s="23"/>
     </row>
+    <row r="454"/>
+    <row r="455"/>
     <row r="456">
       <c r="A456" s="29" t="s">
         <v>380</v>
@@ -25753,6 +26068,7 @@
         <v>5</v>
       </c>
     </row>
+    <row r="464"/>
     <row r="465">
       <c r="A465" s="30" t="str">
         <f>CONCATENATE("M 49 ",'Elimination Matches'!G413)</f>
@@ -25817,6 +26133,7 @@
         <v>316</v>
       </c>
     </row>
+    <row r="467"/>
     <row r="468">
       <c r="F468" s="7" t="s">
         <v>322</v>
@@ -25837,6 +26154,13 @@
       </c>
       <c r="O469" s="23"/>
     </row>
+    <row r="470"/>
+    <row r="471"/>
+    <row r="472"/>
+    <row r="473"/>
+    <row r="474"/>
+    <row r="475"/>
+    <row r="476"/>
     <row r="477">
       <c r="A477" s="29" t="s">
         <v>382</v>
@@ -25856,6 +26180,7 @@
       <c r="N477" s="29"/>
       <c r="O477" s="29"/>
     </row>
+    <row r="478"/>
     <row r="479">
       <c r="A479" s="29" t="s">
         <v>383</v>
@@ -26040,6 +26365,7 @@
         <v>5</v>
       </c>
     </row>
+    <row r="487"/>
     <row r="488">
       <c r="A488" s="30" t="str">
         <f>CONCATENATE("M 53 ",'Elimination Matches'!G452)</f>
@@ -26104,6 +26430,7 @@
         <v>316</v>
       </c>
     </row>
+    <row r="490"/>
     <row r="491">
       <c r="F491" s="7" t="s">
         <v>322</v>
@@ -26124,6 +26451,13 @@
       </c>
       <c r="O492" s="23"/>
     </row>
+    <row r="493"/>
+    <row r="494"/>
+    <row r="495"/>
+    <row r="496"/>
+    <row r="497"/>
+    <row r="498"/>
+    <row r="499"/>
     <row r="500">
       <c r="A500" s="29" t="s">
         <v>385</v>
@@ -26143,6 +26477,7 @@
       <c r="N500" s="29"/>
       <c r="O500" s="29"/>
     </row>
+    <row r="501"/>
     <row r="502">
       <c r="A502" s="29" t="s">
         <v>386</v>
@@ -26243,6 +26578,7 @@
         <v>5</v>
       </c>
     </row>
+    <row r="510"/>
     <row r="511">
       <c r="A511" s="30" t="str">
         <f>CONCATENATE("M 57 ",'Elimination Matches'!G491)</f>
@@ -26277,6 +26613,7 @@
         <v>316</v>
       </c>
     </row>
+    <row r="513"/>
     <row r="514">
       <c r="F514" s="7" t="s">
         <v>322</v>
@@ -26384,7 +26721,7 @@
         <v>15</v>
       </c>
       <c r="B1" s="124" t="str">
-        <f>data!D2</f>
+        <f>data!DB$2</f>
       </c>
     </row>
     <row r="2" ht="115" customHeight="true">
@@ -26398,7 +26735,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="124" t="str">
-        <f>data!D3</f>
+        <f>data!DB$3</f>
       </c>
     </row>
     <row r="4" ht="115" customHeight="true">
@@ -26412,7 +26749,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="124" t="str">
-        <f>data!D4</f>
+        <f>data!DB$4</f>
       </c>
     </row>
     <row r="6" ht="115" customHeight="true">
@@ -26426,7 +26763,7 @@
         <v>15</v>
       </c>
       <c r="B7" s="124" t="str">
-        <f>data!D5</f>
+        <f>data!DB$5</f>
       </c>
     </row>
     <row r="8" ht="115" customHeight="true">
@@ -26440,7 +26777,7 @@
         <v>27</v>
       </c>
       <c r="B9" s="124" t="str">
-        <f>data!D6</f>
+        <f>data!DB$6</f>
       </c>
     </row>
     <row r="10" ht="115" customHeight="true">
@@ -26454,7 +26791,7 @@
         <v>27</v>
       </c>
       <c r="B11" s="124" t="str">
-        <f>data!D7</f>
+        <f>data!DB$7</f>
       </c>
     </row>
     <row r="12" ht="115" customHeight="true">
@@ -26468,7 +26805,7 @@
         <v>27</v>
       </c>
       <c r="B13" s="124" t="str">
-        <f>data!D8</f>
+        <f>data!DB$8</f>
       </c>
     </row>
     <row r="14" ht="115" customHeight="true">
@@ -26482,7 +26819,7 @@
         <v>36</v>
       </c>
       <c r="B15" s="124" t="str">
-        <f>data!D9</f>
+        <f>data!DB$9</f>
       </c>
     </row>
     <row r="16" ht="115" customHeight="true">
@@ -26496,7 +26833,7 @@
         <v>36</v>
       </c>
       <c r="B17" s="124" t="str">
-        <f>data!D10</f>
+        <f>data!DB$10</f>
       </c>
     </row>
     <row r="18" ht="115" customHeight="true">
@@ -26510,7 +26847,7 @@
         <v>36</v>
       </c>
       <c r="B19" s="124" t="str">
-        <f>data!D11</f>
+        <f>data!DB$11</f>
       </c>
     </row>
     <row r="20" ht="115" customHeight="true">
@@ -26524,7 +26861,7 @@
         <v>43</v>
       </c>
       <c r="B21" s="124" t="str">
-        <f>data!D12</f>
+        <f>data!DB$12</f>
       </c>
     </row>
     <row r="22" ht="115" customHeight="true">
@@ -26538,7 +26875,7 @@
         <v>43</v>
       </c>
       <c r="B23" s="124" t="str">
-        <f>data!D13</f>
+        <f>data!DB$13</f>
       </c>
     </row>
     <row r="24" ht="115" customHeight="true">
@@ -26552,7 +26889,7 @@
         <v>43</v>
       </c>
       <c r="B25" s="124" t="str">
-        <f>data!D14</f>
+        <f>data!DB$14</f>
       </c>
     </row>
     <row r="26" ht="115" customHeight="true">
@@ -26566,7 +26903,7 @@
         <v>50</v>
       </c>
       <c r="B27" s="124" t="str">
-        <f>data!D15</f>
+        <f>data!DB$15</f>
       </c>
     </row>
     <row r="28" ht="115" customHeight="true">
@@ -26580,7 +26917,7 @@
         <v>50</v>
       </c>
       <c r="B29" s="124" t="str">
-        <f>data!D16</f>
+        <f>data!DB$16</f>
       </c>
     </row>
     <row r="30" ht="115" customHeight="true">
@@ -26594,7 +26931,7 @@
         <v>50</v>
       </c>
       <c r="B31" s="124" t="str">
-        <f>data!D17</f>
+        <f>data!DB$17</f>
       </c>
     </row>
     <row r="32" ht="115" customHeight="true">
@@ -26608,7 +26945,7 @@
         <v>57</v>
       </c>
       <c r="B33" s="124" t="str">
-        <f>data!D18</f>
+        <f>data!DB$18</f>
       </c>
     </row>
     <row r="34" ht="115" customHeight="true">
@@ -26622,7 +26959,7 @@
         <v>57</v>
       </c>
       <c r="B35" s="124" t="str">
-        <f>data!D19</f>
+        <f>data!DB$19</f>
       </c>
     </row>
     <row r="36" ht="115" customHeight="true">
@@ -26636,7 +26973,7 @@
         <v>57</v>
       </c>
       <c r="B37" s="124" t="str">
-        <f>data!D20</f>
+        <f>data!DB$20</f>
       </c>
     </row>
     <row r="38" ht="115" customHeight="true">
@@ -26650,7 +26987,7 @@
         <v>64</v>
       </c>
       <c r="B39" s="124" t="str">
-        <f>data!D21</f>
+        <f>data!DB$21</f>
       </c>
     </row>
     <row r="40" ht="115" customHeight="true">
@@ -26664,7 +27001,7 @@
         <v>64</v>
       </c>
       <c r="B41" s="124" t="str">
-        <f>data!D22</f>
+        <f>data!DB$22</f>
       </c>
     </row>
     <row r="42" ht="115" customHeight="true">
@@ -26678,7 +27015,7 @@
         <v>64</v>
       </c>
       <c r="B43" s="124" t="str">
-        <f>data!D23</f>
+        <f>data!DB$23</f>
       </c>
     </row>
     <row r="44" ht="115" customHeight="true">
@@ -26692,7 +27029,7 @@
         <v>71</v>
       </c>
       <c r="B45" s="124" t="str">
-        <f>data!D24</f>
+        <f>data!DB$24</f>
       </c>
     </row>
     <row r="46" ht="115" customHeight="true">
@@ -26706,7 +27043,7 @@
         <v>71</v>
       </c>
       <c r="B47" s="124" t="str">
-        <f>data!D25</f>
+        <f>data!DB$25</f>
       </c>
     </row>
     <row r="48" ht="115" customHeight="true">
@@ -26720,7 +27057,7 @@
         <v>71</v>
       </c>
       <c r="B49" s="124" t="str">
-        <f>data!D26</f>
+        <f>data!DB$26</f>
       </c>
     </row>
     <row r="50" ht="115" customHeight="true">
@@ -26734,7 +27071,7 @@
         <v>81</v>
       </c>
       <c r="B51" s="124" t="str">
-        <f>data!D27</f>
+        <f>data!DB$27</f>
       </c>
     </row>
     <row r="52" ht="115" customHeight="true">
@@ -26748,7 +27085,7 @@
         <v>81</v>
       </c>
       <c r="B53" s="124" t="str">
-        <f>data!D28</f>
+        <f>data!DB$28</f>
       </c>
     </row>
     <row r="54" ht="115" customHeight="true">
@@ -26762,7 +27099,7 @@
         <v>81</v>
       </c>
       <c r="B55" s="124" t="str">
-        <f>data!D29</f>
+        <f>data!DB$29</f>
       </c>
     </row>
     <row r="56" ht="115" customHeight="true">
@@ -26776,7 +27113,7 @@
         <v>90</v>
       </c>
       <c r="B57" s="124" t="str">
-        <f>data!D30</f>
+        <f>data!DB$30</f>
       </c>
     </row>
     <row r="58" ht="115" customHeight="true">
@@ -26790,7 +27127,7 @@
         <v>90</v>
       </c>
       <c r="B59" s="124" t="str">
-        <f>data!D31</f>
+        <f>data!DB$31</f>
       </c>
     </row>
     <row r="60" ht="115" customHeight="true">
@@ -26804,7 +27141,7 @@
         <v>90</v>
       </c>
       <c r="B61" s="124" t="str">
-        <f>data!D32</f>
+        <f>data!DB$32</f>
       </c>
     </row>
     <row r="62" ht="115" customHeight="true">
@@ -26818,7 +27155,7 @@
         <v>97</v>
       </c>
       <c r="B63" s="124" t="str">
-        <f>data!D33</f>
+        <f>data!DB$33</f>
       </c>
     </row>
     <row r="64" ht="115" customHeight="true">
@@ -26832,7 +27169,7 @@
         <v>97</v>
       </c>
       <c r="B65" s="124" t="str">
-        <f>data!D34</f>
+        <f>data!DB$34</f>
       </c>
     </row>
     <row r="66" ht="115" customHeight="true">
@@ -26846,7 +27183,7 @@
         <v>97</v>
       </c>
       <c r="B67" s="124" t="str">
-        <f>data!D35</f>
+        <f>data!DB$35</f>
       </c>
     </row>
     <row r="68" ht="115" customHeight="true">
@@ -26860,7 +27197,7 @@
         <v>104</v>
       </c>
       <c r="B69" s="124" t="str">
-        <f>data!D36</f>
+        <f>data!DB$36</f>
       </c>
     </row>
     <row r="70" ht="115" customHeight="true">
@@ -26874,7 +27211,7 @@
         <v>104</v>
       </c>
       <c r="B71" s="124" t="str">
-        <f>data!D37</f>
+        <f>data!DB$37</f>
       </c>
     </row>
     <row r="72" ht="115" customHeight="true">
@@ -26888,7 +27225,7 @@
         <v>104</v>
       </c>
       <c r="B73" s="124" t="str">
-        <f>data!D38</f>
+        <f>data!DB$38</f>
       </c>
     </row>
     <row r="74" ht="115" customHeight="true">
@@ -26902,7 +27239,7 @@
         <v>111</v>
       </c>
       <c r="B75" s="124" t="str">
-        <f>data!D39</f>
+        <f>data!DB$39</f>
       </c>
     </row>
     <row r="76" ht="115" customHeight="true">
@@ -26916,7 +27253,7 @@
         <v>111</v>
       </c>
       <c r="B77" s="124" t="str">
-        <f>data!D40</f>
+        <f>data!DB$40</f>
       </c>
     </row>
     <row r="78" ht="115" customHeight="true">
@@ -26930,7 +27267,7 @@
         <v>111</v>
       </c>
       <c r="B79" s="124" t="str">
-        <f>data!D41</f>
+        <f>data!DB$41</f>
       </c>
     </row>
     <row r="80" ht="115" customHeight="true">
@@ -26944,7 +27281,7 @@
         <v>118</v>
       </c>
       <c r="B81" s="124" t="str">
-        <f>data!D42</f>
+        <f>data!DB$42</f>
       </c>
     </row>
     <row r="82" ht="115" customHeight="true">
@@ -26958,7 +27295,7 @@
         <v>118</v>
       </c>
       <c r="B83" s="124" t="str">
-        <f>data!D43</f>
+        <f>data!DB$43</f>
       </c>
     </row>
     <row r="84" ht="115" customHeight="true">
@@ -26972,7 +27309,7 @@
         <v>118</v>
       </c>
       <c r="B85" s="124" t="str">
-        <f>data!D44</f>
+        <f>data!DB$44</f>
       </c>
     </row>
     <row r="86" ht="115" customHeight="true">
@@ -26986,7 +27323,7 @@
         <v>125</v>
       </c>
       <c r="B87" s="124" t="str">
-        <f>data!D45</f>
+        <f>data!DB$45</f>
       </c>
     </row>
     <row r="88" ht="115" customHeight="true">
@@ -27000,7 +27337,7 @@
         <v>125</v>
       </c>
       <c r="B89" s="124" t="str">
-        <f>data!D46</f>
+        <f>data!DB$46</f>
       </c>
     </row>
     <row r="90" ht="115" customHeight="true">
@@ -27014,7 +27351,7 @@
         <v>125</v>
       </c>
       <c r="B91" s="124" t="str">
-        <f>data!D47</f>
+        <f>data!DB$47</f>
       </c>
     </row>
     <row r="92" ht="115" customHeight="true">
@@ -27028,7 +27365,7 @@
         <v>132</v>
       </c>
       <c r="B93" s="124" t="str">
-        <f>data!D48</f>
+        <f>data!DB$48</f>
       </c>
     </row>
     <row r="94" ht="115" customHeight="true">
@@ -27042,7 +27379,7 @@
         <v>132</v>
       </c>
       <c r="B95" s="124" t="str">
-        <f>data!D49</f>
+        <f>data!DB$49</f>
       </c>
     </row>
     <row r="96" ht="115" customHeight="true">
@@ -27056,7 +27393,7 @@
         <v>132</v>
       </c>
       <c r="B97" s="124" t="str">
-        <f>data!D50</f>
+        <f>data!DB$50</f>
       </c>
     </row>
     <row r="98" ht="115" customHeight="true">
@@ -27070,7 +27407,7 @@
         <v>139</v>
       </c>
       <c r="B99" s="124" t="str">
-        <f>data!D51</f>
+        <f>data!DB$51</f>
       </c>
     </row>
     <row r="100" ht="115" customHeight="true">
@@ -27084,7 +27421,7 @@
         <v>139</v>
       </c>
       <c r="B101" s="124" t="str">
-        <f>data!D52</f>
+        <f>data!DB$52</f>
       </c>
     </row>
     <row r="102" ht="115" customHeight="true">
@@ -27098,7 +27435,7 @@
         <v>139</v>
       </c>
       <c r="B103" s="124" t="str">
-        <f>data!D53</f>
+        <f>data!DB$53</f>
       </c>
     </row>
     <row r="104" ht="115" customHeight="true">
@@ -27112,7 +27449,7 @@
         <v>146</v>
       </c>
       <c r="B105" s="124" t="str">
-        <f>data!D54</f>
+        <f>data!DB$54</f>
       </c>
     </row>
     <row r="106" ht="115" customHeight="true">
@@ -27126,7 +27463,7 @@
         <v>146</v>
       </c>
       <c r="B107" s="124" t="str">
-        <f>data!D55</f>
+        <f>data!DB$55</f>
       </c>
     </row>
     <row r="108" ht="115" customHeight="true">
@@ -27140,7 +27477,7 @@
         <v>146</v>
       </c>
       <c r="B109" s="124" t="str">
-        <f>data!D56</f>
+        <f>data!DB$56</f>
       </c>
     </row>
     <row r="110" ht="115" customHeight="true">
@@ -27154,7 +27491,7 @@
         <v>156</v>
       </c>
       <c r="B111" s="124" t="str">
-        <f>data!D57</f>
+        <f>data!DB$57</f>
       </c>
     </row>
     <row r="112" ht="115" customHeight="true">
@@ -27168,7 +27505,7 @@
         <v>156</v>
       </c>
       <c r="B113" s="124" t="str">
-        <f>data!D58</f>
+        <f>data!DB$58</f>
       </c>
     </row>
     <row r="114" ht="115" customHeight="true">
@@ -27182,7 +27519,7 @@
         <v>156</v>
       </c>
       <c r="B115" s="124" t="str">
-        <f>data!D59</f>
+        <f>data!DB$59</f>
       </c>
     </row>
     <row r="116" ht="115" customHeight="true">
@@ -27196,7 +27533,7 @@
         <v>166</v>
       </c>
       <c r="B117" s="124" t="str">
-        <f>data!D60</f>
+        <f>data!DB$60</f>
       </c>
     </row>
     <row r="118" ht="115" customHeight="true">
@@ -27210,7 +27547,7 @@
         <v>166</v>
       </c>
       <c r="B119" s="124" t="str">
-        <f>data!D61</f>
+        <f>data!DB$61</f>
       </c>
     </row>
     <row r="120" ht="115" customHeight="true">
@@ -27224,7 +27561,7 @@
         <v>166</v>
       </c>
       <c r="B121" s="124" t="str">
-        <f>data!D62</f>
+        <f>data!DB$62</f>
       </c>
     </row>
     <row r="122" ht="115" customHeight="true">
@@ -27238,7 +27575,7 @@
         <v>176</v>
       </c>
       <c r="B123" s="124" t="str">
-        <f>data!D63</f>
+        <f>data!DB$63</f>
       </c>
     </row>
     <row r="124" ht="115" customHeight="true">
@@ -27252,7 +27589,7 @@
         <v>176</v>
       </c>
       <c r="B125" s="124" t="str">
-        <f>data!D64</f>
+        <f>data!DB$64</f>
       </c>
     </row>
     <row r="126" ht="115" customHeight="true">
@@ -27266,7 +27603,7 @@
         <v>176</v>
       </c>
       <c r="B127" s="124" t="str">
-        <f>data!D65</f>
+        <f>data!DB$65</f>
       </c>
     </row>
     <row r="128" ht="115" customHeight="true">
@@ -27280,7 +27617,7 @@
         <v>186</v>
       </c>
       <c r="B129" s="124" t="str">
-        <f>data!D66</f>
+        <f>data!DB$66</f>
       </c>
     </row>
     <row r="130" ht="115" customHeight="true">
@@ -27294,7 +27631,7 @@
         <v>186</v>
       </c>
       <c r="B131" s="124" t="str">
-        <f>data!D67</f>
+        <f>data!DB$67</f>
       </c>
     </row>
     <row r="132" ht="115" customHeight="true">
@@ -27308,7 +27645,7 @@
         <v>186</v>
       </c>
       <c r="B133" s="124" t="str">
-        <f>data!D68</f>
+        <f>data!DB$68</f>
       </c>
     </row>
     <row r="134" ht="115" customHeight="true">
@@ -27322,7 +27659,7 @@
         <v>195</v>
       </c>
       <c r="B135" s="124" t="str">
-        <f>data!D69</f>
+        <f>data!DB$69</f>
       </c>
     </row>
     <row r="136" ht="115" customHeight="true">
@@ -27336,7 +27673,7 @@
         <v>195</v>
       </c>
       <c r="B137" s="124" t="str">
-        <f>data!D70</f>
+        <f>data!DB$70</f>
       </c>
     </row>
     <row r="138" ht="115" customHeight="true">
@@ -27350,7 +27687,7 @@
         <v>195</v>
       </c>
       <c r="B139" s="124" t="str">
-        <f>data!D71</f>
+        <f>data!DB$71</f>
       </c>
     </row>
     <row r="140" ht="115" customHeight="true">
@@ -27364,7 +27701,7 @@
         <v>202</v>
       </c>
       <c r="B141" s="124" t="str">
-        <f>data!D72</f>
+        <f>data!DB$72</f>
       </c>
     </row>
     <row r="142" ht="115" customHeight="true">
@@ -27378,7 +27715,7 @@
         <v>202</v>
       </c>
       <c r="B143" s="124" t="str">
-        <f>data!D73</f>
+        <f>data!DB$73</f>
       </c>
     </row>
     <row r="144" ht="115" customHeight="true">
@@ -27392,7 +27729,7 @@
         <v>202</v>
       </c>
       <c r="B145" s="124" t="str">
-        <f>data!D74</f>
+        <f>data!DB$74</f>
       </c>
     </row>
     <row r="146" ht="115" customHeight="true">
@@ -27406,7 +27743,7 @@
         <v>209</v>
       </c>
       <c r="B147" s="124" t="str">
-        <f>data!D75</f>
+        <f>data!DB$75</f>
       </c>
     </row>
     <row r="148" ht="115" customHeight="true">
@@ -27420,7 +27757,7 @@
         <v>209</v>
       </c>
       <c r="B149" s="124" t="str">
-        <f>data!D76</f>
+        <f>data!DB$76</f>
       </c>
     </row>
     <row r="150" ht="115" customHeight="true">
@@ -27434,7 +27771,7 @@
         <v>209</v>
       </c>
       <c r="B151" s="124" t="str">
-        <f>data!D77</f>
+        <f>data!DB$77</f>
       </c>
     </row>
     <row r="152" ht="115" customHeight="true">
@@ -27448,7 +27785,7 @@
         <v>216</v>
       </c>
       <c r="B153" s="124" t="str">
-        <f>data!D78</f>
+        <f>data!DB$78</f>
       </c>
     </row>
     <row r="154" ht="115" customHeight="true">
@@ -27462,7 +27799,7 @@
         <v>216</v>
       </c>
       <c r="B155" s="124" t="str">
-        <f>data!D79</f>
+        <f>data!DB$79</f>
       </c>
     </row>
     <row r="156" ht="115" customHeight="true">
@@ -27476,7 +27813,7 @@
         <v>216</v>
       </c>
       <c r="B157" s="124" t="str">
-        <f>data!D80</f>
+        <f>data!DB$80</f>
       </c>
     </row>
     <row r="158" ht="115" customHeight="true">
@@ -27490,7 +27827,7 @@
         <v>223</v>
       </c>
       <c r="B159" s="124" t="str">
-        <f>data!D81</f>
+        <f>data!DB$81</f>
       </c>
     </row>
     <row r="160" ht="115" customHeight="true">
@@ -27504,7 +27841,7 @@
         <v>223</v>
       </c>
       <c r="B161" s="124" t="str">
-        <f>data!D82</f>
+        <f>data!DB$82</f>
       </c>
     </row>
     <row r="162" ht="115" customHeight="true">
@@ -27518,7 +27855,7 @@
         <v>223</v>
       </c>
       <c r="B163" s="124" t="str">
-        <f>data!D83</f>
+        <f>data!DB$83</f>
       </c>
     </row>
     <row r="164" ht="115" customHeight="true">
@@ -27532,7 +27869,7 @@
         <v>230</v>
       </c>
       <c r="B165" s="124" t="str">
-        <f>data!D84</f>
+        <f>data!DB$84</f>
       </c>
     </row>
     <row r="166" ht="115" customHeight="true">
@@ -27546,7 +27883,7 @@
         <v>230</v>
       </c>
       <c r="B167" s="124" t="str">
-        <f>data!D85</f>
+        <f>data!DB$85</f>
       </c>
     </row>
     <row r="168" ht="115" customHeight="true">
@@ -27560,7 +27897,7 @@
         <v>230</v>
       </c>
       <c r="B169" s="124" t="str">
-        <f>data!D86</f>
+        <f>data!DB$86</f>
       </c>
     </row>
     <row r="170" ht="115" customHeight="true">
@@ -27574,7 +27911,7 @@
         <v>237</v>
       </c>
       <c r="B171" s="124" t="str">
-        <f>data!D87</f>
+        <f>data!DB$87</f>
       </c>
     </row>
     <row r="172" ht="115" customHeight="true">
@@ -27588,7 +27925,7 @@
         <v>237</v>
       </c>
       <c r="B173" s="124" t="str">
-        <f>data!D88</f>
+        <f>data!DB$88</f>
       </c>
     </row>
     <row r="174" ht="115" customHeight="true">
@@ -27602,7 +27939,7 @@
         <v>237</v>
       </c>
       <c r="B175" s="124" t="str">
-        <f>data!D89</f>
+        <f>data!DB$89</f>
       </c>
     </row>
     <row r="176" ht="115" customHeight="true">
@@ -27616,7 +27953,7 @@
         <v>244</v>
       </c>
       <c r="B177" s="124" t="str">
-        <f>data!D90</f>
+        <f>data!DB$90</f>
       </c>
     </row>
     <row r="178" ht="115" customHeight="true">
@@ -27630,7 +27967,7 @@
         <v>244</v>
       </c>
       <c r="B179" s="124" t="str">
-        <f>data!D91</f>
+        <f>data!DB$91</f>
       </c>
     </row>
     <row r="180" ht="115" customHeight="true">
@@ -27644,7 +27981,7 @@
         <v>244</v>
       </c>
       <c r="B181" s="124" t="str">
-        <f>data!D92</f>
+        <f>data!DB$92</f>
       </c>
     </row>
     <row r="182" ht="115" customHeight="true">

--- a/pools-example-large.xlsx
+++ b/pools-example-large.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="385">
   <si>
     <t>Elimination Round 1</t>
   </si>
@@ -1196,16 +1196,10 @@
     <t>Elimination Round 5</t>
   </si>
   <si>
-    <t>Match 57</t>
-  </si>
-  <si>
-    <t>Match 58</t>
+    <t>Match 0</t>
   </si>
   <si>
     <t>Elimination Round 6</t>
-  </si>
-  <si>
-    <t>Match 59</t>
   </si>
 </sst>
 </file>
@@ -1348,7 +1342,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1412,39 +1406,24 @@
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
-      <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -1456,8 +1435,6 @@
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -1466,9 +1443,6 @@
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -1477,11 +1451,23 @@
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
     <border>
       <left style="thin">
@@ -1496,7 +1482,6 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -1576,469 +1561,469 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="12" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="13" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -26192,7 +26177,7 @@
       <c r="F479" s="29"/>
       <c r="G479" s="29"/>
       <c r="I479" s="29" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J479" s="29"/>
       <c r="K479" s="29"/>
@@ -26460,7 +26445,7 @@
     <row r="499"/>
     <row r="500">
       <c r="A500" s="29" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B500" s="29"/>
       <c r="C500" s="29"/>
@@ -26480,7 +26465,7 @@
     <row r="501"/>
     <row r="502">
       <c r="A502" s="29" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B502" s="29"/>
       <c r="C502" s="29"/>
@@ -26502,7 +26487,7 @@
     </row>
     <row r="504">
       <c r="A504" s="30" t="str">
-        <f>CONCATENATE("M 57 ",'Elimination Matches'!G491)</f>
+        <f>CONCATENATE("M 0 ",'Elimination Matches'!O491)</f>
       </c>
       <c r="B504" s="30"/>
       <c r="C504" s="30"/>
@@ -26510,7 +26495,7 @@
       <c r="E504" s="30"/>
       <c r="F504" s="30"/>
       <c r="G504" s="30" t="str">
-        <f>CONCATENATE("M 58 ",'Elimination Matches'!O491)</f>
+        <f>CONCATENATE("M 0 ",'Elimination Matches'!O491)</f>
       </c>
     </row>
     <row r="505">
@@ -26581,7 +26566,7 @@
     <row r="510"/>
     <row r="511">
       <c r="A511" s="30" t="str">
-        <f>CONCATENATE("M 57 ",'Elimination Matches'!G491)</f>
+        <f>CONCATENATE("M 0 ",'Elimination Matches'!O491)</f>
       </c>
       <c r="B511" s="30" t="s">
         <v>314</v>
@@ -26597,7 +26582,7 @@
         <v>314</v>
       </c>
       <c r="G511" s="30" t="str">
-        <f>CONCATENATE("M 58 ",'Elimination Matches'!O491)</f>
+        <f>CONCATENATE("M 0 ",'Elimination Matches'!O491)</f>
       </c>
     </row>
     <row r="512">
@@ -26721,7 +26706,7 @@
         <v>15</v>
       </c>
       <c r="B1" s="124" t="str">
-        <f>data!DB$2</f>
+        <f>data!D2</f>
       </c>
     </row>
     <row r="2" ht="115" customHeight="true">
@@ -26735,7 +26720,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="124" t="str">
-        <f>data!DB$3</f>
+        <f>data!D3</f>
       </c>
     </row>
     <row r="4" ht="115" customHeight="true">
@@ -26749,7 +26734,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="124" t="str">
-        <f>data!DB$4</f>
+        <f>data!D4</f>
       </c>
     </row>
     <row r="6" ht="115" customHeight="true">
@@ -26763,7 +26748,7 @@
         <v>15</v>
       </c>
       <c r="B7" s="124" t="str">
-        <f>data!DB$5</f>
+        <f>data!D5</f>
       </c>
     </row>
     <row r="8" ht="115" customHeight="true">
@@ -26777,7 +26762,7 @@
         <v>27</v>
       </c>
       <c r="B9" s="124" t="str">
-        <f>data!DB$6</f>
+        <f>data!D6</f>
       </c>
     </row>
     <row r="10" ht="115" customHeight="true">
@@ -26791,7 +26776,7 @@
         <v>27</v>
       </c>
       <c r="B11" s="124" t="str">
-        <f>data!DB$7</f>
+        <f>data!D7</f>
       </c>
     </row>
     <row r="12" ht="115" customHeight="true">
@@ -26805,7 +26790,7 @@
         <v>27</v>
       </c>
       <c r="B13" s="124" t="str">
-        <f>data!DB$8</f>
+        <f>data!D8</f>
       </c>
     </row>
     <row r="14" ht="115" customHeight="true">
@@ -26819,7 +26804,7 @@
         <v>36</v>
       </c>
       <c r="B15" s="124" t="str">
-        <f>data!DB$9</f>
+        <f>data!D9</f>
       </c>
     </row>
     <row r="16" ht="115" customHeight="true">
@@ -26833,7 +26818,7 @@
         <v>36</v>
       </c>
       <c r="B17" s="124" t="str">
-        <f>data!DB$10</f>
+        <f>data!D10</f>
       </c>
     </row>
     <row r="18" ht="115" customHeight="true">
@@ -26847,7 +26832,7 @@
         <v>36</v>
       </c>
       <c r="B19" s="124" t="str">
-        <f>data!DB$11</f>
+        <f>data!D11</f>
       </c>
     </row>
     <row r="20" ht="115" customHeight="true">
@@ -26861,7 +26846,7 @@
         <v>43</v>
       </c>
       <c r="B21" s="124" t="str">
-        <f>data!DB$12</f>
+        <f>data!D12</f>
       </c>
     </row>
     <row r="22" ht="115" customHeight="true">
@@ -26875,7 +26860,7 @@
         <v>43</v>
       </c>
       <c r="B23" s="124" t="str">
-        <f>data!DB$13</f>
+        <f>data!D13</f>
       </c>
     </row>
     <row r="24" ht="115" customHeight="true">
@@ -26889,7 +26874,7 @@
         <v>43</v>
       </c>
       <c r="B25" s="124" t="str">
-        <f>data!DB$14</f>
+        <f>data!D14</f>
       </c>
     </row>
     <row r="26" ht="115" customHeight="true">
@@ -26903,7 +26888,7 @@
         <v>50</v>
       </c>
       <c r="B27" s="124" t="str">
-        <f>data!DB$15</f>
+        <f>data!D15</f>
       </c>
     </row>
     <row r="28" ht="115" customHeight="true">
@@ -26917,7 +26902,7 @@
         <v>50</v>
       </c>
       <c r="B29" s="124" t="str">
-        <f>data!DB$16</f>
+        <f>data!D16</f>
       </c>
     </row>
     <row r="30" ht="115" customHeight="true">
@@ -26931,7 +26916,7 @@
         <v>50</v>
       </c>
       <c r="B31" s="124" t="str">
-        <f>data!DB$17</f>
+        <f>data!D17</f>
       </c>
     </row>
     <row r="32" ht="115" customHeight="true">
@@ -26945,7 +26930,7 @@
         <v>57</v>
       </c>
       <c r="B33" s="124" t="str">
-        <f>data!DB$18</f>
+        <f>data!D18</f>
       </c>
     </row>
     <row r="34" ht="115" customHeight="true">
@@ -26959,7 +26944,7 @@
         <v>57</v>
       </c>
       <c r="B35" s="124" t="str">
-        <f>data!DB$19</f>
+        <f>data!D19</f>
       </c>
     </row>
     <row r="36" ht="115" customHeight="true">
@@ -26973,7 +26958,7 @@
         <v>57</v>
       </c>
       <c r="B37" s="124" t="str">
-        <f>data!DB$20</f>
+        <f>data!D20</f>
       </c>
     </row>
     <row r="38" ht="115" customHeight="true">
@@ -26987,7 +26972,7 @@
         <v>64</v>
       </c>
       <c r="B39" s="124" t="str">
-        <f>data!DB$21</f>
+        <f>data!D21</f>
       </c>
     </row>
     <row r="40" ht="115" customHeight="true">
@@ -27001,7 +26986,7 @@
         <v>64</v>
       </c>
       <c r="B41" s="124" t="str">
-        <f>data!DB$22</f>
+        <f>data!D22</f>
       </c>
     </row>
     <row r="42" ht="115" customHeight="true">
@@ -27015,7 +27000,7 @@
         <v>64</v>
       </c>
       <c r="B43" s="124" t="str">
-        <f>data!DB$23</f>
+        <f>data!D23</f>
       </c>
     </row>
     <row r="44" ht="115" customHeight="true">
@@ -27029,7 +27014,7 @@
         <v>71</v>
       </c>
       <c r="B45" s="124" t="str">
-        <f>data!DB$24</f>
+        <f>data!D24</f>
       </c>
     </row>
     <row r="46" ht="115" customHeight="true">
@@ -27043,7 +27028,7 @@
         <v>71</v>
       </c>
       <c r="B47" s="124" t="str">
-        <f>data!DB$25</f>
+        <f>data!D25</f>
       </c>
     </row>
     <row r="48" ht="115" customHeight="true">
@@ -27057,7 +27042,7 @@
         <v>71</v>
       </c>
       <c r="B49" s="124" t="str">
-        <f>data!DB$26</f>
+        <f>data!D26</f>
       </c>
     </row>
     <row r="50" ht="115" customHeight="true">
@@ -27071,7 +27056,7 @@
         <v>81</v>
       </c>
       <c r="B51" s="124" t="str">
-        <f>data!DB$27</f>
+        <f>data!D27</f>
       </c>
     </row>
     <row r="52" ht="115" customHeight="true">
@@ -27085,7 +27070,7 @@
         <v>81</v>
       </c>
       <c r="B53" s="124" t="str">
-        <f>data!DB$28</f>
+        <f>data!D28</f>
       </c>
     </row>
     <row r="54" ht="115" customHeight="true">
@@ -27099,7 +27084,7 @@
         <v>81</v>
       </c>
       <c r="B55" s="124" t="str">
-        <f>data!DB$29</f>
+        <f>data!D29</f>
       </c>
     </row>
     <row r="56" ht="115" customHeight="true">
@@ -27113,7 +27098,7 @@
         <v>90</v>
       </c>
       <c r="B57" s="124" t="str">
-        <f>data!DB$30</f>
+        <f>data!D30</f>
       </c>
     </row>
     <row r="58" ht="115" customHeight="true">
@@ -27127,7 +27112,7 @@
         <v>90</v>
       </c>
       <c r="B59" s="124" t="str">
-        <f>data!DB$31</f>
+        <f>data!D31</f>
       </c>
     </row>
     <row r="60" ht="115" customHeight="true">
@@ -27141,7 +27126,7 @@
         <v>90</v>
       </c>
       <c r="B61" s="124" t="str">
-        <f>data!DB$32</f>
+        <f>data!D32</f>
       </c>
     </row>
     <row r="62" ht="115" customHeight="true">
@@ -27155,7 +27140,7 @@
         <v>97</v>
       </c>
       <c r="B63" s="124" t="str">
-        <f>data!DB$33</f>
+        <f>data!D33</f>
       </c>
     </row>
     <row r="64" ht="115" customHeight="true">
@@ -27169,7 +27154,7 @@
         <v>97</v>
       </c>
       <c r="B65" s="124" t="str">
-        <f>data!DB$34</f>
+        <f>data!D34</f>
       </c>
     </row>
     <row r="66" ht="115" customHeight="true">
@@ -27183,7 +27168,7 @@
         <v>97</v>
       </c>
       <c r="B67" s="124" t="str">
-        <f>data!DB$35</f>
+        <f>data!D35</f>
       </c>
     </row>
     <row r="68" ht="115" customHeight="true">
@@ -27197,7 +27182,7 @@
         <v>104</v>
       </c>
       <c r="B69" s="124" t="str">
-        <f>data!DB$36</f>
+        <f>data!D36</f>
       </c>
     </row>
     <row r="70" ht="115" customHeight="true">
@@ -27211,7 +27196,7 @@
         <v>104</v>
       </c>
       <c r="B71" s="124" t="str">
-        <f>data!DB$37</f>
+        <f>data!D37</f>
       </c>
     </row>
     <row r="72" ht="115" customHeight="true">
@@ -27225,7 +27210,7 @@
         <v>104</v>
       </c>
       <c r="B73" s="124" t="str">
-        <f>data!DB$38</f>
+        <f>data!D38</f>
       </c>
     </row>
     <row r="74" ht="115" customHeight="true">
@@ -27239,7 +27224,7 @@
         <v>111</v>
       </c>
       <c r="B75" s="124" t="str">
-        <f>data!DB$39</f>
+        <f>data!D39</f>
       </c>
     </row>
     <row r="76" ht="115" customHeight="true">
@@ -27253,7 +27238,7 @@
         <v>111</v>
       </c>
       <c r="B77" s="124" t="str">
-        <f>data!DB$40</f>
+        <f>data!D40</f>
       </c>
     </row>
     <row r="78" ht="115" customHeight="true">
@@ -27267,7 +27252,7 @@
         <v>111</v>
       </c>
       <c r="B79" s="124" t="str">
-        <f>data!DB$41</f>
+        <f>data!D41</f>
       </c>
     </row>
     <row r="80" ht="115" customHeight="true">
@@ -27281,7 +27266,7 @@
         <v>118</v>
       </c>
       <c r="B81" s="124" t="str">
-        <f>data!DB$42</f>
+        <f>data!D42</f>
       </c>
     </row>
     <row r="82" ht="115" customHeight="true">
@@ -27295,7 +27280,7 @@
         <v>118</v>
       </c>
       <c r="B83" s="124" t="str">
-        <f>data!DB$43</f>
+        <f>data!D43</f>
       </c>
     </row>
     <row r="84" ht="115" customHeight="true">
@@ -27309,7 +27294,7 @@
         <v>118</v>
       </c>
       <c r="B85" s="124" t="str">
-        <f>data!DB$44</f>
+        <f>data!D44</f>
       </c>
     </row>
     <row r="86" ht="115" customHeight="true">
@@ -27323,7 +27308,7 @@
         <v>125</v>
       </c>
       <c r="B87" s="124" t="str">
-        <f>data!DB$45</f>
+        <f>data!D45</f>
       </c>
     </row>
     <row r="88" ht="115" customHeight="true">
@@ -27337,7 +27322,7 @@
         <v>125</v>
       </c>
       <c r="B89" s="124" t="str">
-        <f>data!DB$46</f>
+        <f>data!D46</f>
       </c>
     </row>
     <row r="90" ht="115" customHeight="true">
@@ -27351,7 +27336,7 @@
         <v>125</v>
       </c>
       <c r="B91" s="124" t="str">
-        <f>data!DB$47</f>
+        <f>data!D47</f>
       </c>
     </row>
     <row r="92" ht="115" customHeight="true">
@@ -27365,7 +27350,7 @@
         <v>132</v>
       </c>
       <c r="B93" s="124" t="str">
-        <f>data!DB$48</f>
+        <f>data!D48</f>
       </c>
     </row>
     <row r="94" ht="115" customHeight="true">
@@ -27379,7 +27364,7 @@
         <v>132</v>
       </c>
       <c r="B95" s="124" t="str">
-        <f>data!DB$49</f>
+        <f>data!D49</f>
       </c>
     </row>
     <row r="96" ht="115" customHeight="true">
@@ -27393,7 +27378,7 @@
         <v>132</v>
       </c>
       <c r="B97" s="124" t="str">
-        <f>data!DB$50</f>
+        <f>data!D50</f>
       </c>
     </row>
     <row r="98" ht="115" customHeight="true">
@@ -27407,7 +27392,7 @@
         <v>139</v>
       </c>
       <c r="B99" s="124" t="str">
-        <f>data!DB$51</f>
+        <f>data!D51</f>
       </c>
     </row>
     <row r="100" ht="115" customHeight="true">
@@ -27421,7 +27406,7 @@
         <v>139</v>
       </c>
       <c r="B101" s="124" t="str">
-        <f>data!DB$52</f>
+        <f>data!D52</f>
       </c>
     </row>
     <row r="102" ht="115" customHeight="true">
@@ -27435,7 +27420,7 @@
         <v>139</v>
       </c>
       <c r="B103" s="124" t="str">
-        <f>data!DB$53</f>
+        <f>data!D53</f>
       </c>
     </row>
     <row r="104" ht="115" customHeight="true">
@@ -27449,7 +27434,7 @@
         <v>146</v>
       </c>
       <c r="B105" s="124" t="str">
-        <f>data!DB$54</f>
+        <f>data!D54</f>
       </c>
     </row>
     <row r="106" ht="115" customHeight="true">
@@ -27463,7 +27448,7 @@
         <v>146</v>
       </c>
       <c r="B107" s="124" t="str">
-        <f>data!DB$55</f>
+        <f>data!D55</f>
       </c>
     </row>
     <row r="108" ht="115" customHeight="true">
@@ -27477,7 +27462,7 @@
         <v>146</v>
       </c>
       <c r="B109" s="124" t="str">
-        <f>data!DB$56</f>
+        <f>data!D56</f>
       </c>
     </row>
     <row r="110" ht="115" customHeight="true">
@@ -27491,7 +27476,7 @@
         <v>156</v>
       </c>
       <c r="B111" s="124" t="str">
-        <f>data!DB$57</f>
+        <f>data!D57</f>
       </c>
     </row>
     <row r="112" ht="115" customHeight="true">
@@ -27505,7 +27490,7 @@
         <v>156</v>
       </c>
       <c r="B113" s="124" t="str">
-        <f>data!DB$58</f>
+        <f>data!D58</f>
       </c>
     </row>
     <row r="114" ht="115" customHeight="true">
@@ -27519,7 +27504,7 @@
         <v>156</v>
       </c>
       <c r="B115" s="124" t="str">
-        <f>data!DB$59</f>
+        <f>data!D59</f>
       </c>
     </row>
     <row r="116" ht="115" customHeight="true">
@@ -27533,7 +27518,7 @@
         <v>166</v>
       </c>
       <c r="B117" s="124" t="str">
-        <f>data!DB$60</f>
+        <f>data!D60</f>
       </c>
     </row>
     <row r="118" ht="115" customHeight="true">
@@ -27547,7 +27532,7 @@
         <v>166</v>
       </c>
       <c r="B119" s="124" t="str">
-        <f>data!DB$61</f>
+        <f>data!D61</f>
       </c>
     </row>
     <row r="120" ht="115" customHeight="true">
@@ -27561,7 +27546,7 @@
         <v>166</v>
       </c>
       <c r="B121" s="124" t="str">
-        <f>data!DB$62</f>
+        <f>data!D62</f>
       </c>
     </row>
     <row r="122" ht="115" customHeight="true">
@@ -27575,7 +27560,7 @@
         <v>176</v>
       </c>
       <c r="B123" s="124" t="str">
-        <f>data!DB$63</f>
+        <f>data!D63</f>
       </c>
     </row>
     <row r="124" ht="115" customHeight="true">
@@ -27589,7 +27574,7 @@
         <v>176</v>
       </c>
       <c r="B125" s="124" t="str">
-        <f>data!DB$64</f>
+        <f>data!D64</f>
       </c>
     </row>
     <row r="126" ht="115" customHeight="true">
@@ -27603,7 +27588,7 @@
         <v>176</v>
       </c>
       <c r="B127" s="124" t="str">
-        <f>data!DB$65</f>
+        <f>data!D65</f>
       </c>
     </row>
     <row r="128" ht="115" customHeight="true">
@@ -27617,7 +27602,7 @@
         <v>186</v>
       </c>
       <c r="B129" s="124" t="str">
-        <f>data!DB$66</f>
+        <f>data!D66</f>
       </c>
     </row>
     <row r="130" ht="115" customHeight="true">
@@ -27631,7 +27616,7 @@
         <v>186</v>
       </c>
       <c r="B131" s="124" t="str">
-        <f>data!DB$67</f>
+        <f>data!D67</f>
       </c>
     </row>
     <row r="132" ht="115" customHeight="true">
@@ -27645,7 +27630,7 @@
         <v>186</v>
       </c>
       <c r="B133" s="124" t="str">
-        <f>data!DB$68</f>
+        <f>data!D68</f>
       </c>
     </row>
     <row r="134" ht="115" customHeight="true">
@@ -27659,7 +27644,7 @@
         <v>195</v>
       </c>
       <c r="B135" s="124" t="str">
-        <f>data!DB$69</f>
+        <f>data!D69</f>
       </c>
     </row>
     <row r="136" ht="115" customHeight="true">
@@ -27673,7 +27658,7 @@
         <v>195</v>
       </c>
       <c r="B137" s="124" t="str">
-        <f>data!DB$70</f>
+        <f>data!D70</f>
       </c>
     </row>
     <row r="138" ht="115" customHeight="true">
@@ -27687,7 +27672,7 @@
         <v>195</v>
       </c>
       <c r="B139" s="124" t="str">
-        <f>data!DB$71</f>
+        <f>data!D71</f>
       </c>
     </row>
     <row r="140" ht="115" customHeight="true">
@@ -27701,7 +27686,7 @@
         <v>202</v>
       </c>
       <c r="B141" s="124" t="str">
-        <f>data!DB$72</f>
+        <f>data!D72</f>
       </c>
     </row>
     <row r="142" ht="115" customHeight="true">
@@ -27715,7 +27700,7 @@
         <v>202</v>
       </c>
       <c r="B143" s="124" t="str">
-        <f>data!DB$73</f>
+        <f>data!D73</f>
       </c>
     </row>
     <row r="144" ht="115" customHeight="true">
@@ -27729,7 +27714,7 @@
         <v>202</v>
       </c>
       <c r="B145" s="124" t="str">
-        <f>data!DB$74</f>
+        <f>data!D74</f>
       </c>
     </row>
     <row r="146" ht="115" customHeight="true">
@@ -27743,7 +27728,7 @@
         <v>209</v>
       </c>
       <c r="B147" s="124" t="str">
-        <f>data!DB$75</f>
+        <f>data!D75</f>
       </c>
     </row>
     <row r="148" ht="115" customHeight="true">
@@ -27757,7 +27742,7 @@
         <v>209</v>
       </c>
       <c r="B149" s="124" t="str">
-        <f>data!DB$76</f>
+        <f>data!D76</f>
       </c>
     </row>
     <row r="150" ht="115" customHeight="true">
@@ -27771,7 +27756,7 @@
         <v>209</v>
       </c>
       <c r="B151" s="124" t="str">
-        <f>data!DB$77</f>
+        <f>data!D77</f>
       </c>
     </row>
     <row r="152" ht="115" customHeight="true">
@@ -27785,7 +27770,7 @@
         <v>216</v>
       </c>
       <c r="B153" s="124" t="str">
-        <f>data!DB$78</f>
+        <f>data!D78</f>
       </c>
     </row>
     <row r="154" ht="115" customHeight="true">
@@ -27799,7 +27784,7 @@
         <v>216</v>
       </c>
       <c r="B155" s="124" t="str">
-        <f>data!DB$79</f>
+        <f>data!D79</f>
       </c>
     </row>
     <row r="156" ht="115" customHeight="true">
@@ -27813,7 +27798,7 @@
         <v>216</v>
       </c>
       <c r="B157" s="124" t="str">
-        <f>data!DB$80</f>
+        <f>data!D80</f>
       </c>
     </row>
     <row r="158" ht="115" customHeight="true">
@@ -27827,7 +27812,7 @@
         <v>223</v>
       </c>
       <c r="B159" s="124" t="str">
-        <f>data!DB$81</f>
+        <f>data!D81</f>
       </c>
     </row>
     <row r="160" ht="115" customHeight="true">
@@ -27841,7 +27826,7 @@
         <v>223</v>
       </c>
       <c r="B161" s="124" t="str">
-        <f>data!DB$82</f>
+        <f>data!D82</f>
       </c>
     </row>
     <row r="162" ht="115" customHeight="true">
@@ -27855,7 +27840,7 @@
         <v>223</v>
       </c>
       <c r="B163" s="124" t="str">
-        <f>data!DB$83</f>
+        <f>data!D83</f>
       </c>
     </row>
     <row r="164" ht="115" customHeight="true">
@@ -27869,7 +27854,7 @@
         <v>230</v>
       </c>
       <c r="B165" s="124" t="str">
-        <f>data!DB$84</f>
+        <f>data!D84</f>
       </c>
     </row>
     <row r="166" ht="115" customHeight="true">
@@ -27883,7 +27868,7 @@
         <v>230</v>
       </c>
       <c r="B167" s="124" t="str">
-        <f>data!DB$85</f>
+        <f>data!D85</f>
       </c>
     </row>
     <row r="168" ht="115" customHeight="true">
@@ -27897,7 +27882,7 @@
         <v>230</v>
       </c>
       <c r="B169" s="124" t="str">
-        <f>data!DB$86</f>
+        <f>data!D86</f>
       </c>
     </row>
     <row r="170" ht="115" customHeight="true">
@@ -27911,7 +27896,7 @@
         <v>237</v>
       </c>
       <c r="B171" s="124" t="str">
-        <f>data!DB$87</f>
+        <f>data!D87</f>
       </c>
     </row>
     <row r="172" ht="115" customHeight="true">
@@ -27925,7 +27910,7 @@
         <v>237</v>
       </c>
       <c r="B173" s="124" t="str">
-        <f>data!DB$88</f>
+        <f>data!D88</f>
       </c>
     </row>
     <row r="174" ht="115" customHeight="true">
@@ -27939,7 +27924,7 @@
         <v>237</v>
       </c>
       <c r="B175" s="124" t="str">
-        <f>data!DB$89</f>
+        <f>data!D89</f>
       </c>
     </row>
     <row r="176" ht="115" customHeight="true">
@@ -27953,7 +27938,7 @@
         <v>244</v>
       </c>
       <c r="B177" s="124" t="str">
-        <f>data!DB$90</f>
+        <f>data!D90</f>
       </c>
     </row>
     <row r="178" ht="115" customHeight="true">
@@ -27967,7 +27952,7 @@
         <v>244</v>
       </c>
       <c r="B179" s="124" t="str">
-        <f>data!DB$91</f>
+        <f>data!D91</f>
       </c>
     </row>
     <row r="180" ht="115" customHeight="true">
@@ -27981,7 +27966,7 @@
         <v>244</v>
       </c>
       <c r="B181" s="124" t="str">
-        <f>data!DB$92</f>
+        <f>data!D92</f>
       </c>
     </row>
     <row r="182" ht="115" customHeight="true">

--- a/pools-example-large.xlsx
+++ b/pools-example-large.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="26060" windowHeight="21580" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="26060" windowHeight="21580" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Tree 2" sheetId="11" r:id="rId14"/>
     <sheet name="Tree 3" sheetId="12" r:id="rId15"/>
     <sheet name="Tree 4" sheetId="13" r:id="rId16"/>
+    <sheet name="Tags" sheetId="14" r:id="rId17"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029"/>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="416">
   <si>
     <t>Elimination Round 1</t>
   </si>
@@ -828,6 +829,279 @@
   </si>
   <si>
     <t xml:space="preserve">4. </t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>G1</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>G3</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>H3</t>
+  </si>
+  <si>
+    <t>I1</t>
+  </si>
+  <si>
+    <t>I2</t>
+  </si>
+  <si>
+    <t>I3</t>
+  </si>
+  <si>
+    <t>J1</t>
+  </si>
+  <si>
+    <t>J2</t>
+  </si>
+  <si>
+    <t>J3</t>
+  </si>
+  <si>
+    <t>K1</t>
+  </si>
+  <si>
+    <t>K2</t>
+  </si>
+  <si>
+    <t>K3</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>L2</t>
+  </si>
+  <si>
+    <t>L3</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>M3</t>
+  </si>
+  <si>
+    <t>N1</t>
+  </si>
+  <si>
+    <t>N2</t>
+  </si>
+  <si>
+    <t>N3</t>
+  </si>
+  <si>
+    <t>O1</t>
+  </si>
+  <si>
+    <t>O2</t>
+  </si>
+  <si>
+    <t>O3</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>V3</t>
+  </si>
+  <si>
+    <t>W1</t>
+  </si>
+  <si>
+    <t>W2</t>
+  </si>
+  <si>
+    <t>W3</t>
+  </si>
+  <si>
+    <t>X1</t>
+  </si>
+  <si>
+    <t>X2</t>
+  </si>
+  <si>
+    <t>X3</t>
+  </si>
+  <si>
+    <t>Y1</t>
+  </si>
+  <si>
+    <t>Y2</t>
+  </si>
+  <si>
+    <t>Y3</t>
+  </si>
+  <si>
+    <t>Z1</t>
+  </si>
+  <si>
+    <t>Z2</t>
+  </si>
+  <si>
+    <t>Z3</t>
+  </si>
+  <si>
+    <t>AA1</t>
+  </si>
+  <si>
+    <t>AA2</t>
+  </si>
+  <si>
+    <t>AA3</t>
+  </si>
+  <si>
+    <t>BB1</t>
+  </si>
+  <si>
+    <t>BB2</t>
+  </si>
+  <si>
+    <t>BB3</t>
+  </si>
+  <si>
+    <t>CC1</t>
+  </si>
+  <si>
+    <t>CC2</t>
+  </si>
+  <si>
+    <t>CC3</t>
+  </si>
+  <si>
+    <t>DD1</t>
+  </si>
+  <si>
+    <t>DD2</t>
+  </si>
+  <si>
+    <t>DD3</t>
   </si>
   <si>
     <t>Match 1</t>
@@ -1029,118 +1303,119 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="17">
     <font>
+      <name val="Arial"/>
+      <color rgb="FF000000"/>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="10"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
-      <u/>
-      <sz val="16"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="16"/>
+      <u/>
     </font>
     <font>
-      <b val="1"/>
-      <u/>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="12"/>
+      <u/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="12"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="12"/>
     </font>
     <font>
+      <name val="Arial"/>
+      <family val="2"/>
       <b val="1"/>
       <i val="1"/>
+      <color theme="1"/>
       <sz val="12"/>
-      <color theme="1"/>
+    </font>
+    <font>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
+      <color rgb="FF000000"/>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <b val="1"/>
+      <color rgb="FF000000"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
-      <sz val="72"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <b val="1"/>
+      <color rgb="FF000000"/>
+      <sz val="72"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
-      <sz val="28"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <b val="1"/>
+      <color rgb="FF000000"/>
+      <sz val="28"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <family val="2"/>
       <b val="1"/>
+      <color rgb="FF000000"/>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
+      <family val="2"/>
+      <color rgb="FF000000"/>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
+      <family val="2"/>
       <b val="1"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="12"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
+      <family val="2"/>
+      <color rgb="FF000000"/>
       <sz val="28"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
+      <family val="2"/>
+      <color rgb="FF000000"/>
       <sz val="110"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+    </font>
+    <font>
       <family val="2"/>
+      <b val="1"/>
+      <color/>
+      <sz val="150"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1307,7 +1582,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="184">
+  <cellXfs count="185">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -1667,6 +1942,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
@@ -4301,22 +4579,22 @@
     </row>
     <row r="3">
       <c r="A3" s="120" t="str">
-        <f>data!$B$2</f>
+        <f>"1. " &amp; data!$B$2</f>
       </c>
       <c r="E3" s="118" t="str">
-        <f>CONCATENATE("Pool A.1",'Pool Matches'!G55)</f>
+        <f>CONCATENATE("Pool A.1 ",'Pool Matches'!G55)</f>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="121" t="str">
-        <f>data!$B$3</f>
+        <f>"2. " &amp; data!$B$3</f>
       </c>
       <c r="F4" s="117"/>
       <c r="G4" s="115"/>
     </row>
     <row r="5">
       <c r="A5" s="121" t="str">
-        <f>data!$B$4</f>
+        <f>"3. " &amp; data!$B$4</f>
       </c>
       <c r="G5" s="116">
         <v>29</v>
@@ -4324,10 +4602,10 @@
     </row>
     <row r="6">
       <c r="A6" s="122" t="str">
-        <f>data!$B$5</f>
+        <f>"4. " &amp; data!$B$5</f>
       </c>
       <c r="C6" s="118" t="str">
-        <f>CONCATENATE("Pool C.1",'Pool Matches'!G99)</f>
+        <f>CONCATENATE("Pool C.1 ",'Pool Matches'!G99)</f>
       </c>
       <c r="G6" s="115"/>
       <c r="H6" s="117"/>
@@ -4348,7 +4626,7 @@
         <f>data!$A$8</f>
       </c>
       <c r="C8" s="118" t="str">
-        <f>CONCATENATE("Pool B.2",'Pool Matches'!O43)</f>
+        <f>CONCATENATE("Pool B.2 ",'Pool Matches'!O43)</f>
       </c>
       <c r="D8" s="27"/>
       <c r="E8" s="115"/>
@@ -4356,7 +4634,7 @@
     </row>
     <row r="9">
       <c r="A9" s="120" t="str">
-        <f>data!$B$6</f>
+        <f>"1. " &amp; data!$B$6</f>
       </c>
       <c r="I9" s="116">
         <v>45</v>
@@ -4364,10 +4642,10 @@
     </row>
     <row r="10">
       <c r="A10" s="121" t="str">
-        <f>data!$B$7</f>
+        <f>"2. " &amp; data!$B$7</f>
       </c>
       <c r="C10" s="118" t="str">
-        <f>CONCATENATE("Pool E.1",'Pool Matches'!G142)</f>
+        <f>CONCATENATE("Pool E.1 ",'Pool Matches'!G142)</f>
       </c>
       <c r="I10" s="115"/>
       <c r="J10" s="117"/>
@@ -4375,7 +4653,7 @@
     </row>
     <row r="11">
       <c r="A11" s="122" t="str">
-        <f>data!$B$8</f>
+        <f>"3. " &amp; data!$B$8</f>
       </c>
       <c r="D11" s="117"/>
       <c r="E11" s="116">
@@ -4387,7 +4665,7 @@
     <row r="12">
       <c r="A12" s="117"/>
       <c r="C12" s="118" t="str">
-        <f>CONCATENATE("Pool D.2",'Pool Matches'!O100)</f>
+        <f>CONCATENATE("Pool D.2 ",'Pool Matches'!O100)</f>
       </c>
       <c r="D12" s="27"/>
       <c r="E12" s="115"/>
@@ -4409,17 +4687,17 @@
     </row>
     <row r="14">
       <c r="A14" s="120" t="str">
-        <f>data!$B$9</f>
+        <f>"1. " &amp; data!$B$9</f>
       </c>
       <c r="C14" s="118" t="str">
-        <f>CONCATENATE("Pool G.1",'Pool Matches'!G185)</f>
+        <f>CONCATENATE("Pool G.1 ",'Pool Matches'!G185)</f>
       </c>
       <c r="G14" s="115"/>
       <c r="K14" s="115"/>
     </row>
     <row r="15">
       <c r="A15" s="121" t="str">
-        <f>data!$B$10</f>
+        <f>"2. " &amp; data!$B$10</f>
       </c>
       <c r="D15" s="117"/>
       <c r="E15" s="116">
@@ -4431,10 +4709,10 @@
     </row>
     <row r="16">
       <c r="A16" s="122" t="str">
-        <f>data!$B$11</f>
+        <f>"3. " &amp; data!$B$11</f>
       </c>
       <c r="C16" s="118" t="str">
-        <f>CONCATENATE("Pool F.2",'Pool Matches'!O143)</f>
+        <f>CONCATENATE("Pool F.2 ",'Pool Matches'!O143)</f>
       </c>
       <c r="D16" s="27"/>
       <c r="E16" s="115"/>
@@ -4451,13 +4729,13 @@
         <f>data!$A$14</f>
       </c>
       <c r="C18" s="118" t="str">
-        <f>CONCATENATE("Pool I.1",'Pool Matches'!G228)</f>
+        <f>CONCATENATE("Pool I.1 ",'Pool Matches'!G228)</f>
       </c>
       <c r="K18" s="115"/>
     </row>
     <row r="19">
       <c r="A19" s="120" t="str">
-        <f>data!$B$12</f>
+        <f>"1. " &amp; data!$B$12</f>
       </c>
       <c r="D19" s="117"/>
       <c r="E19" s="116">
@@ -4467,10 +4745,10 @@
     </row>
     <row r="20">
       <c r="A20" s="121" t="str">
-        <f>data!$B$13</f>
+        <f>"2. " &amp; data!$B$13</f>
       </c>
       <c r="C20" s="118" t="str">
-        <f>CONCATENATE("Pool H.2",'Pool Matches'!O186)</f>
+        <f>CONCATENATE("Pool H.2 ",'Pool Matches'!O186)</f>
       </c>
       <c r="D20" s="27"/>
       <c r="E20" s="115"/>
@@ -4480,7 +4758,7 @@
     </row>
     <row r="21">
       <c r="A21" s="122" t="str">
-        <f>data!$B$14</f>
+        <f>"3. " &amp; data!$B$14</f>
       </c>
       <c r="G21" s="116">
         <v>31</v>
@@ -4490,7 +4768,7 @@
     <row r="22">
       <c r="A22" s="117"/>
       <c r="C22" s="118" t="str">
-        <f>CONCATENATE("Pool K.1",'Pool Matches'!G271)</f>
+        <f>CONCATENATE("Pool K.1 ",'Pool Matches'!G271)</f>
       </c>
       <c r="G22" s="115"/>
       <c r="H22" s="117"/>
@@ -4512,10 +4790,10 @@
     </row>
     <row r="24">
       <c r="A24" s="120" t="str">
-        <f>data!$B$15</f>
+        <f>"1. " &amp; data!$B$15</f>
       </c>
       <c r="C24" s="118" t="str">
-        <f>CONCATENATE("Pool J.2",'Pool Matches'!O229)</f>
+        <f>CONCATENATE("Pool J.2 ",'Pool Matches'!O229)</f>
       </c>
       <c r="D24" s="27"/>
       <c r="E24" s="115"/>
@@ -4524,7 +4802,7 @@
     </row>
     <row r="25">
       <c r="A25" s="121" t="str">
-        <f>data!$B$16</f>
+        <f>"2. " &amp; data!$B$16</f>
       </c>
       <c r="I25" s="116">
         <v>46</v>
@@ -4534,10 +4812,10 @@
     </row>
     <row r="26">
       <c r="A26" s="122" t="str">
-        <f>data!$B$17</f>
+        <f>"3. " &amp; data!$B$17</f>
       </c>
       <c r="C26" s="118" t="str">
-        <f>CONCATENATE("Pool M.1",'Pool Matches'!G314)</f>
+        <f>CONCATENATE("Pool M.1 ",'Pool Matches'!G314)</f>
       </c>
       <c r="I26" s="115"/>
     </row>
@@ -4554,7 +4832,7 @@
         <f>data!$A$20</f>
       </c>
       <c r="C28" s="118" t="str">
-        <f>CONCATENATE("Pool L.2",'Pool Matches'!O272)</f>
+        <f>CONCATENATE("Pool L.2 ",'Pool Matches'!O272)</f>
       </c>
       <c r="D28" s="27"/>
       <c r="E28" s="115"/>
@@ -4564,7 +4842,7 @@
     </row>
     <row r="29">
       <c r="A29" s="120" t="str">
-        <f>data!$B$18</f>
+        <f>"1. " &amp; data!$B$18</f>
       </c>
       <c r="G29" s="116">
         <v>32</v>
@@ -4574,16 +4852,16 @@
     </row>
     <row r="30">
       <c r="A30" s="121" t="str">
-        <f>data!$B$19</f>
+        <f>"2. " &amp; data!$B$19</f>
       </c>
       <c r="C30" s="118" t="str">
-        <f>CONCATENATE("Pool O.1",'Pool Matches'!G357)</f>
+        <f>CONCATENATE("Pool O.1 ",'Pool Matches'!G357)</f>
       </c>
       <c r="G30" s="115"/>
     </row>
     <row r="31">
       <c r="A31" s="122" t="str">
-        <f>data!$B$20</f>
+        <f>"3. " &amp; data!$B$20</f>
       </c>
       <c r="D31" s="117"/>
       <c r="E31" s="116">
@@ -4595,7 +4873,7 @@
     <row r="32">
       <c r="A32" s="117"/>
       <c r="C32" s="118" t="str">
-        <f>CONCATENATE("Pool N.2",'Pool Matches'!O315)</f>
+        <f>CONCATENATE("Pool N.2 ",'Pool Matches'!O315)</f>
       </c>
       <c r="D32" s="27"/>
       <c r="E32" s="115"/>
@@ -4607,17 +4885,17 @@
     </row>
     <row r="34">
       <c r="A34" s="120" t="str">
-        <f>data!$B$21</f>
+        <f>"1. " &amp; data!$B$21</f>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="121" t="str">
-        <f>data!$B$22</f>
+        <f>"2. " &amp; data!$B$22</f>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="122" t="str">
-        <f>data!$B$23</f>
+        <f>"3. " &amp; data!$B$23</f>
       </c>
     </row>
     <row r="37">
@@ -4630,17 +4908,17 @@
     </row>
     <row r="39">
       <c r="A39" s="120" t="str">
-        <f>data!$B$24</f>
+        <f>"1. " &amp; data!$B$24</f>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="121" t="str">
-        <f>data!$B$25</f>
+        <f>"2. " &amp; data!$B$25</f>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="122" t="str">
-        <f>data!$B$26</f>
+        <f>"3. " &amp; data!$B$26</f>
       </c>
     </row>
     <row r="42">
@@ -4649,6 +4927,7 @@
   </sheetData>
   <printOptions horizontalCentered="true" verticalCentered="true"/>
   <pageMargins left="0.25" right="0.25" top="0" bottom="0" header="0.3" footer="0.3"/>
+  <pageSetup fitToHeight="0" fitToWidth="1" orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
@@ -4677,22 +4956,22 @@
     </row>
     <row r="3">
       <c r="A3" s="120" t="str">
-        <f>data!$B$27</f>
+        <f>"1. " &amp; data!$B$27</f>
       </c>
       <c r="E3" s="118" t="str">
-        <f>CONCATENATE("Pool Q.1",'Pool Matches'!G400)</f>
+        <f>CONCATENATE("Pool Q.1 ",'Pool Matches'!G400)</f>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="121" t="str">
-        <f>data!$B$28</f>
+        <f>"2. " &amp; data!$B$28</f>
       </c>
       <c r="F4" s="117"/>
       <c r="G4" s="115"/>
     </row>
     <row r="5">
       <c r="A5" s="122" t="str">
-        <f>data!$B$29</f>
+        <f>"3. " &amp; data!$B$29</f>
       </c>
       <c r="G5" s="116">
         <v>33</v>
@@ -4701,7 +4980,7 @@
     <row r="6">
       <c r="A6" s="117"/>
       <c r="C6" s="118" t="str">
-        <f>CONCATENATE("Pool P.2",'Pool Matches'!O358)</f>
+        <f>CONCATENATE("Pool P.2 ",'Pool Matches'!O358)</f>
       </c>
       <c r="G6" s="115"/>
       <c r="H6" s="117"/>
@@ -4721,10 +5000,10 @@
     </row>
     <row r="8">
       <c r="A8" s="120" t="str">
-        <f>data!$B$30</f>
+        <f>"1. " &amp; data!$B$30</f>
       </c>
       <c r="C8" s="118" t="str">
-        <f>CONCATENATE("Pool R.2",'Pool Matches'!O401)</f>
+        <f>CONCATENATE("Pool R.2 ",'Pool Matches'!O401)</f>
       </c>
       <c r="D8" s="27"/>
       <c r="E8" s="115"/>
@@ -4732,7 +5011,7 @@
     </row>
     <row r="9">
       <c r="A9" s="121" t="str">
-        <f>data!$B$31</f>
+        <f>"2. " &amp; data!$B$31</f>
       </c>
       <c r="I9" s="116">
         <v>47</v>
@@ -4740,10 +5019,10 @@
     </row>
     <row r="10">
       <c r="A10" s="122" t="str">
-        <f>data!$B$32</f>
+        <f>"3. " &amp; data!$B$32</f>
       </c>
       <c r="C10" s="118" t="str">
-        <f>CONCATENATE("Pool S.1",'Pool Matches'!G443)</f>
+        <f>CONCATENATE("Pool S.1 ",'Pool Matches'!G443)</f>
       </c>
       <c r="I10" s="115"/>
       <c r="J10" s="117"/>
@@ -4763,7 +5042,7 @@
         <f>data!$A$35</f>
       </c>
       <c r="C12" s="118" t="str">
-        <f>CONCATENATE("Pool T.2",'Pool Matches'!O444)</f>
+        <f>CONCATENATE("Pool T.2 ",'Pool Matches'!O444)</f>
       </c>
       <c r="D12" s="27"/>
       <c r="E12" s="115"/>
@@ -4774,7 +5053,7 @@
     </row>
     <row r="13">
       <c r="A13" s="120" t="str">
-        <f>data!$B$33</f>
+        <f>"1. " &amp; data!$B$33</f>
       </c>
       <c r="G13" s="116">
         <v>34</v>
@@ -4785,17 +5064,17 @@
     </row>
     <row r="14">
       <c r="A14" s="121" t="str">
-        <f>data!$B$34</f>
+        <f>"2. " &amp; data!$B$34</f>
       </c>
       <c r="C14" s="118" t="str">
-        <f>CONCATENATE("Pool U.1",'Pool Matches'!G486)</f>
+        <f>CONCATENATE("Pool U.1 ",'Pool Matches'!G486)</f>
       </c>
       <c r="G14" s="115"/>
       <c r="K14" s="115"/>
     </row>
     <row r="15">
       <c r="A15" s="122" t="str">
-        <f>data!$B$35</f>
+        <f>"3. " &amp; data!$B$35</f>
       </c>
       <c r="D15" s="117"/>
       <c r="E15" s="116">
@@ -4808,7 +5087,7 @@
     <row r="16">
       <c r="A16" s="117"/>
       <c r="C16" s="118" t="str">
-        <f>CONCATENATE("Pool V.2",'Pool Matches'!O487)</f>
+        <f>CONCATENATE("Pool V.2 ",'Pool Matches'!O487)</f>
       </c>
       <c r="D16" s="27"/>
       <c r="E16" s="115"/>
@@ -4824,16 +5103,16 @@
     </row>
     <row r="18">
       <c r="A18" s="120" t="str">
-        <f>data!$B$36</f>
+        <f>"1. " &amp; data!$B$36</f>
       </c>
       <c r="C18" s="118" t="str">
-        <f>CONCATENATE("Pool W.1",'Pool Matches'!G529)</f>
+        <f>CONCATENATE("Pool W.1 ",'Pool Matches'!G529)</f>
       </c>
       <c r="K18" s="115"/>
     </row>
     <row r="19">
       <c r="A19" s="121" t="str">
-        <f>data!$B$37</f>
+        <f>"2. " &amp; data!$B$37</f>
       </c>
       <c r="D19" s="117"/>
       <c r="E19" s="116">
@@ -4843,10 +5122,10 @@
     </row>
     <row r="20">
       <c r="A20" s="122" t="str">
-        <f>data!$B$38</f>
+        <f>"3. " &amp; data!$B$38</f>
       </c>
       <c r="C20" s="118" t="str">
-        <f>CONCATENATE("Pool X.2",'Pool Matches'!O530)</f>
+        <f>CONCATENATE("Pool X.2 ",'Pool Matches'!O530)</f>
       </c>
       <c r="D20" s="27"/>
       <c r="E20" s="115"/>
@@ -4866,7 +5145,7 @@
         <f>data!$A$41</f>
       </c>
       <c r="C22" s="118" t="str">
-        <f>CONCATENATE("Pool Y.1",'Pool Matches'!G572)</f>
+        <f>CONCATENATE("Pool Y.1 ",'Pool Matches'!G572)</f>
       </c>
       <c r="G22" s="115"/>
       <c r="H22" s="117"/>
@@ -4875,7 +5154,7 @@
     </row>
     <row r="23">
       <c r="A23" s="120" t="str">
-        <f>data!$B$39</f>
+        <f>"1. " &amp; data!$B$39</f>
       </c>
       <c r="D23" s="117"/>
       <c r="E23" s="116">
@@ -4888,10 +5167,10 @@
     </row>
     <row r="24">
       <c r="A24" s="121" t="str">
-        <f>data!$B$40</f>
+        <f>"2. " &amp; data!$B$40</f>
       </c>
       <c r="C24" s="118" t="str">
-        <f>CONCATENATE("Pool Z.2",'Pool Matches'!O573)</f>
+        <f>CONCATENATE("Pool Z.2 ",'Pool Matches'!O573)</f>
       </c>
       <c r="D24" s="27"/>
       <c r="E24" s="115"/>
@@ -4900,7 +5179,7 @@
     </row>
     <row r="25">
       <c r="A25" s="122" t="str">
-        <f>data!$B$41</f>
+        <f>"3. " &amp; data!$B$41</f>
       </c>
       <c r="I25" s="116">
         <v>48</v>
@@ -4911,7 +5190,7 @@
     <row r="26">
       <c r="A26" s="117"/>
       <c r="C26" s="118" t="str">
-        <f>CONCATENATE("Pool AA.1",'Pool Matches'!G615)</f>
+        <f>CONCATENATE("Pool AA.1 ",'Pool Matches'!G615)</f>
       </c>
       <c r="I26" s="115"/>
     </row>
@@ -4927,10 +5206,10 @@
     </row>
     <row r="28">
       <c r="A28" s="120" t="str">
-        <f>data!$B$42</f>
+        <f>"1. " &amp; data!$B$42</f>
       </c>
       <c r="C28" s="118" t="str">
-        <f>CONCATENATE("Pool BB.2",'Pool Matches'!O616)</f>
+        <f>CONCATENATE("Pool BB.2 ",'Pool Matches'!O616)</f>
       </c>
       <c r="D28" s="27"/>
       <c r="E28" s="115"/>
@@ -4940,7 +5219,7 @@
     </row>
     <row r="29">
       <c r="A29" s="121" t="str">
-        <f>data!$B$43</f>
+        <f>"2. " &amp; data!$B$43</f>
       </c>
       <c r="G29" s="116">
         <v>36</v>
@@ -4950,10 +5229,10 @@
     </row>
     <row r="30">
       <c r="A30" s="122" t="str">
-        <f>data!$B$44</f>
+        <f>"3. " &amp; data!$B$44</f>
       </c>
       <c r="C30" s="118" t="str">
-        <f>CONCATENATE("Pool CC.1",'Pool Matches'!G658)</f>
+        <f>CONCATENATE("Pool CC.1 ",'Pool Matches'!G658)</f>
       </c>
       <c r="G30" s="115"/>
     </row>
@@ -4971,24 +5250,24 @@
         <f>data!$A$47</f>
       </c>
       <c r="C32" s="118" t="str">
-        <f>CONCATENATE("Pool DD.2",'Pool Matches'!O659)</f>
+        <f>CONCATENATE("Pool DD.2 ",'Pool Matches'!O659)</f>
       </c>
       <c r="D32" s="27"/>
       <c r="E32" s="115"/>
     </row>
     <row r="33">
       <c r="A33" s="120" t="str">
-        <f>data!$B$45</f>
+        <f>"1. " &amp; data!$B$45</f>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="121" t="str">
-        <f>data!$B$46</f>
+        <f>"2. " &amp; data!$B$46</f>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="122" t="str">
-        <f>data!$B$47</f>
+        <f>"3. " &amp; data!$B$47</f>
       </c>
     </row>
     <row r="36">
@@ -5001,17 +5280,17 @@
     </row>
     <row r="38">
       <c r="A38" s="120" t="str">
-        <f>data!$B$48</f>
+        <f>"1. " &amp; data!$B$48</f>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="121" t="str">
-        <f>data!$B$49</f>
+        <f>"2. " &amp; data!$B$49</f>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="122" t="str">
-        <f>data!$B$50</f>
+        <f>"3. " &amp; data!$B$50</f>
       </c>
     </row>
     <row r="41">
@@ -5020,6 +5299,7 @@
   </sheetData>
   <printOptions horizontalCentered="true" verticalCentered="true"/>
   <pageMargins left="0.25" right="0.25" top="0" bottom="0" header="0.3" footer="0.3"/>
+  <pageSetup fitToHeight="0" fitToWidth="1" orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
@@ -5048,22 +5328,22 @@
     </row>
     <row r="3">
       <c r="A3" s="120" t="str">
-        <f>data!$B$51</f>
+        <f>"1. " &amp; data!$B$51</f>
       </c>
       <c r="E3" s="118" t="str">
-        <f>CONCATENATE("Pool B.1",'Pool Matches'!O42)</f>
+        <f>CONCATENATE("Pool B.1 ",'Pool Matches'!O42)</f>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="121" t="str">
-        <f>data!$B$52</f>
+        <f>"2. " &amp; data!$B$52</f>
       </c>
       <c r="F4" s="117"/>
       <c r="G4" s="115"/>
     </row>
     <row r="5">
       <c r="A5" s="122" t="str">
-        <f>data!$B$53</f>
+        <f>"3. " &amp; data!$B$53</f>
       </c>
       <c r="G5" s="116">
         <v>37</v>
@@ -5072,7 +5352,7 @@
     <row r="6">
       <c r="A6" s="117"/>
       <c r="C6" s="118" t="str">
-        <f>CONCATENATE("Pool A.2",'Pool Matches'!G56)</f>
+        <f>CONCATENATE("Pool A.2 ",'Pool Matches'!G56)</f>
       </c>
       <c r="G6" s="115"/>
       <c r="H6" s="117"/>
@@ -5092,10 +5372,10 @@
     </row>
     <row r="8">
       <c r="A8" s="120" t="str">
-        <f>data!$B$54</f>
+        <f>"1. " &amp; data!$B$54</f>
       </c>
       <c r="C8" s="118" t="str">
-        <f>CONCATENATE("Pool C.2",'Pool Matches'!G100)</f>
+        <f>CONCATENATE("Pool C.2 ",'Pool Matches'!G100)</f>
       </c>
       <c r="D8" s="27"/>
       <c r="E8" s="115"/>
@@ -5103,7 +5383,7 @@
     </row>
     <row r="9">
       <c r="A9" s="121" t="str">
-        <f>data!$B$55</f>
+        <f>"2. " &amp; data!$B$55</f>
       </c>
       <c r="I9" s="116">
         <v>49</v>
@@ -5111,10 +5391,10 @@
     </row>
     <row r="10">
       <c r="A10" s="122" t="str">
-        <f>data!$B$56</f>
+        <f>"3. " &amp; data!$B$56</f>
       </c>
       <c r="C10" s="118" t="str">
-        <f>CONCATENATE("Pool D.1",'Pool Matches'!O99)</f>
+        <f>CONCATENATE("Pool D.1 ",'Pool Matches'!O99)</f>
       </c>
       <c r="I10" s="115"/>
       <c r="J10" s="117"/>
@@ -5134,7 +5414,7 @@
         <f>data!$A$59</f>
       </c>
       <c r="C12" s="118" t="str">
-        <f>CONCATENATE("Pool E.2",'Pool Matches'!G143)</f>
+        <f>CONCATENATE("Pool E.2 ",'Pool Matches'!G143)</f>
       </c>
       <c r="D12" s="27"/>
       <c r="E12" s="115"/>
@@ -5145,7 +5425,7 @@
     </row>
     <row r="13">
       <c r="A13" s="120" t="str">
-        <f>data!$B$57</f>
+        <f>"1. " &amp; data!$B$57</f>
       </c>
       <c r="G13" s="116">
         <v>38</v>
@@ -5156,17 +5436,17 @@
     </row>
     <row r="14">
       <c r="A14" s="121" t="str">
-        <f>data!$B$58</f>
+        <f>"2. " &amp; data!$B$58</f>
       </c>
       <c r="C14" s="118" t="str">
-        <f>CONCATENATE("Pool F.1",'Pool Matches'!O142)</f>
+        <f>CONCATENATE("Pool F.1 ",'Pool Matches'!O142)</f>
       </c>
       <c r="G14" s="115"/>
       <c r="K14" s="115"/>
     </row>
     <row r="15">
       <c r="A15" s="122" t="str">
-        <f>data!$B$59</f>
+        <f>"3. " &amp; data!$B$59</f>
       </c>
       <c r="D15" s="117"/>
       <c r="E15" s="116">
@@ -5179,7 +5459,7 @@
     <row r="16">
       <c r="A16" s="117"/>
       <c r="C16" s="118" t="str">
-        <f>CONCATENATE("Pool G.2",'Pool Matches'!G186)</f>
+        <f>CONCATENATE("Pool G.2 ",'Pool Matches'!G186)</f>
       </c>
       <c r="D16" s="27"/>
       <c r="E16" s="115"/>
@@ -5195,16 +5475,16 @@
     </row>
     <row r="18">
       <c r="A18" s="120" t="str">
-        <f>data!$B$60</f>
+        <f>"1. " &amp; data!$B$60</f>
       </c>
       <c r="C18" s="118" t="str">
-        <f>CONCATENATE("Pool H.1",'Pool Matches'!O185)</f>
+        <f>CONCATENATE("Pool H.1 ",'Pool Matches'!O185)</f>
       </c>
       <c r="K18" s="115"/>
     </row>
     <row r="19">
       <c r="A19" s="121" t="str">
-        <f>data!$B$61</f>
+        <f>"2. " &amp; data!$B$61</f>
       </c>
       <c r="D19" s="117"/>
       <c r="E19" s="116">
@@ -5214,10 +5494,10 @@
     </row>
     <row r="20">
       <c r="A20" s="122" t="str">
-        <f>data!$B$62</f>
+        <f>"3. " &amp; data!$B$62</f>
       </c>
       <c r="C20" s="118" t="str">
-        <f>CONCATENATE("Pool I.2",'Pool Matches'!G229)</f>
+        <f>CONCATENATE("Pool I.2 ",'Pool Matches'!G229)</f>
       </c>
       <c r="D20" s="27"/>
       <c r="E20" s="115"/>
@@ -5237,7 +5517,7 @@
         <f>data!$A$65</f>
       </c>
       <c r="C22" s="118" t="str">
-        <f>CONCATENATE("Pool J.1",'Pool Matches'!O228)</f>
+        <f>CONCATENATE("Pool J.1 ",'Pool Matches'!O228)</f>
       </c>
       <c r="G22" s="115"/>
       <c r="H22" s="117"/>
@@ -5246,7 +5526,7 @@
     </row>
     <row r="23">
       <c r="A23" s="120" t="str">
-        <f>data!$B$63</f>
+        <f>"1. " &amp; data!$B$63</f>
       </c>
       <c r="D23" s="117"/>
       <c r="E23" s="116">
@@ -5259,10 +5539,10 @@
     </row>
     <row r="24">
       <c r="A24" s="121" t="str">
-        <f>data!$B$64</f>
+        <f>"2. " &amp; data!$B$64</f>
       </c>
       <c r="C24" s="118" t="str">
-        <f>CONCATENATE("Pool K.2",'Pool Matches'!G272)</f>
+        <f>CONCATENATE("Pool K.2 ",'Pool Matches'!G272)</f>
       </c>
       <c r="D24" s="27"/>
       <c r="E24" s="115"/>
@@ -5271,7 +5551,7 @@
     </row>
     <row r="25">
       <c r="A25" s="122" t="str">
-        <f>data!$B$65</f>
+        <f>"3. " &amp; data!$B$65</f>
       </c>
       <c r="I25" s="116">
         <v>50</v>
@@ -5282,7 +5562,7 @@
     <row r="26">
       <c r="A26" s="117"/>
       <c r="C26" s="118" t="str">
-        <f>CONCATENATE("Pool L.1",'Pool Matches'!O271)</f>
+        <f>CONCATENATE("Pool L.1 ",'Pool Matches'!O271)</f>
       </c>
       <c r="I26" s="115"/>
     </row>
@@ -5298,10 +5578,10 @@
     </row>
     <row r="28">
       <c r="A28" s="120" t="str">
-        <f>data!$B$66</f>
+        <f>"1. " &amp; data!$B$66</f>
       </c>
       <c r="C28" s="118" t="str">
-        <f>CONCATENATE("Pool M.2",'Pool Matches'!G315)</f>
+        <f>CONCATENATE("Pool M.2 ",'Pool Matches'!G315)</f>
       </c>
       <c r="D28" s="27"/>
       <c r="E28" s="115"/>
@@ -5311,7 +5591,7 @@
     </row>
     <row r="29">
       <c r="A29" s="121" t="str">
-        <f>data!$B$67</f>
+        <f>"2. " &amp; data!$B$67</f>
       </c>
       <c r="G29" s="116">
         <v>40</v>
@@ -5321,10 +5601,10 @@
     </row>
     <row r="30">
       <c r="A30" s="122" t="str">
-        <f>data!$B$68</f>
+        <f>"3. " &amp; data!$B$68</f>
       </c>
       <c r="C30" s="118" t="str">
-        <f>CONCATENATE("Pool N.1",'Pool Matches'!O314)</f>
+        <f>CONCATENATE("Pool N.1 ",'Pool Matches'!O314)</f>
       </c>
       <c r="G30" s="115"/>
     </row>
@@ -5342,24 +5622,24 @@
         <f>data!$A$71</f>
       </c>
       <c r="C32" s="118" t="str">
-        <f>CONCATENATE("Pool O.2",'Pool Matches'!G358)</f>
+        <f>CONCATENATE("Pool O.2 ",'Pool Matches'!G358)</f>
       </c>
       <c r="D32" s="27"/>
       <c r="E32" s="115"/>
     </row>
     <row r="33">
       <c r="A33" s="120" t="str">
-        <f>data!$B$69</f>
+        <f>"1. " &amp; data!$B$69</f>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="121" t="str">
-        <f>data!$B$70</f>
+        <f>"2. " &amp; data!$B$70</f>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="122" t="str">
-        <f>data!$B$71</f>
+        <f>"3. " &amp; data!$B$71</f>
       </c>
     </row>
     <row r="36">
@@ -5372,17 +5652,17 @@
     </row>
     <row r="38">
       <c r="A38" s="120" t="str">
-        <f>data!$B$72</f>
+        <f>"1. " &amp; data!$B$72</f>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="121" t="str">
-        <f>data!$B$73</f>
+        <f>"2. " &amp; data!$B$73</f>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="122" t="str">
-        <f>data!$B$74</f>
+        <f>"3. " &amp; data!$B$74</f>
       </c>
     </row>
     <row r="41">
@@ -5391,6 +5671,7 @@
   </sheetData>
   <printOptions horizontalCentered="true" verticalCentered="true"/>
   <pageMargins left="0.25" right="0.25" top="0" bottom="0" header="0.3" footer="0.3"/>
+  <pageSetup fitToHeight="0" fitToWidth="1" orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
@@ -5419,22 +5700,22 @@
     </row>
     <row r="3">
       <c r="A3" s="120" t="str">
-        <f>data!$B$75</f>
+        <f>"1. " &amp; data!$B$75</f>
       </c>
       <c r="E3" s="118" t="str">
-        <f>CONCATENATE("Pool P.1",'Pool Matches'!O357)</f>
+        <f>CONCATENATE("Pool P.1 ",'Pool Matches'!O357)</f>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="121" t="str">
-        <f>data!$B$76</f>
+        <f>"2. " &amp; data!$B$76</f>
       </c>
       <c r="F4" s="117"/>
       <c r="G4" s="115"/>
     </row>
     <row r="5">
       <c r="A5" s="122" t="str">
-        <f>data!$B$77</f>
+        <f>"3. " &amp; data!$B$77</f>
       </c>
       <c r="G5" s="116">
         <v>41</v>
@@ -5443,7 +5724,7 @@
     <row r="6">
       <c r="A6" s="117"/>
       <c r="C6" s="118" t="str">
-        <f>CONCATENATE("Pool R.1",'Pool Matches'!O400)</f>
+        <f>CONCATENATE("Pool R.1 ",'Pool Matches'!O400)</f>
       </c>
       <c r="G6" s="115"/>
       <c r="H6" s="117"/>
@@ -5463,10 +5744,10 @@
     </row>
     <row r="8">
       <c r="A8" s="120" t="str">
-        <f>data!$B$78</f>
+        <f>"1. " &amp; data!$B$78</f>
       </c>
       <c r="C8" s="118" t="str">
-        <f>CONCATENATE("Pool Q.2",'Pool Matches'!G401)</f>
+        <f>CONCATENATE("Pool Q.2 ",'Pool Matches'!G401)</f>
       </c>
       <c r="D8" s="27"/>
       <c r="E8" s="115"/>
@@ -5474,7 +5755,7 @@
     </row>
     <row r="9">
       <c r="A9" s="121" t="str">
-        <f>data!$B$79</f>
+        <f>"2. " &amp; data!$B$79</f>
       </c>
       <c r="I9" s="116">
         <v>51</v>
@@ -5482,10 +5763,10 @@
     </row>
     <row r="10">
       <c r="A10" s="122" t="str">
-        <f>data!$B$80</f>
+        <f>"3. " &amp; data!$B$80</f>
       </c>
       <c r="C10" s="118" t="str">
-        <f>CONCATENATE("Pool T.1",'Pool Matches'!O443)</f>
+        <f>CONCATENATE("Pool T.1 ",'Pool Matches'!O443)</f>
       </c>
       <c r="I10" s="115"/>
       <c r="J10" s="117"/>
@@ -5505,7 +5786,7 @@
         <f>data!$A$83</f>
       </c>
       <c r="C12" s="118" t="str">
-        <f>CONCATENATE("Pool S.2",'Pool Matches'!G444)</f>
+        <f>CONCATENATE("Pool S.2 ",'Pool Matches'!G444)</f>
       </c>
       <c r="D12" s="27"/>
       <c r="E12" s="115"/>
@@ -5516,7 +5797,7 @@
     </row>
     <row r="13">
       <c r="A13" s="120" t="str">
-        <f>data!$B$81</f>
+        <f>"1. " &amp; data!$B$81</f>
       </c>
       <c r="G13" s="116">
         <v>42</v>
@@ -5527,17 +5808,17 @@
     </row>
     <row r="14">
       <c r="A14" s="121" t="str">
-        <f>data!$B$82</f>
+        <f>"2. " &amp; data!$B$82</f>
       </c>
       <c r="C14" s="118" t="str">
-        <f>CONCATENATE("Pool V.1",'Pool Matches'!O486)</f>
+        <f>CONCATENATE("Pool V.1 ",'Pool Matches'!O486)</f>
       </c>
       <c r="G14" s="115"/>
       <c r="K14" s="115"/>
     </row>
     <row r="15">
       <c r="A15" s="122" t="str">
-        <f>data!$B$83</f>
+        <f>"3. " &amp; data!$B$83</f>
       </c>
       <c r="D15" s="117"/>
       <c r="E15" s="116">
@@ -5550,7 +5831,7 @@
     <row r="16">
       <c r="A16" s="117"/>
       <c r="C16" s="118" t="str">
-        <f>CONCATENATE("Pool U.2",'Pool Matches'!G487)</f>
+        <f>CONCATENATE("Pool U.2 ",'Pool Matches'!G487)</f>
       </c>
       <c r="D16" s="27"/>
       <c r="E16" s="115"/>
@@ -5566,16 +5847,16 @@
     </row>
     <row r="18">
       <c r="A18" s="120" t="str">
-        <f>data!$B$84</f>
+        <f>"1. " &amp; data!$B$84</f>
       </c>
       <c r="C18" s="118" t="str">
-        <f>CONCATENATE("Pool X.1",'Pool Matches'!O529)</f>
+        <f>CONCATENATE("Pool X.1 ",'Pool Matches'!O529)</f>
       </c>
       <c r="K18" s="115"/>
     </row>
     <row r="19">
       <c r="A19" s="121" t="str">
-        <f>data!$B$85</f>
+        <f>"2. " &amp; data!$B$85</f>
       </c>
       <c r="D19" s="117"/>
       <c r="E19" s="116">
@@ -5585,10 +5866,10 @@
     </row>
     <row r="20">
       <c r="A20" s="122" t="str">
-        <f>data!$B$86</f>
+        <f>"3. " &amp; data!$B$86</f>
       </c>
       <c r="C20" s="118" t="str">
-        <f>CONCATENATE("Pool W.2",'Pool Matches'!G530)</f>
+        <f>CONCATENATE("Pool W.2 ",'Pool Matches'!G530)</f>
       </c>
       <c r="D20" s="27"/>
       <c r="E20" s="115"/>
@@ -5608,7 +5889,7 @@
         <f>data!$A$89</f>
       </c>
       <c r="C22" s="118" t="str">
-        <f>CONCATENATE("Pool Z.1",'Pool Matches'!O572)</f>
+        <f>CONCATENATE("Pool Z.1 ",'Pool Matches'!O572)</f>
       </c>
       <c r="G22" s="115"/>
       <c r="H22" s="117"/>
@@ -5617,7 +5898,7 @@
     </row>
     <row r="23">
       <c r="A23" s="120" t="str">
-        <f>data!$B$87</f>
+        <f>"1. " &amp; data!$B$87</f>
       </c>
       <c r="D23" s="117"/>
       <c r="E23" s="116">
@@ -5630,10 +5911,10 @@
     </row>
     <row r="24">
       <c r="A24" s="121" t="str">
-        <f>data!$B$88</f>
+        <f>"2. " &amp; data!$B$88</f>
       </c>
       <c r="C24" s="118" t="str">
-        <f>CONCATENATE("Pool Y.2",'Pool Matches'!G573)</f>
+        <f>CONCATENATE("Pool Y.2 ",'Pool Matches'!G573)</f>
       </c>
       <c r="D24" s="27"/>
       <c r="E24" s="115"/>
@@ -5642,7 +5923,7 @@
     </row>
     <row r="25">
       <c r="A25" s="122" t="str">
-        <f>data!$B$89</f>
+        <f>"3. " &amp; data!$B$89</f>
       </c>
       <c r="I25" s="116">
         <v>52</v>
@@ -5653,7 +5934,7 @@
     <row r="26">
       <c r="A26" s="117"/>
       <c r="C26" s="118" t="str">
-        <f>CONCATENATE("Pool BB.1",'Pool Matches'!O615)</f>
+        <f>CONCATENATE("Pool BB.1 ",'Pool Matches'!O615)</f>
       </c>
       <c r="I26" s="115"/>
     </row>
@@ -5669,10 +5950,10 @@
     </row>
     <row r="28">
       <c r="A28" s="120" t="str">
-        <f>data!$B$90</f>
+        <f>"1. " &amp; data!$B$90</f>
       </c>
       <c r="C28" s="118" t="str">
-        <f>CONCATENATE("Pool AA.2",'Pool Matches'!G616)</f>
+        <f>CONCATENATE("Pool AA.2 ",'Pool Matches'!G616)</f>
       </c>
       <c r="D28" s="27"/>
       <c r="E28" s="115"/>
@@ -5682,7 +5963,7 @@
     </row>
     <row r="29">
       <c r="A29" s="121" t="str">
-        <f>data!$B$91</f>
+        <f>"2. " &amp; data!$B$91</f>
       </c>
       <c r="G29" s="116">
         <v>44</v>
@@ -5692,10 +5973,10 @@
     </row>
     <row r="30">
       <c r="A30" s="122" t="str">
-        <f>data!$B$92</f>
+        <f>"3. " &amp; data!$B$92</f>
       </c>
       <c r="C30" s="118" t="str">
-        <f>CONCATENATE("Pool DD.1",'Pool Matches'!O658)</f>
+        <f>CONCATENATE("Pool DD.1 ",'Pool Matches'!O658)</f>
       </c>
       <c r="G30" s="115"/>
     </row>
@@ -5710,7 +5991,7 @@
     </row>
     <row r="32">
       <c r="C32" s="118" t="str">
-        <f>CONCATENATE("Pool CC.2",'Pool Matches'!G659)</f>
+        <f>CONCATENATE("Pool CC.2 ",'Pool Matches'!G659)</f>
       </c>
       <c r="D32" s="27"/>
       <c r="E32" s="115"/>
@@ -5718,6 +5999,568 @@
   </sheetData>
   <printOptions horizontalCentered="true" verticalCentered="true"/>
   <pageMargins left="0.25" right="0.25" top="0" bottom="0" header="0.3" footer="0.3"/>
+  <pageSetup fitToHeight="0" fitToWidth="1" orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="true" workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1" ht="400" customHeight="true">
+      <c r="A1" s="125" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="2" ht="400" customHeight="true">
+      <c r="A2" s="125" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="3" ht="400" customHeight="true">
+      <c r="A3" s="125" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="4" ht="400" customHeight="true">
+      <c r="A4" s="125" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="5" ht="400" customHeight="true">
+      <c r="A5" s="125" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="6" ht="400" customHeight="true">
+      <c r="A6" s="125" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="7" ht="400" customHeight="true">
+      <c r="A7" s="125" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="8" ht="400" customHeight="true">
+      <c r="A8" s="125" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="9" ht="400" customHeight="true">
+      <c r="A9" s="125" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="10" ht="400" customHeight="true">
+      <c r="A10" s="125" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="11" ht="400" customHeight="true">
+      <c r="A11" s="125" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="12" ht="400" customHeight="true">
+      <c r="A12" s="125" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="13" ht="400" customHeight="true">
+      <c r="A13" s="125" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="14" ht="400" customHeight="true">
+      <c r="A14" s="125" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="15" ht="400" customHeight="true">
+      <c r="A15" s="125" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="16" ht="400" customHeight="true">
+      <c r="A16" s="125" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="17" ht="400" customHeight="true">
+      <c r="A17" s="125" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="18" ht="400" customHeight="true">
+      <c r="A18" s="125" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="19" ht="400" customHeight="true">
+      <c r="A19" s="125" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="20" ht="400" customHeight="true">
+      <c r="A20" s="125" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="21" ht="400" customHeight="true">
+      <c r="A21" s="125" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="22" ht="400" customHeight="true">
+      <c r="A22" s="125" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="23" ht="400" customHeight="true">
+      <c r="A23" s="125" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="24" ht="400" customHeight="true">
+      <c r="A24" s="125" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="25" ht="400" customHeight="true">
+      <c r="A25" s="125" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="26" ht="400" customHeight="true">
+      <c r="A26" s="125" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="27" ht="400" customHeight="true">
+      <c r="A27" s="125" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="28" ht="400" customHeight="true">
+      <c r="A28" s="125" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="29" ht="400" customHeight="true">
+      <c r="A29" s="125" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="30" ht="400" customHeight="true">
+      <c r="A30" s="125" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="31" ht="400" customHeight="true">
+      <c r="A31" s="125" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="32" ht="400" customHeight="true">
+      <c r="A32" s="125" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="33" ht="400" customHeight="true">
+      <c r="A33" s="125" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="34" ht="400" customHeight="true">
+      <c r="A34" s="125" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="35" ht="400" customHeight="true">
+      <c r="A35" s="125" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="36" ht="400" customHeight="true">
+      <c r="A36" s="125" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="37" ht="400" customHeight="true">
+      <c r="A37" s="125" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="38" ht="400" customHeight="true">
+      <c r="A38" s="125" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="39" ht="400" customHeight="true">
+      <c r="A39" s="125" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="40" ht="400" customHeight="true">
+      <c r="A40" s="125" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="41" ht="400" customHeight="true">
+      <c r="A41" s="125" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="42" ht="400" customHeight="true">
+      <c r="A42" s="125" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="43" ht="400" customHeight="true">
+      <c r="A43" s="125" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="44" ht="400" customHeight="true">
+      <c r="A44" s="125" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="45" ht="400" customHeight="true">
+      <c r="A45" s="125" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="46" ht="400" customHeight="true">
+      <c r="A46" s="125" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="47" ht="400" customHeight="true">
+      <c r="A47" s="125" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="48" ht="400" customHeight="true">
+      <c r="A48" s="125" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="49" ht="400" customHeight="true">
+      <c r="A49" s="125" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="50" ht="400" customHeight="true">
+      <c r="A50" s="125" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="51" ht="400" customHeight="true">
+      <c r="A51" s="125" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="52" ht="400" customHeight="true">
+      <c r="A52" s="125" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="53" ht="400" customHeight="true">
+      <c r="A53" s="125" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="54" ht="400" customHeight="true">
+      <c r="A54" s="125" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="55" ht="400" customHeight="true">
+      <c r="A55" s="125" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="56" ht="400" customHeight="true">
+      <c r="A56" s="125" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="57" ht="400" customHeight="true">
+      <c r="A57" s="125" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="58" ht="400" customHeight="true">
+      <c r="A58" s="125" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="59" ht="400" customHeight="true">
+      <c r="A59" s="125" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="60" ht="400" customHeight="true">
+      <c r="A60" s="125" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="61" ht="400" customHeight="true">
+      <c r="A61" s="125" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="62" ht="400" customHeight="true">
+      <c r="A62" s="125" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="63" ht="400" customHeight="true">
+      <c r="A63" s="125" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="64" ht="400" customHeight="true">
+      <c r="A64" s="125" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="65" ht="400" customHeight="true">
+      <c r="A65" s="125" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="66" ht="400" customHeight="true">
+      <c r="A66" s="125" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="67" ht="400" customHeight="true">
+      <c r="A67" s="125" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="68" ht="400" customHeight="true">
+      <c r="A68" s="125" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="69" ht="400" customHeight="true">
+      <c r="A69" s="125" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="70" ht="400" customHeight="true">
+      <c r="A70" s="125" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="71" ht="400" customHeight="true">
+      <c r="A71" s="125" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="72" ht="400" customHeight="true">
+      <c r="A72" s="125" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="73" ht="400" customHeight="true">
+      <c r="A73" s="125" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="74" ht="400" customHeight="true">
+      <c r="A74" s="125" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="75" ht="400" customHeight="true">
+      <c r="A75" s="125" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="76" ht="400" customHeight="true">
+      <c r="A76" s="125" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="77" ht="400" customHeight="true">
+      <c r="A77" s="125" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="78" ht="400" customHeight="true">
+      <c r="A78" s="125" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="79" ht="400" customHeight="true">
+      <c r="A79" s="125" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="80" ht="400" customHeight="true">
+      <c r="A80" s="125" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="81" ht="400" customHeight="true">
+      <c r="A81" s="125" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="82" ht="400" customHeight="true">
+      <c r="A82" s="125" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="83" ht="400" customHeight="true">
+      <c r="A83" s="125" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="84" ht="400" customHeight="true">
+      <c r="A84" s="125" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="85" ht="400" customHeight="true">
+      <c r="A85" s="125" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="86" ht="400" customHeight="true">
+      <c r="A86" s="125" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="87" ht="400" customHeight="true">
+      <c r="A87" s="125" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="88" ht="400" customHeight="true">
+      <c r="A88" s="125" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="89" ht="400" customHeight="true">
+      <c r="A89" s="125" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="90" ht="400" customHeight="true">
+      <c r="A90" s="125" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="91" ht="400" customHeight="true">
+      <c r="A91" s="125" t="s">
+        <v>351</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.1" right="0.1" top="0.1" bottom="0.1" header="0.1" footer="0.1"/>
+  <pageSetup paperSize="11"/>
+  <rowBreaks count="90" manualBreakCount="90">
+    <brk id="1" max="16383" man="true"/>
+    <brk id="2" max="16383" man="true"/>
+    <brk id="3" max="16383" man="true"/>
+    <brk id="4" max="16383" man="true"/>
+    <brk id="5" max="16383" man="true"/>
+    <brk id="6" max="16383" man="true"/>
+    <brk id="7" max="16383" man="true"/>
+    <brk id="8" max="16383" man="true"/>
+    <brk id="9" max="16383" man="true"/>
+    <brk id="10" max="16383" man="true"/>
+    <brk id="11" max="16383" man="true"/>
+    <brk id="12" max="16383" man="true"/>
+    <brk id="13" max="16383" man="true"/>
+    <brk id="14" max="16383" man="true"/>
+    <brk id="15" max="16383" man="true"/>
+    <brk id="16" max="16383" man="true"/>
+    <brk id="17" max="16383" man="true"/>
+    <brk id="18" max="16383" man="true"/>
+    <brk id="19" max="16383" man="true"/>
+    <brk id="20" max="16383" man="true"/>
+    <brk id="21" max="16383" man="true"/>
+    <brk id="22" max="16383" man="true"/>
+    <brk id="23" max="16383" man="true"/>
+    <brk id="24" max="16383" man="true"/>
+    <brk id="25" max="16383" man="true"/>
+    <brk id="26" max="16383" man="true"/>
+    <brk id="27" max="16383" man="true"/>
+    <brk id="28" max="16383" man="true"/>
+    <brk id="29" max="16383" man="true"/>
+    <brk id="30" max="16383" man="true"/>
+    <brk id="31" max="16383" man="true"/>
+    <brk id="32" max="16383" man="true"/>
+    <brk id="33" max="16383" man="true"/>
+    <brk id="34" max="16383" man="true"/>
+    <brk id="35" max="16383" man="true"/>
+    <brk id="36" max="16383" man="true"/>
+    <brk id="37" max="16383" man="true"/>
+    <brk id="38" max="16383" man="true"/>
+    <brk id="39" max="16383" man="true"/>
+    <brk id="40" max="16383" man="true"/>
+    <brk id="41" max="16383" man="true"/>
+    <brk id="42" max="16383" man="true"/>
+    <brk id="43" max="16383" man="true"/>
+    <brk id="44" max="16383" man="true"/>
+    <brk id="45" max="16383" man="true"/>
+    <brk id="46" max="16383" man="true"/>
+    <brk id="47" max="16383" man="true"/>
+    <brk id="48" max="16383" man="true"/>
+    <brk id="49" max="16383" man="true"/>
+    <brk id="50" max="16383" man="true"/>
+    <brk id="51" max="16383" man="true"/>
+    <brk id="52" max="16383" man="true"/>
+    <brk id="53" max="16383" man="true"/>
+    <brk id="54" max="16383" man="true"/>
+    <brk id="55" max="16383" man="true"/>
+    <brk id="56" max="16383" man="true"/>
+    <brk id="57" max="16383" man="true"/>
+    <brk id="58" max="16383" man="true"/>
+    <brk id="59" max="16383" man="true"/>
+    <brk id="60" max="16383" man="true"/>
+    <brk id="61" max="16383" man="true"/>
+    <brk id="62" max="16383" man="true"/>
+    <brk id="63" max="16383" man="true"/>
+    <brk id="64" max="16383" man="true"/>
+    <brk id="65" max="16383" man="true"/>
+    <brk id="66" max="16383" man="true"/>
+    <brk id="67" max="16383" man="true"/>
+    <brk id="68" max="16383" man="true"/>
+    <brk id="69" max="16383" man="true"/>
+    <brk id="70" max="16383" man="true"/>
+    <brk id="71" max="16383" man="true"/>
+    <brk id="72" max="16383" man="true"/>
+    <brk id="73" max="16383" man="true"/>
+    <brk id="74" max="16383" man="true"/>
+    <brk id="75" max="16383" man="true"/>
+    <brk id="76" max="16383" man="true"/>
+    <brk id="77" max="16383" man="true"/>
+    <brk id="78" max="16383" man="true"/>
+    <brk id="79" max="16383" man="true"/>
+    <brk id="80" max="16383" man="true"/>
+    <brk id="81" max="16383" man="true"/>
+    <brk id="82" max="16383" man="true"/>
+    <brk id="83" max="16383" man="true"/>
+    <brk id="84" max="16383" man="true"/>
+    <brk id="85" max="16383" man="true"/>
+    <brk id="86" max="16383" man="true"/>
+    <brk id="87" max="16383" man="true"/>
+    <brk id="88" max="16383" man="true"/>
+    <brk id="89" max="16383" man="true"/>
+    <brk id="90" max="16383" man="true"/>
+  </rowBreaks>
+  <colBreaks/>
 </worksheet>
 </file>
 
@@ -5725,7 +6568,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{176316AF-4790-BF4E-A6AB-8C7837CD465B}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -6003,43 +6846,43 @@
     </row>
     <row r="6" spans="1:8" ht="17" customHeight="true" thickBot="true">
       <c r="B6" s="5" t="str">
-        <f>data!$B$2</f>
+        <f>"1. " &amp; data!$B$2</f>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="5" t="str">
-        <f>data!$B$33</f>
+        <f>"1. " &amp; data!$B$33</f>
       </c>
       <c r="F6" s="5" t="str">
-        <f>data!$B$63</f>
+        <f>"1. " &amp; data!$B$63</f>
       </c>
     </row>
     <row r="7" spans="1:8" ht="17" customHeight="true" thickBot="true">
       <c r="B7" s="5" t="str">
-        <f>data!$B$3</f>
+        <f>"2. " &amp; data!$B$3</f>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="5" t="str">
-        <f>data!$B$34</f>
+        <f>"2. " &amp; data!$B$34</f>
       </c>
       <c r="F7" s="5" t="str">
-        <f>data!$B$64</f>
+        <f>"2. " &amp; data!$B$64</f>
       </c>
     </row>
     <row r="8" spans="1:8" ht="17" customHeight="true" thickBot="true">
       <c r="B8" s="5" t="str">
-        <f>data!$B$4</f>
+        <f>"3. " &amp; data!$B$4</f>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="5" t="str">
-        <f>data!$B$35</f>
+        <f>"3. " &amp; data!$B$35</f>
       </c>
       <c r="F8" s="5" t="str">
-        <f>data!$B$65</f>
+        <f>"3. " &amp; data!$B$65</f>
       </c>
     </row>
     <row r="9" ht="17" customHeight="true">
       <c r="B9" s="5" t="str">
-        <f>data!$B$5</f>
+        <f>"4. " &amp; data!$B$5</f>
       </c>
     </row>
     <row r="10" ht="17" customHeight="true"/>
@@ -6056,37 +6899,37 @@
         <f>data!$A$8</f>
       </c>
       <c r="D12" s="5" t="str">
-        <f>data!$B$36</f>
+        <f>"1. " &amp; data!$B$36</f>
       </c>
       <c r="F12" s="5" t="str">
-        <f>data!$B$66</f>
+        <f>"1. " &amp; data!$B$66</f>
       </c>
     </row>
     <row r="13" ht="17" customHeight="true">
       <c r="B13" s="5" t="str">
-        <f>data!$B$6</f>
+        <f>"1. " &amp; data!$B$6</f>
       </c>
       <c r="D13" s="5" t="str">
-        <f>data!$B$37</f>
+        <f>"2. " &amp; data!$B$37</f>
       </c>
       <c r="F13" s="5" t="str">
-        <f>data!$B$67</f>
+        <f>"2. " &amp; data!$B$67</f>
       </c>
     </row>
     <row r="14" ht="17" customHeight="true">
       <c r="B14" s="5" t="str">
-        <f>data!$B$7</f>
+        <f>"2. " &amp; data!$B$7</f>
       </c>
       <c r="D14" s="5" t="str">
-        <f>data!$B$38</f>
+        <f>"3. " &amp; data!$B$38</f>
       </c>
       <c r="F14" s="5" t="str">
-        <f>data!$B$68</f>
+        <f>"3. " &amp; data!$B$68</f>
       </c>
     </row>
     <row r="15" ht="17" customHeight="true">
       <c r="B15" s="5" t="str">
-        <f>data!$B$8</f>
+        <f>"3. " &amp; data!$B$8</f>
       </c>
     </row>
     <row r="16" ht="17" customHeight="true"/>
@@ -6103,37 +6946,37 @@
         <f>data!$A$11</f>
       </c>
       <c r="D18" s="5" t="str">
-        <f>data!$B$39</f>
+        <f>"1. " &amp; data!$B$39</f>
       </c>
       <c r="F18" s="5" t="str">
-        <f>data!$B$69</f>
+        <f>"1. " &amp; data!$B$69</f>
       </c>
     </row>
     <row r="19" ht="17" customHeight="true">
       <c r="B19" s="5" t="str">
-        <f>data!$B$9</f>
+        <f>"1. " &amp; data!$B$9</f>
       </c>
       <c r="D19" s="5" t="str">
-        <f>data!$B$40</f>
+        <f>"2. " &amp; data!$B$40</f>
       </c>
       <c r="F19" s="5" t="str">
-        <f>data!$B$70</f>
+        <f>"2. " &amp; data!$B$70</f>
       </c>
     </row>
     <row r="20" ht="17" customHeight="true">
       <c r="B20" s="5" t="str">
-        <f>data!$B$10</f>
+        <f>"2. " &amp; data!$B$10</f>
       </c>
       <c r="D20" s="5" t="str">
-        <f>data!$B$41</f>
+        <f>"3. " &amp; data!$B$41</f>
       </c>
       <c r="F20" s="5" t="str">
-        <f>data!$B$71</f>
+        <f>"3. " &amp; data!$B$71</f>
       </c>
     </row>
     <row r="21" ht="17" customHeight="true">
       <c r="B21" s="5" t="str">
-        <f>data!$B$11</f>
+        <f>"3. " &amp; data!$B$11</f>
       </c>
     </row>
     <row r="22" ht="17" customHeight="true"/>
@@ -6150,37 +6993,37 @@
         <f>data!$A$14</f>
       </c>
       <c r="D24" s="5" t="str">
-        <f>data!$B$42</f>
+        <f>"1. " &amp; data!$B$42</f>
       </c>
       <c r="F24" s="5" t="str">
-        <f>data!$B$72</f>
+        <f>"1. " &amp; data!$B$72</f>
       </c>
     </row>
     <row r="25" ht="17" customHeight="true">
       <c r="B25" s="5" t="str">
-        <f>data!$B$12</f>
+        <f>"1. " &amp; data!$B$12</f>
       </c>
       <c r="D25" s="5" t="str">
-        <f>data!$B$43</f>
+        <f>"2. " &amp; data!$B$43</f>
       </c>
       <c r="F25" s="5" t="str">
-        <f>data!$B$73</f>
+        <f>"2. " &amp; data!$B$73</f>
       </c>
     </row>
     <row r="26" ht="17" customHeight="true">
       <c r="B26" s="5" t="str">
-        <f>data!$B$13</f>
+        <f>"2. " &amp; data!$B$13</f>
       </c>
       <c r="D26" s="5" t="str">
-        <f>data!$B$44</f>
+        <f>"3. " &amp; data!$B$44</f>
       </c>
       <c r="F26" s="5" t="str">
-        <f>data!$B$74</f>
+        <f>"3. " &amp; data!$B$74</f>
       </c>
     </row>
     <row r="27" ht="17" customHeight="true">
       <c r="B27" s="5" t="str">
-        <f>data!$B$14</f>
+        <f>"3. " &amp; data!$B$14</f>
       </c>
     </row>
     <row r="28" ht="17" customHeight="true"/>
@@ -6197,37 +7040,37 @@
         <f>data!$A$17</f>
       </c>
       <c r="D30" s="5" t="str">
-        <f>data!$B$45</f>
+        <f>"1. " &amp; data!$B$45</f>
       </c>
       <c r="F30" s="5" t="str">
-        <f>data!$B$75</f>
+        <f>"1. " &amp; data!$B$75</f>
       </c>
     </row>
     <row r="31" ht="17" customHeight="true">
       <c r="B31" s="5" t="str">
-        <f>data!$B$15</f>
+        <f>"1. " &amp; data!$B$15</f>
       </c>
       <c r="D31" s="5" t="str">
-        <f>data!$B$46</f>
+        <f>"2. " &amp; data!$B$46</f>
       </c>
       <c r="F31" s="5" t="str">
-        <f>data!$B$76</f>
+        <f>"2. " &amp; data!$B$76</f>
       </c>
     </row>
     <row r="32" ht="17" customHeight="true">
       <c r="B32" s="5" t="str">
-        <f>data!$B$16</f>
+        <f>"2. " &amp; data!$B$16</f>
       </c>
       <c r="D32" s="5" t="str">
-        <f>data!$B$47</f>
+        <f>"3. " &amp; data!$B$47</f>
       </c>
       <c r="F32" s="5" t="str">
-        <f>data!$B$77</f>
+        <f>"3. " &amp; data!$B$77</f>
       </c>
     </row>
     <row r="33" ht="17" customHeight="true">
       <c r="B33" s="5" t="str">
-        <f>data!$B$17</f>
+        <f>"3. " &amp; data!$B$17</f>
       </c>
     </row>
     <row r="34" ht="17" customHeight="true"/>
@@ -6244,37 +7087,37 @@
         <f>data!$A$20</f>
       </c>
       <c r="D36" s="5" t="str">
-        <f>data!$B$48</f>
+        <f>"1. " &amp; data!$B$48</f>
       </c>
       <c r="F36" s="5" t="str">
-        <f>data!$B$78</f>
+        <f>"1. " &amp; data!$B$78</f>
       </c>
     </row>
     <row r="37" ht="17" customHeight="true">
       <c r="B37" s="5" t="str">
-        <f>data!$B$18</f>
+        <f>"1. " &amp; data!$B$18</f>
       </c>
       <c r="D37" s="5" t="str">
-        <f>data!$B$49</f>
+        <f>"2. " &amp; data!$B$49</f>
       </c>
       <c r="F37" s="5" t="str">
-        <f>data!$B$79</f>
+        <f>"2. " &amp; data!$B$79</f>
       </c>
     </row>
     <row r="38" ht="17" customHeight="true">
       <c r="B38" s="5" t="str">
-        <f>data!$B$19</f>
+        <f>"2. " &amp; data!$B$19</f>
       </c>
       <c r="D38" s="5" t="str">
-        <f>data!$B$50</f>
+        <f>"3. " &amp; data!$B$50</f>
       </c>
       <c r="F38" s="5" t="str">
-        <f>data!$B$80</f>
+        <f>"3. " &amp; data!$B$80</f>
       </c>
     </row>
     <row r="39" ht="17" customHeight="true">
       <c r="B39" s="5" t="str">
-        <f>data!$B$20</f>
+        <f>"3. " &amp; data!$B$20</f>
       </c>
     </row>
     <row r="40" ht="17" customHeight="true"/>
@@ -6291,37 +7134,37 @@
         <f>data!$A$23</f>
       </c>
       <c r="D42" s="5" t="str">
-        <f>data!$B$51</f>
+        <f>"1. " &amp; data!$B$51</f>
       </c>
       <c r="F42" s="5" t="str">
-        <f>data!$B$81</f>
+        <f>"1. " &amp; data!$B$81</f>
       </c>
     </row>
     <row r="43" ht="17" customHeight="true">
       <c r="B43" s="5" t="str">
-        <f>data!$B$21</f>
+        <f>"1. " &amp; data!$B$21</f>
       </c>
       <c r="D43" s="5" t="str">
-        <f>data!$B$52</f>
+        <f>"2. " &amp; data!$B$52</f>
       </c>
       <c r="F43" s="5" t="str">
-        <f>data!$B$82</f>
+        <f>"2. " &amp; data!$B$82</f>
       </c>
     </row>
     <row r="44" ht="17" customHeight="true">
       <c r="B44" s="5" t="str">
-        <f>data!$B$22</f>
+        <f>"2. " &amp; data!$B$22</f>
       </c>
       <c r="D44" s="5" t="str">
-        <f>data!$B$53</f>
+        <f>"3. " &amp; data!$B$53</f>
       </c>
       <c r="F44" s="5" t="str">
-        <f>data!$B$83</f>
+        <f>"3. " &amp; data!$B$83</f>
       </c>
     </row>
     <row r="45" ht="17" customHeight="true">
       <c r="B45" s="5" t="str">
-        <f>data!$B$23</f>
+        <f>"3. " &amp; data!$B$23</f>
       </c>
     </row>
     <row r="46" ht="17" customHeight="true"/>
@@ -6338,37 +7181,37 @@
         <f>data!$A$26</f>
       </c>
       <c r="D48" s="5" t="str">
-        <f>data!$B$54</f>
+        <f>"1. " &amp; data!$B$54</f>
       </c>
       <c r="F48" s="5" t="str">
-        <f>data!$B$84</f>
+        <f>"1. " &amp; data!$B$84</f>
       </c>
     </row>
     <row r="49" ht="17" customHeight="true">
       <c r="B49" s="5" t="str">
-        <f>data!$B$24</f>
+        <f>"1. " &amp; data!$B$24</f>
       </c>
       <c r="D49" s="5" t="str">
-        <f>data!$B$55</f>
+        <f>"2. " &amp; data!$B$55</f>
       </c>
       <c r="F49" s="5" t="str">
-        <f>data!$B$85</f>
+        <f>"2. " &amp; data!$B$85</f>
       </c>
     </row>
     <row r="50" ht="17" customHeight="true">
       <c r="B50" s="5" t="str">
-        <f>data!$B$25</f>
+        <f>"2. " &amp; data!$B$25</f>
       </c>
       <c r="D50" s="5" t="str">
-        <f>data!$B$56</f>
+        <f>"3. " &amp; data!$B$56</f>
       </c>
       <c r="F50" s="5" t="str">
-        <f>data!$B$86</f>
+        <f>"3. " &amp; data!$B$86</f>
       </c>
     </row>
     <row r="51" ht="17" customHeight="true">
       <c r="B51" s="5" t="str">
-        <f>data!$B$26</f>
+        <f>"3. " &amp; data!$B$26</f>
       </c>
     </row>
     <row r="52" ht="17" customHeight="true"/>
@@ -6385,37 +7228,37 @@
         <f>data!$A$29</f>
       </c>
       <c r="D54" s="5" t="str">
-        <f>data!$B$57</f>
+        <f>"1. " &amp; data!$B$57</f>
       </c>
       <c r="F54" s="5" t="str">
-        <f>data!$B$87</f>
+        <f>"1. " &amp; data!$B$87</f>
       </c>
     </row>
     <row r="55" ht="17" customHeight="true">
       <c r="B55" s="5" t="str">
-        <f>data!$B$27</f>
+        <f>"1. " &amp; data!$B$27</f>
       </c>
       <c r="D55" s="5" t="str">
-        <f>data!$B$58</f>
+        <f>"2. " &amp; data!$B$58</f>
       </c>
       <c r="F55" s="5" t="str">
-        <f>data!$B$88</f>
+        <f>"2. " &amp; data!$B$88</f>
       </c>
     </row>
     <row r="56" ht="17" customHeight="true">
       <c r="B56" s="5" t="str">
-        <f>data!$B$28</f>
+        <f>"2. " &amp; data!$B$28</f>
       </c>
       <c r="D56" s="5" t="str">
-        <f>data!$B$59</f>
+        <f>"3. " &amp; data!$B$59</f>
       </c>
       <c r="F56" s="5" t="str">
-        <f>data!$B$89</f>
+        <f>"3. " &amp; data!$B$89</f>
       </c>
     </row>
     <row r="57" ht="17" customHeight="true">
       <c r="B57" s="5" t="str">
-        <f>data!$B$29</f>
+        <f>"3. " &amp; data!$B$29</f>
       </c>
     </row>
     <row r="58" ht="17" customHeight="true"/>
@@ -6432,37 +7275,37 @@
         <f>data!$A$32</f>
       </c>
       <c r="D60" s="5" t="str">
-        <f>data!$B$60</f>
+        <f>"1. " &amp; data!$B$60</f>
       </c>
       <c r="F60" s="5" t="str">
-        <f>data!$B$90</f>
+        <f>"1. " &amp; data!$B$90</f>
       </c>
     </row>
     <row r="61" ht="17" customHeight="true">
       <c r="B61" s="5" t="str">
-        <f>data!$B$30</f>
+        <f>"1. " &amp; data!$B$30</f>
       </c>
       <c r="D61" s="5" t="str">
-        <f>data!$B$61</f>
+        <f>"2. " &amp; data!$B$61</f>
       </c>
       <c r="F61" s="5" t="str">
-        <f>data!$B$91</f>
+        <f>"2. " &amp; data!$B$91</f>
       </c>
     </row>
     <row r="62" ht="17" customHeight="true">
       <c r="B62" s="5" t="str">
-        <f>data!$B$31</f>
+        <f>"2. " &amp; data!$B$31</f>
       </c>
       <c r="D62" s="5" t="str">
-        <f>data!$B$62</f>
+        <f>"3. " &amp; data!$B$62</f>
       </c>
       <c r="F62" s="5" t="str">
-        <f>data!$B$92</f>
+        <f>"3. " &amp; data!$B$92</f>
       </c>
     </row>
     <row r="63" ht="17" customHeight="true">
       <c r="B63" s="5" t="str">
-        <f>data!$B$32</f>
+        <f>"3. " &amp; data!$B$32</f>
       </c>
     </row>
   </sheetData>
@@ -6471,7 +7314,7 @@
   </mergeCells>
   <printOptions horizontalCentered="true" verticalCentered="true"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.3937007874015748" bottom="0.984251968503937" header="0" footer="0"/>
-  <pageSetup orientation="landscape" paperSize="9"/>
+  <pageSetup fitToHeight="0" fitToWidth="1" orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
@@ -18272,7 +19115,7 @@
     <row r="2"/>
     <row r="3">
       <c r="A3" s="20" t="s">
-        <v>261</v>
+        <v>352</v>
       </c>
       <c r="B3" s="20"/>
       <c r="C3" s="20"/>
@@ -18281,7 +19124,7 @@
       <c r="F3" s="20"/>
       <c r="G3" s="20"/>
       <c r="I3" s="20" t="s">
-        <v>264</v>
+        <v>355</v>
       </c>
       <c r="J3" s="20"/>
       <c r="K3" s="20"/>
@@ -18297,7 +19140,7 @@
       <c r="D4" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="G4" s="125" t="s">
+      <c r="G4" s="126" t="s">
         <v>253</v>
       </c>
       <c r="I4" s="22" t="s">
@@ -18306,7 +19149,7 @@
       <c r="L4" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="O4" s="126" t="s">
+      <c r="O4" s="127" t="s">
         <v>253</v>
       </c>
     </row>
@@ -18522,21 +19365,21 @@
     <row r="14"/>
     <row r="15">
       <c r="F15" s="7" t="s">
-        <v>262</v>
+        <v>353</v>
       </c>
       <c r="G15" s="27"/>
       <c r="N15" s="7" t="s">
-        <v>262</v>
+        <v>353</v>
       </c>
       <c r="O15" s="27"/>
     </row>
     <row r="16">
       <c r="F16" s="7" t="s">
-        <v>263</v>
+        <v>354</v>
       </c>
       <c r="G16" s="27"/>
       <c r="N16" s="7" t="s">
-        <v>263</v>
+        <v>354</v>
       </c>
       <c r="O16" s="27"/>
     </row>
@@ -18544,7 +19387,7 @@
     <row r="18"/>
     <row r="19">
       <c r="A19" s="20" t="s">
-        <v>265</v>
+        <v>356</v>
       </c>
       <c r="B19" s="20"/>
       <c r="C19" s="20"/>
@@ -18553,7 +19396,7 @@
       <c r="F19" s="20"/>
       <c r="G19" s="20"/>
       <c r="I19" s="20" t="s">
-        <v>266</v>
+        <v>357</v>
       </c>
       <c r="J19" s="20"/>
       <c r="K19" s="20"/>
@@ -18569,7 +19412,7 @@
       <c r="D20" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="G20" s="127" t="s">
+      <c r="G20" s="128" t="s">
         <v>253</v>
       </c>
       <c r="I20" s="22" t="s">
@@ -18578,7 +19421,7 @@
       <c r="L20" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="O20" s="128" t="s">
+      <c r="O20" s="129" t="s">
         <v>253</v>
       </c>
     </row>
@@ -18794,21 +19637,21 @@
     <row r="30"/>
     <row r="31">
       <c r="F31" s="7" t="s">
-        <v>262</v>
+        <v>353</v>
       </c>
       <c r="G31" s="27"/>
       <c r="N31" s="7" t="s">
-        <v>262</v>
+        <v>353</v>
       </c>
       <c r="O31" s="27"/>
     </row>
     <row r="32">
       <c r="F32" s="7" t="s">
-        <v>263</v>
+        <v>354</v>
       </c>
       <c r="G32" s="27"/>
       <c r="N32" s="7" t="s">
-        <v>263</v>
+        <v>354</v>
       </c>
       <c r="O32" s="27"/>
     </row>
@@ -18816,7 +19659,7 @@
     <row r="34"/>
     <row r="35">
       <c r="A35" s="20" t="s">
-        <v>267</v>
+        <v>358</v>
       </c>
       <c r="B35" s="20"/>
       <c r="C35" s="20"/>
@@ -18825,7 +19668,7 @@
       <c r="F35" s="20"/>
       <c r="G35" s="20"/>
       <c r="I35" s="20" t="s">
-        <v>268</v>
+        <v>359</v>
       </c>
       <c r="J35" s="20"/>
       <c r="K35" s="20"/>
@@ -18841,7 +19684,7 @@
       <c r="D36" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="G36" s="129" t="s">
+      <c r="G36" s="130" t="s">
         <v>253</v>
       </c>
       <c r="I36" s="22" t="s">
@@ -18850,7 +19693,7 @@
       <c r="L36" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="O36" s="130" t="s">
+      <c r="O36" s="131" t="s">
         <v>253</v>
       </c>
     </row>
@@ -19066,21 +19909,21 @@
     <row r="46"/>
     <row r="47">
       <c r="F47" s="7" t="s">
-        <v>262</v>
+        <v>353</v>
       </c>
       <c r="G47" s="27"/>
       <c r="N47" s="7" t="s">
-        <v>262</v>
+        <v>353</v>
       </c>
       <c r="O47" s="27"/>
     </row>
     <row r="48">
       <c r="F48" s="7" t="s">
-        <v>263</v>
+        <v>354</v>
       </c>
       <c r="G48" s="27"/>
       <c r="N48" s="7" t="s">
-        <v>263</v>
+        <v>354</v>
       </c>
       <c r="O48" s="27"/>
     </row>
@@ -19088,7 +19931,7 @@
     <row r="50"/>
     <row r="51">
       <c r="A51" s="20" t="s">
-        <v>269</v>
+        <v>360</v>
       </c>
       <c r="B51" s="20"/>
       <c r="C51" s="20"/>
@@ -19097,7 +19940,7 @@
       <c r="F51" s="20"/>
       <c r="G51" s="20"/>
       <c r="I51" s="20" t="s">
-        <v>270</v>
+        <v>361</v>
       </c>
       <c r="J51" s="20"/>
       <c r="K51" s="20"/>
@@ -19113,7 +19956,7 @@
       <c r="D52" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="G52" s="131" t="s">
+      <c r="G52" s="132" t="s">
         <v>253</v>
       </c>
       <c r="I52" s="22" t="s">
@@ -19122,7 +19965,7 @@
       <c r="L52" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="O52" s="132" t="s">
+      <c r="O52" s="133" t="s">
         <v>253</v>
       </c>
     </row>
@@ -19338,21 +20181,21 @@
     <row r="62"/>
     <row r="63">
       <c r="F63" s="7" t="s">
-        <v>262</v>
+        <v>353</v>
       </c>
       <c r="G63" s="27"/>
       <c r="N63" s="7" t="s">
-        <v>262</v>
+        <v>353</v>
       </c>
       <c r="O63" s="27"/>
     </row>
     <row r="64">
       <c r="F64" s="7" t="s">
-        <v>263</v>
+        <v>354</v>
       </c>
       <c r="G64" s="27"/>
       <c r="N64" s="7" t="s">
-        <v>263</v>
+        <v>354</v>
       </c>
       <c r="O64" s="27"/>
     </row>
@@ -19360,7 +20203,7 @@
     <row r="66"/>
     <row r="67">
       <c r="A67" s="20" t="s">
-        <v>271</v>
+        <v>362</v>
       </c>
       <c r="B67" s="20"/>
       <c r="C67" s="20"/>
@@ -19369,7 +20212,7 @@
       <c r="F67" s="20"/>
       <c r="G67" s="20"/>
       <c r="I67" s="20" t="s">
-        <v>272</v>
+        <v>363</v>
       </c>
       <c r="J67" s="20"/>
       <c r="K67" s="20"/>
@@ -19385,7 +20228,7 @@
       <c r="D68" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="G68" s="133" t="s">
+      <c r="G68" s="134" t="s">
         <v>253</v>
       </c>
       <c r="I68" s="22" t="s">
@@ -19394,7 +20237,7 @@
       <c r="L68" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="O68" s="134" t="s">
+      <c r="O68" s="135" t="s">
         <v>253</v>
       </c>
     </row>
@@ -19610,21 +20453,21 @@
     <row r="78"/>
     <row r="79">
       <c r="F79" s="7" t="s">
-        <v>262</v>
+        <v>353</v>
       </c>
       <c r="G79" s="27"/>
       <c r="N79" s="7" t="s">
-        <v>262</v>
+        <v>353</v>
       </c>
       <c r="O79" s="27"/>
     </row>
     <row r="80">
       <c r="F80" s="7" t="s">
-        <v>263</v>
+        <v>354</v>
       </c>
       <c r="G80" s="27"/>
       <c r="N80" s="7" t="s">
-        <v>263</v>
+        <v>354</v>
       </c>
       <c r="O80" s="27"/>
     </row>
@@ -19632,7 +20475,7 @@
     <row r="82"/>
     <row r="83">
       <c r="A83" s="20" t="s">
-        <v>273</v>
+        <v>364</v>
       </c>
       <c r="B83" s="20"/>
       <c r="C83" s="20"/>
@@ -19641,7 +20484,7 @@
       <c r="F83" s="20"/>
       <c r="G83" s="20"/>
       <c r="I83" s="20" t="s">
-        <v>274</v>
+        <v>365</v>
       </c>
       <c r="J83" s="20"/>
       <c r="K83" s="20"/>
@@ -19657,7 +20500,7 @@
       <c r="D84" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="G84" s="135" t="s">
+      <c r="G84" s="136" t="s">
         <v>253</v>
       </c>
       <c r="I84" s="22" t="s">
@@ -19666,7 +20509,7 @@
       <c r="L84" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="O84" s="136" t="s">
+      <c r="O84" s="137" t="s">
         <v>253</v>
       </c>
     </row>
@@ -19882,21 +20725,21 @@
     <row r="94"/>
     <row r="95">
       <c r="F95" s="7" t="s">
-        <v>262</v>
+        <v>353</v>
       </c>
       <c r="G95" s="27"/>
       <c r="N95" s="7" t="s">
-        <v>262</v>
+        <v>353</v>
       </c>
       <c r="O95" s="27"/>
     </row>
     <row r="96">
       <c r="F96" s="7" t="s">
-        <v>263</v>
+        <v>354</v>
       </c>
       <c r="G96" s="27"/>
       <c r="N96" s="7" t="s">
-        <v>263</v>
+        <v>354</v>
       </c>
       <c r="O96" s="27"/>
     </row>
@@ -19904,7 +20747,7 @@
     <row r="98"/>
     <row r="99">
       <c r="A99" s="20" t="s">
-        <v>275</v>
+        <v>366</v>
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="20"/>
@@ -19913,7 +20756,7 @@
       <c r="F99" s="20"/>
       <c r="G99" s="20"/>
       <c r="I99" s="20" t="s">
-        <v>276</v>
+        <v>367</v>
       </c>
       <c r="J99" s="20"/>
       <c r="K99" s="20"/>
@@ -19929,7 +20772,7 @@
       <c r="D100" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="G100" s="137" t="s">
+      <c r="G100" s="138" t="s">
         <v>253</v>
       </c>
       <c r="I100" s="22" t="s">
@@ -19938,7 +20781,7 @@
       <c r="L100" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="O100" s="138" t="s">
+      <c r="O100" s="139" t="s">
         <v>253</v>
       </c>
     </row>
@@ -20154,21 +20997,21 @@
     <row r="110"/>
     <row r="111">
       <c r="F111" s="7" t="s">
-        <v>262</v>
+        <v>353</v>
       </c>
       <c r="G111" s="27"/>
       <c r="N111" s="7" t="s">
-        <v>262</v>
+        <v>353</v>
       </c>
       <c r="O111" s="27"/>
     </row>
     <row r="112">
       <c r="F112" s="7" t="s">
-        <v>263</v>
+        <v>354</v>
       </c>
       <c r="G112" s="27"/>
       <c r="N112" s="7" t="s">
-        <v>263</v>
+        <v>354</v>
       </c>
       <c r="O112" s="27"/>
     </row>
@@ -20176,7 +21019,7 @@
     <row r="114"/>
     <row r="115">
       <c r="A115" s="20" t="s">
-        <v>277</v>
+        <v>368</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="20"/>
@@ -20185,7 +21028,7 @@
       <c r="F115" s="20"/>
       <c r="G115" s="20"/>
       <c r="I115" s="20" t="s">
-        <v>278</v>
+        <v>369</v>
       </c>
       <c r="J115" s="20"/>
       <c r="K115" s="20"/>
@@ -20201,7 +21044,7 @@
       <c r="D116" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="G116" s="139" t="s">
+      <c r="G116" s="140" t="s">
         <v>253</v>
       </c>
       <c r="I116" s="22" t="s">
@@ -20210,7 +21053,7 @@
       <c r="L116" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="O116" s="140" t="s">
+      <c r="O116" s="141" t="s">
         <v>253</v>
       </c>
     </row>
@@ -20426,21 +21269,21 @@
     <row r="126"/>
     <row r="127">
       <c r="F127" s="7" t="s">
-        <v>262</v>
+        <v>353</v>
       </c>
       <c r="G127" s="27"/>
       <c r="N127" s="7" t="s">
-        <v>262</v>
+        <v>353</v>
       </c>
       <c r="O127" s="27"/>
     </row>
     <row r="128">
       <c r="F128" s="7" t="s">
-        <v>263</v>
+        <v>354</v>
       </c>
       <c r="G128" s="27"/>
       <c r="N128" s="7" t="s">
-        <v>263</v>
+        <v>354</v>
       </c>
       <c r="O128" s="27"/>
     </row>
@@ -20448,7 +21291,7 @@
     <row r="130"/>
     <row r="131">
       <c r="A131" s="20" t="s">
-        <v>279</v>
+        <v>370</v>
       </c>
       <c r="B131" s="20"/>
       <c r="C131" s="20"/>
@@ -20457,7 +21300,7 @@
       <c r="F131" s="20"/>
       <c r="G131" s="20"/>
       <c r="I131" s="20" t="s">
-        <v>280</v>
+        <v>371</v>
       </c>
       <c r="J131" s="20"/>
       <c r="K131" s="20"/>
@@ -20473,7 +21316,7 @@
       <c r="D132" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="G132" s="141" t="s">
+      <c r="G132" s="142" t="s">
         <v>253</v>
       </c>
       <c r="I132" s="22" t="s">
@@ -20482,7 +21325,7 @@
       <c r="L132" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="O132" s="142" t="s">
+      <c r="O132" s="143" t="s">
         <v>253</v>
       </c>
     </row>
@@ -20698,21 +21541,21 @@
     <row r="142"/>
     <row r="143">
       <c r="F143" s="7" t="s">
-        <v>262</v>
+        <v>353</v>
       </c>
       <c r="G143" s="27"/>
       <c r="N143" s="7" t="s">
-        <v>262</v>
+        <v>353</v>
       </c>
       <c r="O143" s="27"/>
     </row>
     <row r="144">
       <c r="F144" s="7" t="s">
-        <v>263</v>
+        <v>354</v>
       </c>
       <c r="G144" s="27"/>
       <c r="N144" s="7" t="s">
-        <v>263</v>
+        <v>354</v>
       </c>
       <c r="O144" s="27"/>
     </row>
@@ -20720,7 +21563,7 @@
     <row r="146"/>
     <row r="147">
       <c r="A147" s="20" t="s">
-        <v>281</v>
+        <v>372</v>
       </c>
       <c r="B147" s="20"/>
       <c r="C147" s="20"/>
@@ -20729,7 +21572,7 @@
       <c r="F147" s="20"/>
       <c r="G147" s="20"/>
       <c r="I147" s="20" t="s">
-        <v>282</v>
+        <v>373</v>
       </c>
       <c r="J147" s="20"/>
       <c r="K147" s="20"/>
@@ -20745,7 +21588,7 @@
       <c r="D148" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="G148" s="143" t="s">
+      <c r="G148" s="144" t="s">
         <v>253</v>
       </c>
       <c r="I148" s="22" t="s">
@@ -20754,7 +21597,7 @@
       <c r="L148" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="O148" s="144" t="s">
+      <c r="O148" s="145" t="s">
         <v>253</v>
       </c>
     </row>
@@ -20970,21 +21813,21 @@
     <row r="158"/>
     <row r="159">
       <c r="F159" s="7" t="s">
-        <v>262</v>
+        <v>353</v>
       </c>
       <c r="G159" s="27"/>
       <c r="N159" s="7" t="s">
-        <v>262</v>
+        <v>353</v>
       </c>
       <c r="O159" s="27"/>
     </row>
     <row r="160">
       <c r="F160" s="7" t="s">
-        <v>263</v>
+        <v>354</v>
       </c>
       <c r="G160" s="27"/>
       <c r="N160" s="7" t="s">
-        <v>263</v>
+        <v>354</v>
       </c>
       <c r="O160" s="27"/>
     </row>
@@ -20992,7 +21835,7 @@
     <row r="162"/>
     <row r="163">
       <c r="A163" s="20" t="s">
-        <v>283</v>
+        <v>374</v>
       </c>
       <c r="B163" s="20"/>
       <c r="C163" s="20"/>
@@ -21001,7 +21844,7 @@
       <c r="F163" s="20"/>
       <c r="G163" s="20"/>
       <c r="I163" s="20" t="s">
-        <v>284</v>
+        <v>375</v>
       </c>
       <c r="J163" s="20"/>
       <c r="K163" s="20"/>
@@ -21017,7 +21860,7 @@
       <c r="D164" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="G164" s="145" t="s">
+      <c r="G164" s="146" t="s">
         <v>253</v>
       </c>
       <c r="I164" s="22" t="s">
@@ -21026,7 +21869,7 @@
       <c r="L164" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="O164" s="146" t="s">
+      <c r="O164" s="147" t="s">
         <v>253</v>
       </c>
     </row>
@@ -21242,21 +22085,21 @@
     <row r="174"/>
     <row r="175">
       <c r="F175" s="7" t="s">
-        <v>262</v>
+        <v>353</v>
       </c>
       <c r="G175" s="27"/>
       <c r="N175" s="7" t="s">
-        <v>262</v>
+        <v>353</v>
       </c>
       <c r="O175" s="27"/>
     </row>
     <row r="176">
       <c r="F176" s="7" t="s">
-        <v>263</v>
+        <v>354</v>
       </c>
       <c r="G176" s="27"/>
       <c r="N176" s="7" t="s">
-        <v>263</v>
+        <v>354</v>
       </c>
       <c r="O176" s="27"/>
     </row>
@@ -21264,7 +22107,7 @@
     <row r="178"/>
     <row r="179">
       <c r="A179" s="20" t="s">
-        <v>285</v>
+        <v>376</v>
       </c>
       <c r="B179" s="20"/>
       <c r="C179" s="20"/>
@@ -21273,7 +22116,7 @@
       <c r="F179" s="20"/>
       <c r="G179" s="20"/>
       <c r="I179" s="20" t="s">
-        <v>286</v>
+        <v>377</v>
       </c>
       <c r="J179" s="20"/>
       <c r="K179" s="20"/>
@@ -21289,7 +22132,7 @@
       <c r="D180" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="G180" s="147" t="s">
+      <c r="G180" s="148" t="s">
         <v>253</v>
       </c>
       <c r="I180" s="22" t="s">
@@ -21298,7 +22141,7 @@
       <c r="L180" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="O180" s="148" t="s">
+      <c r="O180" s="149" t="s">
         <v>253</v>
       </c>
     </row>
@@ -21514,21 +22357,21 @@
     <row r="190"/>
     <row r="191">
       <c r="F191" s="7" t="s">
-        <v>262</v>
+        <v>353</v>
       </c>
       <c r="G191" s="27"/>
       <c r="N191" s="7" t="s">
-        <v>262</v>
+        <v>353</v>
       </c>
       <c r="O191" s="27"/>
     </row>
     <row r="192">
       <c r="F192" s="7" t="s">
-        <v>263</v>
+        <v>354</v>
       </c>
       <c r="G192" s="27"/>
       <c r="N192" s="7" t="s">
-        <v>263</v>
+        <v>354</v>
       </c>
       <c r="O192" s="27"/>
     </row>
@@ -21536,7 +22379,7 @@
     <row r="194"/>
     <row r="195">
       <c r="A195" s="20" t="s">
-        <v>287</v>
+        <v>378</v>
       </c>
       <c r="B195" s="20"/>
       <c r="C195" s="20"/>
@@ -21545,7 +22388,7 @@
       <c r="F195" s="20"/>
       <c r="G195" s="20"/>
       <c r="I195" s="20" t="s">
-        <v>288</v>
+        <v>379</v>
       </c>
       <c r="J195" s="20"/>
       <c r="K195" s="20"/>
@@ -21561,7 +22404,7 @@
       <c r="D196" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="G196" s="149" t="s">
+      <c r="G196" s="150" t="s">
         <v>253</v>
       </c>
       <c r="I196" s="22" t="s">
@@ -21570,7 +22413,7 @@
       <c r="L196" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="O196" s="150" t="s">
+      <c r="O196" s="151" t="s">
         <v>253</v>
       </c>
     </row>
@@ -21786,21 +22629,21 @@
     <row r="206"/>
     <row r="207">
       <c r="F207" s="7" t="s">
-        <v>262</v>
+        <v>353</v>
       </c>
       <c r="G207" s="27"/>
       <c r="N207" s="7" t="s">
-        <v>262</v>
+        <v>353</v>
       </c>
       <c r="O207" s="27"/>
     </row>
     <row r="208">
       <c r="F208" s="7" t="s">
-        <v>263</v>
+        <v>354</v>
       </c>
       <c r="G208" s="27"/>
       <c r="N208" s="7" t="s">
-        <v>263</v>
+        <v>354</v>
       </c>
       <c r="O208" s="27"/>
     </row>
@@ -21808,7 +22651,7 @@
     <row r="210"/>
     <row r="211">
       <c r="A211" s="20" t="s">
-        <v>289</v>
+        <v>380</v>
       </c>
       <c r="B211" s="20"/>
       <c r="C211" s="20"/>
@@ -21817,7 +22660,7 @@
       <c r="F211" s="20"/>
       <c r="G211" s="20"/>
       <c r="I211" s="20" t="s">
-        <v>290</v>
+        <v>381</v>
       </c>
       <c r="J211" s="20"/>
       <c r="K211" s="20"/>
@@ -21833,7 +22676,7 @@
       <c r="D212" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="G212" s="151" t="s">
+      <c r="G212" s="152" t="s">
         <v>253</v>
       </c>
       <c r="I212" s="22" t="s">
@@ -21842,7 +22685,7 @@
       <c r="L212" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="O212" s="152" t="s">
+      <c r="O212" s="153" t="s">
         <v>253</v>
       </c>
     </row>
@@ -22058,21 +22901,21 @@
     <row r="222"/>
     <row r="223">
       <c r="F223" s="7" t="s">
-        <v>262</v>
+        <v>353</v>
       </c>
       <c r="G223" s="27"/>
       <c r="N223" s="7" t="s">
-        <v>262</v>
+        <v>353</v>
       </c>
       <c r="O223" s="27"/>
     </row>
     <row r="224">
       <c r="F224" s="7" t="s">
-        <v>263</v>
+        <v>354</v>
       </c>
       <c r="G224" s="27"/>
       <c r="N224" s="7" t="s">
-        <v>263</v>
+        <v>354</v>
       </c>
       <c r="O224" s="27"/>
     </row>
@@ -22085,7 +22928,7 @@
     <row r="231"/>
     <row r="232">
       <c r="A232" s="20" t="s">
-        <v>291</v>
+        <v>382</v>
       </c>
       <c r="B232" s="20"/>
       <c r="C232" s="20"/>
@@ -22105,7 +22948,7 @@
     <row r="233"/>
     <row r="234">
       <c r="A234" s="20" t="s">
-        <v>292</v>
+        <v>383</v>
       </c>
       <c r="B234" s="20"/>
       <c r="C234" s="20"/>
@@ -22114,7 +22957,7 @@
       <c r="F234" s="20"/>
       <c r="G234" s="20"/>
       <c r="I234" s="20" t="s">
-        <v>293</v>
+        <v>384</v>
       </c>
       <c r="J234" s="20"/>
       <c r="K234" s="20"/>
@@ -22130,7 +22973,7 @@
       <c r="D235" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="G235" s="153" t="s">
+      <c r="G235" s="154" t="s">
         <v>253</v>
       </c>
       <c r="I235" s="22" t="s">
@@ -22139,7 +22982,7 @@
       <c r="L235" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="O235" s="154" t="s">
+      <c r="O235" s="155" t="s">
         <v>253</v>
       </c>
     </row>
@@ -22355,21 +23198,21 @@
     <row r="245"/>
     <row r="246">
       <c r="F246" s="7" t="s">
-        <v>262</v>
+        <v>353</v>
       </c>
       <c r="G246" s="27"/>
       <c r="N246" s="7" t="s">
-        <v>262</v>
+        <v>353</v>
       </c>
       <c r="O246" s="27"/>
     </row>
     <row r="247">
       <c r="F247" s="7" t="s">
-        <v>263</v>
+        <v>354</v>
       </c>
       <c r="G247" s="27"/>
       <c r="N247" s="7" t="s">
-        <v>263</v>
+        <v>354</v>
       </c>
       <c r="O247" s="27"/>
     </row>
@@ -22377,7 +23220,7 @@
     <row r="249"/>
     <row r="250">
       <c r="A250" s="20" t="s">
-        <v>294</v>
+        <v>385</v>
       </c>
       <c r="B250" s="20"/>
       <c r="C250" s="20"/>
@@ -22386,7 +23229,7 @@
       <c r="F250" s="20"/>
       <c r="G250" s="20"/>
       <c r="I250" s="20" t="s">
-        <v>295</v>
+        <v>386</v>
       </c>
       <c r="J250" s="20"/>
       <c r="K250" s="20"/>
@@ -22402,7 +23245,7 @@
       <c r="D251" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="G251" s="155" t="s">
+      <c r="G251" s="156" t="s">
         <v>253</v>
       </c>
       <c r="I251" s="22" t="s">
@@ -22411,7 +23254,7 @@
       <c r="L251" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="O251" s="156" t="s">
+      <c r="O251" s="157" t="s">
         <v>253</v>
       </c>
     </row>
@@ -22627,21 +23470,21 @@
     <row r="261"/>
     <row r="262">
       <c r="F262" s="7" t="s">
-        <v>262</v>
+        <v>353</v>
       </c>
       <c r="G262" s="27"/>
       <c r="N262" s="7" t="s">
-        <v>262</v>
+        <v>353</v>
       </c>
       <c r="O262" s="27"/>
     </row>
     <row r="263">
       <c r="F263" s="7" t="s">
-        <v>263</v>
+        <v>354</v>
       </c>
       <c r="G263" s="27"/>
       <c r="N263" s="7" t="s">
-        <v>263</v>
+        <v>354</v>
       </c>
       <c r="O263" s="27"/>
     </row>
@@ -22649,7 +23492,7 @@
     <row r="265"/>
     <row r="266">
       <c r="A266" s="20" t="s">
-        <v>296</v>
+        <v>387</v>
       </c>
       <c r="B266" s="20"/>
       <c r="C266" s="20"/>
@@ -22658,7 +23501,7 @@
       <c r="F266" s="20"/>
       <c r="G266" s="20"/>
       <c r="I266" s="20" t="s">
-        <v>297</v>
+        <v>388</v>
       </c>
       <c r="J266" s="20"/>
       <c r="K266" s="20"/>
@@ -22674,7 +23517,7 @@
       <c r="D267" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="G267" s="157" t="s">
+      <c r="G267" s="158" t="s">
         <v>253</v>
       </c>
       <c r="I267" s="22" t="s">
@@ -22683,7 +23526,7 @@
       <c r="L267" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="O267" s="158" t="s">
+      <c r="O267" s="159" t="s">
         <v>253</v>
       </c>
     </row>
@@ -22899,21 +23742,21 @@
     <row r="277"/>
     <row r="278">
       <c r="F278" s="7" t="s">
-        <v>262</v>
+        <v>353</v>
       </c>
       <c r="G278" s="27"/>
       <c r="N278" s="7" t="s">
-        <v>262</v>
+        <v>353</v>
       </c>
       <c r="O278" s="27"/>
     </row>
     <row r="279">
       <c r="F279" s="7" t="s">
-        <v>263</v>
+        <v>354</v>
       </c>
       <c r="G279" s="27"/>
       <c r="N279" s="7" t="s">
-        <v>263</v>
+        <v>354</v>
       </c>
       <c r="O279" s="27"/>
     </row>
@@ -22921,7 +23764,7 @@
     <row r="281"/>
     <row r="282">
       <c r="A282" s="20" t="s">
-        <v>298</v>
+        <v>389</v>
       </c>
       <c r="B282" s="20"/>
       <c r="C282" s="20"/>
@@ -22930,7 +23773,7 @@
       <c r="F282" s="20"/>
       <c r="G282" s="20"/>
       <c r="I282" s="20" t="s">
-        <v>299</v>
+        <v>390</v>
       </c>
       <c r="J282" s="20"/>
       <c r="K282" s="20"/>
@@ -22946,7 +23789,7 @@
       <c r="D283" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="G283" s="159" t="s">
+      <c r="G283" s="160" t="s">
         <v>253</v>
       </c>
       <c r="I283" s="22" t="s">
@@ -22955,7 +23798,7 @@
       <c r="L283" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="O283" s="160" t="s">
+      <c r="O283" s="161" t="s">
         <v>253</v>
       </c>
     </row>
@@ -23171,21 +24014,21 @@
     <row r="293"/>
     <row r="294">
       <c r="F294" s="7" t="s">
-        <v>262</v>
+        <v>353</v>
       </c>
       <c r="G294" s="27"/>
       <c r="N294" s="7" t="s">
-        <v>262</v>
+        <v>353</v>
       </c>
       <c r="O294" s="27"/>
     </row>
     <row r="295">
       <c r="F295" s="7" t="s">
-        <v>263</v>
+        <v>354</v>
       </c>
       <c r="G295" s="27"/>
       <c r="N295" s="7" t="s">
-        <v>263</v>
+        <v>354</v>
       </c>
       <c r="O295" s="27"/>
     </row>
@@ -23193,7 +24036,7 @@
     <row r="297"/>
     <row r="298">
       <c r="A298" s="20" t="s">
-        <v>300</v>
+        <v>391</v>
       </c>
       <c r="B298" s="20"/>
       <c r="C298" s="20"/>
@@ -23202,7 +24045,7 @@
       <c r="F298" s="20"/>
       <c r="G298" s="20"/>
       <c r="I298" s="20" t="s">
-        <v>301</v>
+        <v>392</v>
       </c>
       <c r="J298" s="20"/>
       <c r="K298" s="20"/>
@@ -23218,7 +24061,7 @@
       <c r="D299" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="G299" s="161" t="s">
+      <c r="G299" s="162" t="s">
         <v>253</v>
       </c>
       <c r="I299" s="22" t="s">
@@ -23227,7 +24070,7 @@
       <c r="L299" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="O299" s="162" t="s">
+      <c r="O299" s="163" t="s">
         <v>253</v>
       </c>
     </row>
@@ -23443,21 +24286,21 @@
     <row r="309"/>
     <row r="310">
       <c r="F310" s="7" t="s">
-        <v>262</v>
+        <v>353</v>
       </c>
       <c r="G310" s="27"/>
       <c r="N310" s="7" t="s">
-        <v>262</v>
+        <v>353</v>
       </c>
       <c r="O310" s="27"/>
     </row>
     <row r="311">
       <c r="F311" s="7" t="s">
-        <v>263</v>
+        <v>354</v>
       </c>
       <c r="G311" s="27"/>
       <c r="N311" s="7" t="s">
-        <v>263</v>
+        <v>354</v>
       </c>
       <c r="O311" s="27"/>
     </row>
@@ -23465,7 +24308,7 @@
     <row r="313"/>
     <row r="314">
       <c r="A314" s="20" t="s">
-        <v>302</v>
+        <v>393</v>
       </c>
       <c r="B314" s="20"/>
       <c r="C314" s="20"/>
@@ -23474,7 +24317,7 @@
       <c r="F314" s="20"/>
       <c r="G314" s="20"/>
       <c r="I314" s="20" t="s">
-        <v>303</v>
+        <v>394</v>
       </c>
       <c r="J314" s="20"/>
       <c r="K314" s="20"/>
@@ -23490,7 +24333,7 @@
       <c r="D315" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="G315" s="163" t="s">
+      <c r="G315" s="164" t="s">
         <v>253</v>
       </c>
       <c r="I315" s="22" t="s">
@@ -23499,7 +24342,7 @@
       <c r="L315" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="O315" s="164" t="s">
+      <c r="O315" s="165" t="s">
         <v>253</v>
       </c>
     </row>
@@ -23715,21 +24558,21 @@
     <row r="325"/>
     <row r="326">
       <c r="F326" s="7" t="s">
-        <v>262</v>
+        <v>353</v>
       </c>
       <c r="G326" s="27"/>
       <c r="N326" s="7" t="s">
-        <v>262</v>
+        <v>353</v>
       </c>
       <c r="O326" s="27"/>
     </row>
     <row r="327">
       <c r="F327" s="7" t="s">
-        <v>263</v>
+        <v>354</v>
       </c>
       <c r="G327" s="27"/>
       <c r="N327" s="7" t="s">
-        <v>263</v>
+        <v>354</v>
       </c>
       <c r="O327" s="27"/>
     </row>
@@ -23737,7 +24580,7 @@
     <row r="329"/>
     <row r="330">
       <c r="A330" s="20" t="s">
-        <v>304</v>
+        <v>395</v>
       </c>
       <c r="B330" s="20"/>
       <c r="C330" s="20"/>
@@ -23746,7 +24589,7 @@
       <c r="F330" s="20"/>
       <c r="G330" s="20"/>
       <c r="I330" s="20" t="s">
-        <v>305</v>
+        <v>396</v>
       </c>
       <c r="J330" s="20"/>
       <c r="K330" s="20"/>
@@ -23762,7 +24605,7 @@
       <c r="D331" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="G331" s="165" t="s">
+      <c r="G331" s="166" t="s">
         <v>253</v>
       </c>
       <c r="I331" s="22" t="s">
@@ -23771,7 +24614,7 @@
       <c r="L331" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="O331" s="166" t="s">
+      <c r="O331" s="167" t="s">
         <v>253</v>
       </c>
     </row>
@@ -23987,21 +24830,21 @@
     <row r="341"/>
     <row r="342">
       <c r="F342" s="7" t="s">
-        <v>262</v>
+        <v>353</v>
       </c>
       <c r="G342" s="27"/>
       <c r="N342" s="7" t="s">
-        <v>262</v>
+        <v>353</v>
       </c>
       <c r="O342" s="27"/>
     </row>
     <row r="343">
       <c r="F343" s="7" t="s">
-        <v>263</v>
+        <v>354</v>
       </c>
       <c r="G343" s="27"/>
       <c r="N343" s="7" t="s">
-        <v>263</v>
+        <v>354</v>
       </c>
       <c r="O343" s="27"/>
     </row>
@@ -24009,7 +24852,7 @@
     <row r="345"/>
     <row r="346">
       <c r="A346" s="20" t="s">
-        <v>306</v>
+        <v>397</v>
       </c>
       <c r="B346" s="20"/>
       <c r="C346" s="20"/>
@@ -24018,7 +24861,7 @@
       <c r="F346" s="20"/>
       <c r="G346" s="20"/>
       <c r="I346" s="20" t="s">
-        <v>307</v>
+        <v>398</v>
       </c>
       <c r="J346" s="20"/>
       <c r="K346" s="20"/>
@@ -24034,7 +24877,7 @@
       <c r="D347" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="G347" s="167" t="s">
+      <c r="G347" s="168" t="s">
         <v>253</v>
       </c>
       <c r="I347" s="22" t="s">
@@ -24043,7 +24886,7 @@
       <c r="L347" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="O347" s="168" t="s">
+      <c r="O347" s="169" t="s">
         <v>253</v>
       </c>
     </row>
@@ -24259,21 +25102,21 @@
     <row r="357"/>
     <row r="358">
       <c r="F358" s="7" t="s">
-        <v>262</v>
+        <v>353</v>
       </c>
       <c r="G358" s="27"/>
       <c r="N358" s="7" t="s">
-        <v>262</v>
+        <v>353</v>
       </c>
       <c r="O358" s="27"/>
     </row>
     <row r="359">
       <c r="F359" s="7" t="s">
-        <v>263</v>
+        <v>354</v>
       </c>
       <c r="G359" s="27"/>
       <c r="N359" s="7" t="s">
-        <v>263</v>
+        <v>354</v>
       </c>
       <c r="O359" s="27"/>
     </row>
@@ -24286,7 +25129,7 @@
     <row r="366"/>
     <row r="367">
       <c r="A367" s="20" t="s">
-        <v>308</v>
+        <v>399</v>
       </c>
       <c r="B367" s="20"/>
       <c r="C367" s="20"/>
@@ -24306,7 +25149,7 @@
     <row r="368"/>
     <row r="369">
       <c r="A369" s="20" t="s">
-        <v>309</v>
+        <v>400</v>
       </c>
       <c r="B369" s="20"/>
       <c r="C369" s="20"/>
@@ -24315,7 +25158,7 @@
       <c r="F369" s="20"/>
       <c r="G369" s="20"/>
       <c r="I369" s="20" t="s">
-        <v>310</v>
+        <v>401</v>
       </c>
       <c r="J369" s="20"/>
       <c r="K369" s="20"/>
@@ -24331,7 +25174,7 @@
       <c r="D370" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="G370" s="169" t="s">
+      <c r="G370" s="170" t="s">
         <v>253</v>
       </c>
       <c r="I370" s="22" t="s">
@@ -24340,7 +25183,7 @@
       <c r="L370" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="O370" s="170" t="s">
+      <c r="O370" s="171" t="s">
         <v>253</v>
       </c>
     </row>
@@ -24556,21 +25399,21 @@
     <row r="380"/>
     <row r="381">
       <c r="F381" s="7" t="s">
-        <v>262</v>
+        <v>353</v>
       </c>
       <c r="G381" s="27"/>
       <c r="N381" s="7" t="s">
-        <v>262</v>
+        <v>353</v>
       </c>
       <c r="O381" s="27"/>
     </row>
     <row r="382">
       <c r="F382" s="7" t="s">
-        <v>263</v>
+        <v>354</v>
       </c>
       <c r="G382" s="27"/>
       <c r="N382" s="7" t="s">
-        <v>263</v>
+        <v>354</v>
       </c>
       <c r="O382" s="27"/>
     </row>
@@ -24578,7 +25421,7 @@
     <row r="384"/>
     <row r="385">
       <c r="A385" s="20" t="s">
-        <v>311</v>
+        <v>402</v>
       </c>
       <c r="B385" s="20"/>
       <c r="C385" s="20"/>
@@ -24587,7 +25430,7 @@
       <c r="F385" s="20"/>
       <c r="G385" s="20"/>
       <c r="I385" s="20" t="s">
-        <v>312</v>
+        <v>403</v>
       </c>
       <c r="J385" s="20"/>
       <c r="K385" s="20"/>
@@ -24603,7 +25446,7 @@
       <c r="D386" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="G386" s="171" t="s">
+      <c r="G386" s="172" t="s">
         <v>253</v>
       </c>
       <c r="I386" s="22" t="s">
@@ -24612,7 +25455,7 @@
       <c r="L386" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="O386" s="172" t="s">
+      <c r="O386" s="173" t="s">
         <v>253</v>
       </c>
     </row>
@@ -24828,21 +25671,21 @@
     <row r="396"/>
     <row r="397">
       <c r="F397" s="7" t="s">
-        <v>262</v>
+        <v>353</v>
       </c>
       <c r="G397" s="27"/>
       <c r="N397" s="7" t="s">
-        <v>262</v>
+        <v>353</v>
       </c>
       <c r="O397" s="27"/>
     </row>
     <row r="398">
       <c r="F398" s="7" t="s">
-        <v>263</v>
+        <v>354</v>
       </c>
       <c r="G398" s="27"/>
       <c r="N398" s="7" t="s">
-        <v>263</v>
+        <v>354</v>
       </c>
       <c r="O398" s="27"/>
     </row>
@@ -24850,7 +25693,7 @@
     <row r="400"/>
     <row r="401">
       <c r="A401" s="20" t="s">
-        <v>313</v>
+        <v>404</v>
       </c>
       <c r="B401" s="20"/>
       <c r="C401" s="20"/>
@@ -24859,7 +25702,7 @@
       <c r="F401" s="20"/>
       <c r="G401" s="20"/>
       <c r="I401" s="20" t="s">
-        <v>314</v>
+        <v>405</v>
       </c>
       <c r="J401" s="20"/>
       <c r="K401" s="20"/>
@@ -24875,7 +25718,7 @@
       <c r="D402" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="G402" s="173" t="s">
+      <c r="G402" s="174" t="s">
         <v>253</v>
       </c>
       <c r="I402" s="22" t="s">
@@ -24884,7 +25727,7 @@
       <c r="L402" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="O402" s="174" t="s">
+      <c r="O402" s="175" t="s">
         <v>253</v>
       </c>
     </row>
@@ -25100,21 +25943,21 @@
     <row r="412"/>
     <row r="413">
       <c r="F413" s="7" t="s">
-        <v>262</v>
+        <v>353</v>
       </c>
       <c r="G413" s="27"/>
       <c r="N413" s="7" t="s">
-        <v>262</v>
+        <v>353</v>
       </c>
       <c r="O413" s="27"/>
     </row>
     <row r="414">
       <c r="F414" s="7" t="s">
-        <v>263</v>
+        <v>354</v>
       </c>
       <c r="G414" s="27"/>
       <c r="N414" s="7" t="s">
-        <v>263</v>
+        <v>354</v>
       </c>
       <c r="O414" s="27"/>
     </row>
@@ -25122,7 +25965,7 @@
     <row r="416"/>
     <row r="417">
       <c r="A417" s="20" t="s">
-        <v>315</v>
+        <v>406</v>
       </c>
       <c r="B417" s="20"/>
       <c r="C417" s="20"/>
@@ -25131,7 +25974,7 @@
       <c r="F417" s="20"/>
       <c r="G417" s="20"/>
       <c r="I417" s="20" t="s">
-        <v>316</v>
+        <v>407</v>
       </c>
       <c r="J417" s="20"/>
       <c r="K417" s="20"/>
@@ -25147,7 +25990,7 @@
       <c r="D418" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="G418" s="175" t="s">
+      <c r="G418" s="176" t="s">
         <v>253</v>
       </c>
       <c r="I418" s="22" t="s">
@@ -25156,7 +25999,7 @@
       <c r="L418" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="O418" s="176" t="s">
+      <c r="O418" s="177" t="s">
         <v>253</v>
       </c>
     </row>
@@ -25372,21 +26215,21 @@
     <row r="428"/>
     <row r="429">
       <c r="F429" s="7" t="s">
-        <v>262</v>
+        <v>353</v>
       </c>
       <c r="G429" s="27"/>
       <c r="N429" s="7" t="s">
-        <v>262</v>
+        <v>353</v>
       </c>
       <c r="O429" s="27"/>
     </row>
     <row r="430">
       <c r="F430" s="7" t="s">
-        <v>263</v>
+        <v>354</v>
       </c>
       <c r="G430" s="27"/>
       <c r="N430" s="7" t="s">
-        <v>263</v>
+        <v>354</v>
       </c>
       <c r="O430" s="27"/>
     </row>
@@ -25399,7 +26242,7 @@
     <row r="437"/>
     <row r="438">
       <c r="A438" s="20" t="s">
-        <v>317</v>
+        <v>408</v>
       </c>
       <c r="B438" s="20"/>
       <c r="C438" s="20"/>
@@ -25419,7 +26262,7 @@
     <row r="439"/>
     <row r="440">
       <c r="A440" s="20" t="s">
-        <v>318</v>
+        <v>409</v>
       </c>
       <c r="B440" s="20"/>
       <c r="C440" s="20"/>
@@ -25428,7 +26271,7 @@
       <c r="F440" s="20"/>
       <c r="G440" s="20"/>
       <c r="I440" s="20" t="s">
-        <v>319</v>
+        <v>410</v>
       </c>
       <c r="J440" s="20"/>
       <c r="K440" s="20"/>
@@ -25444,7 +26287,7 @@
       <c r="D441" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="G441" s="177" t="s">
+      <c r="G441" s="178" t="s">
         <v>253</v>
       </c>
       <c r="I441" s="22" t="s">
@@ -25453,7 +26296,7 @@
       <c r="L441" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="O441" s="178" t="s">
+      <c r="O441" s="179" t="s">
         <v>253</v>
       </c>
     </row>
@@ -25669,21 +26512,21 @@
     <row r="451"/>
     <row r="452">
       <c r="F452" s="7" t="s">
-        <v>262</v>
+        <v>353</v>
       </c>
       <c r="G452" s="27"/>
       <c r="N452" s="7" t="s">
-        <v>262</v>
+        <v>353</v>
       </c>
       <c r="O452" s="27"/>
     </row>
     <row r="453">
       <c r="F453" s="7" t="s">
-        <v>263</v>
+        <v>354</v>
       </c>
       <c r="G453" s="27"/>
       <c r="N453" s="7" t="s">
-        <v>263</v>
+        <v>354</v>
       </c>
       <c r="O453" s="27"/>
     </row>
@@ -25691,7 +26534,7 @@
     <row r="455"/>
     <row r="456">
       <c r="A456" s="20" t="s">
-        <v>320</v>
+        <v>411</v>
       </c>
       <c r="B456" s="20"/>
       <c r="C456" s="20"/>
@@ -25700,7 +26543,7 @@
       <c r="F456" s="20"/>
       <c r="G456" s="20"/>
       <c r="I456" s="20" t="s">
-        <v>321</v>
+        <v>412</v>
       </c>
       <c r="J456" s="20"/>
       <c r="K456" s="20"/>
@@ -25716,7 +26559,7 @@
       <c r="D457" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="G457" s="179" t="s">
+      <c r="G457" s="180" t="s">
         <v>253</v>
       </c>
       <c r="I457" s="22" t="s">
@@ -25725,7 +26568,7 @@
       <c r="L457" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="O457" s="180" t="s">
+      <c r="O457" s="181" t="s">
         <v>253</v>
       </c>
     </row>
@@ -25941,21 +26784,21 @@
     <row r="467"/>
     <row r="468">
       <c r="F468" s="7" t="s">
-        <v>262</v>
+        <v>353</v>
       </c>
       <c r="G468" s="27"/>
       <c r="N468" s="7" t="s">
-        <v>262</v>
+        <v>353</v>
       </c>
       <c r="O468" s="27"/>
     </row>
     <row r="469">
       <c r="F469" s="7" t="s">
-        <v>263</v>
+        <v>354</v>
       </c>
       <c r="G469" s="27"/>
       <c r="N469" s="7" t="s">
-        <v>263</v>
+        <v>354</v>
       </c>
       <c r="O469" s="27"/>
     </row>
@@ -25968,7 +26811,7 @@
     <row r="476"/>
     <row r="477">
       <c r="A477" s="20" t="s">
-        <v>322</v>
+        <v>413</v>
       </c>
       <c r="B477" s="20"/>
       <c r="C477" s="20"/>
@@ -25988,7 +26831,7 @@
     <row r="478"/>
     <row r="479">
       <c r="A479" s="20" t="s">
-        <v>323</v>
+        <v>414</v>
       </c>
       <c r="B479" s="20"/>
       <c r="C479" s="20"/>
@@ -25997,7 +26840,7 @@
       <c r="F479" s="20"/>
       <c r="G479" s="20"/>
       <c r="I479" s="20" t="s">
-        <v>323</v>
+        <v>414</v>
       </c>
       <c r="J479" s="20"/>
       <c r="K479" s="20"/>
@@ -26013,7 +26856,7 @@
       <c r="D480" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="G480" s="181" t="s">
+      <c r="G480" s="182" t="s">
         <v>253</v>
       </c>
       <c r="I480" s="22" t="s">
@@ -26022,7 +26865,7 @@
       <c r="L480" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="O480" s="182" t="s">
+      <c r="O480" s="183" t="s">
         <v>253</v>
       </c>
     </row>
@@ -26238,21 +27081,21 @@
     <row r="490"/>
     <row r="491">
       <c r="F491" s="7" t="s">
-        <v>262</v>
+        <v>353</v>
       </c>
       <c r="G491" s="27"/>
       <c r="N491" s="7" t="s">
-        <v>262</v>
+        <v>353</v>
       </c>
       <c r="O491" s="27"/>
     </row>
     <row r="492">
       <c r="F492" s="7" t="s">
-        <v>263</v>
+        <v>354</v>
       </c>
       <c r="G492" s="27"/>
       <c r="N492" s="7" t="s">
-        <v>263</v>
+        <v>354</v>
       </c>
       <c r="O492" s="27"/>
     </row>
@@ -26265,7 +27108,7 @@
     <row r="499"/>
     <row r="500">
       <c r="A500" s="20" t="s">
-        <v>324</v>
+        <v>415</v>
       </c>
       <c r="B500" s="20"/>
       <c r="C500" s="20"/>
@@ -26285,7 +27128,7 @@
     <row r="501"/>
     <row r="502">
       <c r="A502" s="20" t="s">
-        <v>323</v>
+        <v>414</v>
       </c>
       <c r="B502" s="20"/>
       <c r="C502" s="20"/>
@@ -26301,7 +27144,7 @@
       <c r="D503" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="G503" s="183" t="s">
+      <c r="G503" s="184" t="s">
         <v>253</v>
       </c>
     </row>
@@ -26421,13 +27264,13 @@
     <row r="513"/>
     <row r="514">
       <c r="F514" s="7" t="s">
-        <v>262</v>
+        <v>353</v>
       </c>
       <c r="G514" s="27"/>
     </row>
     <row r="515">
       <c r="F515" s="7" t="s">
-        <v>263</v>
+        <v>354</v>
       </c>
       <c r="G515" s="27"/>
     </row>
@@ -27892,5 +28735,38 @@
   <printOptions horizontalCentered="true" verticalCentered="true"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup fitToHeight="0" horizontalDpi="0" orientation="landscape" paperSize="8" verticalDpi="0"/>
+  <rowBreaks count="30" manualBreakCount="30">
+    <brk id="6" max="16383" man="true"/>
+    <brk id="12" max="16383" man="true"/>
+    <brk id="18" max="16383" man="true"/>
+    <brk id="24" max="16383" man="true"/>
+    <brk id="30" max="16383" man="true"/>
+    <brk id="36" max="16383" man="true"/>
+    <brk id="42" max="16383" man="true"/>
+    <brk id="48" max="16383" man="true"/>
+    <brk id="54" max="16383" man="true"/>
+    <brk id="60" max="16383" man="true"/>
+    <brk id="66" max="16383" man="true"/>
+    <brk id="72" max="16383" man="true"/>
+    <brk id="78" max="16383" man="true"/>
+    <brk id="84" max="16383" man="true"/>
+    <brk id="90" max="16383" man="true"/>
+    <brk id="96" max="16383" man="true"/>
+    <brk id="102" max="16383" man="true"/>
+    <brk id="108" max="16383" man="true"/>
+    <brk id="114" max="16383" man="true"/>
+    <brk id="120" max="16383" man="true"/>
+    <brk id="126" max="16383" man="true"/>
+    <brk id="132" max="16383" man="true"/>
+    <brk id="138" max="16383" man="true"/>
+    <brk id="144" max="16383" man="true"/>
+    <brk id="150" max="16383" man="true"/>
+    <brk id="156" max="16383" man="true"/>
+    <brk id="162" max="16383" man="true"/>
+    <brk id="168" max="16383" man="true"/>
+    <brk id="174" max="16383" man="true"/>
+    <brk id="180" max="16383" man="true"/>
+  </rowBreaks>
+  <colBreaks/>
 </worksheet>
 </file>